--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="263">
   <si>
     <t>Doi</t>
   </si>
@@ -1122,6 +1122,106 @@
   </si>
   <si>
     <t>PMC7159286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
+Methods
+id="Par2"&gt;Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
+ The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
+ Additionally, we performed imaging follow-up of these patients.
+Results
+id="Par3"&gt;CT images of 63 confirmed patients were collected.
+ M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
+ The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
+ Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
+ Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
+Conclusions
+id="Par4"&gt;Imaging changes in novel viral pneumonia are rapid.
+ The manifestations of the novel coronavirus pneumonia are diverse.
+ Imaging changes of typical viral pneumonia and some specific imaging features were observed.
+ Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
+Key Points
+• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,  Hanxiong%Guan%NULL%1,  Shuchang%Zhou%NULL%1,  Yujin%Wang%NULL%1,  Qian%Li%NULL%1,  Tingting%Zhu%NULL%1,  Qiongjie%Hu%qjhu@outlook.com%1,  Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
+Methods
+Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
+ The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
+ Additionally, we performed imaging follow-up of these patients.
+Results
+id="Par3"&gt;CT images of 63 confirmed patients were collected.
+ M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
+ The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
+ Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
+ Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
+Conclusions
+id="Par4"&gt;Imaging changes in novel viral pneumonia are rapid.
+ The manifestations of the novel coronavirus pneumonia are diverse.
+ Imaging changes of typical viral pneumonia and some specific imaging features were observed.
+ Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
+Key Points
+• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,   Hanxiong%Guan%NULL%1,   Shuchang%Zhou%NULL%1,   Yujin%Wang%NULL%1,   Qian%Li%NULL%1,   Tingting%Zhu%NULL%1,   Qiongjie%Hu%qjhu@outlook.com%1,   Liming%Xia%lmxia@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
+Methods
+Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
+ The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
+ Additionally, we performed imaging follow-up of these patients.
+Results
+CT images of 63 confirmed patients were collected.
+ M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
+ The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
+ Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
+ Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
+Conclusions
+id="Par4"&gt;Imaging changes in novel viral pneumonia are rapid.
+ The manifestations of the novel coronavirus pneumonia are diverse.
+ Imaging changes of typical viral pneumonia and some specific imaging features were observed.
+ Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
+Key Points
+• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,    Hanxiong%Guan%NULL%1,    Shuchang%Zhou%NULL%0,    Yujin%Wang%NULL%0,    Qian%Li%NULL%1,    Tingting%Zhu%NULL%1,    Qiongjie%Hu%qjhu@outlook.com%1,    Liming%Xia%lmxia@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
+Methods
+Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
+ The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
+ Additionally, we performed imaging follow-up of these patients.
+Results
+CT images of 63 confirmed patients were collected.
+ M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
+ The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
+ Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
+ Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
+Conclusions
+Imaging changes in novel viral pneumonia are rapid.
+ The manifestations of the novel coronavirus pneumonia are diverse.
+ Imaging changes of typical viral pneumonia and some specific imaging features were observed.
+ Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
+Key Points
+• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,     Hanxiong%Guan%NULL%1,     Shuchang%Zhou%NULL%1,     Yujin%Wang%NULL%1,     Qian%Li%NULL%1,     Tingting%Zhu%NULL%1,     Qiongjie%Hu%qjhu@outlook.com%1,     Liming%Xia%lmxia@tjh.tjmu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1576,10 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="255">
   <si>
     <t>Doi</t>
   </si>
@@ -1122,106 +1122,6 @@
   </si>
   <si>
     <t>PMC7159286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
-Methods
-id="Par2"&gt;Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
- The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
- Additionally, we performed imaging follow-up of these patients.
-Results
-id="Par3"&gt;CT images of 63 confirmed patients were collected.
- M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
- The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
- Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
- Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
-Conclusions
-id="Par4"&gt;Imaging changes in novel viral pneumonia are rapid.
- The manifestations of the novel coronavirus pneumonia are diverse.
- Imaging changes of typical viral pneumonia and some specific imaging features were observed.
- Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
-Key Points
-• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Yueying%Pan%NULL%1,  Hanxiong%Guan%NULL%1,  Shuchang%Zhou%NULL%1,  Yujin%Wang%NULL%1,  Qian%Li%NULL%1,  Tingting%Zhu%NULL%1,  Qiongjie%Hu%qjhu@outlook.com%1,  Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
-Methods
-Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
- The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
- Additionally, we performed imaging follow-up of these patients.
-Results
-id="Par3"&gt;CT images of 63 confirmed patients were collected.
- M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
- The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
- Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
- Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
-Conclusions
-id="Par4"&gt;Imaging changes in novel viral pneumonia are rapid.
- The manifestations of the novel coronavirus pneumonia are diverse.
- Imaging changes of typical viral pneumonia and some specific imaging features were observed.
- Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
-Key Points
-• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Yueying%Pan%NULL%1,   Hanxiong%Guan%NULL%1,   Shuchang%Zhou%NULL%1,   Yujin%Wang%NULL%1,   Qian%Li%NULL%1,   Tingting%Zhu%NULL%1,   Qiongjie%Hu%qjhu@outlook.com%1,   Liming%Xia%lmxia@tjh.tjmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
-Methods
-Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
- The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
- Additionally, we performed imaging follow-up of these patients.
-Results
-CT images of 63 confirmed patients were collected.
- M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
- The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
- Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
- Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
-Conclusions
-id="Par4"&gt;Imaging changes in novel viral pneumonia are rapid.
- The manifestations of the novel coronavirus pneumonia are diverse.
- Imaging changes of typical viral pneumonia and some specific imaging features were observed.
- Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
-Key Points
-• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Yueying%Pan%NULL%1,    Hanxiong%Guan%NULL%1,    Shuchang%Zhou%NULL%0,    Yujin%Wang%NULL%0,    Qian%Li%NULL%1,    Tingting%Zhu%NULL%1,    Qiongjie%Hu%qjhu@outlook.com%1,    Liming%Xia%lmxia@tjh.tjmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
-Methods
-Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
- The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
- Additionally, we performed imaging follow-up of these patients.
-Results
-CT images of 63 confirmed patients were collected.
- M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
- The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
- Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
- Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
-Conclusions
-Imaging changes in novel viral pneumonia are rapid.
- The manifestations of the novel coronavirus pneumonia are diverse.
- Imaging changes of typical viral pneumonia and some specific imaging features were observed.
- Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
-Key Points
-• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Yueying%Pan%NULL%1,     Hanxiong%Guan%NULL%1,     Shuchang%Zhou%NULL%1,     Yujin%Wang%NULL%1,     Qian%Li%NULL%1,     Tingting%Zhu%NULL%1,     Qiongjie%Hu%qjhu@outlook.com%1,     Liming%Xia%lmxia@tjh.tjmu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1476,10 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="304">
   <si>
     <t>Doi</t>
   </si>
@@ -1122,6 +1122,153 @@
   </si>
   <si>
     <t>PMC7159286</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,  Dengju%Li%NULL%1,  Xiong%Wang%NULL%1,  Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,  Hanxiong%Guan%NULL%1,  Shuchang%Zhou%NULL%1,  Yujin%Wang%NULL%1,  Qian%Li%NULL%2,  Tingting%Zhu%NULL%1,  Qiongjie%Hu%qjhu@outlook.com%1,  Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,  Jenny%Chen%NULL%1,  Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,  Yang%Yang%NULL%4,  Cong%Zhang%NULL%1,  Fengming%Huang%NULL%1,  Fuxiang%Wang%NULL%1,  Jing%Yuan%NULL%1,  Zhaoqin%Wang%NULL%1,  Jinxiu%Li%NULL%1,  Jianming%Li%NULL%1,  Cheng%Feng%NULL%1,  Zheng%Zhang%NULL%1,  Lifei%Wang%NULL%1,  Ling%Peng%NULL%1,  Li%Chen%NULL%1,  Yuhao%Qin%NULL%1,  Dandan%Zhao%NULL%1,  Shuguang%Tan%NULL%1,  Lu%Yin%NULL%2,  Jun%Xu%NULL%1,  Congzhao%Zhou%NULL%1,  Chengyu%Jiang%jiang@pumc.edu.cn%1,  Lei%Liu%liulei3322@aliyun.com%3]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,  Xueyan%Mei%NULL%4,  Xueyan%Mei%NULL%0,  Mingqian%Huang%NULL%4,  Mingqian%Huang%NULL%0,  Yang%Yang%NULL%0,  Zahi A.%Fayad%NULL%4,  Zahi A.%Fayad%NULL%0,  Ning%Zhang%NULL%4,  Ning%Zhang%NULL%0,  Kaiyue%Diao%NULL%2,  Kaiyue%Diao%NULL%0,  Bin%Lin%NULL%1,  Xiqi%Zhu%NULL%2,  Xiqi%Zhu%NULL%0,  Kunwei%Li%NULL%2,  Shaolin%Li%NULL%2,  Hong%Shan%NULL%4,  Adam%Jacobi%NULL%3,  Adam%Jacobi%NULL%0,  Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,  Ranjit%Sah%ranjitsah@iom.edu.np%1,  Alfonso J%Rodriguez-Morales%NULL%1,  Bibek Kumar%Lal%NULL%1,  Runa%Jha%NULL%1,  Hemant Chanda%Ojha%NULL%1,  Bikesh%Shrestha%NULL%1,  Daniel K W%Chu%NULL%1,  Leo L M%Poon%NULL%1,  Anthony%Costello%NULL%1,  Kouichi%Morita%NULL%1,  Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,  Min%Zhou%NULL%2,  Xuan%Dong%NULL%2,  Jieming%Qu%NULL%2,  Fengyun%Gong%NULL%2,  Yang%Han%NULL%2,  Yang%Qiu%NULL%2,  Jingli%Wang%NULL%2,  Ying%Liu%NULL%3,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%2,  Ting%Yu%NULL%4,  Xinxin%Zhang%NULL%2,  Li%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,  Adam%Bernheim%NULL%2,  Adam%Bernheim%NULL%0,  Xueyan%Mei%NULL%0,  Xueyan%Mei%NULL%0,  Ning%Zhang%NULL%0,  Ning%Zhang%NULL%0,  Mingqian%Huang%NULL%0,  Mingqian%Huang%NULL%0,  Xianjun%Zeng%NULL%1,  Jiufa%Cui%NULL%1,  Wenjian%Xu%NULL%2,  Wenjian%Xu%NULL%0,  Yang%Yang%NULL%0,  Zahi A.%Fayad%NULL%0,  Zahi A.%Fayad%NULL%0,  Adam%Jacobi%NULL%0,  Kunwei%Li%NULL%0,  Shaolin%Li%NULL%0,  Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,  Jie%Qin%qinjie@mail.sysu.edu.cn%2,  Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,  M%Zhao%NULL%1,  S%Li%NULL%1,  L%Yang%NULL%1,  B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,  Huangqi%Zhang%NULL%4,  Huangqi%Zhang%NULL%0,  Jicheng%Xie%NULL%4,  Jicheng%Xie%NULL%0,  Minjie%Lin%NULL%2,  Minjie%Lin%NULL%0,  Lingjun%Ying%NULL%2,  Lingjun%Ying%NULL%0,  Peipei%Pang%NULL%4,  Peipei%Pang%NULL%0,  Wenbin%Ji%1224190004@qq.com%4,  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,  Huangqi%Zhang%NULL%0,  Huangqi%Zhang%NULL%0,  Yunyu%Xu%NULL%2,  Yunyu%Xu%NULL%0,  Jicheng%Xie%NULL%0,  Jicheng%Xie%NULL%0,  Peipei%Pang%NULL%0,  Peipei%Pang%NULL%0,  Wenbin%Ji%1224190004@qq.com%0,  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,  Domenico%Benvenuto%NULL%1,  Silvia%Angeletti%s.angeletti@unicampus.it%2,  Silvia%Angeletti%s.angeletti@unicampus.it%0,  Massimo%Ciccozzi%NULL%2,  Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,  M.%Li%NULL%1,  X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,  Chas%DeBolt%NULL%1,  Scott%Lindquist%NULL%1,  Kathy H.%Lofy%NULL%1,  John%Wiesman%NULL%1,  Hollianne%Bruce%NULL%1,  Christopher%Spitters%NULL%1,  Keith%Ericson%NULL%1,  Sara%Wilkerson%NULL%1,  Ahmet%Tural%NULL%1,  George%Diaz%NULL%1,  Amanda%Cohn%NULL%2,  LeAnne%Fox%NULL%1,  Anita%Patel%NULL%1,  Susan I.%Gerber%NULL%1,  Lindsay%Kim%NULL%1,  Suxiang%Tong%NULL%1,  Xiaoyan%Lu%NULL%1,  Steve%Lindstrom%NULL%1,  Mark A.%Pallansch%NULL%1,  William C.%Weldon%NULL%1,  Holly M.%Biggs%NULL%1,  Timothy M.%Uyeki%NULL%1,  Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%2,  Xingwang%Li%NULL%3,  Lili%Ren%NULL%1,  Jianping%Zhao%NULL%1,  Yi%Hu%NULL%3,  Li%Zhang%NULL%0,  Guohui%Fan%NULL%2,  Jiuyang%Xu%NULL%2,  Xiaoying%Gu%NULL%2,  Zhenshun%Cheng%NULL%1,  Ting%Yu%NULL%0,  Jiaan%Xia%NULL%1,  Yuan%Wei%NULL%0,  Wenjuan%Wu%NULL%1,  Xuelei%Xie%NULL%1,  Wen%Yin%NULL%2,  Hui%Li%NULL%3,  Min%Liu%NULL%1,  Yan%Xiao%NULL%2,  Hong%Gao%NULL%2,  Li%Guo%NULL%2,  Jungang%Xie%NULL%1,  Guangfa%Wang%NULL%1,  Rongmeng%Jiang%NULL%1,  Zhancheng%Gao%NULL%1,  Qi%Jin%NULL%2,  Jianwei%Wang%wangjw28@163.com%1,  Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,  Tianzhu%Liu%NULL%2,  Tianzhu%Liu%NULL%0,  Lesheng%Huang%NULL%2,  Lesheng%Huang%NULL%0,  Hailong%Liu%NULL%2,  Hailong%Liu%NULL%0,  Ming%Lei%NULL%1,  Wangdong%Xu%NULL%2,  Wangdong%Xu%NULL%0,  Xiaolu%Hu%NULL%1,  Jun%Chen%NULL%1,  Bo%Liu%liubogzcm@163.com%3,  Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,  Juanjuan%Guo%NULL%0,  Chen%Wang%NULL%0,  Fan%Luo%NULL%1,  Xuechen%Yu%NULL%0,  Wei%Zhang%NULL%2,  Jiafu%Li%NULL%0,  Dongchi%Zhao%NULL%1,  Dan%Xu%NULL%2,  Qing%Gong%NULL%1,  Jing%Liao%NULL%1,  Huixia%Yang%yanghuixia@bjmu.edu.cn%0,  Wei%Hou%houwei@whu.edu.cn%1,  Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,  NULL%NULL%NULL%12,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,  Junfeng%Li%NULL%1,  Xun%Li%NULL%1,  Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,  Xuhua%Guan%NULL%1,  Peng%Wu%NULL%1,  Xiaoye%Wang%NULL%1,  Lei%Zhou%NULL%1,  Yeqing%Tong%NULL%1,  Ruiqi%Ren%NULL%1,  Kathy S.M.%Leung%NULL%1,  Eric H.Y.%Lau%NULL%1,  Jessica Y.%Wong%NULL%1,  Xuesen%Xing%NULL%1,  Nijuan%Xiang%NULL%1,  Yang%Wu%NULL%1,  Chao%Li%NULL%1,  Qi%Chen%NULL%1,  Dan%Li%NULL%1,  Tian%Liu%NULL%1,  Jing%Zhao%NULL%1,  Man%Liu%NULL%1,  Wenxiao%Tu%NULL%1,  Chuding%Chen%NULL%1,  Lianmei%Jin%NULL%1,  Rui%Yang%NULL%1,  Qi%Wang%NULL%1,  Suhua%Zhou%NULL%1,  Rui%Wang%NULL%2,  Hui%Liu%NULL%1,  Yinbo%Luo%NULL%1,  Yuan%Liu%NULL%1,  Ge%Shao%NULL%1,  Huan%Li%NULL%1,  Zhongfa%Tao%NULL%1,  Yang%Yang%NULL%0,  Zhiqiang%Deng%NULL%1,  Boxi%Liu%NULL%1,  Zhitao%Ma%NULL%1,  Yanping%Zhang%NULL%1,  Guoqing%Shi%NULL%1,  Tommy T.Y.%Lam%NULL%1,  Joseph T.%Wu%NULL%1,  George F.%Gao%NULL%3,  Benjamin J.%Cowling%NULL%2,  Bo%Yang%NULL%4,  Bo%Yang%NULL%0,  Gabriel M.%Leung%NULL%1,  Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,  Zhenyu%Gong%NULL%2,  Zhenyu%Gong%NULL%0,  Zuke%Xiao%NULL%2,  Zuke%Xiao%NULL%0,  Jingliang%Xiong%NULL%1,  Bing%Fan%NULL%2,  Jiaqi%Liu%NULL%2,  Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,  Yuan-Yuan%Fang%NULL%1,  Yan%Deng%NULL%1,  Wei%Liu%NULL%1,  Mei-Fang%Wang%NULL%1,  Jing-Ping%Ma%NULL%1,  Wei%Xiao%NULL%1,  Ying-Nan%Wang%NULL%1,  Min-Hua%Zhong%NULL%1,  Cheng-Hong%Li%NULL%1,  Guang-Cai%Li%NULL%1,  Hui-Guo%Liu%NULL%1,  Xiu-Yuan%Hao%NULL%4,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,  Xian-zheng%Tan%xianzhengtan@163.com%2,  Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,  Tianhe%Ye%NULL%2,  Tianhe%Ye%NULL%0,  Peng%Sun%NULL%2,  Peng%Sun%NULL%0,  Shan%Gui%NULL%2,  Shan%Gui%NULL%0,  Bo%Liang%NULL%2,  Bo%Liang%NULL%0,  Lingli%Li%NULL%2,  Lingli%Li%NULL%0,  Dandan%Zheng%NULL%2,  Dandan%Zheng%NULL%0,  Jiazheng%Wang%NULL%2,  Jiazheng%Wang%NULL%0,  Richard L.%Hesketh%NULL%2,  Richard L.%Hesketh%NULL%0,  Lian%Yang%yanglian@hust.edu.cn%2,  Lian%Yang%yanglian@hust.edu.cn%0,  Chuansheng%Zheng%NULL%4,  Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,  Thuong V.%Nguyen%NULL%1,  Quang C.%Luong%NULL%1,  Thinh V.%Nguyen%NULL%1,  Hieu T.%Nguyen%NULL%1,  Hung Q.%Le%NULL%2,  Hung Q.%Le%NULL%0,  Thuc T.%Nguyen%NULL%1,  Thang M.%Cao%NULL%2,  Thang M.%Cao%NULL%0,  Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,  Krit%Pongpirul%NULL%2,  Krit%Pongpirul%NULL%0,  Anuttra C.%Ratnarathon%NULL%2,  Anuttra C.%Ratnarathon%NULL%0,  Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,  Ye-Ming%Wang%NULL%1,  Zhi-Qiang%Wu%NULL%1,  Zi-Chun%Xiang%NULL%1,  Li%Guo%NULL%0,  Teng%Xu%NULL%1,  Yong-Zhong%Jiang%NULL%1,  Yan%Xiong%NULL%1,  Yong-Jun%Li%NULL%1,  Xing-Wang%Li%NULL%1,  Hui%Li%NULL%0,  Guo-Hui%Fan%NULL%1,  Xiao-Ying%Gu%NULL%1,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Jiu-Yang%Xu%NULL%1,  Fan%Yang%NULL%1,  Xin-Ming%Wang%NULL%1,  Chao%Wu%NULL%1,  Lan%Chen%NULL%1,  Yi-Wei%Liu%NULL%1,  Bo%Liu%NULL%0,  Jian%Yang%NULL%1,  Xiao-Rui%Wang%NULL%1,  Jie%Dong%NULL%1,  Li%Li%NULL%3,  Chao-Lin%Huang%NULL%1,  Jian-Ping%Zhao%NULL%1,  Yi%Hu%NULL%0,  Zhen-Shun%Cheng%NULL%1,  Lin-Lin%Liu%NULL%1,  Zhao-Hui%Qian%NULL%1,  Chuan%Qin%NULL%1,  Qi%Jin%NULL%0,  Bin%Cao%NULL%0,  Jian-Wei%Wang%NULL%1,  Xiu-Yuan%Hao%NULL%0,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,  Mirjam%Schunk%NULL%1,  Peter%Sothmann%NULL%1,  Gisela%Bretzel%NULL%1,  Guenter%Froeschl%NULL%1,  Claudia%Wallrauch%NULL%1,  Thorbjörn%Zimmer%NULL%1,  Verena%Thiel%NULL%1,  Christian%Janke%NULL%1,  Wolfgang%Guggemos%NULL%2,  Wolfgang%Guggemos%NULL%0,  Michael%Seilmaier%NULL%1,  Christian%Drosten%NULL%2,  Christian%Drosten%NULL%0,  Patrick%Vollmar%NULL%2,  Patrick%Vollmar%NULL%0,  Katrin%Zwirglmaier%NULL%1,  Sabine%Zange%NULL%1,  Roman%Wölfel%NULL%1,  Michael%Hoelscher%NULL%2,  Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,  Xiaoyu%Han%NULL%2,  Xiaoyu%Han%NULL%0,  Chuansheng%Zheng%hqzcsxh@sina.com%0,  Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,  Lynfa%Stroud%NULL%1,  Graham Edward%Cleghorn%NULL%1,  Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,  Nannan%Shi%NULL%2,  Nannan%Shi%NULL%0,  Fei%Shan%NULL%1,  Zhiyong%Zhang%NULL%1,  Jie%Shen%NULL%1,  Hongzhou%Lu%NULL%2,  Yun%Ling%NULL%2,  Yebin%Jiang%NULL%2,  Yebin%Jiang%NULL%0,  Yuxin%Shi%shiyuxin@shphc.org.cn%3,  Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,  Jianming%Tang%15900792812@163.com%1,  Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%3,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%2,  Wen-hua%Liang%NULL%2,  Chun-quan%Ou%NULL%2,  Jian-xing%He%NULL%2,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%2,  David S.C.%Hui%NULL%1,  Bin%Du%NULL%1,  Lan-juan%Li%NULL%1,  Guang%Zeng%NULL%1,  Kwok-Yung%Yuen%NULL%2,  Ru-chong%Chen%NULL%2,  Chun-li%Tang%NULL%2,  Tao%Wang%NULL%3,  Ping-yan%Chen%NULL%2,  Jie%Xiang%NULL%3,  Shi-yue%Li%NULL%2,  Jin-lin%Wang%NULL%1,  Zi-jing%Liang%NULL%1,  Yi-xiang%Peng%NULL%2,  Li%Wei%NULL%2,  Yong%Liu%NULL%2,  Ya-hua%Hu%NULL%2,  Peng%Peng%NULL%3,  Jian-ming%Wang%NULL%2,  Ji-yang%Liu%NULL%2,  Zhong%Chen%NULL%2,  Gang%Li%NULL%2,  Zhi-jian%Zheng%NULL%2,  Shao-qin%Qiu%NULL%2,  Jie%Luo%NULL%2,  Chang-jiang%Ye%NULL%2,  Shao-yong%Zhu%NULL%2,  Nan-shan%Zhong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,  Zheng%Zhong%NULL%2,  Zheng%Zhong%NULL%0,  Wei%Zhao%NULL%2,  Wei%Zhao%NULL%0,  Chao%Zheng%NULL%2,  Chao%Zheng%NULL%0,  Fei%Wang%NULL%2,  Fei%Wang%NULL%0,  Jun%Liu%junliu123@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,  Chengcheng%Yu%1515185140@qq.com%1,  Lieguang%Zhang%zhlieguang@126.com%1,  Liangping%Luo%tluolp@jnu.edu.cn%1,  Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,  Xiao-Xin%Wu%NULL%2,  Xian-Gao%Jiang%NULL%2,  Kai-Jin%Xu%NULL%2,  Ling-Jun%Ying%NULL%2,  Chun-Lian%Ma%NULL%2,  Shi-Bo%Li%NULL%2,  Hua-Ying%Wang%NULL%2,  Sheng%Zhang%NULL%2,  Hai-Nv%Gao%NULL%2,  Ji-Fang%Sheng%NULL%2,  Hong-Liu%Cai%NULL%2,  Yun-Qing%Qiu%NULL%2,  Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,  Xiaochen%Li%NULL%2,  Xiaochen%Li%NULL%0,  Wei%Zhang%NULL%0,  Zheng-Li%Shi%NULL%1,  Zhishui%Zheng%NULL%1,  Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,  Nak-Jung%Kwon%NULL%2,  Nak-Jung%Kwon%NULL%0,  Su-Jin%Choi%NULL%2,  Su-Jin%Choi%NULL%0,  Chang Kyung%Kang%NULL%2,  Chang Kyung%Kang%NULL%0,  Pyoeng Gyun%Choe%NULL%4,  Pyoeng Gyun%Choe%NULL%0,  Jin Yong%Kim%NULL%4,  Jin Yong%Kim%NULL%0,  Jiyoung%Yun%NULL%2,  Jiyoung%Yun%NULL%0,  Gir-Won%Lee%NULL%2,  Gir-Won%Lee%NULL%0,  Moon-Woo%Seong%NULL%2,  Moon-Woo%Seong%NULL%0,  Nam Joong%Kim%NULL%2,  Nam Joong%Kim%NULL%0,  Jeong-Sun%Seo%NULL%2,  Jeong-Sun%Seo%NULL%0,  Myoung-don%Oh%NULL%4,  Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,  Seunghyun%Jeon%NULL%2,  Seunghyun%Jeon%NULL%0,  Hyun-Young%Shin%NULL%2,  Hyun-Young%Shin%NULL%0,  Moon Jung%Kim%NULL%2,  Moon Jung%Kim%NULL%0,  Yu Min%Seong%NULL%2,  Yu Min%Seong%NULL%0,  Wang Jun%Lee%NULL%2,  Wang Jun%Lee%NULL%0,  Kang-Won%Choe%NULL%2,  Kang-Won%Choe%NULL%0,  Yu Min%Kang%NULL%2,  Yu Min%Kang%NULL%0,  Baeckseung%Lee%NULL%2,  Baeckseung%Lee%NULL%0,  Sang-Joon%Park%NULL%2,  Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,  Pyoeng Gyun%Choe%NULL%0,  Pyoeng Gyun%Choe%NULL%0,  Yoonju%Oh%NULL%2,  Yoonju%Oh%NULL%0,  Kyung Joong%Oh%NULL%2,  Kyung Joong%Oh%NULL%0,  Jinsil%Kim%NULL%2,  Jinsil%Kim%NULL%0,  So Jeong%Park%NULL%2,  So Jeong%Park%NULL%0,  Ji Hye%Park%NULL%2,  Ji Hye%Park%NULL%0,  Hye Kyoung%Na%NULL%2,  Hye Kyoung%Na%NULL%0,  Myoung-don%Oh%NULL%0,  Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,   Q.% Lu%null%1,   M.% Liu%null%1,   Y.% Wang%null%1,   A.% Zhang%null%1,   N.% Jalali%null%1,   N.% Dean%null%1,   I.% Longini%null%1,   M. E.% Halloran%null%1,   B.% Xu%null%1,   X.% Zhang%null%1,   L.% Wang%null%1,   W.% Liu%null%1,   L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,  Dingyu%Zhang%NULL%3,  Wenling%Wang%NULL%2,  Xingwang%Li%NULL%0,  Bo%Yang%NULL%0,  Jingdong%Song%NULL%2,  Xiang%Zhao%NULL%2,  Baoying%Huang%NULL%2,  Weifeng%Shi%NULL%2,  Roujian%Lu%NULL%2,  Peihua%Niu%NULL%2,  Faxian%Zhan%NULL%2,  Xuejun%Ma%NULL%2,  Dayan%Wang%NULL%2,  Wenbo%Xu%NULL%2,  Guizhen%Wu%NULL%2,  George F.%Gao%NULL%0,  Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,  Shuofeng%Yuan%NULL%1,  Kin-Hang%Kok%NULL%1,  Kelvin Kai-Wang%To%NULL%1,  Hin%Chu%NULL%1,  Jin%Yang%NULL%1,  Fanfan%Xing%NULL%1,  Jieling%Liu%NULL%1,  Cyril Chik-Yan%Yip%NULL%1,  Rosana Wing-Shan%Poon%NULL%1,  Hoi-Wah%Tsoi%NULL%1,  Simon Kam-Fai%Lo%NULL%1,  Kwok-Hung%Chan%NULL%1,  Vincent Kwok-Man%Poon%NULL%1,  Wan-Mui%Chan%NULL%1,  Jonathan Daniel%Ip%NULL%1,  Jian-Piao%Cai%NULL%1,  Vincent Chi-Chung%Cheng%NULL%1,  Honglin%Chen%NULL%1,  Christopher Kim-Ming%Hui%NULL%1,  Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1438,6 +1585,9 @@
       <c r="H1" t="s">
         <v>73</v>
       </c>
+      <c r="I1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1453,7 +1603,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -1463,6 +1613,9 @@
       </c>
       <c r="H2" t="s">
         <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -1479,7 +1632,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -1489,6 +1642,9 @@
       </c>
       <c r="H3" t="s">
         <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4">
@@ -1516,6 +1672,9 @@
       <c r="H4" t="s">
         <v>85</v>
       </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1531,7 +1690,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -1541,6 +1700,9 @@
       </c>
       <c r="H5" t="s">
         <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -1557,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -1567,6 +1729,9 @@
       </c>
       <c r="H6" t="s">
         <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -1583,7 +1748,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -1593,6 +1758,9 @@
       </c>
       <c r="H7" t="s">
         <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -1620,6 +1788,9 @@
       <c r="H8" t="s">
         <v>85</v>
       </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1646,6 +1817,9 @@
       <c r="H9" t="s">
         <v>85</v>
       </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1672,6 +1846,9 @@
       <c r="H10" t="s">
         <v>85</v>
       </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1687,7 +1864,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -1697,6 +1874,9 @@
       </c>
       <c r="H11" t="s">
         <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -1724,6 +1904,9 @@
       <c r="H12" t="s">
         <v>85</v>
       </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1750,6 +1933,9 @@
       <c r="H13" t="s">
         <v>85</v>
       </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1776,6 +1962,9 @@
       <c r="H14" t="s">
         <v>85</v>
       </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -1791,7 +1980,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -1801,6 +1990,9 @@
       </c>
       <c r="H15" t="s">
         <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="16">
@@ -1817,7 +2009,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -1827,6 +2019,9 @@
       </c>
       <c r="H16" t="s">
         <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +2038,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -1853,6 +2048,9 @@
       </c>
       <c r="H17" t="s">
         <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="18">
@@ -1869,7 +2067,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -1879,6 +2077,9 @@
       </c>
       <c r="H18" t="s">
         <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="19">
@@ -1895,7 +2096,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -1905,6 +2106,9 @@
       </c>
       <c r="H19" t="s">
         <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="20">
@@ -1921,7 +2125,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -1931,6 +2135,9 @@
       </c>
       <c r="H20" t="s">
         <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="21">
@@ -1947,7 +2154,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -1957,6 +2164,9 @@
       </c>
       <c r="H21" t="s">
         <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="22">
@@ -1973,7 +2183,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -1983,6 +2193,9 @@
       </c>
       <c r="H22" t="s">
         <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1999,7 +2212,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -2009,6 +2222,9 @@
       </c>
       <c r="H23" t="s">
         <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="24">
@@ -2025,7 +2241,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -2035,6 +2251,9 @@
       </c>
       <c r="H24" t="s">
         <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="25">
@@ -2051,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -2061,6 +2280,9 @@
       </c>
       <c r="H25" t="s">
         <v>144</v>
+      </c>
+      <c r="I25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="26">
@@ -2077,7 +2299,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -2087,6 +2309,9 @@
       </c>
       <c r="H26" t="s">
         <v>85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -2103,7 +2328,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -2113,6 +2338,9 @@
       </c>
       <c r="H27" t="s">
         <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="28">
@@ -2129,7 +2357,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2139,6 +2367,9 @@
       </c>
       <c r="H28" t="s">
         <v>156</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="29">
@@ -2155,7 +2386,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -2165,6 +2396,9 @@
       </c>
       <c r="H29" t="s">
         <v>85</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="30">
@@ -2181,7 +2415,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -2191,6 +2425,9 @@
       </c>
       <c r="H30" t="s">
         <v>165</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="31">
@@ -2218,6 +2455,9 @@
       <c r="H31" t="s">
         <v>85</v>
       </c>
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -2233,7 +2473,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -2243,6 +2483,9 @@
       </c>
       <c r="H32" t="s">
         <v>85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="33">
@@ -2270,6 +2513,9 @@
       <c r="H33" t="s">
         <v>85</v>
       </c>
+      <c r="I33" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -2285,7 +2531,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -2295,6 +2541,9 @@
       </c>
       <c r="H34" t="s">
         <v>173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="35">
@@ -2311,7 +2560,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -2321,6 +2570,9 @@
       </c>
       <c r="H35" t="s">
         <v>85</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36">
@@ -2337,7 +2589,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -2347,6 +2599,9 @@
       </c>
       <c r="H36" t="s">
         <v>85</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="37">
@@ -2363,7 +2618,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -2373,6 +2628,9 @@
       </c>
       <c r="H37" t="s">
         <v>85</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="38">
@@ -2389,7 +2647,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -2399,6 +2657,9 @@
       </c>
       <c r="H38" t="s">
         <v>85</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="39">
@@ -2415,7 +2676,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -2425,6 +2686,9 @@
       </c>
       <c r="H39" t="s">
         <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="40">
@@ -2441,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -2451,6 +2715,9 @@
       </c>
       <c r="H40" t="s">
         <v>165</v>
+      </c>
+      <c r="I40" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="41">
@@ -2467,7 +2734,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -2477,6 +2744,9 @@
       </c>
       <c r="H41" t="s">
         <v>85</v>
+      </c>
+      <c r="I41" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="42">
@@ -2493,7 +2763,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -2503,6 +2773,9 @@
       </c>
       <c r="H42" t="s">
         <v>201</v>
+      </c>
+      <c r="I42" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="43">
@@ -2519,7 +2792,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -2529,6 +2802,9 @@
       </c>
       <c r="H43" t="s">
         <v>206</v>
+      </c>
+      <c r="I43" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="44">
@@ -2556,6 +2832,9 @@
       <c r="H44" t="s">
         <v>85</v>
       </c>
+      <c r="I44" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -2571,7 +2850,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -2581,6 +2860,9 @@
       </c>
       <c r="H45" t="s">
         <v>85</v>
+      </c>
+      <c r="I45" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="46">
@@ -2597,7 +2879,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -2607,6 +2889,9 @@
       </c>
       <c r="H46" t="s">
         <v>85</v>
+      </c>
+      <c r="I46" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="47">
@@ -2623,7 +2908,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -2633,6 +2918,9 @@
       </c>
       <c r="H47" t="s">
         <v>85</v>
+      </c>
+      <c r="I47" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="48">
@@ -2649,7 +2937,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -2659,6 +2947,9 @@
       </c>
       <c r="H48" t="s">
         <v>222</v>
+      </c>
+      <c r="I48" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="49">
@@ -2686,6 +2977,9 @@
       <c r="H49" t="s">
         <v>85</v>
       </c>
+      <c r="I49" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -2712,6 +3006,9 @@
       <c r="H50" t="s">
         <v>85</v>
       </c>
+      <c r="I50" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -2738,6 +3035,9 @@
       <c r="H51" t="s">
         <v>85</v>
       </c>
+      <c r="I51" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -2764,6 +3064,9 @@
       <c r="H52" t="s">
         <v>85</v>
       </c>
+      <c r="I52" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -2779,7 +3082,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -2789,6 +3092,9 @@
       </c>
       <c r="H53" t="s">
         <v>226</v>
+      </c>
+      <c r="I53" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="54">
@@ -2805,7 +3111,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -2815,6 +3121,9 @@
       </c>
       <c r="H54" t="s">
         <v>231</v>
+      </c>
+      <c r="I54" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="55">
@@ -2831,7 +3140,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -2841,6 +3150,9 @@
       </c>
       <c r="H55" t="s">
         <v>236</v>
+      </c>
+      <c r="I55" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="56">
@@ -2857,7 +3169,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -2867,6 +3179,9 @@
       </c>
       <c r="H56" t="s">
         <v>241</v>
+      </c>
+      <c r="I56" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="57">
@@ -2883,16 +3198,19 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G57" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
         <v>246</v>
+      </c>
+      <c r="I57" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="58">
@@ -2909,7 +3227,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -2919,6 +3237,9 @@
       </c>
       <c r="H58" t="s">
         <v>85</v>
+      </c>
+      <c r="I58" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="59">
@@ -2935,7 +3256,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>
@@ -2945,6 +3266,9 @@
       </c>
       <c r="H59" t="s">
         <v>85</v>
+      </c>
+      <c r="I59" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="60">
@@ -2972,6 +3296,9 @@
       <c r="H60" t="s">
         <v>85</v>
       </c>
+      <c r="I60" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -2997,6 +3324,9 @@
       </c>
       <c r="H61" t="s">
         <v>85</v>
+      </c>
+      <c r="I61" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="487">
   <si>
     <t>Doi</t>
   </si>
@@ -1269,6 +1269,574 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,  Shuofeng%Yuan%NULL%1,  Kin-Hang%Kok%NULL%1,  Kelvin Kai-Wang%To%NULL%1,  Hin%Chu%NULL%1,  Jin%Yang%NULL%1,  Fanfan%Xing%NULL%1,  Jieling%Liu%NULL%1,  Cyril Chik-Yan%Yip%NULL%1,  Rosana Wing-Shan%Poon%NULL%1,  Hoi-Wah%Tsoi%NULL%1,  Simon Kam-Fai%Lo%NULL%1,  Kwok-Hung%Chan%NULL%1,  Vincent Kwok-Man%Poon%NULL%1,  Wan-Mui%Chan%NULL%1,  Jonathan Daniel%Ip%NULL%1,  Jian-Piao%Cai%NULL%1,  Vincent Chi-Chung%Cheng%NULL%1,  Honglin%Chen%NULL%1,  Christopher Kim-Ming%Hui%NULL%1,  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,   Dengju%Li%NULL%0,   Xiong%Wang%NULL%0,   Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,   Hanxiong%Guan%NULL%1,   Shuchang%Zhou%NULL%1,   Yujin%Wang%NULL%1,   Qian%Li%NULL%2,   Tingting%Zhu%NULL%1,   Qiongjie%Hu%qjhu@outlook.com%1,   Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,   Jenny%Chen%NULL%1,   Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,   Yang%Yang%NULL%0,   Cong%Zhang%NULL%0,   Fengming%Huang%NULL%0,   Fuxiang%Wang%NULL%0,   Jing%Yuan%NULL%0,   Zhaoqin%Wang%NULL%0,   Jinxiu%Li%NULL%0,   Jianming%Li%NULL%0,   Cheng%Feng%NULL%0,   Zheng%Zhang%NULL%0,   Lifei%Wang%NULL%0,   Ling%Peng%NULL%0,   Li%Chen%NULL%0,   Yuhao%Qin%NULL%0,   Dandan%Zhao%NULL%0,   Shuguang%Tan%NULL%0,   Lu%Yin%NULL%0,   Jun%Xu%NULL%0,   Congzhao%Zhou%NULL%0,   Chengyu%Jiang%jiang@pumc.edu.cn%0,   Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,   Xueyan%Mei%NULL%4,   Xueyan%Mei%NULL%0,   Mingqian%Huang%NULL%4,   Mingqian%Huang%NULL%0,   Yang%Yang%NULL%0,   Zahi A.%Fayad%NULL%0,   Zahi A.%Fayad%NULL%0,   Ning%Zhang%NULL%5,   Ning%Zhang%NULL%0,   Kaiyue%Diao%NULL%2,   Kaiyue%Diao%NULL%0,   Bin%Lin%NULL%1,   Xiqi%Zhu%NULL%2,   Xiqi%Zhu%NULL%0,   Kunwei%Li%NULL%2,   Shaolin%Li%NULL%2,   Hong%Shan%NULL%0,   Adam%Jacobi%NULL%3,   Adam%Jacobi%NULL%0,   Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,   Ranjit%Sah%ranjitsah@iom.edu.np%0,   Alfonso J%Rodriguez-Morales%NULL%1,   Bibek Kumar%Lal%NULL%1,   Runa%Jha%NULL%1,   Hemant Chanda%Ojha%NULL%1,   Bikesh%Shrestha%NULL%1,   Daniel K W%Chu%NULL%1,   Leo L M%Poon%NULL%1,   Anthony%Costello%NULL%1,   Kouichi%Morita%NULL%1,   Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,   Adam%Bernheim%NULL%2,   Adam%Bernheim%NULL%0,   Xueyan%Mei%NULL%0,   Xueyan%Mei%NULL%0,   Ning%Zhang%NULL%0,   Ning%Zhang%NULL%0,   Mingqian%Huang%NULL%0,   Mingqian%Huang%NULL%0,   Xianjun%Zeng%NULL%1,   Jiufa%Cui%NULL%1,   Wenjian%Xu%NULL%2,   Wenjian%Xu%NULL%0,   Yang%Yang%NULL%0,   Zahi A.%Fayad%NULL%0,   Zahi A.%Fayad%NULL%0,   Adam%Jacobi%NULL%0,   Kunwei%Li%NULL%0,   Shaolin%Li%NULL%0,   Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,   Jie%Qin%qinjie@mail.sysu.edu.cn%2,   Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,   M%Zhao%NULL%1,   S%Li%NULL%1,   L%Yang%NULL%1,   B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,   Huangqi%Zhang%NULL%4,   Huangqi%Zhang%NULL%0,   Jicheng%Xie%NULL%4,   Jicheng%Xie%NULL%0,   Minjie%Lin%NULL%2,   Minjie%Lin%NULL%0,   Lingjun%Ying%NULL%2,   Lingjun%Ying%NULL%0,   Peipei%Pang%NULL%4,   Peipei%Pang%NULL%0,   Wenbin%Ji%1224190004@qq.com%4,   Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,   Huangqi%Zhang%NULL%0,   Huangqi%Zhang%NULL%0,   Yunyu%Xu%NULL%2,   Yunyu%Xu%NULL%0,   Jicheng%Xie%NULL%0,   Jicheng%Xie%NULL%0,   Peipei%Pang%NULL%0,   Peipei%Pang%NULL%0,   Wenbin%Ji%1224190004@qq.com%0,   Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,   Domenico%Benvenuto%NULL%1,   Silvia%Angeletti%s.angeletti@unicampus.it%2,   Silvia%Angeletti%s.angeletti@unicampus.it%0,   Massimo%Ciccozzi%NULL%2,   Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,   M.%Li%NULL%1,   X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,   Chas%DeBolt%NULL%1,   Scott%Lindquist%NULL%1,   Kathy H.%Lofy%NULL%1,   John%Wiesman%NULL%1,   Hollianne%Bruce%NULL%0,   Christopher%Spitters%NULL%0,   Keith%Ericson%NULL%1,   Sara%Wilkerson%NULL%1,   Ahmet%Tural%NULL%1,   George%Diaz%NULL%1,   Amanda%Cohn%NULL%2,   LeAnne%Fox%NULL%1,   Anita%Patel%NULL%1,   Susan I.%Gerber%NULL%1,   Lindsay%Kim%NULL%1,   Suxiang%Tong%NULL%1,   Xiaoyan%Lu%NULL%1,   Steve%Lindstrom%NULL%1,   Mark A.%Pallansch%NULL%1,   William C.%Weldon%NULL%1,   Holly M.%Biggs%NULL%1,   Timothy M.%Uyeki%NULL%0,   Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,   Tianzhu%Liu%NULL%2,   Tianzhu%Liu%NULL%0,   Lesheng%Huang%NULL%2,   Lesheng%Huang%NULL%0,   Hailong%Liu%NULL%2,   Hailong%Liu%NULL%0,   Ming%Lei%NULL%1,   Wangdong%Xu%NULL%2,   Wangdong%Xu%NULL%0,   Xiaolu%Hu%NULL%1,   Jun%Chen%NULL%0,   Bo%Liu%liubogzcm@163.com%3,   Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,   Juanjuan%Guo%NULL%0,   Chen%Wang%NULL%0,   Fan%Luo%NULL%0,   Xuechen%Yu%NULL%0,   Wei%Zhang%NULL%0,   Jiafu%Li%NULL%0,   Dongchi%Zhao%NULL%0,   Dan%Xu%NULL%0,   Qing%Gong%NULL%0,   Jing%Liao%NULL%0,   Huixia%Yang%yanghuixia@bjmu.edu.cn%0,   Wei%Hou%houwei@whu.edu.cn%0,   Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,   Junfeng%Li%NULL%1,   Xun%Li%NULL%0,   Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,   Xuhua%Guan%NULL%1,   Peng%Wu%NULL%1,   Xiaoye%Wang%NULL%1,   Lei%Zhou%NULL%0,   Yeqing%Tong%NULL%1,   Ruiqi%Ren%NULL%1,   Kathy S.M.%Leung%NULL%1,   Eric H.Y.%Lau%NULL%1,   Jessica Y.%Wong%NULL%1,   Xuesen%Xing%NULL%1,   Nijuan%Xiang%NULL%0,   Yang%Wu%NULL%1,   Chao%Li%NULL%1,   Qi%Chen%NULL%1,   Dan%Li%NULL%1,   Tian%Liu%NULL%1,   Jing%Zhao%NULL%1,   Man%Liu%NULL%1,   Wenxiao%Tu%NULL%1,   Chuding%Chen%NULL%1,   Lianmei%Jin%NULL%1,   Rui%Yang%NULL%1,   Qi%Wang%NULL%1,   Suhua%Zhou%NULL%1,   Rui%Wang%NULL%2,   Hui%Liu%NULL%0,   Yinbo%Luo%NULL%1,   Yuan%Liu%NULL%1,   Ge%Shao%NULL%1,   Huan%Li%NULL%1,   Zhongfa%Tao%NULL%1,   Yang%Yang%NULL%0,   Zhiqiang%Deng%NULL%1,   Boxi%Liu%NULL%1,   Zhitao%Ma%NULL%1,   Yanping%Zhang%NULL%1,   Guoqing%Shi%NULL%1,   Tommy T.Y.%Lam%NULL%1,   Joseph T.%Wu%NULL%1,   George F.%Gao%NULL%3,   Benjamin J.%Cowling%NULL%2,   Bo%Yang%NULL%4,   Bo%Yang%NULL%0,   Gabriel M.%Leung%NULL%1,   Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,   Zhenyu%Gong%NULL%2,   Zhenyu%Gong%NULL%0,   Zuke%Xiao%NULL%2,   Zuke%Xiao%NULL%0,   Jingliang%Xiong%NULL%1,   Bing%Fan%NULL%2,   Jiaqi%Liu%NULL%2,   Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Mei-Fang%Wang%NULL%0,   Jing-Ping%Ma%NULL%0,   Wei%Xiao%NULL%0,   Ying-Nan%Wang%NULL%0,   Min-Hua%Zhong%NULL%0,   Cheng-Hong%Li%NULL%0,   Guang-Cai%Li%NULL%0,   Hui-Guo%Liu%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,   Xian-zheng%Tan%xianzhengtan@163.com%2,   Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,   Tianhe%Ye%NULL%0,   Tianhe%Ye%NULL%0,   Peng%Sun%NULL%0,   Peng%Sun%NULL%0,   Shan%Gui%NULL%0,   Shan%Gui%NULL%0,   Bo%Liang%NULL%0,   Bo%Liang%NULL%0,   Lingli%Li%NULL%0,   Lingli%Li%NULL%0,   Dandan%Zheng%NULL%0,   Dandan%Zheng%NULL%0,   Jiazheng%Wang%NULL%0,   Jiazheng%Wang%NULL%0,   Richard L.%Hesketh%NULL%0,   Richard L.%Hesketh%NULL%0,   Lian%Yang%yanglian@hust.edu.cn%0,   Lian%Yang%yanglian@hust.edu.cn%0,   Chuansheng%Zheng%NULL%0,   Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,   Thuong V.%Nguyen%NULL%1,   Quang C.%Luong%NULL%1,   Thinh V.%Nguyen%NULL%1,   Hieu T.%Nguyen%NULL%1,   Hung Q.%Le%NULL%2,   Hung Q.%Le%NULL%0,   Thuc T.%Nguyen%NULL%1,   Thang M.%Cao%NULL%2,   Thang M.%Cao%NULL%0,   Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,   Krit%Pongpirul%NULL%2,   Krit%Pongpirul%NULL%0,   Anuttra C.%Ratnarathon%NULL%2,   Anuttra C.%Ratnarathon%NULL%0,   Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,   Ye-Ming%Wang%NULL%1,   Zhi-Qiang%Wu%NULL%1,   Zi-Chun%Xiang%NULL%1,   Li%Guo%NULL%0,   Teng%Xu%NULL%1,   Yong-Zhong%Jiang%NULL%1,   Yan%Xiong%NULL%0,   Yong-Jun%Li%NULL%1,   Xing-Wang%Li%NULL%1,   Hui%Li%NULL%0,   Guo-Hui%Fan%NULL%1,   Xiao-Ying%Gu%NULL%1,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Jiu-Yang%Xu%NULL%1,   Fan%Yang%NULL%1,   Xin-Ming%Wang%NULL%1,   Chao%Wu%NULL%1,   Lan%Chen%NULL%1,   Yi-Wei%Liu%NULL%1,   Bo%Liu%NULL%0,   Jian%Yang%NULL%1,   Xiao-Rui%Wang%NULL%1,   Jie%Dong%NULL%1,   Li%Li%NULL%0,   Chao-Lin%Huang%NULL%1,   Jian-Ping%Zhao%NULL%1,   Yi%Hu%NULL%0,   Zhen-Shun%Cheng%NULL%1,   Lin-Lin%Liu%NULL%1,   Zhao-Hui%Qian%NULL%1,   Chuan%Qin%NULL%1,   Qi%Jin%NULL%0,   Bin%Cao%NULL%0,   Jian-Wei%Wang%NULL%1,   Xiu-Yuan%Hao%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,   Mirjam%Schunk%NULL%1,   Peter%Sothmann%NULL%1,   Gisela%Bretzel%NULL%1,   Guenter%Froeschl%NULL%1,   Claudia%Wallrauch%NULL%1,   Thorbjörn%Zimmer%NULL%1,   Verena%Thiel%NULL%1,   Christian%Janke%NULL%1,   Wolfgang%Guggemos%NULL%2,   Wolfgang%Guggemos%NULL%0,   Michael%Seilmaier%NULL%1,   Christian%Drosten%NULL%2,   Christian%Drosten%NULL%0,   Patrick%Vollmar%NULL%2,   Patrick%Vollmar%NULL%0,   Katrin%Zwirglmaier%NULL%1,   Sabine%Zange%NULL%1,   Roman%Wölfel%NULL%1,   Michael%Hoelscher%NULL%2,   Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,   Xiaoyu%Han%NULL%2,   Xiaoyu%Han%NULL%0,   Chuansheng%Zheng%hqzcsxh@sina.com%0,   Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,   Lynfa%Stroud%NULL%1,   Graham Edward%Cleghorn%NULL%1,   Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,   Nannan%Shi%NULL%2,   Nannan%Shi%NULL%0,   Fei%Shan%NULL%0,   Zhiyong%Zhang%NULL%1,   Jie%Shen%NULL%1,   Hongzhou%Lu%NULL%0,   Yun%Ling%NULL%0,   Yebin%Jiang%NULL%2,   Yebin%Jiang%NULL%0,   Yuxin%Shi%shiyuxin@shphc.org.cn%0,   Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,   Jianming%Tang%15900792812@163.com%1,   Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,   Zheng%Zhong%NULL%2,   Zheng%Zhong%NULL%0,   Wei%Zhao%NULL%2,   Wei%Zhao%NULL%0,   Chao%Zheng%NULL%2,   Chao%Zheng%NULL%0,   Fei%Wang%NULL%2,   Fei%Wang%NULL%0,   Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,   Chengcheng%Yu%1515185140@qq.com%0,   Lieguang%Zhang%zhlieguang@126.com%0,   Liangping%Luo%tluolp@jnu.edu.cn%0,   Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,   Xiao-Xin%Wu%NULL%0,   Xian-Gao%Jiang%NULL%0,   Kai-Jin%Xu%NULL%0,   Ling-Jun%Ying%NULL%0,   Chun-Lian%Ma%NULL%0,   Shi-Bo%Li%NULL%0,   Hua-Ying%Wang%NULL%0,   Sheng%Zhang%NULL%0,   Hai-Nv%Gao%NULL%0,   Ji-Fang%Sheng%NULL%0,   Hong-Liu%Cai%NULL%0,   Yun-Qing%Qiu%NULL%0,   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
+  </si>
+  <si>
+    <t>Background\n\n\n\nCoronavirus disease 2019 (COVID\u201019) caused by severe acute respiratory syndrome coronavirus 2 (SARS\u2010CoV\u20102) infection has been widely spread.
+ We aim to investigate the clinical characteristic and allergy status of patients infected with SARS\u2010CoV\u20102.\n\nMethods\n\n\n\nElectronic medical records including demographics, clinical manifestation, comorbidities, laboratory data, and radiological materials of 140 hospitalized COVID\u201019 patients, with confirmed result of SARS\u2010CoV\u20102 viral infection, were extracted and analyzed.
+\n\nResults\n\n\n\nAn approximately 1:1 ratio of male (50.7%) and female COVID\u201019 patients was found, with an overall median age of 57.0 years.
+ All patients were community\u2010acquired cases.
+ Fever (91.7%), cough (75.0%), fatigue (75.0%), and gastrointestinal symptoms (39.6%) were the most common clinical manifestations, whereas hypertension (30.0%) and diabetes mellitus (12.1%) were the most common comorbidities.
+ Drug hypersensitivity (11.4%) and urticaria (1.4%) were self\u2010reported by several patients.
+ Asthma or other allergic diseases were not reported by any of the patients.
+ Chronic obstructive pulmonary disease (COPD, 1.4%) patients and current smokers (1.4%) were rare.
+ Bilateral ground\u2010glass or patchy opacity (89.6%) was the most common sign of radiological finding.
+ Lymphopenia (75.4%) and eosinopenia (52.9%) were observed in most patients.
+ Blood eosinophil counts correlate positively with lymphocyte counts in severe (r = .
+486, P \u003C .
+001) and nonsevere (r = .
+469, P \u003C .
+001) patients after hospital admission.
+ Significantly higher levels of D\u2010dimer, C\u2010reactive protein, and procalcitonin were associated with severe patients compared to nonsevere patients (all P \u003C .
+001).
+\n\nConclusion\n\n\n\nDetailed clinical investigation of 140 hospitalized COVID\u201019 cases suggests eosinopenia together with lymphopenia may be a potential indicator for diagnosis.
+ Allergic diseases, asthma, and COPD are not risk factors for SARS\u2010CoV\u20102 infection.
+ Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%0, Dong%Xiang%coreGivesNoEmail%0, Gao%Ya-dong%coreGivesNoEmail%0, Yan%You-qin%coreGivesNoEmail%0, Yang%Yi-bin%coreGivesNoEmail%0, Yuan%Ya-dong%coreGivesNoEmail%0, Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,   Xiaochen%Li%NULL%2,   Xiaochen%Li%NULL%0,   Wei%Zhang%NULL%0,   Zheng-Li%Shi%NULL%1,   Zhishui%Zheng%NULL%1,   Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,   Nak-Jung%Kwon%NULL%2,   Nak-Jung%Kwon%NULL%0,   Su-Jin%Choi%NULL%2,   Su-Jin%Choi%NULL%0,   Chang Kyung%Kang%NULL%2,   Chang Kyung%Kang%NULL%0,   Pyoeng Gyun%Choe%NULL%4,   Pyoeng Gyun%Choe%NULL%0,   Jin Yong%Kim%NULL%4,   Jin Yong%Kim%NULL%0,   Jiyoung%Yun%NULL%2,   Jiyoung%Yun%NULL%0,   Gir-Won%Lee%NULL%2,   Gir-Won%Lee%NULL%0,   Moon-Woo%Seong%NULL%2,   Moon-Woo%Seong%NULL%0,   Nam Joong%Kim%NULL%2,   Nam Joong%Kim%NULL%0,   Jeong-Sun%Seo%NULL%2,   Jeong-Sun%Seo%NULL%0,   Myoung-don%Oh%NULL%4,   Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,   Seunghyun%Jeon%NULL%2,   Seunghyun%Jeon%NULL%0,   Hyun-Young%Shin%NULL%2,   Hyun-Young%Shin%NULL%0,   Moon Jung%Kim%NULL%2,   Moon Jung%Kim%NULL%0,   Yu Min%Seong%NULL%2,   Yu Min%Seong%NULL%0,   Wang Jun%Lee%NULL%2,   Wang Jun%Lee%NULL%0,   Kang-Won%Choe%NULL%2,   Kang-Won%Choe%NULL%0,   Yu Min%Kang%NULL%2,   Yu Min%Kang%NULL%0,   Baeckseung%Lee%NULL%2,   Baeckseung%Lee%NULL%0,   Sang-Joon%Park%NULL%2,   Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,   Pyoeng Gyun%Choe%NULL%0,   Pyoeng Gyun%Choe%NULL%0,   Yoonju%Oh%NULL%2,   Yoonju%Oh%NULL%0,   Kyung Joong%Oh%NULL%2,   Kyung Joong%Oh%NULL%0,   Jinsil%Kim%NULL%2,   Jinsil%Kim%NULL%0,   So Jeong%Park%NULL%2,   So Jeong%Park%NULL%0,   Ji Hye%Park%NULL%2,   Ji Hye%Park%NULL%0,   Hye Kyoung%Na%NULL%2,   Hye Kyoung%Na%NULL%0,   Myoung-don%Oh%NULL%0,   Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,    Q.% Lu%null%1,    M.% Liu%null%1,    Y.% Wang%null%1,    A.% Zhang%null%1,    N.% Jalali%null%1,    N.% Dean%null%1,    I.% Longini%null%1,    M. E.% Halloran%null%1,    B.% Xu%null%1,    X.% Zhang%null%1,    L.% Wang%null%1,    W.% Liu%null%1,    L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,   Dingyu%Zhang%NULL%3,   Wenling%Wang%NULL%2,   Xingwang%Li%NULL%0,   Bo%Yang%NULL%0,   Jingdong%Song%NULL%2,   Xiang%Zhao%NULL%2,   Baoying%Huang%NULL%2,   Weifeng%Shi%NULL%2,   Roujian%Lu%NULL%2,   Peihua%Niu%NULL%2,   Faxian%Zhan%NULL%2,   Xuejun%Ma%NULL%2,   Dayan%Wang%NULL%2,   Wenbo%Xu%NULL%2,   Guizhen%Wu%NULL%2,   George F.%Gao%NULL%0,   Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,   Shuofeng%Yuan%NULL%1,   Kin-Hang%Kok%NULL%1,   Kelvin Kai-Wang%To%NULL%1,   Hin%Chu%NULL%1,   Jin%Yang%NULL%1,   Fanfan%Xing%NULL%1,   Jieling%Liu%NULL%1,   Cyril Chik-Yan%Yip%NULL%1,   Rosana Wing-Shan%Poon%NULL%1,   Hoi-Wah%Tsoi%NULL%1,   Simon Kam-Fai%Lo%NULL%1,   Kwok-Hung%Chan%NULL%0,   Vincent Kwok-Man%Poon%NULL%1,   Wan-Mui%Chan%NULL%1,   Jonathan Daniel%Ip%NULL%1,   Jian-Piao%Cai%NULL%1,   Vincent Chi-Chung%Cheng%NULL%1,   Honglin%Chen%NULL%1,   Christopher Kim-Ming%Hui%NULL%1,   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,    Dengju%Li%NULL%0,    Xiong%Wang%NULL%0,    Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,    Hanxiong%Guan%NULL%1,    Shuchang%Zhou%NULL%1,    Yujin%Wang%NULL%1,    Qian%Li%NULL%1,    Tingting%Zhu%NULL%1,    Qiongjie%Hu%qjhu@outlook.com%1,    Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,    Jenny%Chen%NULL%1,    Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,    Yang%Yang%NULL%0,    Cong%Zhang%NULL%0,    Fengming%Huang%NULL%0,    Fuxiang%Wang%NULL%0,    Jing%Yuan%NULL%0,    Zhaoqin%Wang%NULL%0,    Jinxiu%Li%NULL%0,    Jianming%Li%NULL%0,    Cheng%Feng%NULL%0,    Zheng%Zhang%NULL%0,    Lifei%Wang%NULL%0,    Ling%Peng%NULL%0,    Li%Chen%NULL%0,    Yuhao%Qin%NULL%0,    Dandan%Zhao%NULL%0,    Shuguang%Tan%NULL%0,    Lu%Yin%NULL%0,    Jun%Xu%NULL%0,    Congzhao%Zhou%NULL%0,    Chengyu%Jiang%jiang@pumc.edu.cn%0,    Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,    Xueyan%Mei%NULL%4,    Xueyan%Mei%NULL%0,    Mingqian%Huang%NULL%4,    Mingqian%Huang%NULL%0,    Yang%Yang%NULL%0,    Zahi A.%Fayad%NULL%0,    Zahi A.%Fayad%NULL%0,    Ning%Zhang%NULL%5,    Ning%Zhang%NULL%0,    Kaiyue%Diao%NULL%2,    Kaiyue%Diao%NULL%0,    Bin%Lin%NULL%1,    Xiqi%Zhu%NULL%2,    Xiqi%Zhu%NULL%0,    Kunwei%Li%NULL%2,    Shaolin%Li%NULL%2,    Hong%Shan%NULL%0,    Adam%Jacobi%NULL%3,    Adam%Jacobi%NULL%0,    Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,    Ranjit%Sah%ranjitsah@iom.edu.np%0,    Alfonso J%Rodriguez-Morales%NULL%1,    Bibek Kumar%Lal%NULL%1,    Runa%Jha%NULL%1,    Hemant Chanda%Ojha%NULL%1,    Bikesh%Shrestha%NULL%1,    Daniel K W%Chu%NULL%1,    Leo L M%Poon%NULL%1,    Anthony%Costello%NULL%1,    Kouichi%Morita%NULL%1,    Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,    Min%Zhou%NULL%0,    Xuan%Dong%NULL%0,    Jieming%Qu%NULL%0,    Fengyun%Gong%NULL%0,    Yang%Han%NULL%0,    Yang%Qiu%NULL%0,    Jingli%Wang%NULL%0,    Ying%Liu%NULL%0,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%0,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%0,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,    Adam%Bernheim%NULL%2,    Adam%Bernheim%NULL%0,    Xueyan%Mei%NULL%0,    Xueyan%Mei%NULL%0,    Ning%Zhang%NULL%0,    Ning%Zhang%NULL%0,    Mingqian%Huang%NULL%0,    Mingqian%Huang%NULL%0,    Xianjun%Zeng%NULL%1,    Jiufa%Cui%NULL%1,    Wenjian%Xu%NULL%2,    Wenjian%Xu%NULL%0,    Yang%Yang%NULL%0,    Zahi A.%Fayad%NULL%0,    Zahi A.%Fayad%NULL%0,    Adam%Jacobi%NULL%0,    Kunwei%Li%NULL%0,    Shaolin%Li%NULL%0,    Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,    Jie%Qin%qinjie@mail.sysu.edu.cn%2,    Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,    M%Zhao%NULL%1,    S%Li%NULL%1,    L%Yang%NULL%1,    B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,    Huangqi%Zhang%NULL%4,    Huangqi%Zhang%NULL%0,    Jicheng%Xie%NULL%4,    Jicheng%Xie%NULL%0,    Minjie%Lin%NULL%2,    Minjie%Lin%NULL%0,    Lingjun%Ying%NULL%2,    Lingjun%Ying%NULL%0,    Peipei%Pang%NULL%4,    Peipei%Pang%NULL%0,    Wenbin%Ji%1224190004@qq.com%4,    Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,    Huangqi%Zhang%NULL%0,    Huangqi%Zhang%NULL%0,    Yunyu%Xu%NULL%2,    Yunyu%Xu%NULL%0,    Jicheng%Xie%NULL%0,    Jicheng%Xie%NULL%0,    Peipei%Pang%NULL%0,    Peipei%Pang%NULL%0,    Wenbin%Ji%1224190004@qq.com%0,    Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,    Domenico%Benvenuto%NULL%1,    Silvia%Angeletti%s.angeletti@unicampus.it%2,    Silvia%Angeletti%s.angeletti@unicampus.it%0,    Massimo%Ciccozzi%NULL%2,    Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,    M.%Li%NULL%1,    X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,    Chas%DeBolt%NULL%1,    Scott%Lindquist%NULL%1,    Kathy H.%Lofy%NULL%1,    John%Wiesman%NULL%1,    Hollianne%Bruce%NULL%0,    Christopher%Spitters%NULL%0,    Keith%Ericson%NULL%1,    Sara%Wilkerson%NULL%1,    Ahmet%Tural%NULL%1,    George%Diaz%NULL%1,    Amanda%Cohn%NULL%2,    LeAnne%Fox%NULL%1,    Anita%Patel%NULL%1,    Susan I.%Gerber%NULL%1,    Lindsay%Kim%NULL%1,    Suxiang%Tong%NULL%1,    Xiaoyan%Lu%NULL%1,    Steve%Lindstrom%NULL%1,    Mark A.%Pallansch%NULL%1,    William C.%Weldon%NULL%1,    Holly M.%Biggs%NULL%1,    Timothy M.%Uyeki%NULL%0,    Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,    Tianzhu%Liu%NULL%2,    Tianzhu%Liu%NULL%0,    Lesheng%Huang%NULL%2,    Lesheng%Huang%NULL%0,    Hailong%Liu%NULL%2,    Hailong%Liu%NULL%0,    Ming%Lei%NULL%1,    Wangdong%Xu%NULL%2,    Wangdong%Xu%NULL%0,    Xiaolu%Hu%NULL%1,    Jun%Chen%NULL%0,    Bo%Liu%liubogzcm@163.com%4,    Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,    Juanjuan%Guo%NULL%0,    Chen%Wang%NULL%0,    Fan%Luo%NULL%0,    Xuechen%Yu%NULL%0,    Wei%Zhang%NULL%0,    Jiafu%Li%NULL%0,    Dongchi%Zhao%NULL%0,    Dan%Xu%NULL%0,    Qing%Gong%NULL%0,    Jing%Liao%NULL%0,    Huixia%Yang%yanghuixia@bjmu.edu.cn%0,    Wei%Hou%houwei@whu.edu.cn%0,    Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,    Junfeng%Li%NULL%1,    Xun%Li%NULL%0,    Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,    Xuhua%Guan%NULL%1,    Peng%Wu%NULL%1,    Xiaoye%Wang%NULL%1,    Lei%Zhou%NULL%0,    Yeqing%Tong%NULL%1,    Ruiqi%Ren%NULL%1,    Kathy S.M.%Leung%NULL%1,    Eric H.Y.%Lau%NULL%1,    Jessica Y.%Wong%NULL%1,    Xuesen%Xing%NULL%1,    Nijuan%Xiang%NULL%0,    Yang%Wu%NULL%1,    Chao%Li%NULL%1,    Qi%Chen%NULL%1,    Dan%Li%NULL%1,    Tian%Liu%NULL%1,    Jing%Zhao%NULL%1,    Man%Liu%NULL%1,    Wenxiao%Tu%NULL%1,    Chuding%Chen%NULL%1,    Lianmei%Jin%NULL%1,    Rui%Yang%NULL%1,    Qi%Wang%NULL%2,    Suhua%Zhou%NULL%1,    Rui%Wang%NULL%2,    Hui%Liu%NULL%0,    Yinbo%Luo%NULL%1,    Yuan%Liu%NULL%1,    Ge%Shao%NULL%1,    Huan%Li%NULL%1,    Zhongfa%Tao%NULL%1,    Yang%Yang%NULL%0,    Zhiqiang%Deng%NULL%1,    Boxi%Liu%NULL%1,    Zhitao%Ma%NULL%1,    Yanping%Zhang%NULL%1,    Guoqing%Shi%NULL%1,    Tommy T.Y.%Lam%NULL%1,    Joseph T.%Wu%NULL%1,    George F.%Gao%NULL%3,    Benjamin J.%Cowling%NULL%2,    Bo%Yang%NULL%4,    Bo%Yang%NULL%0,    Gabriel M.%Leung%NULL%1,    Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,    Zhenyu%Gong%NULL%2,    Zhenyu%Gong%NULL%0,    Zuke%Xiao%NULL%2,    Zuke%Xiao%NULL%0,    Jingliang%Xiong%NULL%1,    Bing%Fan%NULL%2,    Jiaqi%Liu%NULL%2,    Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Mei-Fang%Wang%NULL%0,    Jing-Ping%Ma%NULL%0,    Wei%Xiao%NULL%0,    Ying-Nan%Wang%NULL%0,    Min-Hua%Zhong%NULL%0,    Cheng-Hong%Li%NULL%0,    Guang-Cai%Li%NULL%0,    Hui-Guo%Liu%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,    Xian-zheng%Tan%xianzhengtan@163.com%2,    Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,    Tianhe%Ye%NULL%0,    Tianhe%Ye%NULL%0,    Peng%Sun%NULL%0,    Peng%Sun%NULL%0,    Shan%Gui%NULL%0,    Shan%Gui%NULL%0,    Bo%Liang%NULL%0,    Bo%Liang%NULL%0,    Lingli%Li%NULL%0,    Lingli%Li%NULL%0,    Dandan%Zheng%NULL%0,    Dandan%Zheng%NULL%0,    Jiazheng%Wang%NULL%0,    Jiazheng%Wang%NULL%0,    Richard L.%Hesketh%NULL%0,    Richard L.%Hesketh%NULL%0,    Lian%Yang%yanglian@hust.edu.cn%0,    Lian%Yang%yanglian@hust.edu.cn%0,    Chuansheng%Zheng%NULL%0,    Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,    Thuong V.%Nguyen%NULL%1,    Quang C.%Luong%NULL%1,    Thinh V.%Nguyen%NULL%1,    Hieu T.%Nguyen%NULL%1,    Hung Q.%Le%NULL%2,    Hung Q.%Le%NULL%0,    Thuc T.%Nguyen%NULL%1,    Thang M.%Cao%NULL%2,    Thang M.%Cao%NULL%0,    Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,    Krit%Pongpirul%NULL%2,    Krit%Pongpirul%NULL%0,    Anuttra C.%Ratnarathon%NULL%2,    Anuttra C.%Ratnarathon%NULL%0,    Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,    Ye-Ming%Wang%NULL%1,    Zhi-Qiang%Wu%NULL%1,    Zi-Chun%Xiang%NULL%1,    Li%Guo%NULL%0,    Teng%Xu%NULL%1,    Yong-Zhong%Jiang%NULL%1,    Yan%Xiong%NULL%0,    Yong-Jun%Li%NULL%1,    Xing-Wang%Li%NULL%1,    Hui%Li%NULL%0,    Guo-Hui%Fan%NULL%1,    Xiao-Ying%Gu%NULL%1,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Jiu-Yang%Xu%NULL%1,    Fan%Yang%NULL%1,    Xin-Ming%Wang%NULL%1,    Chao%Wu%NULL%1,    Lan%Chen%NULL%1,    Yi-Wei%Liu%NULL%1,    Bo%Liu%NULL%0,    Jian%Yang%NULL%1,    Xiao-Rui%Wang%NULL%1,    Jie%Dong%NULL%1,    Li%Li%NULL%0,    Chao-Lin%Huang%NULL%1,    Jian-Ping%Zhao%NULL%1,    Yi%Hu%NULL%0,    Zhen-Shun%Cheng%NULL%1,    Lin-Lin%Liu%NULL%1,    Zhao-Hui%Qian%NULL%1,    Chuan%Qin%NULL%1,    Qi%Jin%NULL%0,    Bin%Cao%NULL%0,    Jian-Wei%Wang%NULL%1,    Xiu-Yuan%Hao%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,    Mirjam%Schunk%NULL%1,    Peter%Sothmann%NULL%1,    Gisela%Bretzel%NULL%1,    Guenter%Froeschl%NULL%1,    Claudia%Wallrauch%NULL%1,    Thorbjörn%Zimmer%NULL%1,    Verena%Thiel%NULL%1,    Christian%Janke%NULL%1,    Wolfgang%Guggemos%NULL%2,    Wolfgang%Guggemos%NULL%0,    Michael%Seilmaier%NULL%1,    Christian%Drosten%NULL%2,    Christian%Drosten%NULL%0,    Patrick%Vollmar%NULL%2,    Patrick%Vollmar%NULL%0,    Katrin%Zwirglmaier%NULL%1,    Sabine%Zange%NULL%1,    Roman%Wölfel%NULL%1,    Michael%Hoelscher%NULL%2,    Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,    Xiaoyu%Han%NULL%2,    Xiaoyu%Han%NULL%0,    Chuansheng%Zheng%hqzcsxh@sina.com%0,    Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,    Lynfa%Stroud%NULL%1,    Graham Edward%Cleghorn%NULL%1,    Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,    Nannan%Shi%NULL%2,    Nannan%Shi%NULL%0,    Fei%Shan%NULL%0,    Zhiyong%Zhang%NULL%1,    Jie%Shen%NULL%1,    Hongzhou%Lu%NULL%0,    Yun%Ling%NULL%0,    Yebin%Jiang%NULL%2,    Yebin%Jiang%NULL%0,    Yuxin%Shi%shiyuxin@shphc.org.cn%0,    Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,    Jianming%Tang%15900792812@163.com%1,    Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,    Zheng%Zhong%NULL%2,    Zheng%Zhong%NULL%0,    Wei%Zhao%NULL%2,    Wei%Zhao%NULL%0,    Chao%Zheng%NULL%2,    Chao%Zheng%NULL%0,    Fei%Wang%NULL%2,    Fei%Wang%NULL%0,    Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,    Chengcheng%Yu%1515185140@qq.com%0,    Lieguang%Zhang%zhlieguang@126.com%0,    Liangping%Luo%tluolp@jnu.edu.cn%0,    Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,    Xiao-Xin%Wu%NULL%0,    Xian-Gao%Jiang%NULL%0,    Kai-Jin%Xu%NULL%0,    Ling-Jun%Ying%NULL%0,    Chun-Lian%Ma%NULL%0,    Shi-Bo%Li%NULL%0,    Hua-Ying%Wang%NULL%0,    Sheng%Zhang%NULL%0,    Hai-Nv%Gao%NULL%0,    Ji-Fang%Sheng%NULL%0,    Hong-Liu%Cai%NULL%0,    Yun-Qing%Qiu%NULL%0,    Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%0,  Dong%Xiang%coreGivesNoEmail%0,  Gao%Ya-dong%coreGivesNoEmail%0,  Yan%You-qin%coreGivesNoEmail%0,  Yang%Yi-bin%coreGivesNoEmail%0,  Yuan%Ya-dong%coreGivesNoEmail%0,  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,    Xiaochen%Li%NULL%2,    Xiaochen%Li%NULL%0,    Wei%Zhang%NULL%0,    Zheng-Li%Shi%NULL%1,    Zhishui%Zheng%NULL%1,    Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,    Nak-Jung%Kwon%NULL%2,    Nak-Jung%Kwon%NULL%0,    Su-Jin%Choi%NULL%2,    Su-Jin%Choi%NULL%0,    Chang Kyung%Kang%NULL%4,    Chang Kyung%Kang%NULL%0,    Pyoeng Gyun%Choe%NULL%4,    Pyoeng Gyun%Choe%NULL%0,    Jin Yong%Kim%NULL%8,    Jin Yong%Kim%NULL%0,    Jiyoung%Yun%NULL%2,    Jiyoung%Yun%NULL%0,    Gir-Won%Lee%NULL%2,    Gir-Won%Lee%NULL%0,    Moon-Woo%Seong%NULL%2,    Moon-Woo%Seong%NULL%0,    Nam Joong%Kim%NULL%4,    Nam Joong%Kim%NULL%0,    Jeong-Sun%Seo%NULL%2,    Jeong-Sun%Seo%NULL%0,    Myoung-don%Oh%NULL%6,    Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,    Seunghyun%Jeon%NULL%2,    Seunghyun%Jeon%NULL%0,    Hyun-Young%Shin%NULL%2,    Hyun-Young%Shin%NULL%0,    Moon Jung%Kim%NULL%2,    Moon Jung%Kim%NULL%0,    Yu Min%Seong%NULL%2,    Yu Min%Seong%NULL%0,    Wang Jun%Lee%NULL%2,    Wang Jun%Lee%NULL%0,    Kang-Won%Choe%NULL%2,    Kang-Won%Choe%NULL%0,    Yu Min%Kang%NULL%4,    Yu Min%Kang%NULL%0,    Baeckseung%Lee%NULL%2,    Baeckseung%Lee%NULL%0,    Sang-Joon%Park%NULL%2,    Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,    Pyoeng Gyun%Choe%NULL%0,    Pyoeng Gyun%Choe%NULL%0,    Yoonju%Oh%NULL%2,    Yoonju%Oh%NULL%0,    Kyung Joong%Oh%NULL%2,    Kyung Joong%Oh%NULL%0,    Jinsil%Kim%NULL%2,    Jinsil%Kim%NULL%0,    So Jeong%Park%NULL%2,    So Jeong%Park%NULL%0,    Ji Hye%Park%NULL%2,    Ji Hye%Park%NULL%0,    Hye Kyoung%Na%NULL%2,    Hye Kyoung%Na%NULL%0,    Myoung-don%Oh%NULL%0,    Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,     Q.% Lu%null%1,     M.% Liu%null%1,     Y.% Wang%null%1,     A.% Zhang%null%1,     N.% Jalali%null%1,     N.% Dean%null%1,     I.% Longini%null%1,     M. E.% Halloran%null%1,     B.% Xu%null%1,     X.% Zhang%null%1,     L.% Wang%null%1,     W.% Liu%null%1,     L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,    Dingyu%Zhang%NULL%3,    Wenling%Wang%NULL%2,    Xingwang%Li%NULL%0,    Bo%Yang%NULL%0,    Jingdong%Song%NULL%2,    Xiang%Zhao%NULL%2,    Baoying%Huang%NULL%2,    Weifeng%Shi%NULL%2,    Roujian%Lu%NULL%2,    Peihua%Niu%NULL%2,    Faxian%Zhan%NULL%2,    Xuejun%Ma%NULL%2,    Dayan%Wang%NULL%2,    Wenbo%Xu%NULL%2,    Guizhen%Wu%NULL%2,    George F.%Gao%NULL%0,    Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,    Shuofeng%Yuan%NULL%1,    Kin-Hang%Kok%NULL%1,    Kelvin Kai-Wang%To%NULL%1,    Hin%Chu%NULL%1,    Jin%Yang%NULL%1,    Fanfan%Xing%NULL%1,    Jieling%Liu%NULL%1,    Cyril Chik-Yan%Yip%NULL%1,    Rosana Wing-Shan%Poon%NULL%1,    Hoi-Wah%Tsoi%NULL%1,    Simon Kam-Fai%Lo%NULL%1,    Kwok-Hung%Chan%NULL%0,    Vincent Kwok-Man%Poon%NULL%1,    Wan-Mui%Chan%NULL%1,    Jonathan Daniel%Ip%NULL%1,    Jian-Piao%Cai%NULL%1,    Vincent Chi-Chung%Cheng%NULL%1,    Honglin%Chen%NULL%1,    Christopher Kim-Ming%Hui%NULL%1,    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,     Dengju%Li%NULL%0,     Xiong%Wang%NULL%0,     Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,     Hanxiong%Guan%NULL%1,     Shuchang%Zhou%NULL%1,     Yujin%Wang%NULL%1,     Qian%Li%NULL%1,     Tingting%Zhu%NULL%1,     Qiongjie%Hu%qjhu@outlook.com%1,     Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,     Jenny%Chen%NULL%1,     Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,     Yang%Yang%NULL%0,     Cong%Zhang%NULL%0,     Fengming%Huang%NULL%0,     Fuxiang%Wang%NULL%0,     Jing%Yuan%NULL%0,     Zhaoqin%Wang%NULL%0,     Jinxiu%Li%NULL%0,     Jianming%Li%NULL%0,     Cheng%Feng%NULL%0,     Zheng%Zhang%NULL%0,     Lifei%Wang%NULL%0,     Ling%Peng%NULL%0,     Li%Chen%NULL%0,     Yuhao%Qin%NULL%0,     Dandan%Zhao%NULL%0,     Shuguang%Tan%NULL%0,     Lu%Yin%NULL%0,     Jun%Xu%NULL%0,     Congzhao%Zhou%NULL%0,     Chengyu%Jiang%jiang@pumc.edu.cn%0,     Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,     Xueyan%Mei%NULL%4,     Xueyan%Mei%NULL%0,     Mingqian%Huang%NULL%4,     Mingqian%Huang%NULL%0,     Yang%Yang%NULL%0,     Zahi A.%Fayad%NULL%0,     Zahi A.%Fayad%NULL%0,     Ning%Zhang%NULL%5,     Ning%Zhang%NULL%0,     Kaiyue%Diao%NULL%2,     Kaiyue%Diao%NULL%0,     Bin%Lin%NULL%1,     Xiqi%Zhu%NULL%2,     Xiqi%Zhu%NULL%0,     Kunwei%Li%NULL%2,     Shaolin%Li%NULL%2,     Hong%Shan%NULL%0,     Adam%Jacobi%NULL%3,     Adam%Jacobi%NULL%0,     Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,     Ranjit%Sah%ranjitsah@iom.edu.np%0,     Alfonso J%Rodriguez-Morales%NULL%1,     Bibek Kumar%Lal%NULL%1,     Runa%Jha%NULL%1,     Hemant Chanda%Ojha%NULL%1,     Bikesh%Shrestha%NULL%1,     Daniel K W%Chu%NULL%1,     Leo L M%Poon%NULL%1,     Anthony%Costello%NULL%1,     Kouichi%Morita%NULL%1,     Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%0,     Xuan%Dong%NULL%0,     Jieming%Qu%NULL%0,     Fengyun%Gong%NULL%0,     Yang%Han%NULL%0,     Yang%Qiu%NULL%0,     Jingli%Wang%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,     Adam%Bernheim%NULL%2,     Adam%Bernheim%NULL%0,     Xueyan%Mei%NULL%0,     Xueyan%Mei%NULL%0,     Ning%Zhang%NULL%0,     Ning%Zhang%NULL%0,     Mingqian%Huang%NULL%0,     Mingqian%Huang%NULL%0,     Xianjun%Zeng%NULL%1,     Jiufa%Cui%NULL%1,     Wenjian%Xu%NULL%2,     Wenjian%Xu%NULL%0,     Yang%Yang%NULL%0,     Zahi A.%Fayad%NULL%0,     Zahi A.%Fayad%NULL%0,     Adam%Jacobi%NULL%0,     Kunwei%Li%NULL%0,     Shaolin%Li%NULL%0,     Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,     Jie%Qin%qinjie@mail.sysu.edu.cn%2,     Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,     M%Zhao%NULL%1,     S%Li%NULL%1,     L%Yang%NULL%1,     B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,     Huangqi%Zhang%NULL%4,     Huangqi%Zhang%NULL%0,     Jicheng%Xie%NULL%4,     Jicheng%Xie%NULL%0,     Minjie%Lin%NULL%2,     Minjie%Lin%NULL%0,     Lingjun%Ying%NULL%2,     Lingjun%Ying%NULL%0,     Peipei%Pang%NULL%4,     Peipei%Pang%NULL%0,     Wenbin%Ji%1224190004@qq.com%4,     Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,     Huangqi%Zhang%NULL%0,     Huangqi%Zhang%NULL%0,     Yunyu%Xu%NULL%2,     Yunyu%Xu%NULL%0,     Jicheng%Xie%NULL%0,     Jicheng%Xie%NULL%0,     Peipei%Pang%NULL%0,     Peipei%Pang%NULL%0,     Wenbin%Ji%1224190004@qq.com%0,     Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,     Domenico%Benvenuto%NULL%1,     Silvia%Angeletti%s.angeletti@unicampus.it%2,     Silvia%Angeletti%s.angeletti@unicampus.it%0,     Massimo%Ciccozzi%NULL%2,     Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,     M.%Li%NULL%1,     X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,     Chas%DeBolt%NULL%1,     Scott%Lindquist%NULL%1,     Kathy H.%Lofy%NULL%1,     John%Wiesman%NULL%1,     Hollianne%Bruce%NULL%0,     Christopher%Spitters%NULL%0,     Keith%Ericson%NULL%1,     Sara%Wilkerson%NULL%1,     Ahmet%Tural%NULL%1,     George%Diaz%NULL%1,     Amanda%Cohn%NULL%2,     LeAnne%Fox%NULL%1,     Anita%Patel%NULL%1,     Susan I.%Gerber%NULL%1,     Lindsay%Kim%NULL%1,     Suxiang%Tong%NULL%1,     Xiaoyan%Lu%NULL%1,     Steve%Lindstrom%NULL%1,     Mark A.%Pallansch%NULL%1,     William C.%Weldon%NULL%1,     Holly M.%Biggs%NULL%1,     Timothy M.%Uyeki%NULL%0,     Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,     Tianzhu%Liu%NULL%2,     Tianzhu%Liu%NULL%0,     Lesheng%Huang%NULL%2,     Lesheng%Huang%NULL%0,     Hailong%Liu%NULL%2,     Hailong%Liu%NULL%0,     Ming%Lei%NULL%1,     Wangdong%Xu%NULL%2,     Wangdong%Xu%NULL%0,     Xiaolu%Hu%NULL%1,     Jun%Chen%NULL%6,     Bo%Liu%liubogzcm@163.com%4,     Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,     Juanjuan%Guo%NULL%0,     Chen%Wang%NULL%0,     Fan%Luo%NULL%0,     Xuechen%Yu%NULL%0,     Wei%Zhang%NULL%0,     Jiafu%Li%NULL%0,     Dongchi%Zhao%NULL%0,     Dan%Xu%NULL%0,     Qing%Gong%NULL%0,     Jing%Liao%NULL%0,     Huixia%Yang%yanghuixia@bjmu.edu.cn%0,     Wei%Hou%houwei@whu.edu.cn%0,     Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,     Junfeng%Li%NULL%1,     Xun%Li%NULL%0,     Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,     Xuhua%Guan%NULL%1,     Peng%Wu%NULL%1,     Xiaoye%Wang%NULL%1,     Lei%Zhou%NULL%0,     Yeqing%Tong%NULL%1,     Ruiqi%Ren%NULL%1,     Kathy S.M.%Leung%NULL%1,     Eric H.Y.%Lau%NULL%1,     Jessica Y.%Wong%NULL%1,     Xuesen%Xing%NULL%1,     Nijuan%Xiang%NULL%0,     Yang%Wu%NULL%1,     Chao%Li%NULL%1,     Qi%Chen%NULL%1,     Dan%Li%NULL%1,     Tian%Liu%NULL%1,     Jing%Zhao%NULL%1,     Man%Liu%NULL%1,     Wenxiao%Tu%NULL%1,     Chuding%Chen%NULL%1,     Lianmei%Jin%NULL%1,     Rui%Yang%NULL%1,     Qi%Wang%NULL%2,     Suhua%Zhou%NULL%1,     Rui%Wang%NULL%2,     Hui%Liu%NULL%0,     Yinbo%Luo%NULL%1,     Yuan%Liu%NULL%1,     Ge%Shao%NULL%1,     Huan%Li%NULL%1,     Zhongfa%Tao%NULL%1,     Yang%Yang%NULL%0,     Zhiqiang%Deng%NULL%1,     Boxi%Liu%NULL%1,     Zhitao%Ma%NULL%1,     Yanping%Zhang%NULL%1,     Guoqing%Shi%NULL%1,     Tommy T.Y.%Lam%NULL%1,     Joseph T.%Wu%NULL%1,     George F.%Gao%NULL%3,     Benjamin J.%Cowling%NULL%2,     Bo%Yang%NULL%5,     Bo%Yang%NULL%0,     Gabriel M.%Leung%NULL%1,     Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,     Zhenyu%Gong%NULL%2,     Zhenyu%Gong%NULL%0,     Zuke%Xiao%NULL%2,     Zuke%Xiao%NULL%0,     Jingliang%Xiong%NULL%1,     Bing%Fan%NULL%2,     Jiaqi%Liu%NULL%2,     Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Mei-Fang%Wang%NULL%0,     Jing-Ping%Ma%NULL%0,     Wei%Xiao%NULL%0,     Ying-Nan%Wang%NULL%0,     Min-Hua%Zhong%NULL%0,     Cheng-Hong%Li%NULL%0,     Guang-Cai%Li%NULL%0,     Hui-Guo%Liu%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,     Xian-zheng%Tan%xianzhengtan@163.com%2,     Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,     Tianhe%Ye%NULL%0,     Tianhe%Ye%NULL%0,     Peng%Sun%NULL%0,     Peng%Sun%NULL%0,     Shan%Gui%NULL%0,     Shan%Gui%NULL%0,     Bo%Liang%NULL%0,     Bo%Liang%NULL%0,     Lingli%Li%NULL%0,     Lingli%Li%NULL%0,     Dandan%Zheng%NULL%0,     Dandan%Zheng%NULL%0,     Jiazheng%Wang%NULL%0,     Jiazheng%Wang%NULL%0,     Richard L.%Hesketh%NULL%0,     Richard L.%Hesketh%NULL%0,     Lian%Yang%yanglian@hust.edu.cn%0,     Lian%Yang%yanglian@hust.edu.cn%0,     Chuansheng%Zheng%NULL%0,     Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,     Thuong V.%Nguyen%NULL%1,     Quang C.%Luong%NULL%1,     Thinh V.%Nguyen%NULL%1,     Hieu T.%Nguyen%NULL%1,     Hung Q.%Le%NULL%2,     Hung Q.%Le%NULL%0,     Thuc T.%Nguyen%NULL%1,     Thang M.%Cao%NULL%2,     Thang M.%Cao%NULL%0,     Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,     Krit%Pongpirul%NULL%2,     Krit%Pongpirul%NULL%0,     Anuttra C.%Ratnarathon%NULL%2,     Anuttra C.%Ratnarathon%NULL%0,     Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,     Ye-Ming%Wang%NULL%1,     Zhi-Qiang%Wu%NULL%1,     Zi-Chun%Xiang%NULL%1,     Li%Guo%NULL%0,     Teng%Xu%NULL%1,     Yong-Zhong%Jiang%NULL%1,     Yan%Xiong%NULL%0,     Yong-Jun%Li%NULL%1,     Xing-Wang%Li%NULL%1,     Hui%Li%NULL%0,     Guo-Hui%Fan%NULL%1,     Xiao-Ying%Gu%NULL%1,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Jiu-Yang%Xu%NULL%1,     Fan%Yang%NULL%2,     Xin-Ming%Wang%NULL%1,     Chao%Wu%NULL%1,     Lan%Chen%NULL%1,     Yi-Wei%Liu%NULL%1,     Bo%Liu%NULL%0,     Jian%Yang%NULL%1,     Xiao-Rui%Wang%NULL%1,     Jie%Dong%NULL%1,     Li%Li%NULL%0,     Chao-Lin%Huang%NULL%1,     Jian-Ping%Zhao%NULL%1,     Yi%Hu%NULL%0,     Zhen-Shun%Cheng%NULL%1,     Lin-Lin%Liu%NULL%1,     Zhao-Hui%Qian%NULL%1,     Chuan%Qin%NULL%1,     Qi%Jin%NULL%0,     Bin%Cao%NULL%0,     Jian-Wei%Wang%NULL%1,     Xiu-Yuan%Hao%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,     Mirjam%Schunk%NULL%1,     Peter%Sothmann%NULL%1,     Gisela%Bretzel%NULL%1,     Guenter%Froeschl%NULL%1,     Claudia%Wallrauch%NULL%1,     Thorbjörn%Zimmer%NULL%1,     Verena%Thiel%NULL%1,     Christian%Janke%NULL%1,     Wolfgang%Guggemos%NULL%2,     Wolfgang%Guggemos%NULL%0,     Michael%Seilmaier%NULL%1,     Christian%Drosten%NULL%2,     Christian%Drosten%NULL%0,     Patrick%Vollmar%NULL%2,     Patrick%Vollmar%NULL%0,     Katrin%Zwirglmaier%NULL%1,     Sabine%Zange%NULL%1,     Roman%Wölfel%NULL%1,     Michael%Hoelscher%NULL%2,     Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,     Xiaoyu%Han%NULL%2,     Xiaoyu%Han%NULL%0,     Chuansheng%Zheng%hqzcsxh@sina.com%0,     Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,     Lynfa%Stroud%NULL%1,     Graham Edward%Cleghorn%NULL%1,     Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,     Nannan%Shi%NULL%2,     Nannan%Shi%NULL%0,     Fei%Shan%NULL%1,     Zhiyong%Zhang%NULL%1,     Jie%Shen%NULL%1,     Hongzhou%Lu%NULL%0,     Yun%Ling%NULL%0,     Yebin%Jiang%NULL%2,     Yebin%Jiang%NULL%0,     Yuxin%Shi%shiyuxin@shphc.org.cn%0,     Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,     Jianming%Tang%15900792812@163.com%1,     Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,     Zheng%Zhong%NULL%2,     Zheng%Zhong%NULL%0,     Wei%Zhao%NULL%2,     Wei%Zhao%NULL%0,     Chao%Zheng%NULL%2,     Chao%Zheng%NULL%0,     Fei%Wang%NULL%2,     Fei%Wang%NULL%0,     Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,     Chengcheng%Yu%1515185140@qq.com%0,     Lieguang%Zhang%zhlieguang@126.com%0,     Liangping%Luo%tluolp@jnu.edu.cn%0,     Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,     Xiao-Xin%Wu%NULL%0,     Xian-Gao%Jiang%NULL%0,     Kai-Jin%Xu%NULL%0,     Ling-Jun%Ying%NULL%0,     Chun-Lian%Ma%NULL%0,     Shi-Bo%Li%NULL%0,     Hua-Ying%Wang%NULL%0,     Sheng%Zhang%NULL%0,     Hai-Nv%Gao%NULL%0,     Ji-Fang%Sheng%NULL%0,     Hong-Liu%Cai%NULL%0,     Yun-Qing%Qiu%NULL%0,     Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,     Xiaochen%Li%NULL%2,     Xiaochen%Li%NULL%0,     Wei%Zhang%NULL%0,     Zheng-Li%Shi%NULL%1,     Zhishui%Zheng%NULL%1,     Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,     Nak-Jung%Kwon%NULL%2,     Nak-Jung%Kwon%NULL%0,     Su-Jin%Choi%NULL%2,     Su-Jin%Choi%NULL%0,     Chang Kyung%Kang%NULL%4,     Chang Kyung%Kang%NULL%0,     Pyoeng Gyun%Choe%NULL%4,     Pyoeng Gyun%Choe%NULL%0,     Jin Yong%Kim%NULL%8,     Jin Yong%Kim%NULL%0,     Jiyoung%Yun%NULL%2,     Jiyoung%Yun%NULL%0,     Gir-Won%Lee%NULL%2,     Gir-Won%Lee%NULL%0,     Moon-Woo%Seong%NULL%2,     Moon-Woo%Seong%NULL%0,     Nam Joong%Kim%NULL%4,     Nam Joong%Kim%NULL%0,     Jeong-Sun%Seo%NULL%2,     Jeong-Sun%Seo%NULL%0,     Myoung-don%Oh%NULL%6,     Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,     Seunghyun%Jeon%NULL%2,     Seunghyun%Jeon%NULL%0,     Hyun-Young%Shin%NULL%2,     Hyun-Young%Shin%NULL%0,     Moon Jung%Kim%NULL%2,     Moon Jung%Kim%NULL%0,     Yu Min%Seong%NULL%2,     Yu Min%Seong%NULL%0,     Wang Jun%Lee%NULL%2,     Wang Jun%Lee%NULL%0,     Kang-Won%Choe%NULL%2,     Kang-Won%Choe%NULL%0,     Yu Min%Kang%NULL%4,     Yu Min%Kang%NULL%0,     Baeckseung%Lee%NULL%2,     Baeckseung%Lee%NULL%0,     Sang-Joon%Park%NULL%2,     Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,     Pyoeng Gyun%Choe%NULL%0,     Pyoeng Gyun%Choe%NULL%0,     Yoonju%Oh%NULL%2,     Yoonju%Oh%NULL%0,     Kyung Joong%Oh%NULL%2,     Kyung Joong%Oh%NULL%0,     Jinsil%Kim%NULL%2,     Jinsil%Kim%NULL%0,     So Jeong%Park%NULL%2,     So Jeong%Park%NULL%0,     Ji Hye%Park%NULL%2,     Ji Hye%Park%NULL%0,     Hye Kyoung%Na%NULL%2,     Hye Kyoung%Na%NULL%0,     Myoung-don%Oh%NULL%0,     Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,      Q.% Lu%null%1,      M.% Liu%null%1,      Y.% Wang%null%1,      A.% Zhang%null%1,      N.% Jalali%null%1,      N.% Dean%null%1,      I.% Longini%null%1,      M. E.% Halloran%null%1,      B.% Xu%null%1,      X.% Zhang%null%1,      L.% Wang%null%1,      W.% Liu%null%1,      L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,     Dingyu%Zhang%NULL%3,     Wenling%Wang%NULL%2,     Xingwang%Li%NULL%0,     Bo%Yang%NULL%0,     Jingdong%Song%NULL%2,     Xiang%Zhao%NULL%2,     Baoying%Huang%NULL%2,     Weifeng%Shi%NULL%2,     Roujian%Lu%NULL%2,     Peihua%Niu%NULL%2,     Faxian%Zhan%NULL%2,     Xuejun%Ma%NULL%2,     Dayan%Wang%NULL%2,     Wenbo%Xu%NULL%2,     Guizhen%Wu%NULL%2,     George F.%Gao%NULL%0,     Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,     Shuofeng%Yuan%NULL%1,     Kin-Hang%Kok%NULL%1,     Kelvin Kai-Wang%To%NULL%1,     Hin%Chu%NULL%1,     Jin%Yang%NULL%1,     Fanfan%Xing%NULL%1,     Jieling%Liu%NULL%1,     Cyril Chik-Yan%Yip%NULL%1,     Rosana Wing-Shan%Poon%NULL%1,     Hoi-Wah%Tsoi%NULL%1,     Simon Kam-Fai%Lo%NULL%1,     Kwok-Hung%Chan%NULL%0,     Vincent Kwok-Man%Poon%NULL%1,     Wan-Mui%Chan%NULL%1,     Jonathan Daniel%Ip%NULL%1,     Jian-Piao%Cai%NULL%1,     Vincent Chi-Chung%Cheng%NULL%1,     Honglin%Chen%NULL%1,     Christopher Kim-Ming%Hui%NULL%1,     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,      Dengju%Li%NULL%0,      Xiong%Wang%NULL%0,      Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,      Hanxiong%Guan%NULL%1,      Shuchang%Zhou%NULL%1,      Yujin%Wang%NULL%1,      Qian%Li%NULL%1,      Tingting%Zhu%NULL%1,      Qiongjie%Hu%qjhu@outlook.com%1,      Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,      Jenny%Chen%NULL%1,      Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,      Yang%Yang%NULL%0,      Cong%Zhang%NULL%0,      Fengming%Huang%NULL%0,      Fuxiang%Wang%NULL%0,      Jing%Yuan%NULL%0,      Zhaoqin%Wang%NULL%0,      Jinxiu%Li%NULL%0,      Jianming%Li%NULL%0,      Cheng%Feng%NULL%0,      Zheng%Zhang%NULL%0,      Lifei%Wang%NULL%0,      Ling%Peng%NULL%0,      Li%Chen%NULL%0,      Yuhao%Qin%NULL%0,      Dandan%Zhao%NULL%0,      Shuguang%Tan%NULL%0,      Lu%Yin%NULL%0,      Jun%Xu%NULL%0,      Congzhao%Zhou%NULL%0,      Chengyu%Jiang%jiang@pumc.edu.cn%0,      Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,      Xueyan%Mei%NULL%4,      Xueyan%Mei%NULL%0,      Mingqian%Huang%NULL%4,      Mingqian%Huang%NULL%0,      Yang%Yang%NULL%0,      Zahi A.%Fayad%NULL%0,      Zahi A.%Fayad%NULL%0,      Ning%Zhang%NULL%5,      Ning%Zhang%NULL%0,      Kaiyue%Diao%NULL%2,      Kaiyue%Diao%NULL%0,      Bin%Lin%NULL%1,      Xiqi%Zhu%NULL%2,      Xiqi%Zhu%NULL%0,      Kunwei%Li%NULL%2,      Shaolin%Li%NULL%2,      Hong%Shan%NULL%0,      Adam%Jacobi%NULL%3,      Adam%Jacobi%NULL%0,      Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,      Ranjit%Sah%ranjitsah@iom.edu.np%0,      Alfonso J%Rodriguez-Morales%NULL%1,      Bibek Kumar%Lal%NULL%1,      Runa%Jha%NULL%1,      Hemant Chanda%Ojha%NULL%1,      Bikesh%Shrestha%NULL%1,      Daniel K W%Chu%NULL%1,      Leo L M%Poon%NULL%1,      Anthony%Costello%NULL%1,      Kouichi%Morita%NULL%1,      Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%0,      Xuan%Dong%NULL%0,      Jieming%Qu%NULL%0,      Fengyun%Gong%NULL%0,      Yang%Han%NULL%0,      Yang%Qiu%NULL%0,      Jingli%Wang%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,      Adam%Bernheim%NULL%2,      Adam%Bernheim%NULL%0,      Xueyan%Mei%NULL%0,      Xueyan%Mei%NULL%0,      Ning%Zhang%NULL%0,      Ning%Zhang%NULL%0,      Mingqian%Huang%NULL%0,      Mingqian%Huang%NULL%0,      Xianjun%Zeng%NULL%1,      Jiufa%Cui%NULL%1,      Wenjian%Xu%NULL%2,      Wenjian%Xu%NULL%0,      Yang%Yang%NULL%0,      Zahi A.%Fayad%NULL%0,      Zahi A.%Fayad%NULL%0,      Adam%Jacobi%NULL%0,      Kunwei%Li%NULL%0,      Shaolin%Li%NULL%0,      Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,      Jie%Qin%qinjie@mail.sysu.edu.cn%2,      Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,      M%Zhao%NULL%1,      S%Li%NULL%1,      L%Yang%NULL%1,      B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,      Huangqi%Zhang%NULL%4,      Huangqi%Zhang%NULL%0,      Jicheng%Xie%NULL%4,      Jicheng%Xie%NULL%0,      Minjie%Lin%NULL%2,      Minjie%Lin%NULL%0,      Lingjun%Ying%NULL%2,      Lingjun%Ying%NULL%0,      Peipei%Pang%NULL%4,      Peipei%Pang%NULL%0,      Wenbin%Ji%1224190004@qq.com%4,      Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,      Huangqi%Zhang%NULL%0,      Huangqi%Zhang%NULL%0,      Yunyu%Xu%NULL%2,      Yunyu%Xu%NULL%0,      Jicheng%Xie%NULL%0,      Jicheng%Xie%NULL%0,      Peipei%Pang%NULL%0,      Peipei%Pang%NULL%0,      Wenbin%Ji%1224190004@qq.com%0,      Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,      Domenico%Benvenuto%NULL%1,      Silvia%Angeletti%s.angeletti@unicampus.it%2,      Silvia%Angeletti%s.angeletti@unicampus.it%0,      Massimo%Ciccozzi%NULL%2,      Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,      M.%Li%NULL%1,      X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,      Chas%DeBolt%NULL%1,      Scott%Lindquist%NULL%1,      Kathy H.%Lofy%NULL%1,      John%Wiesman%NULL%1,      Hollianne%Bruce%NULL%0,      Christopher%Spitters%NULL%0,      Keith%Ericson%NULL%1,      Sara%Wilkerson%NULL%1,      Ahmet%Tural%NULL%1,      George%Diaz%NULL%1,      Amanda%Cohn%NULL%2,      LeAnne%Fox%NULL%1,      Anita%Patel%NULL%1,      Susan I.%Gerber%NULL%1,      Lindsay%Kim%NULL%1,      Suxiang%Tong%NULL%1,      Xiaoyan%Lu%NULL%1,      Steve%Lindstrom%NULL%1,      Mark A.%Pallansch%NULL%1,      William C.%Weldon%NULL%1,      Holly M.%Biggs%NULL%1,      Timothy M.%Uyeki%NULL%0,      Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,      Tianzhu%Liu%NULL%2,      Tianzhu%Liu%NULL%0,      Lesheng%Huang%NULL%2,      Lesheng%Huang%NULL%0,      Hailong%Liu%NULL%2,      Hailong%Liu%NULL%0,      Ming%Lei%NULL%1,      Wangdong%Xu%NULL%2,      Wangdong%Xu%NULL%0,      Xiaolu%Hu%NULL%1,      Jun%Chen%NULL%6,      Bo%Liu%liubogzcm@163.com%4,      Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,      Juanjuan%Guo%NULL%0,      Chen%Wang%NULL%0,      Fan%Luo%NULL%0,      Xuechen%Yu%NULL%0,      Wei%Zhang%NULL%0,      Jiafu%Li%NULL%0,      Dongchi%Zhao%NULL%0,      Dan%Xu%NULL%0,      Qing%Gong%NULL%0,      Jing%Liao%NULL%0,      Huixia%Yang%yanghuixia@bjmu.edu.cn%0,      Wei%Hou%houwei@whu.edu.cn%0,      Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,      Junfeng%Li%NULL%1,      Xun%Li%NULL%0,      Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,      Xuhua%Guan%NULL%1,      Peng%Wu%NULL%1,      Xiaoye%Wang%NULL%1,      Lei%Zhou%NULL%0,      Yeqing%Tong%NULL%1,      Ruiqi%Ren%NULL%1,      Kathy S.M.%Leung%NULL%1,      Eric H.Y.%Lau%NULL%1,      Jessica Y.%Wong%NULL%1,      Xuesen%Xing%NULL%1,      Nijuan%Xiang%NULL%0,      Yang%Wu%NULL%1,      Chao%Li%NULL%1,      Qi%Chen%NULL%1,      Dan%Li%NULL%1,      Tian%Liu%NULL%1,      Jing%Zhao%NULL%1,      Man%Liu%NULL%1,      Wenxiao%Tu%NULL%1,      Chuding%Chen%NULL%1,      Lianmei%Jin%NULL%1,      Rui%Yang%NULL%1,      Qi%Wang%NULL%2,      Suhua%Zhou%NULL%1,      Rui%Wang%NULL%2,      Hui%Liu%NULL%0,      Yinbo%Luo%NULL%1,      Yuan%Liu%NULL%1,      Ge%Shao%NULL%1,      Huan%Li%NULL%1,      Zhongfa%Tao%NULL%1,      Yang%Yang%NULL%0,      Zhiqiang%Deng%NULL%1,      Boxi%Liu%NULL%1,      Zhitao%Ma%NULL%1,      Yanping%Zhang%NULL%1,      Guoqing%Shi%NULL%1,      Tommy T.Y.%Lam%NULL%1,      Joseph T.%Wu%NULL%1,      George F.%Gao%NULL%3,      Benjamin J.%Cowling%NULL%2,      Bo%Yang%NULL%5,      Bo%Yang%NULL%0,      Gabriel M.%Leung%NULL%1,      Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,      Zhenyu%Gong%NULL%2,      Zhenyu%Gong%NULL%0,      Zuke%Xiao%NULL%2,      Zuke%Xiao%NULL%0,      Jingliang%Xiong%NULL%1,      Bing%Fan%NULL%2,      Jiaqi%Liu%NULL%2,      Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Mei-Fang%Wang%NULL%0,      Jing-Ping%Ma%NULL%0,      Wei%Xiao%NULL%0,      Ying-Nan%Wang%NULL%0,      Min-Hua%Zhong%NULL%0,      Cheng-Hong%Li%NULL%0,      Guang-Cai%Li%NULL%0,      Hui-Guo%Liu%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,      Xian-zheng%Tan%xianzhengtan@163.com%2,      Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,      Tianhe%Ye%NULL%0,      Tianhe%Ye%NULL%0,      Peng%Sun%NULL%0,      Peng%Sun%NULL%0,      Shan%Gui%NULL%0,      Shan%Gui%NULL%0,      Bo%Liang%NULL%0,      Bo%Liang%NULL%0,      Lingli%Li%NULL%0,      Lingli%Li%NULL%0,      Dandan%Zheng%NULL%0,      Dandan%Zheng%NULL%0,      Jiazheng%Wang%NULL%0,      Jiazheng%Wang%NULL%0,      Richard L.%Hesketh%NULL%0,      Richard L.%Hesketh%NULL%0,      Lian%Yang%yanglian@hust.edu.cn%0,      Lian%Yang%yanglian@hust.edu.cn%0,      Chuansheng%Zheng%NULL%0,      Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,      Thuong V.%Nguyen%NULL%1,      Quang C.%Luong%NULL%1,      Thinh V.%Nguyen%NULL%1,      Hieu T.%Nguyen%NULL%1,      Hung Q.%Le%NULL%2,      Hung Q.%Le%NULL%0,      Thuc T.%Nguyen%NULL%1,      Thang M.%Cao%NULL%2,      Thang M.%Cao%NULL%0,      Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,      Krit%Pongpirul%NULL%2,      Krit%Pongpirul%NULL%0,      Anuttra C.%Ratnarathon%NULL%2,      Anuttra C.%Ratnarathon%NULL%0,      Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,      Ye-Ming%Wang%NULL%1,      Zhi-Qiang%Wu%NULL%1,      Zi-Chun%Xiang%NULL%1,      Li%Guo%NULL%0,      Teng%Xu%NULL%1,      Yong-Zhong%Jiang%NULL%1,      Yan%Xiong%NULL%0,      Yong-Jun%Li%NULL%1,      Xing-Wang%Li%NULL%1,      Hui%Li%NULL%0,      Guo-Hui%Fan%NULL%1,      Xiao-Ying%Gu%NULL%1,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Jiu-Yang%Xu%NULL%1,      Fan%Yang%NULL%2,      Xin-Ming%Wang%NULL%1,      Chao%Wu%NULL%1,      Lan%Chen%NULL%1,      Yi-Wei%Liu%NULL%1,      Bo%Liu%NULL%0,      Jian%Yang%NULL%1,      Xiao-Rui%Wang%NULL%1,      Jie%Dong%NULL%1,      Li%Li%NULL%0,      Chao-Lin%Huang%NULL%1,      Jian-Ping%Zhao%NULL%1,      Yi%Hu%NULL%0,      Zhen-Shun%Cheng%NULL%1,      Lin-Lin%Liu%NULL%1,      Zhao-Hui%Qian%NULL%1,      Chuan%Qin%NULL%1,      Qi%Jin%NULL%0,      Bin%Cao%NULL%0,      Jian-Wei%Wang%NULL%1,      Xiu-Yuan%Hao%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,      Mirjam%Schunk%NULL%1,      Peter%Sothmann%NULL%1,      Gisela%Bretzel%NULL%1,      Guenter%Froeschl%NULL%1,      Claudia%Wallrauch%NULL%1,      Thorbjörn%Zimmer%NULL%1,      Verena%Thiel%NULL%1,      Christian%Janke%NULL%1,      Wolfgang%Guggemos%NULL%2,      Wolfgang%Guggemos%NULL%0,      Michael%Seilmaier%NULL%1,      Christian%Drosten%NULL%2,      Christian%Drosten%NULL%0,      Patrick%Vollmar%NULL%2,      Patrick%Vollmar%NULL%0,      Katrin%Zwirglmaier%NULL%1,      Sabine%Zange%NULL%1,      Roman%Wölfel%NULL%1,      Michael%Hoelscher%NULL%2,      Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,      Xiaoyu%Han%NULL%2,      Xiaoyu%Han%NULL%0,      Chuansheng%Zheng%hqzcsxh@sina.com%0,      Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,      Lynfa%Stroud%NULL%1,      Graham Edward%Cleghorn%NULL%1,      Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,      Nannan%Shi%NULL%2,      Nannan%Shi%NULL%0,      Fei%Shan%NULL%1,      Zhiyong%Zhang%NULL%1,      Jie%Shen%NULL%1,      Hongzhou%Lu%NULL%0,      Yun%Ling%NULL%0,      Yebin%Jiang%NULL%2,      Yebin%Jiang%NULL%0,      Yuxin%Shi%shiyuxin@shphc.org.cn%0,      Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,      Jianming%Tang%15900792812@163.com%1,      Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,      Zheng%Zhong%NULL%2,      Zheng%Zhong%NULL%0,      Wei%Zhao%NULL%2,      Wei%Zhao%NULL%0,      Chao%Zheng%NULL%2,      Chao%Zheng%NULL%0,      Fei%Wang%NULL%2,      Fei%Wang%NULL%0,      Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,      Chengcheng%Yu%1515185140@qq.com%0,      Lieguang%Zhang%zhlieguang@126.com%0,      Liangping%Luo%tluolp@jnu.edu.cn%0,      Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,      Xiao-Xin%Wu%NULL%0,      Xian-Gao%Jiang%NULL%0,      Kai-Jin%Xu%NULL%0,      Ling-Jun%Ying%NULL%0,      Chun-Lian%Ma%NULL%0,      Shi-Bo%Li%NULL%0,      Hua-Ying%Wang%NULL%0,      Sheng%Zhang%NULL%0,      Hai-Nv%Gao%NULL%0,      Ji-Fang%Sheng%NULL%0,      Hong-Liu%Cai%NULL%0,      Yun-Qing%Qiu%NULL%0,      Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,      Xiaochen%Li%NULL%2,      Xiaochen%Li%NULL%0,      Wei%Zhang%NULL%0,      Zheng-Li%Shi%NULL%1,      Zhishui%Zheng%NULL%1,      Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,      Nak-Jung%Kwon%NULL%2,      Nak-Jung%Kwon%NULL%0,      Su-Jin%Choi%NULL%2,      Su-Jin%Choi%NULL%0,      Chang Kyung%Kang%NULL%4,      Chang Kyung%Kang%NULL%0,      Pyoeng Gyun%Choe%NULL%4,      Pyoeng Gyun%Choe%NULL%0,      Jin Yong%Kim%NULL%8,      Jin Yong%Kim%NULL%0,      Jiyoung%Yun%NULL%2,      Jiyoung%Yun%NULL%0,      Gir-Won%Lee%NULL%2,      Gir-Won%Lee%NULL%0,      Moon-Woo%Seong%NULL%2,      Moon-Woo%Seong%NULL%0,      Nam Joong%Kim%NULL%4,      Nam Joong%Kim%NULL%0,      Jeong-Sun%Seo%NULL%2,      Jeong-Sun%Seo%NULL%0,      Myoung-don%Oh%NULL%6,      Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,      Seunghyun%Jeon%NULL%2,      Seunghyun%Jeon%NULL%0,      Hyun-Young%Shin%NULL%2,      Hyun-Young%Shin%NULL%0,      Moon Jung%Kim%NULL%2,      Moon Jung%Kim%NULL%0,      Yu Min%Seong%NULL%2,      Yu Min%Seong%NULL%0,      Wang Jun%Lee%NULL%2,      Wang Jun%Lee%NULL%0,      Kang-Won%Choe%NULL%2,      Kang-Won%Choe%NULL%0,      Yu Min%Kang%NULL%4,      Yu Min%Kang%NULL%0,      Baeckseung%Lee%NULL%2,      Baeckseung%Lee%NULL%0,      Sang-Joon%Park%NULL%2,      Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,      Pyoeng Gyun%Choe%NULL%0,      Pyoeng Gyun%Choe%NULL%0,      Yoonju%Oh%NULL%2,      Yoonju%Oh%NULL%0,      Kyung Joong%Oh%NULL%2,      Kyung Joong%Oh%NULL%0,      Jinsil%Kim%NULL%2,      Jinsil%Kim%NULL%0,      So Jeong%Park%NULL%2,      So Jeong%Park%NULL%0,      Ji Hye%Park%NULL%2,      Ji Hye%Park%NULL%0,      Hye Kyoung%Na%NULL%2,      Hye Kyoung%Na%NULL%0,      Myoung-don%Oh%NULL%0,      Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,       Q.% Lu%null%1,       M.% Liu%null%1,       Y.% Wang%null%1,       A.% Zhang%null%1,       N.% Jalali%null%1,       N.% Dean%null%1,       I.% Longini%null%1,       M. E.% Halloran%null%1,       B.% Xu%null%1,       X.% Zhang%null%1,       L.% Wang%null%1,       W.% Liu%null%1,       L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,      Dingyu%Zhang%NULL%3,      Wenling%Wang%NULL%2,      Xingwang%Li%NULL%0,      Bo%Yang%NULL%0,      Jingdong%Song%NULL%2,      Xiang%Zhao%NULL%2,      Baoying%Huang%NULL%2,      Weifeng%Shi%NULL%2,      Roujian%Lu%NULL%2,      Peihua%Niu%NULL%2,      Faxian%Zhan%NULL%2,      Xuejun%Ma%NULL%2,      Dayan%Wang%NULL%2,      Wenbo%Xu%NULL%2,      Guizhen%Wu%NULL%2,      George F.%Gao%NULL%0,      Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,      Shuofeng%Yuan%NULL%1,      Kin-Hang%Kok%NULL%1,      Kelvin Kai-Wang%To%NULL%1,      Hin%Chu%NULL%1,      Jin%Yang%NULL%1,      Fanfan%Xing%NULL%1,      Jieling%Liu%NULL%1,      Cyril Chik-Yan%Yip%NULL%1,      Rosana Wing-Shan%Poon%NULL%1,      Hoi-Wah%Tsoi%NULL%1,      Simon Kam-Fai%Lo%NULL%1,      Kwok-Hung%Chan%NULL%0,      Vincent Kwok-Man%Poon%NULL%1,      Wan-Mui%Chan%NULL%1,      Jonathan Daniel%Ip%NULL%1,      Jian-Piao%Cai%NULL%1,      Vincent Chi-Chung%Cheng%NULL%1,      Honglin%Chen%NULL%1,      Christopher Kim-Ming%Hui%NULL%1,      Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +2171,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>442</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -1632,7 +2200,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -1690,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>444</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -1719,7 +2287,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>445</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -1748,7 +2316,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -1864,7 +2432,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>447</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -1980,7 +2548,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -2009,7 +2577,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -2038,7 +2606,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -2067,7 +2635,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>451</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -2096,7 +2664,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>452</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2125,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>453</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2154,7 +2722,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2183,7 +2751,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -2212,7 +2780,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -2241,7 +2809,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>457</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -2270,7 +2838,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -2299,7 +2867,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -2328,7 +2896,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>460</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -2357,7 +2925,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2386,7 +2954,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>462</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -2415,7 +2983,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>463</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -2473,7 +3041,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -2531,7 +3099,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>465</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -2560,7 +3128,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>466</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -2589,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>467</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -2618,7 +3186,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>285</v>
+        <v>468</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -2647,7 +3215,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>469</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -2676,7 +3244,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>470</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -2705,7 +3273,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>288</v>
+        <v>471</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -2734,7 +3302,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>289</v>
+        <v>472</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -2763,7 +3331,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -2792,7 +3360,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -2850,7 +3418,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>475</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -2879,7 +3447,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -2908,7 +3476,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>477</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -2937,7 +3505,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>478</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -2989,19 +3557,19 @@
         <v>44013.0</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>479</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="H50" t="s">
         <v>85</v>
@@ -3082,7 +3650,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -3111,7 +3679,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>481</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -3140,7 +3708,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>482</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -3169,7 +3737,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>483</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -3198,7 +3766,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s">
         <v>71</v>
@@ -3227,7 +3795,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>302</v>
+        <v>485</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -3256,7 +3824,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="594">
   <si>
     <t>Doi</t>
   </si>
@@ -1837,6 +1837,328 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,      Shuofeng%Yuan%NULL%1,      Kin-Hang%Kok%NULL%1,      Kelvin Kai-Wang%To%NULL%1,      Hin%Chu%NULL%1,      Jin%Yang%NULL%1,      Fanfan%Xing%NULL%1,      Jieling%Liu%NULL%1,      Cyril Chik-Yan%Yip%NULL%1,      Rosana Wing-Shan%Poon%NULL%1,      Hoi-Wah%Tsoi%NULL%1,      Simon Kam-Fai%Lo%NULL%1,      Kwok-Hung%Chan%NULL%0,      Vincent Kwok-Man%Poon%NULL%1,      Wan-Mui%Chan%NULL%1,      Jonathan Daniel%Ip%NULL%1,      Jian-Piao%Cai%NULL%1,      Vincent Chi-Chung%Cheng%NULL%1,      Honglin%Chen%NULL%1,      Christopher Kim-Ming%Hui%NULL%1,      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,       Dengju%Li%NULL%0,       Xiong%Wang%NULL%0,       Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,       Hanxiong%Guan%NULL%1,       Shuchang%Zhou%NULL%1,       Yujin%Wang%NULL%1,       Qian%Li%NULL%1,       Tingting%Zhu%NULL%1,       Qiongjie%Hu%qjhu@outlook.com%1,       Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,       Jenny%Chen%NULL%1,       Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,       Yang%Yang%NULL%0,       Cong%Zhang%NULL%0,       Fengming%Huang%NULL%0,       Fuxiang%Wang%NULL%0,       Jing%Yuan%NULL%0,       Zhaoqin%Wang%NULL%0,       Jinxiu%Li%NULL%0,       Jianming%Li%NULL%0,       Cheng%Feng%NULL%0,       Zheng%Zhang%NULL%0,       Lifei%Wang%NULL%0,       Ling%Peng%NULL%0,       Li%Chen%NULL%0,       Yuhao%Qin%NULL%0,       Dandan%Zhao%NULL%0,       Shuguang%Tan%NULL%0,       Lu%Yin%NULL%0,       Jun%Xu%NULL%0,       Congzhao%Zhou%NULL%0,       Chengyu%Jiang%jiang@pumc.edu.cn%0,       Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%2,       Xueyan%Mei%NULL%4,       Xueyan%Mei%NULL%0,       Mingqian%Huang%NULL%4,       Mingqian%Huang%NULL%0,       Yang%Yang%NULL%0,       Zahi A.%Fayad%NULL%0,       Zahi A.%Fayad%NULL%0,       Ning%Zhang%NULL%5,       Ning%Zhang%NULL%0,       Kaiyue%Diao%NULL%2,       Kaiyue%Diao%NULL%0,       Bin%Lin%NULL%1,       Xiqi%Zhu%NULL%2,       Xiqi%Zhu%NULL%0,       Kunwei%Li%NULL%2,       Shaolin%Li%NULL%2,       Hong%Shan%NULL%0,       Adam%Jacobi%NULL%3,       Adam%Jacobi%NULL%0,       Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>"COVID-19, Australia: Epidemiology Report 3: Reporting week ending 19:00 AEDT 15 February 2020"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"This is the third epidemiological report for coronavirus disease 2019 (COVID-19), previously known as novel coronavirus (2019-nCoV), from the virus now known as SARS-CoV-2, reported in Australia as at 19:00 Australian Eastern Daylight Time [AEDT] 15 February 2020. It includes data on the COVID-19 Australian cases, the international situation and current information on the severity, transmission and spread.
+</t>
+  </si>
+  <si>
+    <t>[Malinda%Chea%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>"Presumed Asymptomatic Carrier Transmission of COVID-19"</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1, Lingsheng%Yao%xref no email%1, Tao%Wei%xref no email%1, Fei%Tian%xref no email%1, Dong-Yan%Jin%xref no email%1, Lijuan%Chen%xref no email%1, Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,       Ranjit%Sah%ranjitsah@iom.edu.np%0,       Alfonso J%Rodriguez-Morales%NULL%1,       Bibek Kumar%Lal%NULL%1,       Runa%Jha%NULL%1,       Hemant Chanda%Ojha%NULL%1,       Bikesh%Shrestha%NULL%1,       Daniel K W%Chu%NULL%1,       Leo L M%Poon%NULL%1,       Anthony%Costello%NULL%1,       Kouichi%Morita%NULL%1,       Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic and Clinical Characteristics of Novel Coronavirus Infections Involving 13 Patients Outside Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0, Minggui%Lin%xref no email%0, Lai%Wei%xref no email%0, Lixin%Xie%xref no email%0, Guangfa%Zhu%xref no email%0, Charles S.%Dela Cruz%xref no email%0, Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%0,       Xuan%Dong%NULL%0,       Jieming%Qu%NULL%0,       Fengyun%Gong%NULL%0,       Yang%Han%NULL%0,       Yang%Qiu%NULL%0,       Jingli%Wang%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%2,       Adam%Bernheim%NULL%2,       Adam%Bernheim%NULL%0,       Xueyan%Mei%NULL%0,       Xueyan%Mei%NULL%0,       Ning%Zhang%NULL%0,       Ning%Zhang%NULL%0,       Mingqian%Huang%NULL%0,       Mingqian%Huang%NULL%0,       Xianjun%Zeng%NULL%1,       Jiufa%Cui%NULL%1,       Wenjian%Xu%NULL%2,       Wenjian%Xu%NULL%0,       Yang%Yang%NULL%0,       Zahi A.%Fayad%NULL%0,       Zahi A.%Fayad%NULL%0,       Adam%Jacobi%NULL%0,       Kunwei%Li%NULL%0,       Shaolin%Li%NULL%0,       Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,       Jie%Qin%qinjie@mail.sysu.edu.cn%2,       Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,       M%Zhao%NULL%1,       S%Li%NULL%1,       L%Yang%NULL%1,       B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,       Huangqi%Zhang%NULL%4,       Huangqi%Zhang%NULL%0,       Jicheng%Xie%NULL%4,       Jicheng%Xie%NULL%0,       Minjie%Lin%NULL%2,       Minjie%Lin%NULL%0,       Lingjun%Ying%NULL%2,       Lingjun%Ying%NULL%0,       Peipei%Pang%NULL%4,       Peipei%Pang%NULL%0,       Wenbin%Ji%1224190004@qq.com%4,       Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,       Huangqi%Zhang%NULL%0,       Huangqi%Zhang%NULL%0,       Yunyu%Xu%NULL%2,       Yunyu%Xu%NULL%0,       Jicheng%Xie%NULL%0,       Jicheng%Xie%NULL%0,       Peipei%Pang%NULL%0,       Peipei%Pang%NULL%0,       Wenbin%Ji%1224190004@qq.com%0,       Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,       Domenico%Benvenuto%NULL%1,       Silvia%Angeletti%s.angeletti@unicampus.it%2,       Silvia%Angeletti%s.angeletti@unicampus.it%0,       Massimo%Ciccozzi%NULL%2,       Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,       M.%Li%NULL%1,       X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,       Chas%DeBolt%NULL%1,       Scott%Lindquist%NULL%1,       Kathy H.%Lofy%NULL%1,       John%Wiesman%NULL%1,       Hollianne%Bruce%NULL%0,       Christopher%Spitters%NULL%0,       Keith%Ericson%NULL%1,       Sara%Wilkerson%NULL%1,       Ahmet%Tural%NULL%1,       George%Diaz%NULL%1,       Amanda%Cohn%NULL%2,       LeAnne%Fox%NULL%1,       Anita%Patel%NULL%1,       Susan I.%Gerber%NULL%1,       Lindsay%Kim%NULL%1,       Suxiang%Tong%NULL%1,       Xiaoyan%Lu%NULL%1,       Steve%Lindstrom%NULL%1,       Mark A.%Pallansch%NULL%1,       William C.%Weldon%NULL%1,       Holly M.%Biggs%NULL%1,       Timothy M.%Uyeki%NULL%0,       Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,       Tianzhu%Liu%NULL%2,       Tianzhu%Liu%NULL%0,       Lesheng%Huang%NULL%2,       Lesheng%Huang%NULL%0,       Hailong%Liu%NULL%2,       Hailong%Liu%NULL%0,       Ming%Lei%NULL%1,       Wangdong%Xu%NULL%2,       Wangdong%Xu%NULL%0,       Xiaolu%Hu%NULL%1,       Jun%Chen%NULL%3,       Bo%Liu%liubogzcm@163.com%3,       Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,       Juanjuan%Guo%NULL%0,       Chen%Wang%NULL%0,       Fan%Luo%NULL%0,       Xuechen%Yu%NULL%0,       Wei%Zhang%NULL%0,       Jiafu%Li%NULL%0,       Dongchi%Zhao%NULL%0,       Dan%Xu%NULL%0,       Qing%Gong%NULL%0,       Jing%Liao%NULL%0,       Huixia%Yang%yanghuixia@bjmu.edu.cn%0,       Wei%Hou%houwei@whu.edu.cn%0,       Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,       Junfeng%Li%NULL%1,       Xun%Li%NULL%0,       Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,       Xuhua%Guan%NULL%1,       Peng%Wu%NULL%1,       Xiaoye%Wang%NULL%1,       Lei%Zhou%NULL%0,       Yeqing%Tong%NULL%1,       Ruiqi%Ren%NULL%1,       Kathy S.M.%Leung%NULL%1,       Eric H.Y.%Lau%NULL%1,       Jessica Y.%Wong%NULL%1,       Xuesen%Xing%NULL%1,       Nijuan%Xiang%NULL%0,       Yang%Wu%NULL%1,       Chao%Li%NULL%1,       Qi%Chen%NULL%1,       Dan%Li%NULL%1,       Tian%Liu%NULL%1,       Jing%Zhao%NULL%1,       Man%Liu%NULL%1,       Wenxiao%Tu%NULL%1,       Chuding%Chen%NULL%1,       Lianmei%Jin%NULL%1,       Rui%Yang%NULL%1,       Qi%Wang%NULL%1,       Suhua%Zhou%NULL%1,       Rui%Wang%NULL%2,       Hui%Liu%NULL%0,       Yinbo%Luo%NULL%1,       Yuan%Liu%NULL%1,       Ge%Shao%NULL%1,       Huan%Li%NULL%1,       Zhongfa%Tao%NULL%1,       Yang%Yang%NULL%0,       Zhiqiang%Deng%NULL%1,       Boxi%Liu%NULL%1,       Zhitao%Ma%NULL%1,       Yanping%Zhang%NULL%1,       Guoqing%Shi%NULL%1,       Tommy T.Y.%Lam%NULL%1,       Joseph T.%Wu%NULL%1,       George F.%Gao%NULL%3,       Benjamin J.%Cowling%NULL%2,       Bo%Yang%NULL%4,       Bo%Yang%NULL%0,       Gabriel M.%Leung%NULL%1,       Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,       Zhenyu%Gong%NULL%2,       Zhenyu%Gong%NULL%0,       Zuke%Xiao%NULL%2,       Zuke%Xiao%NULL%0,       Jingliang%Xiong%NULL%1,       Bing%Fan%NULL%2,       Jiaqi%Liu%NULL%2,       Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Mei-Fang%Wang%NULL%0,       Jing-Ping%Ma%NULL%0,       Wei%Xiao%NULL%0,       Ying-Nan%Wang%NULL%0,       Min-Hua%Zhong%NULL%0,       Cheng-Hong%Li%NULL%0,       Guang-Cai%Li%NULL%0,       Hui-Guo%Liu%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,       Xian-zheng%Tan%xianzhengtan@163.com%2,       Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,       Tianhe%Ye%NULL%0,       Tianhe%Ye%NULL%0,       Peng%Sun%NULL%0,       Peng%Sun%NULL%0,       Shan%Gui%NULL%0,       Shan%Gui%NULL%0,       Bo%Liang%NULL%0,       Bo%Liang%NULL%0,       Lingli%Li%NULL%0,       Lingli%Li%NULL%0,       Dandan%Zheng%NULL%0,       Dandan%Zheng%NULL%0,       Jiazheng%Wang%NULL%0,       Jiazheng%Wang%NULL%0,       Richard L.%Hesketh%NULL%0,       Richard L.%Hesketh%NULL%0,       Lian%Yang%yanglian@hust.edu.cn%0,       Lian%Yang%yanglian@hust.edu.cn%0,       Chuansheng%Zheng%NULL%0,       Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,       Thuong V.%Nguyen%NULL%1,       Quang C.%Luong%NULL%1,       Thinh V.%Nguyen%NULL%1,       Hieu T.%Nguyen%NULL%1,       Hung Q.%Le%NULL%2,       Hung Q.%Le%NULL%0,       Thuc T.%Nguyen%NULL%1,       Thang M.%Cao%NULL%2,       Thang M.%Cao%NULL%0,       Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,       Krit%Pongpirul%NULL%2,       Krit%Pongpirul%NULL%0,       Anuttra C.%Ratnarathon%NULL%2,       Anuttra C.%Ratnarathon%NULL%0,       Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,       Ye-Ming%Wang%NULL%1,       Zhi-Qiang%Wu%NULL%1,       Zi-Chun%Xiang%NULL%1,       Li%Guo%NULL%0,       Teng%Xu%NULL%1,       Yong-Zhong%Jiang%NULL%1,       Yan%Xiong%NULL%0,       Yong-Jun%Li%NULL%1,       Xing-Wang%Li%NULL%1,       Hui%Li%NULL%0,       Guo-Hui%Fan%NULL%1,       Xiao-Ying%Gu%NULL%1,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Jiu-Yang%Xu%NULL%1,       Fan%Yang%NULL%1,       Xin-Ming%Wang%NULL%1,       Chao%Wu%NULL%1,       Lan%Chen%NULL%1,       Yi-Wei%Liu%NULL%1,       Bo%Liu%NULL%0,       Jian%Yang%NULL%1,       Xiao-Rui%Wang%NULL%1,       Jie%Dong%NULL%1,       Li%Li%NULL%0,       Chao-Lin%Huang%NULL%1,       Jian-Ping%Zhao%NULL%1,       Yi%Hu%NULL%0,       Zhen-Shun%Cheng%NULL%1,       Lin-Lin%Liu%NULL%1,       Zhao-Hui%Qian%NULL%1,       Chuan%Qin%NULL%1,       Qi%Jin%NULL%0,       Bin%Cao%NULL%0,       Jian-Wei%Wang%NULL%1,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,       Mirjam%Schunk%NULL%1,       Peter%Sothmann%NULL%1,       Gisela%Bretzel%NULL%1,       Guenter%Froeschl%NULL%1,       Claudia%Wallrauch%NULL%1,       Thorbjörn%Zimmer%NULL%1,       Verena%Thiel%NULL%1,       Christian%Janke%NULL%1,       Wolfgang%Guggemos%NULL%2,       Wolfgang%Guggemos%NULL%0,       Michael%Seilmaier%NULL%1,       Christian%Drosten%NULL%2,       Christian%Drosten%NULL%0,       Patrick%Vollmar%NULL%2,       Patrick%Vollmar%NULL%0,       Katrin%Zwirglmaier%NULL%1,       Sabine%Zange%NULL%1,       Roman%Wölfel%NULL%1,       Michael%Hoelscher%NULL%2,       Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,       Xiaoyu%Han%NULL%2,       Xiaoyu%Han%NULL%0,       Chuansheng%Zheng%hqzcsxh@sina.com%0,       Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,       Lynfa%Stroud%NULL%1,       Graham Edward%Cleghorn%NULL%1,       Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,       Nannan%Shi%NULL%2,       Nannan%Shi%NULL%0,       Fei%Shan%NULL%1,       Zhiyong%Zhang%NULL%1,       Jie%Shen%NULL%1,       Hongzhou%Lu%NULL%0,       Yun%Ling%NULL%0,       Yebin%Jiang%NULL%2,       Yebin%Jiang%NULL%0,       Yuxin%Shi%shiyuxin@shphc.org.cn%0,       Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,       Jianming%Tang%15900792812@163.com%1,       Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>"Novel Coronavirus Infection in Hospitalized Infants Under 1 Year of Age in China"</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1, Jingping%Yuan%xref no email%1, Yu%Liu%xref no email%1, Tao%Fu%xref no email%1, Xue%Yu%xref no email%1, Zhi-Jiang%Zhang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,       Zheng%Zhong%NULL%2,       Zheng%Zhong%NULL%0,       Wei%Zhao%NULL%2,       Wei%Zhao%NULL%0,       Chao%Zheng%NULL%2,       Chao%Zheng%NULL%0,       Fei%Wang%NULL%2,       Fei%Wang%NULL%0,       Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,       Chengcheng%Yu%1515185140@qq.com%0,       Lieguang%Zhang%zhlieguang@126.com%0,       Liangping%Luo%tluolp@jnu.edu.cn%0,       Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,       Xiao-Xin%Wu%NULL%0,       Xian-Gao%Jiang%NULL%0,       Kai-Jin%Xu%NULL%0,       Ling-Jun%Ying%NULL%0,       Chun-Lian%Ma%NULL%0,       Shi-Bo%Li%NULL%0,       Hua-Ying%Wang%NULL%0,       Sheng%Zhang%NULL%0,       Hai-Nv%Gao%NULL%0,       Ji-Fang%Sheng%NULL%0,       Hong-Liu%Cai%NULL%0,       Yun-Qing%Qiu%NULL%0,       Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,       Xiaochen%Li%NULL%2,       Xiaochen%Li%NULL%0,       Wei%Zhang%NULL%0,       Zheng-Li%Shi%NULL%1,       Zhishui%Zheng%NULL%1,       Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,       Nak-Jung%Kwon%NULL%2,       Nak-Jung%Kwon%NULL%0,       Su-Jin%Choi%NULL%2,       Su-Jin%Choi%NULL%0,       Chang Kyung%Kang%NULL%2,       Chang Kyung%Kang%NULL%0,       Pyoeng Gyun%Choe%NULL%4,       Pyoeng Gyun%Choe%NULL%0,       Jin Yong%Kim%NULL%4,       Jin Yong%Kim%NULL%0,       Jiyoung%Yun%NULL%2,       Jiyoung%Yun%NULL%0,       Gir-Won%Lee%NULL%2,       Gir-Won%Lee%NULL%0,       Moon-Woo%Seong%NULL%2,       Moon-Woo%Seong%NULL%0,       Nam Joong%Kim%NULL%2,       Nam Joong%Kim%NULL%0,       Jeong-Sun%Seo%NULL%2,       Jeong-Sun%Seo%NULL%0,       Myoung-don%Oh%NULL%4,       Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,       Seunghyun%Jeon%NULL%2,       Seunghyun%Jeon%NULL%0,       Hyun-Young%Shin%NULL%2,       Hyun-Young%Shin%NULL%0,       Moon Jung%Kim%NULL%2,       Moon Jung%Kim%NULL%0,       Yu Min%Seong%NULL%2,       Yu Min%Seong%NULL%0,       Wang Jun%Lee%NULL%2,       Wang Jun%Lee%NULL%0,       Kang-Won%Choe%NULL%2,       Kang-Won%Choe%NULL%0,       Yu Min%Kang%NULL%2,       Yu Min%Kang%NULL%0,       Baeckseung%Lee%NULL%2,       Baeckseung%Lee%NULL%0,       Sang-Joon%Park%NULL%2,       Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,       Pyoeng Gyun%Choe%NULL%0,       Pyoeng Gyun%Choe%NULL%0,       Yoonju%Oh%NULL%2,       Yoonju%Oh%NULL%0,       Kyung Joong%Oh%NULL%2,       Kyung Joong%Oh%NULL%0,       Jinsil%Kim%NULL%2,       Jinsil%Kim%NULL%0,       So Jeong%Park%NULL%2,       So Jeong%Park%NULL%0,       Ji Hye%Park%NULL%2,       Ji Hye%Park%NULL%0,       Hye Kyoung%Na%NULL%2,       Hye Kyoung%Na%NULL%0,       Myoung-don%Oh%NULL%0,       Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,        Q.% Lu%null%1,        M.% Liu%null%1,        Y.% Wang%null%1,        A.% Zhang%null%1,        N.% Jalali%null%1,        N.% Dean%null%1,        I.% Longini%null%1,        M. E.% Halloran%null%1,        B.% Xu%null%1,        X.% Zhang%null%1,        L.% Wang%null%1,        W.% Liu%null%1,        L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,       Dingyu%Zhang%NULL%3,       Wenling%Wang%NULL%2,       Xingwang%Li%NULL%0,       Bo%Yang%NULL%0,       Jingdong%Song%NULL%2,       Xiang%Zhao%NULL%2,       Baoying%Huang%NULL%2,       Weifeng%Shi%NULL%2,       Roujian%Lu%NULL%2,       Peihua%Niu%NULL%2,       Faxian%Zhan%NULL%2,       Xuejun%Ma%NULL%2,       Dayan%Wang%NULL%2,       Wenbo%Xu%NULL%2,       Guizhen%Wu%NULL%2,       George F.%Gao%NULL%0,       Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,       Shuofeng%Yuan%NULL%1,       Kin-Hang%Kok%NULL%1,       Kelvin Kai-Wang%To%NULL%1,       Hin%Chu%NULL%1,       Jin%Yang%NULL%1,       Fanfan%Xing%NULL%1,       Jieling%Liu%NULL%1,       Cyril Chik-Yan%Yip%NULL%1,       Rosana Wing-Shan%Poon%NULL%1,       Hoi-Wah%Tsoi%NULL%1,       Simon Kam-Fai%Lo%NULL%1,       Kwok-Hung%Chan%NULL%0,       Vincent Kwok-Man%Poon%NULL%1,       Wan-Mui%Chan%NULL%1,       Jonathan Daniel%Ip%NULL%1,       Jian-Piao%Cai%NULL%1,       Vincent Chi-Chung%Cheng%NULL%1,       Honglin%Chen%NULL%1,       Christopher Kim-Ming%Hui%NULL%1,       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,        Dengju%Li%NULL%0,        Xiong%Wang%NULL%0,        Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,        Hanxiong%Guan%NULL%1,        Shuchang%Zhou%NULL%1,        Yujin%Wang%NULL%1,        Qian%Li%NULL%1,        Tingting%Zhu%NULL%1,        Qiongjie%Hu%qjhu@outlook.com%1,        Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,        Jenny%Chen%NULL%1,        Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,        Yang%Yang%NULL%0,        Cong%Zhang%NULL%0,        Fengming%Huang%NULL%0,        Fuxiang%Wang%NULL%0,        Jing%Yuan%NULL%0,        Zhaoqin%Wang%NULL%0,        Jinxiu%Li%NULL%0,        Jianming%Li%NULL%0,        Cheng%Feng%NULL%0,        Zheng%Zhang%NULL%0,        Lifei%Wang%NULL%0,        Ling%Peng%NULL%0,        Li%Chen%NULL%0,        Yuhao%Qin%NULL%0,        Dandan%Zhao%NULL%0,        Shuguang%Tan%NULL%0,        Lu%Yin%NULL%0,        Jun%Xu%NULL%0,        Congzhao%Zhou%NULL%0,        Chengyu%Jiang%jiang@pumc.edu.cn%0,        Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,        Xueyan%Mei%NULL%4,        Xueyan%Mei%NULL%0,        Mingqian%Huang%NULL%4,        Mingqian%Huang%NULL%0,        Yang%Yang%NULL%0,        Zahi A.%Fayad%NULL%0,        Zahi A.%Fayad%NULL%0,        Ning%Zhang%NULL%5,        Ning%Zhang%NULL%0,        Kaiyue%Diao%NULL%2,        Kaiyue%Diao%NULL%0,        Bin%Lin%NULL%1,        Xiqi%Zhu%NULL%2,        Xiqi%Zhu%NULL%0,        Kunwei%Li%NULL%2,        Shaolin%Li%NULL%2,        Hong%Shan%NULL%0,        Adam%Jacobi%NULL%3,        Adam%Jacobi%NULL%0,        Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,  Lingsheng%Yao%xref no email%1,  Tao%Wei%xref no email%1,  Fei%Tian%xref no email%1,  Dong-Yan%Jin%xref no email%1,  Lijuan%Chen%xref no email%1,  Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,        Ranjit%Sah%ranjitsah@iom.edu.np%0,        Alfonso J%Rodriguez-Morales%NULL%1,        Bibek Kumar%Lal%NULL%1,        Runa%Jha%NULL%1,        Hemant Chanda%Ojha%NULL%1,        Bikesh%Shrestha%NULL%1,        Daniel K W%Chu%NULL%1,        Leo L M%Poon%NULL%1,        Anthony%Costello%NULL%1,        Kouichi%Morita%NULL%1,        Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,  Minggui%Lin%xref no email%0,  Lai%Wei%xref no email%0,  Lixin%Xie%xref no email%0,  Guangfa%Zhu%xref no email%0,  Charles S.%Dela Cruz%xref no email%0,  Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%0,        Xuan%Dong%NULL%0,        Jieming%Qu%NULL%0,        Fengyun%Gong%NULL%0,        Yang%Han%NULL%0,        Yang%Qiu%NULL%0,        Jingli%Wang%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,        Adam%Bernheim%NULL%2,        Adam%Bernheim%NULL%0,        Xueyan%Mei%NULL%0,        Xueyan%Mei%NULL%0,        Ning%Zhang%NULL%0,        Ning%Zhang%NULL%0,        Mingqian%Huang%NULL%0,        Mingqian%Huang%NULL%0,        Xianjun%Zeng%NULL%1,        Jiufa%Cui%NULL%1,        Wenjian%Xu%NULL%2,        Wenjian%Xu%NULL%0,        Yang%Yang%NULL%0,        Zahi A.%Fayad%NULL%0,        Zahi A.%Fayad%NULL%0,        Adam%Jacobi%NULL%0,        Kunwei%Li%NULL%0,        Shaolin%Li%NULL%0,        Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,        Jie%Qin%qinjie@mail.sysu.edu.cn%2,        Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,        M%Zhao%NULL%1,        S%Li%NULL%1,        L%Yang%NULL%1,        B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,        Huangqi%Zhang%NULL%4,        Huangqi%Zhang%NULL%0,        Jicheng%Xie%NULL%4,        Jicheng%Xie%NULL%0,        Minjie%Lin%NULL%2,        Minjie%Lin%NULL%0,        Lingjun%Ying%NULL%2,        Lingjun%Ying%NULL%0,        Peipei%Pang%NULL%4,        Peipei%Pang%NULL%0,        Wenbin%Ji%1224190004@qq.com%4,        Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,        Huangqi%Zhang%NULL%0,        Huangqi%Zhang%NULL%0,        Yunyu%Xu%NULL%2,        Yunyu%Xu%NULL%0,        Jicheng%Xie%NULL%0,        Jicheng%Xie%NULL%0,        Peipei%Pang%NULL%0,        Peipei%Pang%NULL%0,        Wenbin%Ji%1224190004@qq.com%0,        Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,        Domenico%Benvenuto%NULL%1,        Silvia%Angeletti%s.angeletti@unicampus.it%2,        Silvia%Angeletti%s.angeletti@unicampus.it%0,        Massimo%Ciccozzi%NULL%2,        Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,        M.%Li%NULL%1,        X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,        Chas%DeBolt%NULL%1,        Scott%Lindquist%NULL%1,        Kathy H.%Lofy%NULL%1,        John%Wiesman%NULL%1,        Hollianne%Bruce%NULL%0,        Christopher%Spitters%NULL%0,        Keith%Ericson%NULL%1,        Sara%Wilkerson%NULL%1,        Ahmet%Tural%NULL%1,        George%Diaz%NULL%1,        Amanda%Cohn%NULL%2,        LeAnne%Fox%NULL%1,        Anita%Patel%NULL%1,        Susan I.%Gerber%NULL%1,        Lindsay%Kim%NULL%1,        Suxiang%Tong%NULL%1,        Xiaoyan%Lu%NULL%1,        Steve%Lindstrom%NULL%1,        Mark A.%Pallansch%NULL%1,        William C.%Weldon%NULL%1,        Holly M.%Biggs%NULL%1,        Timothy M.%Uyeki%NULL%0,        Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,        Tianzhu%Liu%NULL%2,        Tianzhu%Liu%NULL%0,        Lesheng%Huang%NULL%2,        Lesheng%Huang%NULL%0,        Hailong%Liu%NULL%2,        Hailong%Liu%NULL%0,        Ming%Lei%NULL%1,        Wangdong%Xu%NULL%2,        Wangdong%Xu%NULL%0,        Xiaolu%Hu%NULL%1,        Jun%Chen%NULL%3,        Bo%Liu%liubogzcm@163.com%3,        Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,        Juanjuan%Guo%NULL%0,        Chen%Wang%NULL%0,        Fan%Luo%NULL%0,        Xuechen%Yu%NULL%0,        Wei%Zhang%NULL%0,        Jiafu%Li%NULL%0,        Dongchi%Zhao%NULL%0,        Dan%Xu%NULL%0,        Qing%Gong%NULL%0,        Jing%Liao%NULL%0,        Huixia%Yang%yanghuixia@bjmu.edu.cn%0,        Wei%Hou%houwei@whu.edu.cn%0,        Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,        Junfeng%Li%NULL%1,        Xun%Li%NULL%0,        Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,        Xuhua%Guan%NULL%1,        Peng%Wu%NULL%1,        Xiaoye%Wang%NULL%1,        Lei%Zhou%NULL%0,        Yeqing%Tong%NULL%1,        Ruiqi%Ren%NULL%1,        Kathy S.M.%Leung%NULL%1,        Eric H.Y.%Lau%NULL%1,        Jessica Y.%Wong%NULL%1,        Xuesen%Xing%NULL%1,        Nijuan%Xiang%NULL%0,        Yang%Wu%NULL%1,        Chao%Li%NULL%1,        Qi%Chen%NULL%1,        Dan%Li%NULL%1,        Tian%Liu%NULL%1,        Jing%Zhao%NULL%1,        Man%Liu%NULL%1,        Wenxiao%Tu%NULL%1,        Chuding%Chen%NULL%1,        Lianmei%Jin%NULL%1,        Rui%Yang%NULL%1,        Qi%Wang%NULL%1,        Suhua%Zhou%NULL%1,        Rui%Wang%NULL%2,        Hui%Liu%NULL%0,        Yinbo%Luo%NULL%1,        Yuan%Liu%NULL%1,        Ge%Shao%NULL%1,        Huan%Li%NULL%1,        Zhongfa%Tao%NULL%1,        Yang%Yang%NULL%0,        Zhiqiang%Deng%NULL%1,        Boxi%Liu%NULL%1,        Zhitao%Ma%NULL%1,        Yanping%Zhang%NULL%1,        Guoqing%Shi%NULL%1,        Tommy T.Y.%Lam%NULL%1,        Joseph T.%Wu%NULL%1,        George F.%Gao%NULL%3,        Benjamin J.%Cowling%NULL%2,        Bo%Yang%NULL%4,        Bo%Yang%NULL%0,        Gabriel M.%Leung%NULL%1,        Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,        Zhenyu%Gong%NULL%2,        Zhenyu%Gong%NULL%0,        Zuke%Xiao%NULL%2,        Zuke%Xiao%NULL%0,        Jingliang%Xiong%NULL%1,        Bing%Fan%NULL%2,        Jiaqi%Liu%NULL%2,        Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Mei-Fang%Wang%NULL%0,        Jing-Ping%Ma%NULL%0,        Wei%Xiao%NULL%0,        Ying-Nan%Wang%NULL%0,        Min-Hua%Zhong%NULL%0,        Cheng-Hong%Li%NULL%0,        Guang-Cai%Li%NULL%0,        Hui-Guo%Liu%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,        Xian-zheng%Tan%xianzhengtan@163.com%2,        Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,        Tianhe%Ye%NULL%0,        Tianhe%Ye%NULL%0,        Peng%Sun%NULL%0,        Peng%Sun%NULL%0,        Shan%Gui%NULL%0,        Shan%Gui%NULL%0,        Bo%Liang%NULL%0,        Bo%Liang%NULL%0,        Lingli%Li%NULL%0,        Lingli%Li%NULL%0,        Dandan%Zheng%NULL%0,        Dandan%Zheng%NULL%0,        Jiazheng%Wang%NULL%0,        Jiazheng%Wang%NULL%0,        Richard L.%Hesketh%NULL%0,        Richard L.%Hesketh%NULL%0,        Lian%Yang%yanglian@hust.edu.cn%0,        Lian%Yang%yanglian@hust.edu.cn%0,        Chuansheng%Zheng%NULL%0,        Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,        Thuong V.%Nguyen%NULL%1,        Quang C.%Luong%NULL%1,        Thinh V.%Nguyen%NULL%1,        Hieu T.%Nguyen%NULL%1,        Hung Q.%Le%NULL%2,        Hung Q.%Le%NULL%0,        Thuc T.%Nguyen%NULL%1,        Thang M.%Cao%NULL%2,        Thang M.%Cao%NULL%0,        Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,        Krit%Pongpirul%NULL%2,        Krit%Pongpirul%NULL%0,        Anuttra C.%Ratnarathon%NULL%2,        Anuttra C.%Ratnarathon%NULL%0,        Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,        Ye-Ming%Wang%NULL%1,        Zhi-Qiang%Wu%NULL%1,        Zi-Chun%Xiang%NULL%1,        Li%Guo%NULL%0,        Teng%Xu%NULL%1,        Yong-Zhong%Jiang%NULL%1,        Yan%Xiong%NULL%0,        Yong-Jun%Li%NULL%1,        Xing-Wang%Li%NULL%1,        Hui%Li%NULL%0,        Guo-Hui%Fan%NULL%1,        Xiao-Ying%Gu%NULL%1,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Jiu-Yang%Xu%NULL%1,        Fan%Yang%NULL%1,        Xin-Ming%Wang%NULL%1,        Chao%Wu%NULL%1,        Lan%Chen%NULL%1,        Yi-Wei%Liu%NULL%1,        Bo%Liu%NULL%0,        Jian%Yang%NULL%1,        Xiao-Rui%Wang%NULL%1,        Jie%Dong%NULL%1,        Li%Li%NULL%0,        Chao-Lin%Huang%NULL%1,        Jian-Ping%Zhao%NULL%1,        Yi%Hu%NULL%0,        Zhen-Shun%Cheng%NULL%1,        Lin-Lin%Liu%NULL%1,        Zhao-Hui%Qian%NULL%1,        Chuan%Qin%NULL%1,        Qi%Jin%NULL%0,        Bin%Cao%NULL%0,        Jian-Wei%Wang%NULL%1,        Xiu-Yuan%Hao%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,        Mirjam%Schunk%NULL%1,        Peter%Sothmann%NULL%1,        Gisela%Bretzel%NULL%1,        Guenter%Froeschl%NULL%1,        Claudia%Wallrauch%NULL%1,        Thorbjörn%Zimmer%NULL%1,        Verena%Thiel%NULL%1,        Christian%Janke%NULL%1,        Wolfgang%Guggemos%NULL%2,        Wolfgang%Guggemos%NULL%0,        Michael%Seilmaier%NULL%1,        Christian%Drosten%NULL%2,        Christian%Drosten%NULL%0,        Patrick%Vollmar%NULL%2,        Patrick%Vollmar%NULL%0,        Katrin%Zwirglmaier%NULL%1,        Sabine%Zange%NULL%1,        Roman%Wölfel%NULL%1,        Michael%Hoelscher%NULL%2,        Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,        Xiaoyu%Han%NULL%2,        Xiaoyu%Han%NULL%0,        Chuansheng%Zheng%hqzcsxh@sina.com%0,        Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,        Lynfa%Stroud%NULL%1,        Graham Edward%Cleghorn%NULL%1,        Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,        Nannan%Shi%NULL%2,        Nannan%Shi%NULL%0,        Fei%Shan%NULL%1,        Zhiyong%Zhang%NULL%1,        Jie%Shen%NULL%1,        Hongzhou%Lu%NULL%0,        Yun%Ling%NULL%0,        Yebin%Jiang%NULL%2,        Yebin%Jiang%NULL%0,        Yuxin%Shi%shiyuxin@shphc.org.cn%0,        Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,        Jianming%Tang%15900792812@163.com%1,        Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,  Jingping%Yuan%xref no email%1,  Yu%Liu%xref no email%1,  Tao%Fu%xref no email%1,  Xue%Yu%xref no email%1,  Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,        Zheng%Zhong%NULL%2,        Zheng%Zhong%NULL%0,        Wei%Zhao%NULL%2,        Wei%Zhao%NULL%0,        Chao%Zheng%NULL%2,        Chao%Zheng%NULL%0,        Fei%Wang%NULL%2,        Fei%Wang%NULL%0,        Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,        Chengcheng%Yu%1515185140@qq.com%0,        Lieguang%Zhang%zhlieguang@126.com%0,        Liangping%Luo%tluolp@jnu.edu.cn%0,        Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,        Xiao-Xin%Wu%NULL%0,        Xian-Gao%Jiang%NULL%0,        Kai-Jin%Xu%NULL%0,        Ling-Jun%Ying%NULL%0,        Chun-Lian%Ma%NULL%0,        Shi-Bo%Li%NULL%0,        Hua-Ying%Wang%NULL%0,        Sheng%Zhang%NULL%0,        Hai-Nv%Gao%NULL%0,        Ji-Fang%Sheng%NULL%0,        Hong-Liu%Cai%NULL%0,        Yun-Qing%Qiu%NULL%0,        Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,        Xiaochen%Li%NULL%2,        Xiaochen%Li%NULL%0,        Wei%Zhang%NULL%0,        Zheng-Li%Shi%NULL%1,        Zhishui%Zheng%NULL%1,        Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,        Nak-Jung%Kwon%NULL%2,        Nak-Jung%Kwon%NULL%0,        Su-Jin%Choi%NULL%2,        Su-Jin%Choi%NULL%0,        Chang Kyung%Kang%NULL%2,        Chang Kyung%Kang%NULL%0,        Pyoeng Gyun%Choe%NULL%4,        Pyoeng Gyun%Choe%NULL%0,        Jin Yong%Kim%NULL%4,        Jin Yong%Kim%NULL%0,        Jiyoung%Yun%NULL%2,        Jiyoung%Yun%NULL%0,        Gir-Won%Lee%NULL%2,        Gir-Won%Lee%NULL%0,        Moon-Woo%Seong%NULL%2,        Moon-Woo%Seong%NULL%0,        Nam Joong%Kim%NULL%2,        Nam Joong%Kim%NULL%0,        Jeong-Sun%Seo%NULL%2,        Jeong-Sun%Seo%NULL%0,        Myoung-don%Oh%NULL%4,        Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,        Seunghyun%Jeon%NULL%2,        Seunghyun%Jeon%NULL%0,        Hyun-Young%Shin%NULL%2,        Hyun-Young%Shin%NULL%0,        Moon Jung%Kim%NULL%2,        Moon Jung%Kim%NULL%0,        Yu Min%Seong%NULL%2,        Yu Min%Seong%NULL%0,        Wang Jun%Lee%NULL%2,        Wang Jun%Lee%NULL%0,        Kang-Won%Choe%NULL%2,        Kang-Won%Choe%NULL%0,        Yu Min%Kang%NULL%2,        Yu Min%Kang%NULL%0,        Baeckseung%Lee%NULL%2,        Baeckseung%Lee%NULL%0,        Sang-Joon%Park%NULL%2,        Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,        Pyoeng Gyun%Choe%NULL%0,        Pyoeng Gyun%Choe%NULL%0,        Yoonju%Oh%NULL%2,        Yoonju%Oh%NULL%0,        Kyung Joong%Oh%NULL%2,        Kyung Joong%Oh%NULL%0,        Jinsil%Kim%NULL%2,        Jinsil%Kim%NULL%0,        So Jeong%Park%NULL%2,        So Jeong%Park%NULL%0,        Ji Hye%Park%NULL%2,        Ji Hye%Park%NULL%0,        Hye Kyoung%Na%NULL%2,        Hye Kyoung%Na%NULL%0,        Myoung-don%Oh%NULL%0,        Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,         Q.% Lu%null%1,         M.% Liu%null%1,         Y.% Wang%null%1,         A.% Zhang%null%1,         N.% Jalali%null%1,         N.% Dean%null%1,         I.% Longini%null%1,         M. E.% Halloran%null%1,         B.% Xu%null%1,         X.% Zhang%null%1,         L.% Wang%null%1,         W.% Liu%null%1,         L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,        Dingyu%Zhang%NULL%3,        Wenling%Wang%NULL%2,        Xingwang%Li%NULL%0,        Bo%Yang%NULL%0,        Jingdong%Song%NULL%2,        Xiang%Zhao%NULL%2,        Baoying%Huang%NULL%2,        Weifeng%Shi%NULL%2,        Roujian%Lu%NULL%2,        Peihua%Niu%NULL%2,        Faxian%Zhan%NULL%2,        Xuejun%Ma%NULL%2,        Dayan%Wang%NULL%2,        Wenbo%Xu%NULL%2,        Guizhen%Wu%NULL%2,        George F.%Gao%NULL%0,        Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,        Shuofeng%Yuan%NULL%1,        Kin-Hang%Kok%NULL%1,        Kelvin Kai-Wang%To%NULL%1,        Hin%Chu%NULL%1,        Jin%Yang%NULL%1,        Fanfan%Xing%NULL%1,        Jieling%Liu%NULL%1,        Cyril Chik-Yan%Yip%NULL%1,        Rosana Wing-Shan%Poon%NULL%1,        Hoi-Wah%Tsoi%NULL%1,        Simon Kam-Fai%Lo%NULL%1,        Kwok-Hung%Chan%NULL%0,        Vincent Kwok-Man%Poon%NULL%1,        Wan-Mui%Chan%NULL%1,        Jonathan Daniel%Ip%NULL%1,        Jian-Piao%Cai%NULL%1,        Vincent Chi-Chung%Cheng%NULL%1,        Honglin%Chen%NULL%1,        Christopher Kim-Ming%Hui%NULL%1,        Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2493,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -2200,7 +2522,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>547</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -2258,7 +2580,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -2287,7 +2609,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -2316,7 +2638,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>550</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -2339,22 +2661,22 @@
         <v>43881.0</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>492</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>493</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>494</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="I8" t="s">
         <v>100</v>
@@ -2397,22 +2719,22 @@
         <v>43935.0</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>551</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>499</v>
       </c>
       <c r="I10" t="s">
         <v>100</v>
@@ -2432,7 +2754,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -2484,22 +2806,22 @@
         <v>43907.0</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>553</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>503</v>
       </c>
       <c r="I13" t="s">
         <v>100</v>
@@ -2548,7 +2870,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>554</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -2577,7 +2899,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -2606,7 +2928,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -2635,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -2664,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2693,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>453</v>
+        <v>559</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2722,7 +3044,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>560</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2751,7 +3073,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>455</v>
+        <v>561</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -2780,7 +3102,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>562</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -2809,7 +3131,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>563</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -2838,7 +3160,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>564</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -2867,7 +3189,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>459</v>
+        <v>565</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -2896,7 +3218,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>566</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -2925,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>461</v>
+        <v>567</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2954,7 +3276,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -2983,7 +3305,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>463</v>
+        <v>569</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3041,7 +3363,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -3099,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3128,7 +3450,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>466</v>
+        <v>572</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3157,7 +3479,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>467</v>
+        <v>573</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -3186,7 +3508,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>468</v>
+        <v>574</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -3215,7 +3537,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>469</v>
+        <v>575</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -3244,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>470</v>
+        <v>576</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -3273,7 +3595,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -3302,7 +3624,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>472</v>
+        <v>578</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -3331,7 +3653,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -3360,7 +3682,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>474</v>
+        <v>580</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -3383,22 +3705,22 @@
         <v>43928.0</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>531</v>
       </c>
       <c r="D44" t="s">
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>581</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>533</v>
       </c>
       <c r="I44" t="s">
         <v>100</v>
@@ -3418,7 +3740,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>475</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -3447,7 +3769,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
+        <v>583</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -3476,7 +3798,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>477</v>
+        <v>584</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -3505,7 +3827,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>478</v>
+        <v>585</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -3563,7 +3885,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>479</v>
+        <v>586</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -3650,7 +3972,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>480</v>
+        <v>587</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -3679,7 +4001,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>481</v>
+        <v>588</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -3708,7 +4030,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>482</v>
+        <v>589</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -3737,7 +4059,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>483</v>
+        <v>590</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -3766,7 +4088,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>484</v>
+        <v>591</v>
       </c>
       <c r="F57" t="s">
         <v>71</v>
@@ -3795,7 +4117,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>485</v>
+        <v>592</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -3824,7 +4146,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>486</v>
+        <v>593</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="690">
   <si>
     <t>Doi</t>
   </si>
@@ -2159,6 +2159,294 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,        Shuofeng%Yuan%NULL%1,        Kin-Hang%Kok%NULL%1,        Kelvin Kai-Wang%To%NULL%1,        Hin%Chu%NULL%1,        Jin%Yang%NULL%1,        Fanfan%Xing%NULL%1,        Jieling%Liu%NULL%1,        Cyril Chik-Yan%Yip%NULL%1,        Rosana Wing-Shan%Poon%NULL%1,        Hoi-Wah%Tsoi%NULL%1,        Simon Kam-Fai%Lo%NULL%1,        Kwok-Hung%Chan%NULL%0,        Vincent Kwok-Man%Poon%NULL%1,        Wan-Mui%Chan%NULL%1,        Jonathan Daniel%Ip%NULL%1,        Jian-Piao%Cai%NULL%1,        Vincent Chi-Chung%Cheng%NULL%1,        Honglin%Chen%NULL%1,        Christopher Kim-Ming%Hui%NULL%1,        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,         Dengju%Li%NULL%0,         Xiong%Wang%NULL%0,         Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,         Hanxiong%Guan%NULL%1,         Shuchang%Zhou%NULL%1,         Yujin%Wang%NULL%1,         Qian%Li%NULL%1,         Tingting%Zhu%NULL%1,         Qiongjie%Hu%qjhu@outlook.com%1,         Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,         Jenny%Chen%NULL%1,         Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,         Yang%Yang%NULL%0,         Cong%Zhang%NULL%0,         Fengming%Huang%NULL%0,         Fuxiang%Wang%NULL%0,         Jing%Yuan%NULL%0,         Zhaoqin%Wang%NULL%0,         Jinxiu%Li%NULL%0,         Jianming%Li%NULL%0,         Cheng%Feng%NULL%0,         Zheng%Zhang%NULL%0,         Lifei%Wang%NULL%0,         Ling%Peng%NULL%0,         Li%Chen%NULL%0,         Yuhao%Qin%NULL%0,         Dandan%Zhao%NULL%0,         Shuguang%Tan%NULL%0,         Lu%Yin%NULL%0,         Jun%Xu%NULL%0,         Congzhao%Zhou%NULL%0,         Chengyu%Jiang%jiang@pumc.edu.cn%0,         Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,         Xueyan%Mei%NULL%4,         Xueyan%Mei%NULL%0,         Mingqian%Huang%NULL%4,         Mingqian%Huang%NULL%0,         Yang%Yang%NULL%0,         Zahi A.%Fayad%NULL%0,         Zahi A.%Fayad%NULL%0,         Ning%Zhang%NULL%5,         Ning%Zhang%NULL%0,         Kaiyue%Diao%NULL%2,         Kaiyue%Diao%NULL%0,         Bin%Lin%NULL%1,         Xiqi%Zhu%NULL%2,         Xiqi%Zhu%NULL%0,         Kunwei%Li%NULL%2,         Shaolin%Li%NULL%2,         Hong%Shan%NULL%0,         Adam%Jacobi%NULL%3,         Adam%Jacobi%NULL%0,         Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,   Lingsheng%Yao%xref no email%1,   Tao%Wei%xref no email%1,   Fei%Tian%xref no email%1,   Dong-Yan%Jin%xref no email%1,   Lijuan%Chen%xref no email%1,   Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,         Ranjit%Sah%ranjitsah@iom.edu.np%0,         Alfonso J%Rodriguez-Morales%NULL%1,         Bibek Kumar%Lal%NULL%1,         Runa%Jha%NULL%1,         Hemant Chanda%Ojha%NULL%1,         Bikesh%Shrestha%NULL%1,         Daniel K W%Chu%NULL%1,         Leo L M%Poon%NULL%1,         Anthony%Costello%NULL%1,         Kouichi%Morita%NULL%1,         Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,   Minggui%Lin%xref no email%0,   Lai%Wei%xref no email%0,   Lixin%Xie%xref no email%0,   Guangfa%Zhu%xref no email%0,   Charles S.%Dela Cruz%xref no email%0,   Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%0,         Xuan%Dong%NULL%0,         Jieming%Qu%NULL%0,         Fengyun%Gong%NULL%0,         Yang%Han%NULL%0,         Yang%Qiu%NULL%0,         Jingli%Wang%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,         Adam%Bernheim%NULL%2,         Adam%Bernheim%NULL%0,         Xueyan%Mei%NULL%0,         Xueyan%Mei%NULL%0,         Ning%Zhang%NULL%0,         Ning%Zhang%NULL%0,         Mingqian%Huang%NULL%0,         Mingqian%Huang%NULL%0,         Xianjun%Zeng%NULL%1,         Jiufa%Cui%NULL%1,         Wenjian%Xu%NULL%2,         Wenjian%Xu%NULL%0,         Yang%Yang%NULL%0,         Zahi A.%Fayad%NULL%0,         Zahi A.%Fayad%NULL%0,         Adam%Jacobi%NULL%0,         Kunwei%Li%NULL%0,         Shaolin%Li%NULL%0,         Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,         Jie%Qin%qinjie@mail.sysu.edu.cn%2,         Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,         M%Zhao%NULL%1,         S%Li%NULL%1,         L%Yang%NULL%1,         B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,         Huangqi%Zhang%NULL%4,         Huangqi%Zhang%NULL%0,         Jicheng%Xie%NULL%4,         Jicheng%Xie%NULL%0,         Minjie%Lin%NULL%2,         Minjie%Lin%NULL%0,         Lingjun%Ying%NULL%2,         Lingjun%Ying%NULL%0,         Peipei%Pang%NULL%4,         Peipei%Pang%NULL%0,         Wenbin%Ji%1224190004@qq.com%4,         Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,         Huangqi%Zhang%NULL%0,         Huangqi%Zhang%NULL%0,         Yunyu%Xu%NULL%2,         Yunyu%Xu%NULL%0,         Jicheng%Xie%NULL%0,         Jicheng%Xie%NULL%0,         Peipei%Pang%NULL%0,         Peipei%Pang%NULL%0,         Wenbin%Ji%1224190004@qq.com%0,         Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,         Domenico%Benvenuto%NULL%1,         Silvia%Angeletti%s.angeletti@unicampus.it%2,         Silvia%Angeletti%s.angeletti@unicampus.it%0,         Massimo%Ciccozzi%NULL%2,         Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,         M.%Li%NULL%1,         X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,         Chas%DeBolt%NULL%1,         Scott%Lindquist%NULL%1,         Kathy H.%Lofy%NULL%1,         John%Wiesman%NULL%1,         Hollianne%Bruce%NULL%0,         Christopher%Spitters%NULL%0,         Keith%Ericson%NULL%1,         Sara%Wilkerson%NULL%1,         Ahmet%Tural%NULL%1,         George%Diaz%NULL%1,         Amanda%Cohn%NULL%2,         LeAnne%Fox%NULL%1,         Anita%Patel%NULL%1,         Susan I.%Gerber%NULL%1,         Lindsay%Kim%NULL%1,         Suxiang%Tong%NULL%1,         Xiaoyan%Lu%NULL%1,         Steve%Lindstrom%NULL%1,         Mark A.%Pallansch%NULL%1,         William C.%Weldon%NULL%1,         Holly M.%Biggs%NULL%1,         Timothy M.%Uyeki%NULL%0,         Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,         Tianzhu%Liu%NULL%2,         Tianzhu%Liu%NULL%0,         Lesheng%Huang%NULL%2,         Lesheng%Huang%NULL%0,         Hailong%Liu%NULL%2,         Hailong%Liu%NULL%0,         Ming%Lei%NULL%1,         Wangdong%Xu%NULL%2,         Wangdong%Xu%NULL%0,         Xiaolu%Hu%NULL%1,         Jun%Chen%NULL%3,         Bo%Liu%liubogzcm@163.com%3,         Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,         Juanjuan%Guo%NULL%0,         Chen%Wang%NULL%0,         Fan%Luo%NULL%0,         Xuechen%Yu%NULL%0,         Wei%Zhang%NULL%0,         Jiafu%Li%NULL%0,         Dongchi%Zhao%NULL%0,         Dan%Xu%NULL%0,         Qing%Gong%NULL%0,         Jing%Liao%NULL%0,         Huixia%Yang%yanghuixia@bjmu.edu.cn%0,         Wei%Hou%houwei@whu.edu.cn%0,         Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,         Junfeng%Li%NULL%1,         Xun%Li%NULL%0,         Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,         Xuhua%Guan%NULL%1,         Peng%Wu%NULL%1,         Xiaoye%Wang%NULL%1,         Lei%Zhou%NULL%0,         Yeqing%Tong%NULL%1,         Ruiqi%Ren%NULL%1,         Kathy S.M.%Leung%NULL%1,         Eric H.Y.%Lau%NULL%1,         Jessica Y.%Wong%NULL%1,         Xuesen%Xing%NULL%1,         Nijuan%Xiang%NULL%0,         Yang%Wu%NULL%1,         Chao%Li%NULL%1,         Qi%Chen%NULL%1,         Dan%Li%NULL%1,         Tian%Liu%NULL%1,         Jing%Zhao%NULL%1,         Man%Liu%NULL%1,         Wenxiao%Tu%NULL%1,         Chuding%Chen%NULL%1,         Lianmei%Jin%NULL%1,         Rui%Yang%NULL%1,         Qi%Wang%NULL%1,         Suhua%Zhou%NULL%1,         Rui%Wang%NULL%2,         Hui%Liu%NULL%0,         Yinbo%Luo%NULL%1,         Yuan%Liu%NULL%1,         Ge%Shao%NULL%1,         Huan%Li%NULL%1,         Zhongfa%Tao%NULL%1,         Yang%Yang%NULL%0,         Zhiqiang%Deng%NULL%1,         Boxi%Liu%NULL%1,         Zhitao%Ma%NULL%1,         Yanping%Zhang%NULL%1,         Guoqing%Shi%NULL%1,         Tommy T.Y.%Lam%NULL%1,         Joseph T.%Wu%NULL%1,         George F.%Gao%NULL%3,         Benjamin J.%Cowling%NULL%2,         Bo%Yang%NULL%4,         Bo%Yang%NULL%0,         Gabriel M.%Leung%NULL%1,         Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,         Zhenyu%Gong%NULL%2,         Zhenyu%Gong%NULL%0,         Zuke%Xiao%NULL%2,         Zuke%Xiao%NULL%0,         Jingliang%Xiong%NULL%1,         Bing%Fan%NULL%2,         Jiaqi%Liu%NULL%2,         Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Mei-Fang%Wang%NULL%0,         Jing-Ping%Ma%NULL%0,         Wei%Xiao%NULL%0,         Ying-Nan%Wang%NULL%0,         Min-Hua%Zhong%NULL%0,         Cheng-Hong%Li%NULL%0,         Guang-Cai%Li%NULL%0,         Hui-Guo%Liu%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,         Xian-zheng%Tan%xianzhengtan@163.com%2,         Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,         Tianhe%Ye%NULL%0,         Tianhe%Ye%NULL%0,         Peng%Sun%NULL%0,         Peng%Sun%NULL%0,         Shan%Gui%NULL%0,         Shan%Gui%NULL%0,         Bo%Liang%NULL%0,         Bo%Liang%NULL%0,         Lingli%Li%NULL%0,         Lingli%Li%NULL%0,         Dandan%Zheng%NULL%0,         Dandan%Zheng%NULL%0,         Jiazheng%Wang%NULL%0,         Jiazheng%Wang%NULL%0,         Richard L.%Hesketh%NULL%0,         Richard L.%Hesketh%NULL%0,         Lian%Yang%yanglian@hust.edu.cn%0,         Lian%Yang%yanglian@hust.edu.cn%0,         Chuansheng%Zheng%NULL%0,         Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,         Thuong V.%Nguyen%NULL%1,         Quang C.%Luong%NULL%1,         Thinh V.%Nguyen%NULL%1,         Hieu T.%Nguyen%NULL%1,         Hung Q.%Le%NULL%2,         Hung Q.%Le%NULL%0,         Thuc T.%Nguyen%NULL%1,         Thang M.%Cao%NULL%2,         Thang M.%Cao%NULL%0,         Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,         Krit%Pongpirul%NULL%2,         Krit%Pongpirul%NULL%0,         Anuttra C.%Ratnarathon%NULL%2,         Anuttra C.%Ratnarathon%NULL%0,         Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,         Ye-Ming%Wang%NULL%1,         Zhi-Qiang%Wu%NULL%1,         Zi-Chun%Xiang%NULL%1,         Li%Guo%NULL%0,         Teng%Xu%NULL%1,         Yong-Zhong%Jiang%NULL%1,         Yan%Xiong%NULL%0,         Yong-Jun%Li%NULL%1,         Xing-Wang%Li%NULL%1,         Hui%Li%NULL%0,         Guo-Hui%Fan%NULL%1,         Xiao-Ying%Gu%NULL%1,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Jiu-Yang%Xu%NULL%1,         Fan%Yang%NULL%1,         Xin-Ming%Wang%NULL%1,         Chao%Wu%NULL%1,         Lan%Chen%NULL%1,         Yi-Wei%Liu%NULL%1,         Bo%Liu%NULL%0,         Jian%Yang%NULL%1,         Xiao-Rui%Wang%NULL%1,         Jie%Dong%NULL%1,         Li%Li%NULL%0,         Chao-Lin%Huang%NULL%1,         Jian-Ping%Zhao%NULL%1,         Yi%Hu%NULL%0,         Zhen-Shun%Cheng%NULL%1,         Lin-Lin%Liu%NULL%1,         Zhao-Hui%Qian%NULL%1,         Chuan%Qin%NULL%1,         Qi%Jin%NULL%0,         Bin%Cao%NULL%0,         Jian-Wei%Wang%NULL%1,         Xiu-Yuan%Hao%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,         Mirjam%Schunk%NULL%1,         Peter%Sothmann%NULL%1,         Gisela%Bretzel%NULL%1,         Guenter%Froeschl%NULL%1,         Claudia%Wallrauch%NULL%1,         Thorbjörn%Zimmer%NULL%1,         Verena%Thiel%NULL%1,         Christian%Janke%NULL%1,         Wolfgang%Guggemos%NULL%2,         Wolfgang%Guggemos%NULL%0,         Michael%Seilmaier%NULL%1,         Christian%Drosten%NULL%2,         Christian%Drosten%NULL%0,         Patrick%Vollmar%NULL%2,         Patrick%Vollmar%NULL%0,         Katrin%Zwirglmaier%NULL%1,         Sabine%Zange%NULL%1,         Roman%Wölfel%NULL%1,         Michael%Hoelscher%NULL%2,         Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,         Xiaoyu%Han%NULL%2,         Xiaoyu%Han%NULL%0,         Chuansheng%Zheng%hqzcsxh@sina.com%0,         Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,         Lynfa%Stroud%NULL%1,         Graham Edward%Cleghorn%NULL%1,         Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,         Nannan%Shi%NULL%2,         Nannan%Shi%NULL%0,         Fei%Shan%NULL%1,         Zhiyong%Zhang%NULL%1,         Jie%Shen%NULL%1,         Hongzhou%Lu%NULL%0,         Yun%Ling%NULL%0,         Yebin%Jiang%NULL%2,         Yebin%Jiang%NULL%0,         Yuxin%Shi%shiyuxin@shphc.org.cn%0,         Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,         Jianming%Tang%15900792812@163.com%1,         Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,   Jingping%Yuan%xref no email%1,   Yu%Liu%xref no email%1,   Tao%Fu%xref no email%1,   Xue%Yu%xref no email%1,   Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,         Zheng%Zhong%NULL%2,         Zheng%Zhong%NULL%0,         Wei%Zhao%NULL%2,         Wei%Zhao%NULL%0,         Chao%Zheng%NULL%2,         Chao%Zheng%NULL%0,         Fei%Wang%NULL%2,         Fei%Wang%NULL%0,         Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,         Chengcheng%Yu%1515185140@qq.com%0,         Lieguang%Zhang%zhlieguang@126.com%0,         Liangping%Luo%tluolp@jnu.edu.cn%0,         Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,         Xiao-Xin%Wu%NULL%0,         Xian-Gao%Jiang%NULL%0,         Kai-Jin%Xu%NULL%0,         Ling-Jun%Ying%NULL%0,         Chun-Lian%Ma%NULL%0,         Shi-Bo%Li%NULL%0,         Hua-Ying%Wang%NULL%0,         Sheng%Zhang%NULL%0,         Hai-Nv%Gao%NULL%0,         Ji-Fang%Sheng%NULL%0,         Hong-Liu%Cai%NULL%0,         Yun-Qing%Qiu%NULL%0,         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,         Xiaochen%Li%NULL%2,         Xiaochen%Li%NULL%0,         Wei%Zhang%NULL%0,         Zheng-Li%Shi%NULL%1,         Zhishui%Zheng%NULL%1,         Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,         Nak-Jung%Kwon%NULL%2,         Nak-Jung%Kwon%NULL%0,         Su-Jin%Choi%NULL%2,         Su-Jin%Choi%NULL%0,         Chang Kyung%Kang%NULL%2,         Chang Kyung%Kang%NULL%0,         Pyoeng Gyun%Choe%NULL%4,         Pyoeng Gyun%Choe%NULL%0,         Jin Yong%Kim%NULL%4,         Jin Yong%Kim%NULL%0,         Jiyoung%Yun%NULL%2,         Jiyoung%Yun%NULL%0,         Gir-Won%Lee%NULL%2,         Gir-Won%Lee%NULL%0,         Moon-Woo%Seong%NULL%2,         Moon-Woo%Seong%NULL%0,         Nam Joong%Kim%NULL%2,         Nam Joong%Kim%NULL%0,         Jeong-Sun%Seo%NULL%2,         Jeong-Sun%Seo%NULL%0,         Myoung-don%Oh%NULL%4,         Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,         Seunghyun%Jeon%NULL%2,         Seunghyun%Jeon%NULL%0,         Hyun-Young%Shin%NULL%2,         Hyun-Young%Shin%NULL%0,         Moon Jung%Kim%NULL%2,         Moon Jung%Kim%NULL%0,         Yu Min%Seong%NULL%2,         Yu Min%Seong%NULL%0,         Wang Jun%Lee%NULL%2,         Wang Jun%Lee%NULL%0,         Kang-Won%Choe%NULL%2,         Kang-Won%Choe%NULL%0,         Yu Min%Kang%NULL%2,         Yu Min%Kang%NULL%0,         Baeckseung%Lee%NULL%2,         Baeckseung%Lee%NULL%0,         Sang-Joon%Park%NULL%2,         Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,         Pyoeng Gyun%Choe%NULL%0,         Pyoeng Gyun%Choe%NULL%0,         Yoonju%Oh%NULL%2,         Yoonju%Oh%NULL%0,         Kyung Joong%Oh%NULL%2,         Kyung Joong%Oh%NULL%0,         Jinsil%Kim%NULL%2,         Jinsil%Kim%NULL%0,         So Jeong%Park%NULL%2,         So Jeong%Park%NULL%0,         Ji Hye%Park%NULL%2,         Ji Hye%Park%NULL%0,         Hye Kyoung%Na%NULL%2,         Hye Kyoung%Na%NULL%0,         Myoung-don%Oh%NULL%0,         Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,          Q.% Lu%null%1,          M.% Liu%null%1,          Y.% Wang%null%1,          A.% Zhang%null%1,          N.% Jalali%null%1,          N.% Dean%null%1,          I.% Longini%null%1,          M. E.% Halloran%null%1,          B.% Xu%null%1,          X.% Zhang%null%1,          L.% Wang%null%1,          W.% Liu%null%1,          L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,         Dingyu%Zhang%NULL%3,         Wenling%Wang%NULL%2,         Xingwang%Li%NULL%0,         Bo%Yang%NULL%0,         Jingdong%Song%NULL%2,         Xiang%Zhao%NULL%2,         Baoying%Huang%NULL%2,         Weifeng%Shi%NULL%2,         Roujian%Lu%NULL%2,         Peihua%Niu%NULL%2,         Faxian%Zhan%NULL%2,         Xuejun%Ma%NULL%2,         Dayan%Wang%NULL%2,         Wenbo%Xu%NULL%2,         Guizhen%Wu%NULL%2,         George F.%Gao%NULL%0,         Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,         Shuofeng%Yuan%NULL%1,         Kin-Hang%Kok%NULL%1,         Kelvin Kai-Wang%To%NULL%1,         Hin%Chu%NULL%1,         Jin%Yang%NULL%1,         Fanfan%Xing%NULL%1,         Jieling%Liu%NULL%1,         Cyril Chik-Yan%Yip%NULL%1,         Rosana Wing-Shan%Poon%NULL%1,         Hoi-Wah%Tsoi%NULL%1,         Simon Kam-Fai%Lo%NULL%1,         Kwok-Hung%Chan%NULL%0,         Vincent Kwok-Man%Poon%NULL%1,         Wan-Mui%Chan%NULL%1,         Jonathan Daniel%Ip%NULL%1,         Jian-Piao%Cai%NULL%1,         Vincent Chi-Chung%Cheng%NULL%1,         Honglin%Chen%NULL%1,         Christopher Kim-Ming%Hui%NULL%1,         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,          Dengju%Li%NULL%0,          Xiong%Wang%NULL%0,          Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,          Hanxiong%Guan%NULL%1,          Shuchang%Zhou%NULL%1,          Yujin%Wang%NULL%1,          Qian%Li%NULL%1,          Tingting%Zhu%NULL%1,          Qiongjie%Hu%qjhu@outlook.com%1,          Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,          Jenny%Chen%NULL%1,          Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,          Yang%Yang%NULL%0,          Cong%Zhang%NULL%0,          Fengming%Huang%NULL%0,          Fuxiang%Wang%NULL%0,          Jing%Yuan%NULL%0,          Zhaoqin%Wang%NULL%0,          Jinxiu%Li%NULL%0,          Jianming%Li%NULL%0,          Cheng%Feng%NULL%0,          Zheng%Zhang%NULL%0,          Lifei%Wang%NULL%0,          Ling%Peng%NULL%0,          Li%Chen%NULL%0,          Yuhao%Qin%NULL%0,          Dandan%Zhao%NULL%0,          Shuguang%Tan%NULL%0,          Lu%Yin%NULL%0,          Jun%Xu%NULL%0,          Congzhao%Zhou%NULL%0,          Chengyu%Jiang%jiang@pumc.edu.cn%0,          Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,          Xueyan%Mei%NULL%4,          Xueyan%Mei%NULL%0,          Mingqian%Huang%NULL%4,          Mingqian%Huang%NULL%0,          Yang%Yang%NULL%0,          Zahi A.%Fayad%NULL%0,          Zahi A.%Fayad%NULL%0,          Ning%Zhang%NULL%5,          Ning%Zhang%NULL%0,          Kaiyue%Diao%NULL%2,          Kaiyue%Diao%NULL%0,          Bin%Lin%NULL%1,          Xiqi%Zhu%NULL%2,          Xiqi%Zhu%NULL%0,          Kunwei%Li%NULL%2,          Shaolin%Li%NULL%2,          Hong%Shan%NULL%0,          Adam%Jacobi%NULL%3,          Adam%Jacobi%NULL%0,          Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,    Lingsheng%Yao%xref no email%1,    Tao%Wei%xref no email%1,    Fei%Tian%xref no email%1,    Dong-Yan%Jin%xref no email%1,    Lijuan%Chen%xref no email%1,    Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,          Ranjit%Sah%ranjitsah@iom.edu.np%0,          Alfonso J%Rodriguez-Morales%NULL%1,          Bibek Kumar%Lal%NULL%1,          Runa%Jha%NULL%1,          Hemant Chanda%Ojha%NULL%1,          Bikesh%Shrestha%NULL%1,          Daniel K W%Chu%NULL%1,          Leo L M%Poon%NULL%1,          Anthony%Costello%NULL%1,          Kouichi%Morita%NULL%1,          Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,    Minggui%Lin%xref no email%0,    Lai%Wei%xref no email%0,    Lixin%Xie%xref no email%0,    Guangfa%Zhu%xref no email%0,    Charles S.%Dela Cruz%xref no email%0,    Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%0,          Xuan%Dong%NULL%0,          Jieming%Qu%NULL%0,          Fengyun%Gong%NULL%0,          Yang%Han%NULL%0,          Yang%Qiu%NULL%0,          Jingli%Wang%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,          Adam%Bernheim%NULL%2,          Adam%Bernheim%NULL%0,          Xueyan%Mei%NULL%0,          Xueyan%Mei%NULL%0,          Ning%Zhang%NULL%0,          Ning%Zhang%NULL%0,          Mingqian%Huang%NULL%0,          Mingqian%Huang%NULL%0,          Xianjun%Zeng%NULL%1,          Jiufa%Cui%NULL%1,          Wenjian%Xu%NULL%2,          Wenjian%Xu%NULL%0,          Yang%Yang%NULL%0,          Zahi A.%Fayad%NULL%0,          Zahi A.%Fayad%NULL%0,          Adam%Jacobi%NULL%0,          Kunwei%Li%NULL%0,          Shaolin%Li%NULL%0,          Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,          Jie%Qin%qinjie@mail.sysu.edu.cn%2,          Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,          M%Zhao%NULL%1,          S%Li%NULL%1,          L%Yang%NULL%1,          B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,          Huangqi%Zhang%NULL%4,          Huangqi%Zhang%NULL%0,          Jicheng%Xie%NULL%4,          Jicheng%Xie%NULL%0,          Minjie%Lin%NULL%2,          Minjie%Lin%NULL%0,          Lingjun%Ying%NULL%2,          Lingjun%Ying%NULL%0,          Peipei%Pang%NULL%4,          Peipei%Pang%NULL%0,          Wenbin%Ji%1224190004@qq.com%4,          Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,          Huangqi%Zhang%NULL%0,          Huangqi%Zhang%NULL%0,          Yunyu%Xu%NULL%2,          Yunyu%Xu%NULL%0,          Jicheng%Xie%NULL%0,          Jicheng%Xie%NULL%0,          Peipei%Pang%NULL%0,          Peipei%Pang%NULL%0,          Wenbin%Ji%1224190004@qq.com%0,          Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,          Domenico%Benvenuto%NULL%1,          Silvia%Angeletti%s.angeletti@unicampus.it%2,          Silvia%Angeletti%s.angeletti@unicampus.it%0,          Massimo%Ciccozzi%NULL%2,          Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,          M.%Li%NULL%1,          X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,          Chas%DeBolt%NULL%1,          Scott%Lindquist%NULL%1,          Kathy H.%Lofy%NULL%1,          John%Wiesman%NULL%1,          Hollianne%Bruce%NULL%0,          Christopher%Spitters%NULL%0,          Keith%Ericson%NULL%1,          Sara%Wilkerson%NULL%1,          Ahmet%Tural%NULL%1,          George%Diaz%NULL%1,          Amanda%Cohn%NULL%2,          LeAnne%Fox%NULL%1,          Anita%Patel%NULL%1,          Susan I.%Gerber%NULL%1,          Lindsay%Kim%NULL%1,          Suxiang%Tong%NULL%1,          Xiaoyan%Lu%NULL%1,          Steve%Lindstrom%NULL%1,          Mark A.%Pallansch%NULL%1,          William C.%Weldon%NULL%1,          Holly M.%Biggs%NULL%1,          Timothy M.%Uyeki%NULL%0,          Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,          Tianzhu%Liu%NULL%2,          Tianzhu%Liu%NULL%0,          Lesheng%Huang%NULL%2,          Lesheng%Huang%NULL%0,          Hailong%Liu%NULL%2,          Hailong%Liu%NULL%0,          Ming%Lei%NULL%1,          Wangdong%Xu%NULL%2,          Wangdong%Xu%NULL%0,          Xiaolu%Hu%NULL%1,          Jun%Chen%NULL%3,          Bo%Liu%liubogzcm@163.com%3,          Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,          Juanjuan%Guo%NULL%0,          Chen%Wang%NULL%0,          Fan%Luo%NULL%0,          Xuechen%Yu%NULL%0,          Wei%Zhang%NULL%0,          Jiafu%Li%NULL%0,          Dongchi%Zhao%NULL%0,          Dan%Xu%NULL%0,          Qing%Gong%NULL%0,          Jing%Liao%NULL%0,          Huixia%Yang%yanghuixia@bjmu.edu.cn%0,          Wei%Hou%houwei@whu.edu.cn%0,          Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,          Junfeng%Li%NULL%1,          Xun%Li%NULL%0,          Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,          Xuhua%Guan%NULL%1,          Peng%Wu%NULL%1,          Xiaoye%Wang%NULL%1,          Lei%Zhou%NULL%0,          Yeqing%Tong%NULL%1,          Ruiqi%Ren%NULL%1,          Kathy S.M.%Leung%NULL%1,          Eric H.Y.%Lau%NULL%1,          Jessica Y.%Wong%NULL%1,          Xuesen%Xing%NULL%1,          Nijuan%Xiang%NULL%0,          Yang%Wu%NULL%1,          Chao%Li%NULL%1,          Qi%Chen%NULL%1,          Dan%Li%NULL%1,          Tian%Liu%NULL%1,          Jing%Zhao%NULL%1,          Man%Liu%NULL%1,          Wenxiao%Tu%NULL%1,          Chuding%Chen%NULL%1,          Lianmei%Jin%NULL%1,          Rui%Yang%NULL%1,          Qi%Wang%NULL%1,          Suhua%Zhou%NULL%1,          Rui%Wang%NULL%2,          Hui%Liu%NULL%0,          Yinbo%Luo%NULL%1,          Yuan%Liu%NULL%1,          Ge%Shao%NULL%1,          Huan%Li%NULL%1,          Zhongfa%Tao%NULL%1,          Yang%Yang%NULL%0,          Zhiqiang%Deng%NULL%1,          Boxi%Liu%NULL%1,          Zhitao%Ma%NULL%1,          Yanping%Zhang%NULL%1,          Guoqing%Shi%NULL%1,          Tommy T.Y.%Lam%NULL%1,          Joseph T.%Wu%NULL%1,          George F.%Gao%NULL%3,          Benjamin J.%Cowling%NULL%2,          Bo%Yang%NULL%4,          Bo%Yang%NULL%0,          Gabriel M.%Leung%NULL%1,          Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,          Zhenyu%Gong%NULL%2,          Zhenyu%Gong%NULL%0,          Zuke%Xiao%NULL%2,          Zuke%Xiao%NULL%0,          Jingliang%Xiong%NULL%1,          Bing%Fan%NULL%2,          Jiaqi%Liu%NULL%2,          Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%0,          Yan%Deng%NULL%0,          Wei%Liu%NULL%0,          Mei-Fang%Wang%NULL%0,          Jing-Ping%Ma%NULL%0,          Wei%Xiao%NULL%0,          Ying-Nan%Wang%NULL%0,          Min-Hua%Zhong%NULL%0,          Cheng-Hong%Li%NULL%0,          Guang-Cai%Li%NULL%0,          Hui-Guo%Liu%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,          Xian-zheng%Tan%xianzhengtan@163.com%2,          Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,          Tianhe%Ye%NULL%0,          Tianhe%Ye%NULL%0,          Peng%Sun%NULL%0,          Peng%Sun%NULL%0,          Shan%Gui%NULL%0,          Shan%Gui%NULL%0,          Bo%Liang%NULL%0,          Bo%Liang%NULL%0,          Lingli%Li%NULL%0,          Lingli%Li%NULL%0,          Dandan%Zheng%NULL%0,          Dandan%Zheng%NULL%0,          Jiazheng%Wang%NULL%0,          Jiazheng%Wang%NULL%0,          Richard L.%Hesketh%NULL%0,          Richard L.%Hesketh%NULL%0,          Lian%Yang%yanglian@hust.edu.cn%0,          Lian%Yang%yanglian@hust.edu.cn%0,          Chuansheng%Zheng%NULL%0,          Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,          Thuong V.%Nguyen%NULL%1,          Quang C.%Luong%NULL%1,          Thinh V.%Nguyen%NULL%1,          Hieu T.%Nguyen%NULL%1,          Hung Q.%Le%NULL%2,          Hung Q.%Le%NULL%0,          Thuc T.%Nguyen%NULL%1,          Thang M.%Cao%NULL%2,          Thang M.%Cao%NULL%0,          Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,          Krit%Pongpirul%NULL%2,          Krit%Pongpirul%NULL%0,          Anuttra C.%Ratnarathon%NULL%2,          Anuttra C.%Ratnarathon%NULL%0,          Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,          Ye-Ming%Wang%NULL%1,          Zhi-Qiang%Wu%NULL%1,          Zi-Chun%Xiang%NULL%1,          Li%Guo%NULL%0,          Teng%Xu%NULL%1,          Yong-Zhong%Jiang%NULL%1,          Yan%Xiong%NULL%0,          Yong-Jun%Li%NULL%1,          Xing-Wang%Li%NULL%1,          Hui%Li%NULL%0,          Guo-Hui%Fan%NULL%1,          Xiao-Ying%Gu%NULL%1,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Jiu-Yang%Xu%NULL%1,          Fan%Yang%NULL%1,          Xin-Ming%Wang%NULL%1,          Chao%Wu%NULL%1,          Lan%Chen%NULL%1,          Yi-Wei%Liu%NULL%1,          Bo%Liu%NULL%0,          Jian%Yang%NULL%1,          Xiao-Rui%Wang%NULL%1,          Jie%Dong%NULL%1,          Li%Li%NULL%0,          Chao-Lin%Huang%NULL%1,          Jian-Ping%Zhao%NULL%1,          Yi%Hu%NULL%0,          Zhen-Shun%Cheng%NULL%1,          Lin-Lin%Liu%NULL%1,          Zhao-Hui%Qian%NULL%1,          Chuan%Qin%NULL%1,          Qi%Jin%NULL%0,          Bin%Cao%NULL%0,          Jian-Wei%Wang%NULL%1,          Xiu-Yuan%Hao%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,          Mirjam%Schunk%NULL%1,          Peter%Sothmann%NULL%1,          Gisela%Bretzel%NULL%1,          Guenter%Froeschl%NULL%1,          Claudia%Wallrauch%NULL%1,          Thorbjörn%Zimmer%NULL%1,          Verena%Thiel%NULL%1,          Christian%Janke%NULL%1,          Wolfgang%Guggemos%NULL%2,          Wolfgang%Guggemos%NULL%0,          Michael%Seilmaier%NULL%1,          Christian%Drosten%NULL%2,          Christian%Drosten%NULL%0,          Patrick%Vollmar%NULL%2,          Patrick%Vollmar%NULL%0,          Katrin%Zwirglmaier%NULL%1,          Sabine%Zange%NULL%1,          Roman%Wölfel%NULL%1,          Michael%Hoelscher%NULL%2,          Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,          Xiaoyu%Han%NULL%2,          Xiaoyu%Han%NULL%0,          Chuansheng%Zheng%hqzcsxh@sina.com%0,          Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,          Lynfa%Stroud%NULL%1,          Graham Edward%Cleghorn%NULL%1,          Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,          Nannan%Shi%NULL%2,          Nannan%Shi%NULL%0,          Fei%Shan%NULL%1,          Zhiyong%Zhang%NULL%1,          Jie%Shen%NULL%1,          Hongzhou%Lu%NULL%0,          Yun%Ling%NULL%0,          Yebin%Jiang%NULL%2,          Yebin%Jiang%NULL%0,          Yuxin%Shi%shiyuxin@shphc.org.cn%0,          Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,          Jianming%Tang%15900792812@163.com%1,          Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,    Jingping%Yuan%xref no email%1,    Yu%Liu%xref no email%1,    Tao%Fu%xref no email%1,    Xue%Yu%xref no email%1,    Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,          Zheng%Zhong%NULL%2,          Zheng%Zhong%NULL%0,          Wei%Zhao%NULL%2,          Wei%Zhao%NULL%0,          Chao%Zheng%NULL%2,          Chao%Zheng%NULL%0,          Fei%Wang%NULL%2,          Fei%Wang%NULL%0,          Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,          Chengcheng%Yu%1515185140@qq.com%0,          Lieguang%Zhang%zhlieguang@126.com%0,          Liangping%Luo%tluolp@jnu.edu.cn%0,          Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,          Xiao-Xin%Wu%NULL%0,          Xian-Gao%Jiang%NULL%0,          Kai-Jin%Xu%NULL%0,          Ling-Jun%Ying%NULL%0,          Chun-Lian%Ma%NULL%0,          Shi-Bo%Li%NULL%0,          Hua-Ying%Wang%NULL%0,          Sheng%Zhang%NULL%0,          Hai-Nv%Gao%NULL%0,          Ji-Fang%Sheng%NULL%0,          Hong-Liu%Cai%NULL%0,          Yun-Qing%Qiu%NULL%0,          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,          Xiaochen%Li%NULL%2,          Xiaochen%Li%NULL%0,          Wei%Zhang%NULL%0,          Zheng-Li%Shi%NULL%1,          Zhishui%Zheng%NULL%1,          Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,          Nak-Jung%Kwon%NULL%2,          Nak-Jung%Kwon%NULL%0,          Su-Jin%Choi%NULL%2,          Su-Jin%Choi%NULL%0,          Chang Kyung%Kang%NULL%2,          Chang Kyung%Kang%NULL%0,          Pyoeng Gyun%Choe%NULL%4,          Pyoeng Gyun%Choe%NULL%0,          Jin Yong%Kim%NULL%4,          Jin Yong%Kim%NULL%0,          Jiyoung%Yun%NULL%2,          Jiyoung%Yun%NULL%0,          Gir-Won%Lee%NULL%2,          Gir-Won%Lee%NULL%0,          Moon-Woo%Seong%NULL%2,          Moon-Woo%Seong%NULL%0,          Nam Joong%Kim%NULL%2,          Nam Joong%Kim%NULL%0,          Jeong-Sun%Seo%NULL%2,          Jeong-Sun%Seo%NULL%0,          Myoung-don%Oh%NULL%4,          Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,          Seunghyun%Jeon%NULL%2,          Seunghyun%Jeon%NULL%0,          Hyun-Young%Shin%NULL%2,          Hyun-Young%Shin%NULL%0,          Moon Jung%Kim%NULL%2,          Moon Jung%Kim%NULL%0,          Yu Min%Seong%NULL%2,          Yu Min%Seong%NULL%0,          Wang Jun%Lee%NULL%2,          Wang Jun%Lee%NULL%0,          Kang-Won%Choe%NULL%2,          Kang-Won%Choe%NULL%0,          Yu Min%Kang%NULL%2,          Yu Min%Kang%NULL%0,          Baeckseung%Lee%NULL%2,          Baeckseung%Lee%NULL%0,          Sang-Joon%Park%NULL%2,          Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,          Pyoeng Gyun%Choe%NULL%0,          Pyoeng Gyun%Choe%NULL%0,          Yoonju%Oh%NULL%2,          Yoonju%Oh%NULL%0,          Kyung Joong%Oh%NULL%2,          Kyung Joong%Oh%NULL%0,          Jinsil%Kim%NULL%2,          Jinsil%Kim%NULL%0,          So Jeong%Park%NULL%2,          So Jeong%Park%NULL%0,          Ji Hye%Park%NULL%2,          Ji Hye%Park%NULL%0,          Hye Kyoung%Na%NULL%2,          Hye Kyoung%Na%NULL%0,          Myoung-don%Oh%NULL%0,          Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,           Q.% Lu%null%1,           M.% Liu%null%1,           Y.% Wang%null%1,           A.% Zhang%null%1,           N.% Jalali%null%1,           N.% Dean%null%1,           I.% Longini%null%1,           M. E.% Halloran%null%1,           B.% Xu%null%1,           X.% Zhang%null%1,           L.% Wang%null%1,           W.% Liu%null%1,           L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,          Dingyu%Zhang%NULL%3,          Wenling%Wang%NULL%2,          Xingwang%Li%NULL%0,          Bo%Yang%NULL%0,          Jingdong%Song%NULL%2,          Xiang%Zhao%NULL%2,          Baoying%Huang%NULL%2,          Weifeng%Shi%NULL%2,          Roujian%Lu%NULL%2,          Peihua%Niu%NULL%2,          Faxian%Zhan%NULL%2,          Xuejun%Ma%NULL%2,          Dayan%Wang%NULL%2,          Wenbo%Xu%NULL%2,          Guizhen%Wu%NULL%2,          George F.%Gao%NULL%0,          Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,          Shuofeng%Yuan%NULL%1,          Kin-Hang%Kok%NULL%1,          Kelvin Kai-Wang%To%NULL%1,          Hin%Chu%NULL%1,          Jin%Yang%NULL%1,          Fanfan%Xing%NULL%1,          Jieling%Liu%NULL%1,          Cyril Chik-Yan%Yip%NULL%1,          Rosana Wing-Shan%Poon%NULL%1,          Hoi-Wah%Tsoi%NULL%1,          Simon Kam-Fai%Lo%NULL%1,          Kwok-Hung%Chan%NULL%0,          Vincent Kwok-Man%Poon%NULL%1,          Wan-Mui%Chan%NULL%1,          Jonathan Daniel%Ip%NULL%1,          Jian-Piao%Cai%NULL%1,          Vincent Chi-Chung%Cheng%NULL%1,          Honglin%Chen%NULL%1,          Christopher Kim-Ming%Hui%NULL%1,          Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2781,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>642</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -2522,7 +2810,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -2580,7 +2868,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>644</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -2609,7 +2897,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>549</v>
+        <v>645</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -2638,7 +2926,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -2725,7 +3013,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>551</v>
+        <v>647</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2754,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>552</v>
+        <v>648</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -2812,7 +3100,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>553</v>
+        <v>649</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2870,7 +3158,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>554</v>
+        <v>650</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -2899,7 +3187,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>555</v>
+        <v>651</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -2928,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -2957,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>557</v>
+        <v>653</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -2986,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>558</v>
+        <v>654</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3015,7 +3303,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3044,7 +3332,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>560</v>
+        <v>656</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3073,7 +3361,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>561</v>
+        <v>657</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -3102,7 +3390,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>562</v>
+        <v>658</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -3131,7 +3419,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>563</v>
+        <v>659</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -3160,7 +3448,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>564</v>
+        <v>660</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -3189,7 +3477,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>565</v>
+        <v>661</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -3218,7 +3506,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>566</v>
+        <v>662</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -3247,7 +3535,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>567</v>
+        <v>663</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3276,7 +3564,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3305,7 +3593,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3363,7 +3651,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -3421,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3450,7 +3738,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>572</v>
+        <v>668</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3479,7 +3767,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -3508,7 +3796,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -3537,7 +3825,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -3566,7 +3854,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -3595,7 +3883,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -3624,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -3653,7 +3941,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -3682,7 +3970,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -3711,7 +3999,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -3740,7 +4028,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -3769,7 +4057,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>583</v>
+        <v>679</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -3798,7 +4086,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>584</v>
+        <v>680</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -3827,7 +4115,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>585</v>
+        <v>681</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -3885,7 +4173,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>586</v>
+        <v>682</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -3972,7 +4260,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>587</v>
+        <v>683</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4001,7 +4289,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>588</v>
+        <v>684</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -4030,7 +4318,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -4059,7 +4347,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>590</v>
+        <v>686</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -4088,7 +4376,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="F57" t="s">
         <v>71</v>
@@ -4117,7 +4405,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -4146,7 +4434,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="787">
   <si>
     <t>Doi</t>
   </si>
@@ -2447,6 +2447,316 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,          Shuofeng%Yuan%NULL%1,          Kin-Hang%Kok%NULL%1,          Kelvin Kai-Wang%To%NULL%1,          Hin%Chu%NULL%1,          Jin%Yang%NULL%1,          Fanfan%Xing%NULL%1,          Jieling%Liu%NULL%1,          Cyril Chik-Yan%Yip%NULL%1,          Rosana Wing-Shan%Poon%NULL%1,          Hoi-Wah%Tsoi%NULL%1,          Simon Kam-Fai%Lo%NULL%1,          Kwok-Hung%Chan%NULL%0,          Vincent Kwok-Man%Poon%NULL%1,          Wan-Mui%Chan%NULL%1,          Jonathan Daniel%Ip%NULL%1,          Jian-Piao%Cai%NULL%1,          Vincent Chi-Chung%Cheng%NULL%1,          Honglin%Chen%NULL%1,          Christopher Kim-Ming%Hui%NULL%1,          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,           Dengju%Li%NULL%0,           Xiong%Wang%NULL%0,           Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The purpose of this study was to observe the imaging characteristics of the novel coronavirus pneumonia.
+Methods
+Sixty-three confirmed patients were enrolled from December 30, 2019 to January 31, 2020. High-resolution CT (HRCT) of the chest was performed.
+ The number of affected lobes, ground glass nodules (GGO), patchy/punctate ground glass opacities, patchy consolidation, fibrous stripes and irregular solid nodules in each patient's chest CT image were recorded.
+ Additionally, we performed imaging follow-up of these patients.
+Results
+CT images of 63 confirmed patients were collected.
+ M/F ratio: 33/30. The mean age was 44.9 ± 15.2 years.
+ The mean number of affected lobes was 3.3 ± 1.8. Nineteen (30.2%) patients had one affected lobe, five (7.9%) patients had two affected lobes, four (6.3%) patients had three affected lobes, seven (11.1%) patients had four affected lobes while 28 (44.4%) patients had 5 affected lobes.
+ Fifty-four (85.7%) patients had patchy/punctate ground glass opacities, 14 (22.2%) patients had GGO, 12 (19.0%) patients had patchy consolidation, 11 (17.5%) patients had fibrous stripes and 8 (12.7%) patients had irregular solid nodules.
+ Fifty-four (85.7%) patients progressed, including single GGO increased, enlarged and consolidated; fibrous stripe enlarged, while solid nodules increased and enlarged.
+Conclusions
+Imaging changes in novel viral pneumonia are rapid.
+ The manifestations of the novel coronavirus pneumonia are diverse.
+ Imaging changes of typical viral pneumonia and some specific imaging features were observed.
+ Therefore, we need to strengthen the recognition of image changes to help clinicians to diagnose quickly and accurately.
+Key Points
+• High-resolution CT (HRCT) of the chest is critical for early detection, evaluation of disease severity and follow-up of patients with the novel coronavirus pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,           Hanxiong%Guan%NULL%1,           Shuchang%Zhou%NULL%1,           Yujin%Wang%NULL%1,           Qian%Li%NULL%1,           Tingting%Zhu%NULL%1,           Qiongjie%Hu%qjhu@outlook.com%1,           Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,           Jenny%Chen%NULL%1,           Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,           Yang%Yang%NULL%4,           Cong%Zhang%NULL%0,           Fengming%Huang%NULL%1,           Fuxiang%Wang%NULL%1,           Jing%Yuan%NULL%1,           Zhaoqin%Wang%NULL%0,           Jinxiu%Li%NULL%1,           Jianming%Li%NULL%1,           Cheng%Feng%NULL%1,           Zheng%Zhang%NULL%1,           Lifei%Wang%NULL%1,           Ling%Peng%NULL%1,           Li%Chen%NULL%0,           Yuhao%Qin%NULL%1,           Dandan%Zhao%NULL%1,           Shuguang%Tan%NULL%1,           Lu%Yin%NULL%2,           Jun%Xu%NULL%1,           Congzhao%Zhou%NULL%1,           Chengyu%Jiang%jiang@pumc.edu.cn%1,           Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,           Xueyan%Mei%NULL%4,           Xueyan%Mei%NULL%0,           Mingqian%Huang%NULL%4,           Mingqian%Huang%NULL%0,           Yang%Yang%NULL%0,           Zahi A.%Fayad%NULL%0,           Zahi A.%Fayad%NULL%0,           Ning%Zhang%NULL%5,           Ning%Zhang%NULL%0,           Kaiyue%Diao%NULL%2,           Kaiyue%Diao%NULL%0,           Bin%Lin%NULL%1,           Xiqi%Zhu%NULL%2,           Xiqi%Zhu%NULL%0,           Kunwei%Li%NULL%2,           Shaolin%Li%NULL%2,           Hong%Shan%NULL%0,           Adam%Jacobi%NULL%3,           Adam%Jacobi%NULL%0,           Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,     Lingsheng%Yao%xref no email%1,     Tao%Wei%xref no email%1,     Fei%Tian%xref no email%1,     Dong-Yan%Jin%xref no email%1,     Lijuan%Chen%xref no email%1,     Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,           Ranjit%Sah%ranjitsah@iom.edu.np%0,           Alfonso J%Rodriguez-Morales%NULL%1,           Bibek Kumar%Lal%NULL%1,           Runa%Jha%NULL%1,           Hemant Chanda%Ojha%NULL%1,           Bikesh%Shrestha%NULL%1,           Daniel K W%Chu%NULL%1,           Leo L M%Poon%NULL%1,           Anthony%Costello%NULL%1,           Kouichi%Morita%NULL%1,           Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,     Minggui%Lin%xref no email%0,     Lai%Wei%xref no email%0,     Lixin%Xie%xref no email%0,     Guangfa%Zhu%xref no email%0,     Charles S.%Dela Cruz%xref no email%0,     Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%0,           Xuan%Dong%NULL%0,           Jieming%Qu%NULL%0,           Fengyun%Gong%NULL%0,           Yang%Han%NULL%0,           Yang%Qiu%NULL%0,           Jingli%Wang%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,           Adam%Bernheim%NULL%2,           Adam%Bernheim%NULL%0,           Xueyan%Mei%NULL%0,           Xueyan%Mei%NULL%0,           Ning%Zhang%NULL%0,           Ning%Zhang%NULL%0,           Mingqian%Huang%NULL%0,           Mingqian%Huang%NULL%0,           Xianjun%Zeng%NULL%1,           Jiufa%Cui%NULL%1,           Wenjian%Xu%NULL%2,           Wenjian%Xu%NULL%0,           Yang%Yang%NULL%0,           Zahi A.%Fayad%NULL%0,           Zahi A.%Fayad%NULL%0,           Adam%Jacobi%NULL%0,           Kunwei%Li%NULL%0,           Shaolin%Li%NULL%0,           Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,           Jie%Qin%qinjie@mail.sysu.edu.cn%2,           Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,           M%Zhao%NULL%1,           S%Li%NULL%1,           L%Yang%NULL%1,           B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,           Huangqi%Zhang%NULL%4,           Huangqi%Zhang%NULL%0,           Jicheng%Xie%NULL%4,           Jicheng%Xie%NULL%0,           Minjie%Lin%NULL%2,           Minjie%Lin%NULL%0,           Lingjun%Ying%NULL%2,           Lingjun%Ying%NULL%0,           Peipei%Pang%NULL%4,           Peipei%Pang%NULL%0,           Wenbin%Ji%1224190004@qq.com%4,           Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,           Huangqi%Zhang%NULL%0,           Huangqi%Zhang%NULL%0,           Yunyu%Xu%NULL%2,           Yunyu%Xu%NULL%0,           Jicheng%Xie%NULL%0,           Jicheng%Xie%NULL%0,           Peipei%Pang%NULL%0,           Peipei%Pang%NULL%0,           Wenbin%Ji%1224190004@qq.com%0,           Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,           Domenico%Benvenuto%NULL%1,           Silvia%Angeletti%s.angeletti@unicampus.it%2,           Silvia%Angeletti%s.angeletti@unicampus.it%0,           Massimo%Ciccozzi%NULL%2,           Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,           M.%Li%NULL%1,           X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,           Chas%DeBolt%NULL%1,           Scott%Lindquist%NULL%1,           Kathy H.%Lofy%NULL%1,           John%Wiesman%NULL%1,           Hollianne%Bruce%NULL%0,           Christopher%Spitters%NULL%0,           Keith%Ericson%NULL%1,           Sara%Wilkerson%NULL%1,           Ahmet%Tural%NULL%1,           George%Diaz%NULL%2,           Amanda%Cohn%NULL%2,           LeAnne%Fox%NULL%1,           Anita%Patel%NULL%1,           Susan I.%Gerber%NULL%1,           Lindsay%Kim%NULL%1,           Suxiang%Tong%NULL%1,           Xiaoyan%Lu%NULL%1,           Steve%Lindstrom%NULL%1,           Mark A.%Pallansch%NULL%1,           William C.%Weldon%NULL%1,           Holly M.%Biggs%NULL%1,           Timothy M.%Uyeki%NULL%0,           Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,           Tianzhu%Liu%NULL%2,           Tianzhu%Liu%NULL%0,           Lesheng%Huang%NULL%2,           Lesheng%Huang%NULL%0,           Hailong%Liu%NULL%2,           Hailong%Liu%NULL%0,           Ming%Lei%NULL%1,           Wangdong%Xu%NULL%2,           Wangdong%Xu%NULL%0,           Xiaolu%Hu%NULL%1,           Jun%Chen%NULL%3,           Bo%Liu%liubogzcm@163.com%3,           Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,           Juanjuan%Guo%NULL%0,           Chen%Wang%NULL%0,           Fan%Luo%NULL%0,           Xuechen%Yu%NULL%0,           Wei%Zhang%NULL%0,           Jiafu%Li%NULL%0,           Dongchi%Zhao%NULL%0,           Dan%Xu%NULL%0,           Qing%Gong%NULL%0,           Jing%Liao%NULL%0,           Huixia%Yang%yanghuixia@bjmu.edu.cn%0,           Wei%Hou%houwei@whu.edu.cn%0,           Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,           Junfeng%Li%NULL%1,           Xun%Li%NULL%0,           Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,           Xuhua%Guan%NULL%1,           Peng%Wu%NULL%1,           Xiaoye%Wang%NULL%1,           Lei%Zhou%NULL%0,           Yeqing%Tong%NULL%1,           Ruiqi%Ren%NULL%1,           Kathy S.M.%Leung%NULL%1,           Eric H.Y.%Lau%NULL%1,           Jessica Y.%Wong%NULL%1,           Xuesen%Xing%NULL%1,           Nijuan%Xiang%NULL%0,           Yang%Wu%NULL%1,           Chao%Li%NULL%1,           Qi%Chen%NULL%1,           Dan%Li%NULL%1,           Tian%Liu%NULL%1,           Jing%Zhao%NULL%1,           Man%Liu%NULL%1,           Wenxiao%Tu%NULL%1,           Chuding%Chen%NULL%1,           Lianmei%Jin%NULL%1,           Rui%Yang%NULL%1,           Qi%Wang%NULL%2,           Suhua%Zhou%NULL%1,           Rui%Wang%NULL%2,           Hui%Liu%NULL%0,           Yinbo%Luo%NULL%1,           Yuan%Liu%NULL%1,           Ge%Shao%NULL%1,           Huan%Li%NULL%2,           Zhongfa%Tao%NULL%1,           Yang%Yang%NULL%0,           Zhiqiang%Deng%NULL%1,           Boxi%Liu%NULL%1,           Zhitao%Ma%NULL%1,           Yanping%Zhang%NULL%1,           Guoqing%Shi%NULL%1,           Tommy T.Y.%Lam%NULL%1,           Joseph T.%Wu%NULL%1,           George F.%Gao%NULL%3,           Benjamin J.%Cowling%NULL%2,           Bo%Yang%NULL%5,           Bo%Yang%NULL%0,           Gabriel M.%Leung%NULL%1,           Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,           Zhenyu%Gong%NULL%2,           Zhenyu%Gong%NULL%0,           Zuke%Xiao%NULL%2,           Zuke%Xiao%NULL%0,           Jingliang%Xiong%NULL%1,           Bing%Fan%NULL%2,           Jiaqi%Liu%NULL%2,           Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Mei-Fang%Wang%NULL%0,           Jing-Ping%Ma%NULL%0,           Wei%Xiao%NULL%0,           Ying-Nan%Wang%NULL%0,           Min-Hua%Zhong%NULL%0,           Cheng-Hong%Li%NULL%0,           Guang-Cai%Li%NULL%0,           Hui-Guo%Liu%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,           Xian-zheng%Tan%xianzhengtan@163.com%2,           Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,           Tianhe%Ye%NULL%0,           Tianhe%Ye%NULL%0,           Peng%Sun%NULL%0,           Peng%Sun%NULL%0,           Shan%Gui%NULL%0,           Shan%Gui%NULL%0,           Bo%Liang%NULL%0,           Bo%Liang%NULL%0,           Lingli%Li%NULL%0,           Lingli%Li%NULL%0,           Dandan%Zheng%NULL%0,           Dandan%Zheng%NULL%0,           Jiazheng%Wang%NULL%0,           Jiazheng%Wang%NULL%0,           Richard L.%Hesketh%NULL%0,           Richard L.%Hesketh%NULL%0,           Lian%Yang%yanglian@hust.edu.cn%0,           Lian%Yang%yanglian@hust.edu.cn%0,           Chuansheng%Zheng%NULL%0,           Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,           Thuong V.%Nguyen%NULL%1,           Quang C.%Luong%NULL%1,           Thinh V.%Nguyen%NULL%1,           Hieu T.%Nguyen%NULL%1,           Hung Q.%Le%NULL%2,           Hung Q.%Le%NULL%0,           Thuc T.%Nguyen%NULL%1,           Thang M.%Cao%NULL%2,           Thang M.%Cao%NULL%0,           Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,           Krit%Pongpirul%NULL%2,           Krit%Pongpirul%NULL%0,           Anuttra C.%Ratnarathon%NULL%2,           Anuttra C.%Ratnarathon%NULL%0,           Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,           Ye-Ming%Wang%NULL%1,           Zhi-Qiang%Wu%NULL%1,           Zi-Chun%Xiang%NULL%1,           Li%Guo%NULL%0,           Teng%Xu%NULL%1,           Yong-Zhong%Jiang%NULL%1,           Yan%Xiong%NULL%0,           Yong-Jun%Li%NULL%1,           Xing-Wang%Li%NULL%1,           Hui%Li%NULL%0,           Guo-Hui%Fan%NULL%1,           Xiao-Ying%Gu%NULL%1,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Jiu-Yang%Xu%NULL%1,           Fan%Yang%NULL%2,           Xin-Ming%Wang%NULL%1,           Chao%Wu%NULL%1,           Lan%Chen%NULL%1,           Yi-Wei%Liu%NULL%1,           Bo%Liu%NULL%0,           Jian%Yang%NULL%1,           Xiao-Rui%Wang%NULL%1,           Jie%Dong%NULL%1,           Li%Li%NULL%0,           Chao-Lin%Huang%NULL%1,           Jian-Ping%Zhao%NULL%1,           Yi%Hu%NULL%0,           Zhen-Shun%Cheng%NULL%1,           Lin-Lin%Liu%NULL%1,           Zhao-Hui%Qian%NULL%1,           Chuan%Qin%NULL%1,           Qi%Jin%NULL%0,           Bin%Cao%NULL%0,           Jian-Wei%Wang%NULL%1,           Xiu-Yuan%Hao%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,           Mirjam%Schunk%NULL%1,           Peter%Sothmann%NULL%1,           Gisela%Bretzel%NULL%1,           Guenter%Froeschl%NULL%1,           Claudia%Wallrauch%NULL%1,           Thorbjörn%Zimmer%NULL%1,           Verena%Thiel%NULL%1,           Christian%Janke%NULL%1,           Wolfgang%Guggemos%NULL%2,           Wolfgang%Guggemos%NULL%0,           Michael%Seilmaier%NULL%1,           Christian%Drosten%NULL%2,           Christian%Drosten%NULL%0,           Patrick%Vollmar%NULL%2,           Patrick%Vollmar%NULL%0,           Katrin%Zwirglmaier%NULL%1,           Sabine%Zange%NULL%1,           Roman%Wölfel%NULL%1,           Michael%Hoelscher%NULL%2,           Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,           Xiaoyu%Han%NULL%2,           Xiaoyu%Han%NULL%0,           Chuansheng%Zheng%hqzcsxh@sina.com%0,           Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,           Lynfa%Stroud%NULL%1,           Graham Edward%Cleghorn%NULL%1,           Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,           Nannan%Shi%NULL%2,           Nannan%Shi%NULL%0,           Fei%Shan%NULL%1,           Zhiyong%Zhang%NULL%1,           Jie%Shen%NULL%1,           Hongzhou%Lu%NULL%0,           Yun%Ling%NULL%0,           Yebin%Jiang%NULL%2,           Yebin%Jiang%NULL%0,           Yuxin%Shi%shiyuxin@shphc.org.cn%0,           Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,           Jianming%Tang%15900792812@163.com%1,           Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,     Jingping%Yuan%xref no email%1,     Yu%Liu%xref no email%1,     Tao%Fu%xref no email%1,     Xue%Yu%xref no email%1,     Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,           Zheng%Zhong%NULL%2,           Zheng%Zhong%NULL%0,           Wei%Zhao%NULL%2,           Wei%Zhao%NULL%0,           Chao%Zheng%NULL%2,           Chao%Zheng%NULL%0,           Fei%Wang%NULL%2,           Fei%Wang%NULL%0,           Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,           Chengcheng%Yu%1515185140@qq.com%0,           Lieguang%Zhang%zhlieguang@126.com%0,           Liangping%Luo%tluolp@jnu.edu.cn%0,           Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,           Xiao-Xin%Wu%NULL%0,           Xian-Gao%Jiang%NULL%0,           Kai-Jin%Xu%NULL%0,           Ling-Jun%Ying%NULL%0,           Chun-Lian%Ma%NULL%0,           Shi-Bo%Li%NULL%0,           Hua-Ying%Wang%NULL%0,           Sheng%Zhang%NULL%0,           Hai-Nv%Gao%NULL%0,           Ji-Fang%Sheng%NULL%0,           Hong-Liu%Cai%NULL%0,           Yun-Qing%Qiu%NULL%0,           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%0,         Dong%Xiang%coreGivesNoEmail%0,         Gao%Ya-dong%coreGivesNoEmail%0,         Yan%You-qin%coreGivesNoEmail%0,         Yang%Yi-bin%coreGivesNoEmail%0,         Yuan%Ya-dong%coreGivesNoEmail%0,         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,           Xiaochen%Li%NULL%2,           Xiaochen%Li%NULL%0,           Wei%Zhang%NULL%0,           Zheng-Li%Shi%NULL%1,           Zhishui%Zheng%NULL%1,           Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,           Nak-Jung%Kwon%NULL%2,           Nak-Jung%Kwon%NULL%0,           Su-Jin%Choi%NULL%2,           Su-Jin%Choi%NULL%0,           Chang Kyung%Kang%NULL%2,           Chang Kyung%Kang%NULL%0,           Pyoeng Gyun%Choe%NULL%4,           Pyoeng Gyun%Choe%NULL%0,           Jin Yong%Kim%NULL%4,           Jin Yong%Kim%NULL%0,           Jiyoung%Yun%NULL%2,           Jiyoung%Yun%NULL%0,           Gir-Won%Lee%NULL%2,           Gir-Won%Lee%NULL%0,           Moon-Woo%Seong%NULL%2,           Moon-Woo%Seong%NULL%0,           Nam Joong%Kim%NULL%2,           Nam Joong%Kim%NULL%0,           Jeong-Sun%Seo%NULL%2,           Jeong-Sun%Seo%NULL%0,           Myoung-don%Oh%NULL%4,           Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,           Seunghyun%Jeon%NULL%2,           Seunghyun%Jeon%NULL%0,           Hyun-Young%Shin%NULL%2,           Hyun-Young%Shin%NULL%0,           Moon Jung%Kim%NULL%2,           Moon Jung%Kim%NULL%0,           Yu Min%Seong%NULL%2,           Yu Min%Seong%NULL%0,           Wang Jun%Lee%NULL%2,           Wang Jun%Lee%NULL%0,           Kang-Won%Choe%NULL%2,           Kang-Won%Choe%NULL%0,           Yu Min%Kang%NULL%2,           Yu Min%Kang%NULL%0,           Baeckseung%Lee%NULL%2,           Baeckseung%Lee%NULL%0,           Sang-Joon%Park%NULL%2,           Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,           Pyoeng Gyun%Choe%NULL%0,           Pyoeng Gyun%Choe%NULL%0,           Yoonju%Oh%NULL%2,           Yoonju%Oh%NULL%0,           Kyung Joong%Oh%NULL%2,           Kyung Joong%Oh%NULL%0,           Jinsil%Kim%NULL%2,           Jinsil%Kim%NULL%0,           So Jeong%Park%NULL%2,           So Jeong%Park%NULL%0,           Ji Hye%Park%NULL%2,           Ji Hye%Park%NULL%0,           Hye Kyoung%Na%NULL%2,           Hye Kyoung%Na%NULL%0,           Myoung-don%Oh%NULL%0,           Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,            Q.% Lu%null%1,            M.% Liu%null%1,            Y.% Wang%null%1,            A.% Zhang%null%2,            N.% Jalali%null%1,            N.% Dean%null%1,            I.% Longini%null%1,            M. E.% Halloran%null%1,            B.% Xu%null%1,            X.% Zhang%null%2,            L.% Wang%null%1,            W.% Liu%null%1,            L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,           Dingyu%Zhang%NULL%3,           Wenling%Wang%NULL%2,           Xingwang%Li%NULL%0,           Bo%Yang%NULL%0,           Jingdong%Song%NULL%2,           Xiang%Zhao%NULL%2,           Baoying%Huang%NULL%2,           Weifeng%Shi%NULL%2,           Roujian%Lu%NULL%2,           Peihua%Niu%NULL%2,           Faxian%Zhan%NULL%2,           Xuejun%Ma%NULL%2,           Dayan%Wang%NULL%2,           Wenbo%Xu%NULL%2,           Guizhen%Wu%NULL%2,           George F.%Gao%NULL%0,           Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,           Shuofeng%Yuan%NULL%1,           Kin-Hang%Kok%NULL%1,           Kelvin Kai-Wang%To%NULL%1,           Hin%Chu%NULL%1,           Jin%Yang%NULL%1,           Fanfan%Xing%NULL%1,           Jieling%Liu%NULL%1,           Cyril Chik-Yan%Yip%NULL%1,           Rosana Wing-Shan%Poon%NULL%1,           Hoi-Wah%Tsoi%NULL%1,           Simon Kam-Fai%Lo%NULL%1,           Kwok-Hung%Chan%NULL%0,           Vincent Kwok-Man%Poon%NULL%1,           Wan-Mui%Chan%NULL%1,           Jonathan Daniel%Ip%NULL%1,           Jian-Piao%Cai%NULL%1,           Vincent Chi-Chung%Cheng%NULL%1,           Honglin%Chen%NULL%1,           Christopher Kim-Ming%Hui%NULL%1,           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,            Dengju%Li%NULL%0,            Xiong%Wang%NULL%0,            Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,            Hanxiong%Guan%NULL%1,            Shuchang%Zhou%NULL%1,            Yujin%Wang%NULL%1,            Qian%Li%NULL%1,            Tingting%Zhu%NULL%1,            Qiongjie%Hu%qjhu@outlook.com%1,            Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,            Jenny%Chen%NULL%1,            Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,            Yang%Yang%NULL%4,            Cong%Zhang%NULL%0,            Fengming%Huang%NULL%1,            Fuxiang%Wang%NULL%1,            Jing%Yuan%NULL%1,            Zhaoqin%Wang%NULL%0,            Jinxiu%Li%NULL%1,            Jianming%Li%NULL%1,            Cheng%Feng%NULL%1,            Zheng%Zhang%NULL%1,            Lifei%Wang%NULL%1,            Ling%Peng%NULL%1,            Li%Chen%NULL%0,            Yuhao%Qin%NULL%1,            Dandan%Zhao%NULL%1,            Shuguang%Tan%NULL%1,            Lu%Yin%NULL%2,            Jun%Xu%NULL%1,            Congzhao%Zhou%NULL%1,            Chengyu%Jiang%jiang@pumc.edu.cn%1,            Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,            Xueyan%Mei%NULL%4,            Xueyan%Mei%NULL%0,            Mingqian%Huang%NULL%4,            Mingqian%Huang%NULL%0,            Yang%Yang%NULL%0,            Zahi A.%Fayad%NULL%0,            Zahi A.%Fayad%NULL%0,            Ning%Zhang%NULL%5,            Ning%Zhang%NULL%0,            Kaiyue%Diao%NULL%2,            Kaiyue%Diao%NULL%0,            Bin%Lin%NULL%1,            Xiqi%Zhu%NULL%2,            Xiqi%Zhu%NULL%0,            Kunwei%Li%NULL%2,            Shaolin%Li%NULL%2,            Hong%Shan%NULL%0,            Adam%Jacobi%NULL%3,            Adam%Jacobi%NULL%0,            Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,      Lingsheng%Yao%xref no email%1,      Tao%Wei%xref no email%1,      Fei%Tian%xref no email%1,      Dong-Yan%Jin%xref no email%1,      Lijuan%Chen%xref no email%1,      Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,            Ranjit%Sah%ranjitsah@iom.edu.np%0,            Alfonso J%Rodriguez-Morales%NULL%1,            Bibek Kumar%Lal%NULL%1,            Runa%Jha%NULL%1,            Hemant Chanda%Ojha%NULL%1,            Bikesh%Shrestha%NULL%1,            Daniel K W%Chu%NULL%1,            Leo L M%Poon%NULL%1,            Anthony%Costello%NULL%1,            Kouichi%Morita%NULL%1,            Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,      Minggui%Lin%xref no email%0,      Lai%Wei%xref no email%0,      Lixin%Xie%xref no email%0,      Guangfa%Zhu%xref no email%0,      Charles S.%Dela Cruz%xref no email%0,      Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%0,            Xuan%Dong%NULL%0,            Jieming%Qu%NULL%0,            Fengyun%Gong%NULL%0,            Yang%Han%NULL%0,            Yang%Qiu%NULL%0,            Jingli%Wang%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,            Adam%Bernheim%NULL%2,            Adam%Bernheim%NULL%0,            Xueyan%Mei%NULL%0,            Xueyan%Mei%NULL%0,            Ning%Zhang%NULL%0,            Ning%Zhang%NULL%0,            Mingqian%Huang%NULL%0,            Mingqian%Huang%NULL%0,            Xianjun%Zeng%NULL%1,            Jiufa%Cui%NULL%1,            Wenjian%Xu%NULL%2,            Wenjian%Xu%NULL%0,            Yang%Yang%NULL%0,            Zahi A.%Fayad%NULL%0,            Zahi A.%Fayad%NULL%0,            Adam%Jacobi%NULL%0,            Kunwei%Li%NULL%0,            Shaolin%Li%NULL%0,            Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,            Jie%Qin%qinjie@mail.sysu.edu.cn%2,            Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,            M%Zhao%NULL%1,            S%Li%NULL%1,            L%Yang%NULL%1,            B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,            Huangqi%Zhang%NULL%4,            Huangqi%Zhang%NULL%0,            Jicheng%Xie%NULL%4,            Jicheng%Xie%NULL%0,            Minjie%Lin%NULL%2,            Minjie%Lin%NULL%0,            Lingjun%Ying%NULL%2,            Lingjun%Ying%NULL%0,            Peipei%Pang%NULL%4,            Peipei%Pang%NULL%0,            Wenbin%Ji%1224190004@qq.com%4,            Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,            Huangqi%Zhang%NULL%0,            Huangqi%Zhang%NULL%0,            Yunyu%Xu%NULL%2,            Yunyu%Xu%NULL%0,            Jicheng%Xie%NULL%0,            Jicheng%Xie%NULL%0,            Peipei%Pang%NULL%0,            Peipei%Pang%NULL%0,            Wenbin%Ji%1224190004@qq.com%0,            Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,            Domenico%Benvenuto%NULL%1,            Silvia%Angeletti%s.angeletti@unicampus.it%2,            Silvia%Angeletti%s.angeletti@unicampus.it%0,            Massimo%Ciccozzi%NULL%2,            Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,            M.%Li%NULL%1,            X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,            Chas%DeBolt%NULL%1,            Scott%Lindquist%NULL%1,            Kathy H.%Lofy%NULL%1,            John%Wiesman%NULL%1,            Hollianne%Bruce%NULL%0,            Christopher%Spitters%NULL%0,            Keith%Ericson%NULL%1,            Sara%Wilkerson%NULL%1,            Ahmet%Tural%NULL%1,            George%Diaz%NULL%1,            Amanda%Cohn%NULL%2,            LeAnne%Fox%NULL%1,            Anita%Patel%NULL%1,            Susan I.%Gerber%NULL%1,            Lindsay%Kim%NULL%1,            Suxiang%Tong%NULL%1,            Xiaoyan%Lu%NULL%1,            Steve%Lindstrom%NULL%1,            Mark A.%Pallansch%NULL%1,            William C.%Weldon%NULL%1,            Holly M.%Biggs%NULL%1,            Timothy M.%Uyeki%NULL%0,            Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,            Tianzhu%Liu%NULL%2,            Tianzhu%Liu%NULL%0,            Lesheng%Huang%NULL%2,            Lesheng%Huang%NULL%0,            Hailong%Liu%NULL%2,            Hailong%Liu%NULL%0,            Ming%Lei%NULL%1,            Wangdong%Xu%NULL%2,            Wangdong%Xu%NULL%0,            Xiaolu%Hu%NULL%1,            Jun%Chen%NULL%3,            Bo%Liu%liubogzcm@163.com%3,            Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,            Juanjuan%Guo%NULL%0,            Chen%Wang%NULL%0,            Fan%Luo%NULL%0,            Xuechen%Yu%NULL%0,            Wei%Zhang%NULL%0,            Jiafu%Li%NULL%0,            Dongchi%Zhao%NULL%0,            Dan%Xu%NULL%0,            Qing%Gong%NULL%0,            Jing%Liao%NULL%0,            Huixia%Yang%yanghuixia@bjmu.edu.cn%0,            Wei%Hou%houwei@whu.edu.cn%0,            Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,            Junfeng%Li%NULL%1,            Xun%Li%NULL%0,            Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,            Xuhua%Guan%NULL%1,            Peng%Wu%NULL%1,            Xiaoye%Wang%NULL%1,            Lei%Zhou%NULL%0,            Yeqing%Tong%NULL%1,            Ruiqi%Ren%NULL%1,            Kathy S.M.%Leung%NULL%1,            Eric H.Y.%Lau%NULL%1,            Jessica Y.%Wong%NULL%1,            Xuesen%Xing%NULL%1,            Nijuan%Xiang%NULL%0,            Yang%Wu%NULL%1,            Chao%Li%NULL%1,            Qi%Chen%NULL%1,            Dan%Li%NULL%1,            Tian%Liu%NULL%1,            Jing%Zhao%NULL%1,            Man%Liu%NULL%1,            Wenxiao%Tu%NULL%1,            Chuding%Chen%NULL%1,            Lianmei%Jin%NULL%1,            Rui%Yang%NULL%1,            Qi%Wang%NULL%1,            Suhua%Zhou%NULL%1,            Rui%Wang%NULL%2,            Hui%Liu%NULL%0,            Yinbo%Luo%NULL%1,            Yuan%Liu%NULL%1,            Ge%Shao%NULL%1,            Huan%Li%NULL%1,            Zhongfa%Tao%NULL%1,            Yang%Yang%NULL%0,            Zhiqiang%Deng%NULL%1,            Boxi%Liu%NULL%1,            Zhitao%Ma%NULL%1,            Yanping%Zhang%NULL%1,            Guoqing%Shi%NULL%1,            Tommy T.Y.%Lam%NULL%1,            Joseph T.%Wu%NULL%1,            George F.%Gao%NULL%3,            Benjamin J.%Cowling%NULL%2,            Bo%Yang%NULL%4,            Bo%Yang%NULL%0,            Gabriel M.%Leung%NULL%1,            Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,            Zhenyu%Gong%NULL%2,            Zhenyu%Gong%NULL%0,            Zuke%Xiao%NULL%2,            Zuke%Xiao%NULL%0,            Jingliang%Xiong%NULL%1,            Bing%Fan%NULL%2,            Jiaqi%Liu%NULL%2,            Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%0,            Yan%Deng%NULL%0,            Wei%Liu%NULL%0,            Mei-Fang%Wang%NULL%0,            Jing-Ping%Ma%NULL%0,            Wei%Xiao%NULL%0,            Ying-Nan%Wang%NULL%0,            Min-Hua%Zhong%NULL%0,            Cheng-Hong%Li%NULL%0,            Guang-Cai%Li%NULL%0,            Hui-Guo%Liu%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,            Xian-zheng%Tan%xianzhengtan@163.com%2,            Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,            Tianhe%Ye%NULL%0,            Tianhe%Ye%NULL%0,            Peng%Sun%NULL%0,            Peng%Sun%NULL%0,            Shan%Gui%NULL%0,            Shan%Gui%NULL%0,            Bo%Liang%NULL%0,            Bo%Liang%NULL%0,            Lingli%Li%NULL%0,            Lingli%Li%NULL%0,            Dandan%Zheng%NULL%0,            Dandan%Zheng%NULL%0,            Jiazheng%Wang%NULL%0,            Jiazheng%Wang%NULL%0,            Richard L.%Hesketh%NULL%0,            Richard L.%Hesketh%NULL%0,            Lian%Yang%yanglian@hust.edu.cn%0,            Lian%Yang%yanglian@hust.edu.cn%0,            Chuansheng%Zheng%NULL%0,            Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,            Thuong V.%Nguyen%NULL%1,            Quang C.%Luong%NULL%1,            Thinh V.%Nguyen%NULL%1,            Hieu T.%Nguyen%NULL%1,            Hung Q.%Le%NULL%2,            Hung Q.%Le%NULL%0,            Thuc T.%Nguyen%NULL%1,            Thang M.%Cao%NULL%2,            Thang M.%Cao%NULL%0,            Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,            Krit%Pongpirul%NULL%2,            Krit%Pongpirul%NULL%0,            Anuttra C.%Ratnarathon%NULL%2,            Anuttra C.%Ratnarathon%NULL%0,            Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,            Ye-Ming%Wang%NULL%1,            Zhi-Qiang%Wu%NULL%1,            Zi-Chun%Xiang%NULL%1,            Li%Guo%NULL%0,            Teng%Xu%NULL%1,            Yong-Zhong%Jiang%NULL%1,            Yan%Xiong%NULL%0,            Yong-Jun%Li%NULL%1,            Xing-Wang%Li%NULL%1,            Hui%Li%NULL%0,            Guo-Hui%Fan%NULL%1,            Xiao-Ying%Gu%NULL%1,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Jiu-Yang%Xu%NULL%1,            Fan%Yang%NULL%1,            Xin-Ming%Wang%NULL%1,            Chao%Wu%NULL%1,            Lan%Chen%NULL%1,            Yi-Wei%Liu%NULL%1,            Bo%Liu%NULL%0,            Jian%Yang%NULL%1,            Xiao-Rui%Wang%NULL%1,            Jie%Dong%NULL%1,            Li%Li%NULL%0,            Chao-Lin%Huang%NULL%1,            Jian-Ping%Zhao%NULL%1,            Yi%Hu%NULL%0,            Zhen-Shun%Cheng%NULL%1,            Lin-Lin%Liu%NULL%1,            Zhao-Hui%Qian%NULL%1,            Chuan%Qin%NULL%1,            Qi%Jin%NULL%0,            Bin%Cao%NULL%0,            Jian-Wei%Wang%NULL%1,            Xiu-Yuan%Hao%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,            Mirjam%Schunk%NULL%1,            Peter%Sothmann%NULL%1,            Gisela%Bretzel%NULL%1,            Guenter%Froeschl%NULL%1,            Claudia%Wallrauch%NULL%1,            Thorbjörn%Zimmer%NULL%1,            Verena%Thiel%NULL%1,            Christian%Janke%NULL%1,            Wolfgang%Guggemos%NULL%2,            Wolfgang%Guggemos%NULL%0,            Michael%Seilmaier%NULL%1,            Christian%Drosten%NULL%2,            Christian%Drosten%NULL%0,            Patrick%Vollmar%NULL%2,            Patrick%Vollmar%NULL%0,            Katrin%Zwirglmaier%NULL%1,            Sabine%Zange%NULL%1,            Roman%Wölfel%NULL%1,            Michael%Hoelscher%NULL%2,            Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,            Xiaoyu%Han%NULL%2,            Xiaoyu%Han%NULL%0,            Chuansheng%Zheng%hqzcsxh@sina.com%0,            Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,            Lynfa%Stroud%NULL%1,            Graham Edward%Cleghorn%NULL%1,            Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,            Nannan%Shi%NULL%2,            Nannan%Shi%NULL%0,            Fei%Shan%NULL%1,            Zhiyong%Zhang%NULL%1,            Jie%Shen%NULL%1,            Hongzhou%Lu%NULL%0,            Yun%Ling%NULL%0,            Yebin%Jiang%NULL%2,            Yebin%Jiang%NULL%0,            Yuxin%Shi%shiyuxin@shphc.org.cn%0,            Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,            Jianming%Tang%15900792812@163.com%1,            Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,      Jingping%Yuan%xref no email%1,      Yu%Liu%xref no email%1,      Tao%Fu%xref no email%1,      Xue%Yu%xref no email%1,      Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,            Zheng%Zhong%NULL%2,            Zheng%Zhong%NULL%0,            Wei%Zhao%NULL%2,            Wei%Zhao%NULL%0,            Chao%Zheng%NULL%2,            Chao%Zheng%NULL%0,            Fei%Wang%NULL%2,            Fei%Wang%NULL%0,            Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,            Chengcheng%Yu%1515185140@qq.com%0,            Lieguang%Zhang%zhlieguang@126.com%0,            Liangping%Luo%tluolp@jnu.edu.cn%0,            Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,            Xiao-Xin%Wu%NULL%0,            Xian-Gao%Jiang%NULL%0,            Kai-Jin%Xu%NULL%0,            Ling-Jun%Ying%NULL%0,            Chun-Lian%Ma%NULL%0,            Shi-Bo%Li%NULL%0,            Hua-Ying%Wang%NULL%0,            Sheng%Zhang%NULL%0,            Hai-Nv%Gao%NULL%0,            Ji-Fang%Sheng%NULL%0,            Hong-Liu%Cai%NULL%0,            Yun-Qing%Qiu%NULL%0,            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%0,          Dong%Xiang%coreGivesNoEmail%0,          Gao%Ya-dong%coreGivesNoEmail%0,          Yan%You-qin%coreGivesNoEmail%0,          Yang%Yi-bin%coreGivesNoEmail%0,          Yuan%Ya-dong%coreGivesNoEmail%0,          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,            Xiaochen%Li%NULL%2,            Xiaochen%Li%NULL%0,            Wei%Zhang%NULL%0,            Zheng-Li%Shi%NULL%1,            Zhishui%Zheng%NULL%1,            Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,            Nak-Jung%Kwon%NULL%2,            Nak-Jung%Kwon%NULL%0,            Su-Jin%Choi%NULL%2,            Su-Jin%Choi%NULL%0,            Chang Kyung%Kang%NULL%2,            Chang Kyung%Kang%NULL%0,            Pyoeng Gyun%Choe%NULL%4,            Pyoeng Gyun%Choe%NULL%0,            Jin Yong%Kim%NULL%4,            Jin Yong%Kim%NULL%0,            Jiyoung%Yun%NULL%2,            Jiyoung%Yun%NULL%0,            Gir-Won%Lee%NULL%2,            Gir-Won%Lee%NULL%0,            Moon-Woo%Seong%NULL%2,            Moon-Woo%Seong%NULL%0,            Nam Joong%Kim%NULL%2,            Nam Joong%Kim%NULL%0,            Jeong-Sun%Seo%NULL%2,            Jeong-Sun%Seo%NULL%0,            Myoung-don%Oh%NULL%4,            Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,            Seunghyun%Jeon%NULL%2,            Seunghyun%Jeon%NULL%0,            Hyun-Young%Shin%NULL%2,            Hyun-Young%Shin%NULL%0,            Moon Jung%Kim%NULL%2,            Moon Jung%Kim%NULL%0,            Yu Min%Seong%NULL%2,            Yu Min%Seong%NULL%0,            Wang Jun%Lee%NULL%2,            Wang Jun%Lee%NULL%0,            Kang-Won%Choe%NULL%2,            Kang-Won%Choe%NULL%0,            Yu Min%Kang%NULL%2,            Yu Min%Kang%NULL%0,            Baeckseung%Lee%NULL%2,            Baeckseung%Lee%NULL%0,            Sang-Joon%Park%NULL%2,            Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,            Pyoeng Gyun%Choe%NULL%0,            Pyoeng Gyun%Choe%NULL%0,            Yoonju%Oh%NULL%2,            Yoonju%Oh%NULL%0,            Kyung Joong%Oh%NULL%2,            Kyung Joong%Oh%NULL%0,            Jinsil%Kim%NULL%2,            Jinsil%Kim%NULL%0,            So Jeong%Park%NULL%2,            So Jeong%Park%NULL%0,            Ji Hye%Park%NULL%2,            Ji Hye%Park%NULL%0,            Hye Kyoung%Na%NULL%2,            Hye Kyoung%Na%NULL%0,            Myoung-don%Oh%NULL%0,            Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,             Q.% Lu%null%1,             M.% Liu%null%1,             Y.% Wang%null%1,             A.% Zhang%null%1,             N.% Jalali%null%1,             N.% Dean%null%1,             I.% Longini%null%1,             M. E.% Halloran%null%1,             B.% Xu%null%1,             X.% Zhang%null%1,             L.% Wang%null%1,             W.% Liu%null%1,             L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,            Dingyu%Zhang%NULL%3,            Wenling%Wang%NULL%2,            Xingwang%Li%NULL%0,            Bo%Yang%NULL%0,            Jingdong%Song%NULL%2,            Xiang%Zhao%NULL%2,            Baoying%Huang%NULL%2,            Weifeng%Shi%NULL%2,            Roujian%Lu%NULL%2,            Peihua%Niu%NULL%2,            Faxian%Zhan%NULL%2,            Xuejun%Ma%NULL%2,            Dayan%Wang%NULL%2,            Wenbo%Xu%NULL%2,            Guizhen%Wu%NULL%2,            George F.%Gao%NULL%0,            Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,            Shuofeng%Yuan%NULL%1,            Kin-Hang%Kok%NULL%1,            Kelvin Kai-Wang%To%NULL%1,            Hin%Chu%NULL%1,            Jin%Yang%NULL%1,            Fanfan%Xing%NULL%1,            Jieling%Liu%NULL%1,            Cyril Chik-Yan%Yip%NULL%1,            Rosana Wing-Shan%Poon%NULL%1,            Hoi-Wah%Tsoi%NULL%1,            Simon Kam-Fai%Lo%NULL%1,            Kwok-Hung%Chan%NULL%0,            Vincent Kwok-Man%Poon%NULL%1,            Wan-Mui%Chan%NULL%1,            Jonathan Daniel%Ip%NULL%1,            Jian-Piao%Cai%NULL%1,            Vincent Chi-Chung%Cheng%NULL%1,            Honglin%Chen%NULL%1,            Christopher Kim-Ming%Hui%NULL%1,            Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +3091,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>642</v>
+        <v>739</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -2807,10 +3117,10 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>643</v>
+        <v>740</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -2868,7 +3178,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>741</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -2897,7 +3207,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>742</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -2926,7 +3236,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>646</v>
+        <v>743</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -3013,7 +3323,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3042,7 +3352,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>648</v>
+        <v>745</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -3100,7 +3410,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -3158,7 +3468,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -3187,7 +3497,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>651</v>
+        <v>748</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -3216,7 +3526,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>652</v>
+        <v>749</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -3245,7 +3555,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -3274,7 +3584,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>654</v>
+        <v>751</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3303,7 +3613,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>655</v>
+        <v>752</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3332,7 +3642,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>753</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3361,7 +3671,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>657</v>
+        <v>754</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -3390,7 +3700,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>658</v>
+        <v>755</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -3419,7 +3729,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>659</v>
+        <v>756</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -3448,7 +3758,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>660</v>
+        <v>757</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -3477,7 +3787,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>661</v>
+        <v>758</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -3506,7 +3816,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>662</v>
+        <v>759</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -3535,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>663</v>
+        <v>760</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3564,7 +3874,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3593,7 +3903,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>665</v>
+        <v>762</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3651,7 +3961,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>666</v>
+        <v>763</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -3709,7 +4019,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>667</v>
+        <v>764</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3738,7 +4048,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>668</v>
+        <v>765</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3767,7 +4077,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>669</v>
+        <v>766</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -3796,7 +4106,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>670</v>
+        <v>767</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -3825,7 +4135,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>671</v>
+        <v>768</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -3854,7 +4164,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -3883,7 +4193,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>673</v>
+        <v>770</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -3912,7 +4222,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>674</v>
+        <v>771</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -3941,7 +4251,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>675</v>
+        <v>772</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -3970,7 +4280,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>676</v>
+        <v>773</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -3999,7 +4309,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>677</v>
+        <v>774</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4028,7 +4338,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>678</v>
+        <v>775</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -4057,7 +4367,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>679</v>
+        <v>776</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -4086,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>680</v>
+        <v>777</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -4115,7 +4425,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>681</v>
+        <v>778</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -4173,7 +4483,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -4260,7 +4570,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>683</v>
+        <v>780</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4289,7 +4599,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>684</v>
+        <v>781</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -4318,7 +4628,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -4347,7 +4657,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -4376,7 +4686,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="F57" t="s">
         <v>71</v>
@@ -4405,7 +4715,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -4434,7 +4744,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>689</v>
+        <v>786</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="836">
   <si>
     <t>Doi</t>
   </si>
@@ -2757,6 +2757,153 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,            Shuofeng%Yuan%NULL%1,            Kin-Hang%Kok%NULL%1,            Kelvin Kai-Wang%To%NULL%1,            Hin%Chu%NULL%1,            Jin%Yang%NULL%1,            Fanfan%Xing%NULL%1,            Jieling%Liu%NULL%1,            Cyril Chik-Yan%Yip%NULL%1,            Rosana Wing-Shan%Poon%NULL%1,            Hoi-Wah%Tsoi%NULL%1,            Simon Kam-Fai%Lo%NULL%1,            Kwok-Hung%Chan%NULL%0,            Vincent Kwok-Man%Poon%NULL%1,            Wan-Mui%Chan%NULL%1,            Jonathan Daniel%Ip%NULL%1,            Jian-Piao%Cai%NULL%1,            Vincent Chi-Chung%Cheng%NULL%1,            Honglin%Chen%NULL%1,            Christopher Kim-Ming%Hui%NULL%1,            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,             Dengju%Li%NULL%0,             Xiong%Wang%NULL%0,             Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,             Hanxiong%Guan%NULL%1,             Shuchang%Zhou%NULL%1,             Yujin%Wang%NULL%1,             Qian%Li%NULL%1,             Tingting%Zhu%NULL%1,             Qiongjie%Hu%qjhu@outlook.com%1,             Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,             Jenny%Chen%NULL%1,             Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,             Yang%Yang%NULL%4,             Cong%Zhang%NULL%0,             Fengming%Huang%NULL%1,             Fuxiang%Wang%NULL%1,             Jing%Yuan%NULL%1,             Zhaoqin%Wang%NULL%0,             Jinxiu%Li%NULL%1,             Jianming%Li%NULL%1,             Cheng%Feng%NULL%1,             Zheng%Zhang%NULL%1,             Lifei%Wang%NULL%1,             Ling%Peng%NULL%1,             Li%Chen%NULL%0,             Yuhao%Qin%NULL%1,             Dandan%Zhao%NULL%1,             Shuguang%Tan%NULL%1,             Lu%Yin%NULL%2,             Jun%Xu%NULL%1,             Congzhao%Zhou%NULL%1,             Chengyu%Jiang%jiang@pumc.edu.cn%1,             Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,             Xueyan%Mei%NULL%4,             Xueyan%Mei%NULL%0,             Mingqian%Huang%NULL%4,             Mingqian%Huang%NULL%0,             Yang%Yang%NULL%0,             Zahi A.%Fayad%NULL%0,             Zahi A.%Fayad%NULL%0,             Ning%Zhang%NULL%5,             Ning%Zhang%NULL%0,             Kaiyue%Diao%NULL%2,             Kaiyue%Diao%NULL%0,             Bin%Lin%NULL%1,             Xiqi%Zhu%NULL%2,             Xiqi%Zhu%NULL%0,             Kunwei%Li%NULL%2,             Shaolin%Li%NULL%2,             Hong%Shan%NULL%0,             Adam%Jacobi%NULL%3,             Adam%Jacobi%NULL%0,             Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,       Lingsheng%Yao%xref no email%1,       Tao%Wei%xref no email%1,       Fei%Tian%xref no email%1,       Dong-Yan%Jin%xref no email%1,       Lijuan%Chen%xref no email%1,       Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,             Ranjit%Sah%ranjitsah@iom.edu.np%0,             Alfonso J%Rodriguez-Morales%NULL%1,             Bibek Kumar%Lal%NULL%1,             Runa%Jha%NULL%1,             Hemant Chanda%Ojha%NULL%1,             Bikesh%Shrestha%NULL%1,             Daniel K W%Chu%NULL%1,             Leo L M%Poon%NULL%1,             Anthony%Costello%NULL%1,             Kouichi%Morita%NULL%1,             Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,       Minggui%Lin%xref no email%0,       Lai%Wei%xref no email%0,       Lixin%Xie%xref no email%0,       Guangfa%Zhu%xref no email%0,       Charles S.%Dela Cruz%xref no email%0,       Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%0,             Xuan%Dong%NULL%0,             Jieming%Qu%NULL%0,             Fengyun%Gong%NULL%0,             Yang%Han%NULL%0,             Yang%Qiu%NULL%0,             Jingli%Wang%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,             Adam%Bernheim%NULL%2,             Adam%Bernheim%NULL%0,             Xueyan%Mei%NULL%0,             Xueyan%Mei%NULL%0,             Ning%Zhang%NULL%0,             Ning%Zhang%NULL%0,             Mingqian%Huang%NULL%0,             Mingqian%Huang%NULL%0,             Xianjun%Zeng%NULL%1,             Jiufa%Cui%NULL%1,             Wenjian%Xu%NULL%2,             Wenjian%Xu%NULL%0,             Yang%Yang%NULL%0,             Zahi A.%Fayad%NULL%0,             Zahi A.%Fayad%NULL%0,             Adam%Jacobi%NULL%0,             Kunwei%Li%NULL%0,             Shaolin%Li%NULL%0,             Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,             Jie%Qin%qinjie@mail.sysu.edu.cn%2,             Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,             M%Zhao%NULL%1,             S%Li%NULL%1,             L%Yang%NULL%1,             B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,             Huangqi%Zhang%NULL%4,             Huangqi%Zhang%NULL%0,             Jicheng%Xie%NULL%4,             Jicheng%Xie%NULL%0,             Minjie%Lin%NULL%2,             Minjie%Lin%NULL%0,             Lingjun%Ying%NULL%2,             Lingjun%Ying%NULL%0,             Peipei%Pang%NULL%4,             Peipei%Pang%NULL%0,             Wenbin%Ji%1224190004@qq.com%4,             Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,             Huangqi%Zhang%NULL%0,             Huangqi%Zhang%NULL%0,             Yunyu%Xu%NULL%2,             Yunyu%Xu%NULL%0,             Jicheng%Xie%NULL%0,             Jicheng%Xie%NULL%0,             Peipei%Pang%NULL%0,             Peipei%Pang%NULL%0,             Wenbin%Ji%1224190004@qq.com%0,             Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,             Domenico%Benvenuto%NULL%1,             Silvia%Angeletti%s.angeletti@unicampus.it%2,             Silvia%Angeletti%s.angeletti@unicampus.it%0,             Massimo%Ciccozzi%NULL%2,             Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,             M.%Li%NULL%1,             X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,             Chas%DeBolt%NULL%1,             Scott%Lindquist%NULL%1,             Kathy H.%Lofy%NULL%1,             John%Wiesman%NULL%1,             Hollianne%Bruce%NULL%0,             Christopher%Spitters%NULL%0,             Keith%Ericson%NULL%1,             Sara%Wilkerson%NULL%1,             Ahmet%Tural%NULL%1,             George%Diaz%NULL%1,             Amanda%Cohn%NULL%2,             LeAnne%Fox%NULL%1,             Anita%Patel%NULL%1,             Susan I.%Gerber%NULL%1,             Lindsay%Kim%NULL%1,             Suxiang%Tong%NULL%1,             Xiaoyan%Lu%NULL%1,             Steve%Lindstrom%NULL%1,             Mark A.%Pallansch%NULL%1,             William C.%Weldon%NULL%1,             Holly M.%Biggs%NULL%1,             Timothy M.%Uyeki%NULL%0,             Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,             Tianzhu%Liu%NULL%2,             Tianzhu%Liu%NULL%0,             Lesheng%Huang%NULL%2,             Lesheng%Huang%NULL%0,             Hailong%Liu%NULL%2,             Hailong%Liu%NULL%0,             Ming%Lei%NULL%1,             Wangdong%Xu%NULL%2,             Wangdong%Xu%NULL%0,             Xiaolu%Hu%NULL%1,             Jun%Chen%NULL%3,             Bo%Liu%liubogzcm@163.com%3,             Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,             Juanjuan%Guo%NULL%0,             Chen%Wang%NULL%0,             Fan%Luo%NULL%0,             Xuechen%Yu%NULL%0,             Wei%Zhang%NULL%0,             Jiafu%Li%NULL%0,             Dongchi%Zhao%NULL%0,             Dan%Xu%NULL%0,             Qing%Gong%NULL%0,             Jing%Liao%NULL%0,             Huixia%Yang%yanghuixia@bjmu.edu.cn%0,             Wei%Hou%houwei@whu.edu.cn%0,             Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,             Junfeng%Li%NULL%1,             Xun%Li%NULL%0,             Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,             Xuhua%Guan%NULL%1,             Peng%Wu%NULL%1,             Xiaoye%Wang%NULL%1,             Lei%Zhou%NULL%0,             Yeqing%Tong%NULL%1,             Ruiqi%Ren%NULL%1,             Kathy S.M.%Leung%NULL%1,             Eric H.Y.%Lau%NULL%1,             Jessica Y.%Wong%NULL%1,             Xuesen%Xing%NULL%1,             Nijuan%Xiang%NULL%0,             Yang%Wu%NULL%1,             Chao%Li%NULL%1,             Qi%Chen%NULL%1,             Dan%Li%NULL%1,             Tian%Liu%NULL%1,             Jing%Zhao%NULL%1,             Man%Liu%NULL%1,             Wenxiao%Tu%NULL%1,             Chuding%Chen%NULL%1,             Lianmei%Jin%NULL%1,             Rui%Yang%NULL%1,             Qi%Wang%NULL%1,             Suhua%Zhou%NULL%1,             Rui%Wang%NULL%2,             Hui%Liu%NULL%0,             Yinbo%Luo%NULL%1,             Yuan%Liu%NULL%1,             Ge%Shao%NULL%1,             Huan%Li%NULL%1,             Zhongfa%Tao%NULL%1,             Yang%Yang%NULL%0,             Zhiqiang%Deng%NULL%1,             Boxi%Liu%NULL%1,             Zhitao%Ma%NULL%1,             Yanping%Zhang%NULL%1,             Guoqing%Shi%NULL%1,             Tommy T.Y.%Lam%NULL%1,             Joseph T.%Wu%NULL%1,             George F.%Gao%NULL%3,             Benjamin J.%Cowling%NULL%2,             Bo%Yang%NULL%4,             Bo%Yang%NULL%0,             Gabriel M.%Leung%NULL%1,             Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,             Zhenyu%Gong%NULL%2,             Zhenyu%Gong%NULL%0,             Zuke%Xiao%NULL%2,             Zuke%Xiao%NULL%0,             Jingliang%Xiong%NULL%1,             Bing%Fan%NULL%2,             Jiaqi%Liu%NULL%2,             Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%0,             Yan%Deng%NULL%0,             Wei%Liu%NULL%0,             Mei-Fang%Wang%NULL%0,             Jing-Ping%Ma%NULL%0,             Wei%Xiao%NULL%0,             Ying-Nan%Wang%NULL%0,             Min-Hua%Zhong%NULL%0,             Cheng-Hong%Li%NULL%0,             Guang-Cai%Li%NULL%0,             Hui-Guo%Liu%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,             Xian-zheng%Tan%xianzhengtan@163.com%2,             Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,             Tianhe%Ye%NULL%0,             Tianhe%Ye%NULL%0,             Peng%Sun%NULL%0,             Peng%Sun%NULL%0,             Shan%Gui%NULL%0,             Shan%Gui%NULL%0,             Bo%Liang%NULL%0,             Bo%Liang%NULL%0,             Lingli%Li%NULL%0,             Lingli%Li%NULL%0,             Dandan%Zheng%NULL%0,             Dandan%Zheng%NULL%0,             Jiazheng%Wang%NULL%0,             Jiazheng%Wang%NULL%0,             Richard L.%Hesketh%NULL%0,             Richard L.%Hesketh%NULL%0,             Lian%Yang%yanglian@hust.edu.cn%0,             Lian%Yang%yanglian@hust.edu.cn%0,             Chuansheng%Zheng%NULL%0,             Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,             Thuong V.%Nguyen%NULL%1,             Quang C.%Luong%NULL%1,             Thinh V.%Nguyen%NULL%1,             Hieu T.%Nguyen%NULL%1,             Hung Q.%Le%NULL%2,             Hung Q.%Le%NULL%0,             Thuc T.%Nguyen%NULL%1,             Thang M.%Cao%NULL%2,             Thang M.%Cao%NULL%0,             Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,             Krit%Pongpirul%NULL%2,             Krit%Pongpirul%NULL%0,             Anuttra C.%Ratnarathon%NULL%2,             Anuttra C.%Ratnarathon%NULL%0,             Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,             Ye-Ming%Wang%NULL%1,             Zhi-Qiang%Wu%NULL%1,             Zi-Chun%Xiang%NULL%1,             Li%Guo%NULL%0,             Teng%Xu%NULL%1,             Yong-Zhong%Jiang%NULL%1,             Yan%Xiong%NULL%0,             Yong-Jun%Li%NULL%1,             Xing-Wang%Li%NULL%1,             Hui%Li%NULL%0,             Guo-Hui%Fan%NULL%1,             Xiao-Ying%Gu%NULL%1,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Jiu-Yang%Xu%NULL%1,             Fan%Yang%NULL%1,             Xin-Ming%Wang%NULL%1,             Chao%Wu%NULL%1,             Lan%Chen%NULL%1,             Yi-Wei%Liu%NULL%1,             Bo%Liu%NULL%0,             Jian%Yang%NULL%1,             Xiao-Rui%Wang%NULL%1,             Jie%Dong%NULL%1,             Li%Li%NULL%0,             Chao-Lin%Huang%NULL%1,             Jian-Ping%Zhao%NULL%1,             Yi%Hu%NULL%0,             Zhen-Shun%Cheng%NULL%1,             Lin-Lin%Liu%NULL%1,             Zhao-Hui%Qian%NULL%1,             Chuan%Qin%NULL%1,             Qi%Jin%NULL%0,             Bin%Cao%NULL%0,             Jian-Wei%Wang%NULL%1,             Xiu-Yuan%Hao%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,             Mirjam%Schunk%NULL%1,             Peter%Sothmann%NULL%1,             Gisela%Bretzel%NULL%1,             Guenter%Froeschl%NULL%1,             Claudia%Wallrauch%NULL%1,             Thorbjörn%Zimmer%NULL%1,             Verena%Thiel%NULL%1,             Christian%Janke%NULL%1,             Wolfgang%Guggemos%NULL%2,             Wolfgang%Guggemos%NULL%0,             Michael%Seilmaier%NULL%1,             Christian%Drosten%NULL%2,             Christian%Drosten%NULL%0,             Patrick%Vollmar%NULL%2,             Patrick%Vollmar%NULL%0,             Katrin%Zwirglmaier%NULL%1,             Sabine%Zange%NULL%1,             Roman%Wölfel%NULL%1,             Michael%Hoelscher%NULL%2,             Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,             Xiaoyu%Han%NULL%2,             Xiaoyu%Han%NULL%0,             Chuansheng%Zheng%hqzcsxh@sina.com%0,             Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,             Lynfa%Stroud%NULL%1,             Graham Edward%Cleghorn%NULL%1,             Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,             Nannan%Shi%NULL%2,             Nannan%Shi%NULL%0,             Fei%Shan%NULL%1,             Zhiyong%Zhang%NULL%1,             Jie%Shen%NULL%1,             Hongzhou%Lu%NULL%0,             Yun%Ling%NULL%0,             Yebin%Jiang%NULL%2,             Yebin%Jiang%NULL%0,             Yuxin%Shi%shiyuxin@shphc.org.cn%0,             Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,             Jianming%Tang%15900792812@163.com%1,             Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,       Jingping%Yuan%xref no email%1,       Yu%Liu%xref no email%1,       Tao%Fu%xref no email%1,       Xue%Yu%xref no email%1,       Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,             Zheng%Zhong%NULL%2,             Zheng%Zhong%NULL%0,             Wei%Zhao%NULL%2,             Wei%Zhao%NULL%0,             Chao%Zheng%NULL%2,             Chao%Zheng%NULL%0,             Fei%Wang%NULL%2,             Fei%Wang%NULL%0,             Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,             Chengcheng%Yu%1515185140@qq.com%0,             Lieguang%Zhang%zhlieguang@126.com%0,             Liangping%Luo%tluolp@jnu.edu.cn%0,             Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,             Xiao-Xin%Wu%NULL%0,             Xian-Gao%Jiang%NULL%0,             Kai-Jin%Xu%NULL%0,             Ling-Jun%Ying%NULL%0,             Chun-Lian%Ma%NULL%0,             Shi-Bo%Li%NULL%0,             Hua-Ying%Wang%NULL%0,             Sheng%Zhang%NULL%0,             Hai-Nv%Gao%NULL%0,             Ji-Fang%Sheng%NULL%0,             Hong-Liu%Cai%NULL%0,             Yun-Qing%Qiu%NULL%0,             Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%0,           Dong%Xiang%coreGivesNoEmail%0,           Gao%Ya-dong%coreGivesNoEmail%0,           Yan%You-qin%coreGivesNoEmail%0,           Yang%Yi-bin%coreGivesNoEmail%0,           Yuan%Ya-dong%coreGivesNoEmail%0,           Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,             Xiaochen%Li%NULL%2,             Xiaochen%Li%NULL%0,             Wei%Zhang%NULL%0,             Zheng-Li%Shi%NULL%1,             Zhishui%Zheng%NULL%1,             Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,             Nak-Jung%Kwon%NULL%2,             Nak-Jung%Kwon%NULL%0,             Su-Jin%Choi%NULL%2,             Su-Jin%Choi%NULL%0,             Chang Kyung%Kang%NULL%2,             Chang Kyung%Kang%NULL%0,             Pyoeng Gyun%Choe%NULL%4,             Pyoeng Gyun%Choe%NULL%0,             Jin Yong%Kim%NULL%4,             Jin Yong%Kim%NULL%0,             Jiyoung%Yun%NULL%2,             Jiyoung%Yun%NULL%0,             Gir-Won%Lee%NULL%2,             Gir-Won%Lee%NULL%0,             Moon-Woo%Seong%NULL%2,             Moon-Woo%Seong%NULL%0,             Nam Joong%Kim%NULL%2,             Nam Joong%Kim%NULL%0,             Jeong-Sun%Seo%NULL%2,             Jeong-Sun%Seo%NULL%0,             Myoung-don%Oh%NULL%4,             Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,             Seunghyun%Jeon%NULL%2,             Seunghyun%Jeon%NULL%0,             Hyun-Young%Shin%NULL%2,             Hyun-Young%Shin%NULL%0,             Moon Jung%Kim%NULL%2,             Moon Jung%Kim%NULL%0,             Yu Min%Seong%NULL%2,             Yu Min%Seong%NULL%0,             Wang Jun%Lee%NULL%2,             Wang Jun%Lee%NULL%0,             Kang-Won%Choe%NULL%2,             Kang-Won%Choe%NULL%0,             Yu Min%Kang%NULL%2,             Yu Min%Kang%NULL%0,             Baeckseung%Lee%NULL%2,             Baeckseung%Lee%NULL%0,             Sang-Joon%Park%NULL%2,             Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,             Pyoeng Gyun%Choe%NULL%0,             Pyoeng Gyun%Choe%NULL%0,             Yoonju%Oh%NULL%2,             Yoonju%Oh%NULL%0,             Kyung Joong%Oh%NULL%2,             Kyung Joong%Oh%NULL%0,             Jinsil%Kim%NULL%2,             Jinsil%Kim%NULL%0,             So Jeong%Park%NULL%2,             So Jeong%Park%NULL%0,             Ji Hye%Park%NULL%2,             Ji Hye%Park%NULL%0,             Hye Kyoung%Na%NULL%2,             Hye Kyoung%Na%NULL%0,             Myoung-don%Oh%NULL%0,             Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,              Q.% Lu%null%1,              M.% Liu%null%1,              Y.% Wang%null%1,              A.% Zhang%null%1,              N.% Jalali%null%1,              N.% Dean%null%1,              I.% Longini%null%1,              M. E.% Halloran%null%1,              B.% Xu%null%1,              X.% Zhang%null%1,              L.% Wang%null%1,              W.% Liu%null%1,              L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,             Dingyu%Zhang%NULL%3,             Wenling%Wang%NULL%2,             Xingwang%Li%NULL%0,             Bo%Yang%NULL%0,             Jingdong%Song%NULL%2,             Xiang%Zhao%NULL%2,             Baoying%Huang%NULL%2,             Weifeng%Shi%NULL%2,             Roujian%Lu%NULL%2,             Peihua%Niu%NULL%2,             Faxian%Zhan%NULL%2,             Xuejun%Ma%NULL%2,             Dayan%Wang%NULL%2,             Wenbo%Xu%NULL%2,             Guizhen%Wu%NULL%2,             George F.%Gao%NULL%0,             Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,             Shuofeng%Yuan%NULL%1,             Kin-Hang%Kok%NULL%1,             Kelvin Kai-Wang%To%NULL%1,             Hin%Chu%NULL%1,             Jin%Yang%NULL%1,             Fanfan%Xing%NULL%1,             Jieling%Liu%NULL%1,             Cyril Chik-Yan%Yip%NULL%1,             Rosana Wing-Shan%Poon%NULL%1,             Hoi-Wah%Tsoi%NULL%1,             Simon Kam-Fai%Lo%NULL%1,             Kwok-Hung%Chan%NULL%0,             Vincent Kwok-Man%Poon%NULL%1,             Wan-Mui%Chan%NULL%1,             Jonathan Daniel%Ip%NULL%1,             Jian-Piao%Cai%NULL%1,             Vincent Chi-Chung%Cheng%NULL%1,             Honglin%Chen%NULL%1,             Christopher Kim-Ming%Hui%NULL%1,             Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3091,7 +3238,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -3120,7 +3267,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -3178,7 +3325,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -3207,7 +3354,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -3236,7 +3383,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -3323,7 +3470,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3352,7 +3499,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>745</v>
+        <v>793</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -3410,7 +3557,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>746</v>
+        <v>794</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -3468,7 +3615,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>747</v>
+        <v>795</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -3497,7 +3644,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -3526,7 +3673,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -3555,7 +3702,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -3584,7 +3731,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3613,7 +3760,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>752</v>
+        <v>800</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3642,7 +3789,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>753</v>
+        <v>801</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3671,7 +3818,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -3700,7 +3847,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>755</v>
+        <v>803</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -3729,7 +3876,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>756</v>
+        <v>804</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -3758,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>757</v>
+        <v>805</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -3787,7 +3934,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>758</v>
+        <v>806</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -3816,7 +3963,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>759</v>
+        <v>807</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -3845,7 +3992,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>760</v>
+        <v>808</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3874,7 +4021,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3903,7 +4050,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>762</v>
+        <v>810</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -3961,7 +4108,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>763</v>
+        <v>811</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -4019,7 +4166,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>764</v>
+        <v>812</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4048,7 +4195,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>765</v>
+        <v>813</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4077,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>766</v>
+        <v>814</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -4106,7 +4253,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>767</v>
+        <v>815</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -4135,7 +4282,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>768</v>
+        <v>816</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -4164,7 +4311,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>769</v>
+        <v>817</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -4193,7 +4340,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>770</v>
+        <v>818</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -4222,7 +4369,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>771</v>
+        <v>819</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4251,7 +4398,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -4280,7 +4427,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -4309,7 +4456,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>774</v>
+        <v>822</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4338,7 +4485,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -4367,7 +4514,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>776</v>
+        <v>824</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -4396,7 +4543,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>777</v>
+        <v>825</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -4425,7 +4572,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>778</v>
+        <v>826</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -4483,7 +4630,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>779</v>
+        <v>827</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -4570,7 +4717,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>780</v>
+        <v>828</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4599,7 +4746,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>781</v>
+        <v>829</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -4628,7 +4775,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>782</v>
+        <v>830</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -4657,7 +4804,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>783</v>
+        <v>831</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -4686,13 +4833,13 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>833</v>
       </c>
       <c r="H57" t="s">
         <v>246</v>
@@ -4715,7 +4862,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>785</v>
+        <v>834</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -4744,7 +4891,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>786</v>
+        <v>835</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6468" uniqueCount="884">
   <si>
     <t>Doi</t>
   </si>
@@ -2904,6 +2904,150 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,             Shuofeng%Yuan%NULL%1,             Kin-Hang%Kok%NULL%1,             Kelvin Kai-Wang%To%NULL%1,             Hin%Chu%NULL%1,             Jin%Yang%NULL%1,             Fanfan%Xing%NULL%1,             Jieling%Liu%NULL%1,             Cyril Chik-Yan%Yip%NULL%1,             Rosana Wing-Shan%Poon%NULL%1,             Hoi-Wah%Tsoi%NULL%1,             Simon Kam-Fai%Lo%NULL%1,             Kwok-Hung%Chan%NULL%0,             Vincent Kwok-Man%Poon%NULL%1,             Wan-Mui%Chan%NULL%1,             Jonathan Daniel%Ip%NULL%1,             Jian-Piao%Cai%NULL%1,             Vincent Chi-Chung%Cheng%NULL%1,             Honglin%Chen%NULL%1,             Christopher Kim-Ming%Hui%NULL%1,             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,              Dengju%Li%NULL%0,              Xiong%Wang%NULL%0,              Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,              Hanxiong%Guan%NULL%1,              Shuchang%Zhou%NULL%1,              Yujin%Wang%NULL%1,              Qian%Li%NULL%1,              Tingting%Zhu%NULL%1,              Qiongjie%Hu%qjhu@outlook.com%1,              Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,              Jenny%Chen%NULL%1,              Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,              Yang%Yang%NULL%4,              Cong%Zhang%NULL%0,              Fengming%Huang%NULL%1,              Fuxiang%Wang%NULL%1,              Jing%Yuan%NULL%1,              Zhaoqin%Wang%NULL%0,              Jinxiu%Li%NULL%1,              Jianming%Li%NULL%1,              Cheng%Feng%NULL%1,              Zheng%Zhang%NULL%1,              Lifei%Wang%NULL%1,              Ling%Peng%NULL%1,              Li%Chen%NULL%0,              Yuhao%Qin%NULL%1,              Dandan%Zhao%NULL%1,              Shuguang%Tan%NULL%1,              Lu%Yin%NULL%2,              Jun%Xu%NULL%1,              Congzhao%Zhou%NULL%1,              Chengyu%Jiang%jiang@pumc.edu.cn%1,              Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,              Xueyan%Mei%NULL%4,              Xueyan%Mei%NULL%0,              Mingqian%Huang%NULL%4,              Mingqian%Huang%NULL%0,              Yang%Yang%NULL%0,              Zahi A.%Fayad%NULL%0,              Zahi A.%Fayad%NULL%0,              Ning%Zhang%NULL%5,              Ning%Zhang%NULL%0,              Kaiyue%Diao%NULL%2,              Kaiyue%Diao%NULL%0,              Bin%Lin%NULL%1,              Xiqi%Zhu%NULL%2,              Xiqi%Zhu%NULL%0,              Kunwei%Li%NULL%2,              Shaolin%Li%NULL%2,              Hong%Shan%NULL%0,              Adam%Jacobi%NULL%3,              Adam%Jacobi%NULL%0,              Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,        Lingsheng%Yao%xref no email%1,        Tao%Wei%xref no email%1,        Fei%Tian%xref no email%1,        Dong-Yan%Jin%xref no email%1,        Lijuan%Chen%xref no email%1,        Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,              Ranjit%Sah%ranjitsah@iom.edu.np%0,              Alfonso J%Rodriguez-Morales%NULL%1,              Bibek Kumar%Lal%NULL%1,              Runa%Jha%NULL%1,              Hemant Chanda%Ojha%NULL%1,              Bikesh%Shrestha%NULL%1,              Daniel K W%Chu%NULL%1,              Leo L M%Poon%NULL%1,              Anthony%Costello%NULL%1,              Kouichi%Morita%NULL%1,              Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,        Minggui%Lin%xref no email%0,        Lai%Wei%xref no email%0,        Lixin%Xie%xref no email%0,        Guangfa%Zhu%xref no email%0,        Charles S.%Dela Cruz%xref no email%0,        Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%0,              Xuan%Dong%NULL%0,              Jieming%Qu%NULL%0,              Fengyun%Gong%NULL%0,              Yang%Han%NULL%0,              Yang%Qiu%NULL%0,              Jingli%Wang%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,              Adam%Bernheim%NULL%2,              Adam%Bernheim%NULL%0,              Xueyan%Mei%NULL%0,              Xueyan%Mei%NULL%0,              Ning%Zhang%NULL%0,              Ning%Zhang%NULL%0,              Mingqian%Huang%NULL%0,              Mingqian%Huang%NULL%0,              Xianjun%Zeng%NULL%1,              Jiufa%Cui%NULL%1,              Wenjian%Xu%NULL%2,              Wenjian%Xu%NULL%0,              Yang%Yang%NULL%0,              Zahi A.%Fayad%NULL%0,              Zahi A.%Fayad%NULL%0,              Adam%Jacobi%NULL%0,              Kunwei%Li%NULL%0,              Shaolin%Li%NULL%0,              Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,              Jie%Qin%qinjie@mail.sysu.edu.cn%2,              Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,              M%Zhao%NULL%1,              S%Li%NULL%1,              L%Yang%NULL%1,              B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,              Huangqi%Zhang%NULL%4,              Huangqi%Zhang%NULL%0,              Jicheng%Xie%NULL%4,              Jicheng%Xie%NULL%0,              Minjie%Lin%NULL%2,              Minjie%Lin%NULL%0,              Lingjun%Ying%NULL%2,              Lingjun%Ying%NULL%0,              Peipei%Pang%NULL%4,              Peipei%Pang%NULL%0,              Wenbin%Ji%1224190004@qq.com%4,              Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,              Huangqi%Zhang%NULL%0,              Huangqi%Zhang%NULL%0,              Yunyu%Xu%NULL%2,              Yunyu%Xu%NULL%0,              Jicheng%Xie%NULL%0,              Jicheng%Xie%NULL%0,              Peipei%Pang%NULL%0,              Peipei%Pang%NULL%0,              Wenbin%Ji%1224190004@qq.com%0,              Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,              Domenico%Benvenuto%NULL%1,              Silvia%Angeletti%s.angeletti@unicampus.it%2,              Silvia%Angeletti%s.angeletti@unicampus.it%0,              Massimo%Ciccozzi%NULL%2,              Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,              M.%Li%NULL%1,              X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,              Chas%DeBolt%NULL%1,              Scott%Lindquist%NULL%1,              Kathy H.%Lofy%NULL%1,              John%Wiesman%NULL%1,              Hollianne%Bruce%NULL%0,              Christopher%Spitters%NULL%0,              Keith%Ericson%NULL%1,              Sara%Wilkerson%NULL%1,              Ahmet%Tural%NULL%1,              George%Diaz%NULL%1,              Amanda%Cohn%NULL%2,              LeAnne%Fox%NULL%1,              Anita%Patel%NULL%1,              Susan I.%Gerber%NULL%1,              Lindsay%Kim%NULL%1,              Suxiang%Tong%NULL%1,              Xiaoyan%Lu%NULL%1,              Steve%Lindstrom%NULL%1,              Mark A.%Pallansch%NULL%1,              William C.%Weldon%NULL%1,              Holly M.%Biggs%NULL%1,              Timothy M.%Uyeki%NULL%0,              Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,              Tianzhu%Liu%NULL%2,              Tianzhu%Liu%NULL%0,              Lesheng%Huang%NULL%2,              Lesheng%Huang%NULL%0,              Hailong%Liu%NULL%2,              Hailong%Liu%NULL%0,              Ming%Lei%NULL%1,              Wangdong%Xu%NULL%2,              Wangdong%Xu%NULL%0,              Xiaolu%Hu%NULL%1,              Jun%Chen%NULL%3,              Bo%Liu%liubogzcm@163.com%3,              Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,              Juanjuan%Guo%NULL%0,              Chen%Wang%NULL%0,              Fan%Luo%NULL%0,              Xuechen%Yu%NULL%0,              Wei%Zhang%NULL%0,              Jiafu%Li%NULL%0,              Dongchi%Zhao%NULL%0,              Dan%Xu%NULL%0,              Qing%Gong%NULL%0,              Jing%Liao%NULL%0,              Huixia%Yang%yanghuixia@bjmu.edu.cn%0,              Wei%Hou%houwei@whu.edu.cn%0,              Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,              Junfeng%Li%NULL%1,              Xun%Li%NULL%0,              Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,              Xuhua%Guan%NULL%1,              Peng%Wu%NULL%1,              Xiaoye%Wang%NULL%1,              Lei%Zhou%NULL%0,              Yeqing%Tong%NULL%1,              Ruiqi%Ren%NULL%1,              Kathy S.M.%Leung%NULL%1,              Eric H.Y.%Lau%NULL%1,              Jessica Y.%Wong%NULL%1,              Xuesen%Xing%NULL%1,              Nijuan%Xiang%NULL%0,              Yang%Wu%NULL%1,              Chao%Li%NULL%1,              Qi%Chen%NULL%1,              Dan%Li%NULL%1,              Tian%Liu%NULL%1,              Jing%Zhao%NULL%1,              Man%Liu%NULL%1,              Wenxiao%Tu%NULL%1,              Chuding%Chen%NULL%1,              Lianmei%Jin%NULL%1,              Rui%Yang%NULL%1,              Qi%Wang%NULL%1,              Suhua%Zhou%NULL%1,              Rui%Wang%NULL%2,              Hui%Liu%NULL%0,              Yinbo%Luo%NULL%1,              Yuan%Liu%NULL%1,              Ge%Shao%NULL%1,              Huan%Li%NULL%1,              Zhongfa%Tao%NULL%1,              Yang%Yang%NULL%0,              Zhiqiang%Deng%NULL%1,              Boxi%Liu%NULL%1,              Zhitao%Ma%NULL%1,              Yanping%Zhang%NULL%1,              Guoqing%Shi%NULL%1,              Tommy T.Y.%Lam%NULL%1,              Joseph T.%Wu%NULL%1,              George F.%Gao%NULL%3,              Benjamin J.%Cowling%NULL%2,              Bo%Yang%NULL%4,              Bo%Yang%NULL%0,              Gabriel M.%Leung%NULL%1,              Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,              Zhenyu%Gong%NULL%2,              Zhenyu%Gong%NULL%0,              Zuke%Xiao%NULL%2,              Zuke%Xiao%NULL%0,              Jingliang%Xiong%NULL%1,              Bing%Fan%NULL%2,              Jiaqi%Liu%NULL%2,              Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%0,              Yan%Deng%NULL%0,              Wei%Liu%NULL%0,              Mei-Fang%Wang%NULL%0,              Jing-Ping%Ma%NULL%0,              Wei%Xiao%NULL%0,              Ying-Nan%Wang%NULL%0,              Min-Hua%Zhong%NULL%0,              Cheng-Hong%Li%NULL%0,              Guang-Cai%Li%NULL%0,              Hui-Guo%Liu%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,              Xian-zheng%Tan%xianzhengtan@163.com%2,              Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,              Tianhe%Ye%NULL%0,              Tianhe%Ye%NULL%0,              Peng%Sun%NULL%0,              Peng%Sun%NULL%0,              Shan%Gui%NULL%0,              Shan%Gui%NULL%0,              Bo%Liang%NULL%0,              Bo%Liang%NULL%0,              Lingli%Li%NULL%0,              Lingli%Li%NULL%0,              Dandan%Zheng%NULL%0,              Dandan%Zheng%NULL%0,              Jiazheng%Wang%NULL%0,              Jiazheng%Wang%NULL%0,              Richard L.%Hesketh%NULL%0,              Richard L.%Hesketh%NULL%0,              Lian%Yang%yanglian@hust.edu.cn%0,              Lian%Yang%yanglian@hust.edu.cn%0,              Chuansheng%Zheng%NULL%0,              Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,              Thuong V.%Nguyen%NULL%1,              Quang C.%Luong%NULL%1,              Thinh V.%Nguyen%NULL%1,              Hieu T.%Nguyen%NULL%1,              Hung Q.%Le%NULL%2,              Hung Q.%Le%NULL%0,              Thuc T.%Nguyen%NULL%1,              Thang M.%Cao%NULL%2,              Thang M.%Cao%NULL%0,              Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,              Krit%Pongpirul%NULL%2,              Krit%Pongpirul%NULL%0,              Anuttra C.%Ratnarathon%NULL%2,              Anuttra C.%Ratnarathon%NULL%0,              Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,              Ye-Ming%Wang%NULL%1,              Zhi-Qiang%Wu%NULL%1,              Zi-Chun%Xiang%NULL%1,              Li%Guo%NULL%0,              Teng%Xu%NULL%1,              Yong-Zhong%Jiang%NULL%1,              Yan%Xiong%NULL%0,              Yong-Jun%Li%NULL%1,              Xing-Wang%Li%NULL%1,              Hui%Li%NULL%0,              Guo-Hui%Fan%NULL%1,              Xiao-Ying%Gu%NULL%1,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Jiu-Yang%Xu%NULL%1,              Fan%Yang%NULL%1,              Xin-Ming%Wang%NULL%1,              Chao%Wu%NULL%1,              Lan%Chen%NULL%1,              Yi-Wei%Liu%NULL%1,              Bo%Liu%NULL%0,              Jian%Yang%NULL%1,              Xiao-Rui%Wang%NULL%1,              Jie%Dong%NULL%1,              Li%Li%NULL%0,              Chao-Lin%Huang%NULL%1,              Jian-Ping%Zhao%NULL%1,              Yi%Hu%NULL%0,              Zhen-Shun%Cheng%NULL%1,              Lin-Lin%Liu%NULL%1,              Zhao-Hui%Qian%NULL%1,              Chuan%Qin%NULL%1,              Qi%Jin%NULL%0,              Bin%Cao%NULL%0,              Jian-Wei%Wang%NULL%1,              Xiu-Yuan%Hao%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,              Mirjam%Schunk%NULL%1,              Peter%Sothmann%NULL%1,              Gisela%Bretzel%NULL%1,              Guenter%Froeschl%NULL%1,              Claudia%Wallrauch%NULL%1,              Thorbjörn%Zimmer%NULL%1,              Verena%Thiel%NULL%1,              Christian%Janke%NULL%1,              Wolfgang%Guggemos%NULL%2,              Wolfgang%Guggemos%NULL%0,              Michael%Seilmaier%NULL%1,              Christian%Drosten%NULL%2,              Christian%Drosten%NULL%0,              Patrick%Vollmar%NULL%2,              Patrick%Vollmar%NULL%0,              Katrin%Zwirglmaier%NULL%1,              Sabine%Zange%NULL%1,              Roman%Wölfel%NULL%1,              Michael%Hoelscher%NULL%2,              Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,              Xiaoyu%Han%NULL%2,              Xiaoyu%Han%NULL%0,              Chuansheng%Zheng%hqzcsxh@sina.com%0,              Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,              Lynfa%Stroud%NULL%1,              Graham Edward%Cleghorn%NULL%1,              Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,              Nannan%Shi%NULL%2,              Nannan%Shi%NULL%0,              Fei%Shan%NULL%1,              Zhiyong%Zhang%NULL%1,              Jie%Shen%NULL%1,              Hongzhou%Lu%NULL%0,              Yun%Ling%NULL%0,              Yebin%Jiang%NULL%2,              Yebin%Jiang%NULL%0,              Yuxin%Shi%shiyuxin@shphc.org.cn%0,              Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,              Jianming%Tang%15900792812@163.com%1,              Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,        Jingping%Yuan%xref no email%1,        Yu%Liu%xref no email%1,        Tao%Fu%xref no email%1,        Xue%Yu%xref no email%1,        Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,              Zheng%Zhong%NULL%2,              Zheng%Zhong%NULL%0,              Wei%Zhao%NULL%2,              Wei%Zhao%NULL%0,              Chao%Zheng%NULL%2,              Chao%Zheng%NULL%0,              Fei%Wang%NULL%2,              Fei%Wang%NULL%0,              Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,              Chengcheng%Yu%1515185140@qq.com%0,              Lieguang%Zhang%zhlieguang@126.com%0,              Liangping%Luo%tluolp@jnu.edu.cn%0,              Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,              Xiao-Xin%Wu%NULL%0,              Xian-Gao%Jiang%NULL%0,              Kai-Jin%Xu%NULL%0,              Ling-Jun%Ying%NULL%0,              Chun-Lian%Ma%NULL%0,              Shi-Bo%Li%NULL%0,              Hua-Ying%Wang%NULL%0,              Sheng%Zhang%NULL%0,              Hai-Nv%Gao%NULL%0,              Ji-Fang%Sheng%NULL%0,              Hong-Liu%Cai%NULL%0,              Yun-Qing%Qiu%NULL%0,              Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%0,            Dong%Xiang%coreGivesNoEmail%0,            Gao%Ya-dong%coreGivesNoEmail%0,            Yan%You-qin%coreGivesNoEmail%0,            Yang%Yi-bin%coreGivesNoEmail%0,            Yuan%Ya-dong%coreGivesNoEmail%0,            Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,              Xiaochen%Li%NULL%2,              Xiaochen%Li%NULL%0,              Wei%Zhang%NULL%0,              Zheng-Li%Shi%NULL%1,              Zhishui%Zheng%NULL%1,              Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,              Nak-Jung%Kwon%NULL%2,              Nak-Jung%Kwon%NULL%0,              Su-Jin%Choi%NULL%2,              Su-Jin%Choi%NULL%0,              Chang Kyung%Kang%NULL%2,              Chang Kyung%Kang%NULL%0,              Pyoeng Gyun%Choe%NULL%4,              Pyoeng Gyun%Choe%NULL%0,              Jin Yong%Kim%NULL%4,              Jin Yong%Kim%NULL%0,              Jiyoung%Yun%NULL%2,              Jiyoung%Yun%NULL%0,              Gir-Won%Lee%NULL%2,              Gir-Won%Lee%NULL%0,              Moon-Woo%Seong%NULL%2,              Moon-Woo%Seong%NULL%0,              Nam Joong%Kim%NULL%2,              Nam Joong%Kim%NULL%0,              Jeong-Sun%Seo%NULL%2,              Jeong-Sun%Seo%NULL%0,              Myoung-don%Oh%NULL%4,              Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,              Seunghyun%Jeon%NULL%2,              Seunghyun%Jeon%NULL%0,              Hyun-Young%Shin%NULL%2,              Hyun-Young%Shin%NULL%0,              Moon Jung%Kim%NULL%2,              Moon Jung%Kim%NULL%0,              Yu Min%Seong%NULL%2,              Yu Min%Seong%NULL%0,              Wang Jun%Lee%NULL%2,              Wang Jun%Lee%NULL%0,              Kang-Won%Choe%NULL%2,              Kang-Won%Choe%NULL%0,              Yu Min%Kang%NULL%2,              Yu Min%Kang%NULL%0,              Baeckseung%Lee%NULL%2,              Baeckseung%Lee%NULL%0,              Sang-Joon%Park%NULL%2,              Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,              Pyoeng Gyun%Choe%NULL%0,              Pyoeng Gyun%Choe%NULL%0,              Yoonju%Oh%NULL%2,              Yoonju%Oh%NULL%0,              Kyung Joong%Oh%NULL%2,              Kyung Joong%Oh%NULL%0,              Jinsil%Kim%NULL%2,              Jinsil%Kim%NULL%0,              So Jeong%Park%NULL%2,              So Jeong%Park%NULL%0,              Ji Hye%Park%NULL%2,              Ji Hye%Park%NULL%0,              Hye Kyoung%Na%NULL%2,              Hye Kyoung%Na%NULL%0,              Myoung-don%Oh%NULL%0,              Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,               Q.% Lu%null%1,               M.% Liu%null%1,               Y.% Wang%null%1,               A.% Zhang%null%1,               N.% Jalali%null%1,               N.% Dean%null%1,               I.% Longini%null%1,               M. E.% Halloran%null%1,               B.% Xu%null%1,               X.% Zhang%null%1,               L.% Wang%null%1,               W.% Liu%null%1,               L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,              Dingyu%Zhang%NULL%3,              Wenling%Wang%NULL%2,              Xingwang%Li%NULL%0,              Bo%Yang%NULL%0,              Jingdong%Song%NULL%2,              Xiang%Zhao%NULL%2,              Baoying%Huang%NULL%2,              Weifeng%Shi%NULL%2,              Roujian%Lu%NULL%2,              Peihua%Niu%NULL%2,              Faxian%Zhan%NULL%2,              Xuejun%Ma%NULL%2,              Dayan%Wang%NULL%2,              Wenbo%Xu%NULL%2,              Guizhen%Wu%NULL%2,              George F.%Gao%NULL%0,              Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,              Shuofeng%Yuan%NULL%1,              Kin-Hang%Kok%NULL%1,              Kelvin Kai-Wang%To%NULL%1,              Hin%Chu%NULL%1,              Jin%Yang%NULL%1,              Fanfan%Xing%NULL%1,              Jieling%Liu%NULL%1,              Cyril Chik-Yan%Yip%NULL%1,              Rosana Wing-Shan%Poon%NULL%1,              Hoi-Wah%Tsoi%NULL%1,              Simon Kam-Fai%Lo%NULL%1,              Kwok-Hung%Chan%NULL%0,              Vincent Kwok-Man%Poon%NULL%1,              Wan-Mui%Chan%NULL%1,              Jonathan Daniel%Ip%NULL%1,              Jian-Piao%Cai%NULL%1,              Vincent Chi-Chung%Cheng%NULL%1,              Honglin%Chen%NULL%1,              Christopher Kim-Ming%Hui%NULL%1,              Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3382,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>836</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -3267,7 +3411,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>788</v>
+        <v>837</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -3325,7 +3469,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -3354,7 +3498,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>790</v>
+        <v>839</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -3383,7 +3527,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -3470,7 +3614,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>792</v>
+        <v>841</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3499,7 +3643,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>793</v>
+        <v>842</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -3557,7 +3701,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>794</v>
+        <v>843</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -3615,7 +3759,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>795</v>
+        <v>844</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -3644,7 +3788,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>796</v>
+        <v>845</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -3673,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>797</v>
+        <v>846</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -3702,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>798</v>
+        <v>847</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -3731,7 +3875,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3760,7 +3904,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>800</v>
+        <v>849</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3789,7 +3933,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>801</v>
+        <v>850</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3818,7 +3962,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>802</v>
+        <v>851</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -3847,7 +3991,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>803</v>
+        <v>852</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -3876,7 +4020,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -3905,7 +4049,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -3934,7 +4078,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>806</v>
+        <v>855</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -3963,7 +4107,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>807</v>
+        <v>856</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -3992,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4021,7 +4165,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>809</v>
+        <v>858</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4050,7 +4194,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4108,7 +4252,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>811</v>
+        <v>860</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -4166,7 +4310,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>812</v>
+        <v>861</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4195,7 +4339,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>813</v>
+        <v>862</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4224,7 +4368,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>814</v>
+        <v>863</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -4253,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>815</v>
+        <v>864</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -4282,7 +4426,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>816</v>
+        <v>865</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -4311,7 +4455,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>817</v>
+        <v>866</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -4340,7 +4484,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>818</v>
+        <v>867</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -4369,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>819</v>
+        <v>868</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4398,7 +4542,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>820</v>
+        <v>869</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -4427,7 +4571,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -4456,7 +4600,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>822</v>
+        <v>871</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4485,7 +4629,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>823</v>
+        <v>872</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -4514,7 +4658,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>824</v>
+        <v>873</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -4543,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -4572,7 +4716,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>826</v>
+        <v>875</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -4630,7 +4774,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>827</v>
+        <v>876</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -4717,7 +4861,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4746,7 +4890,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>829</v>
+        <v>878</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -4775,7 +4919,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -4804,7 +4948,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>831</v>
+        <v>880</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -4833,7 +4977,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>832</v>
+        <v>881</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -4862,7 +5006,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>834</v>
+        <v>882</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -4891,7 +5035,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>835</v>
+        <v>883</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6468" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="980">
   <si>
     <t>Doi</t>
   </si>
@@ -3048,6 +3048,294 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,              Shuofeng%Yuan%NULL%1,              Kin-Hang%Kok%NULL%1,              Kelvin Kai-Wang%To%NULL%1,              Hin%Chu%NULL%1,              Jin%Yang%NULL%1,              Fanfan%Xing%NULL%1,              Jieling%Liu%NULL%1,              Cyril Chik-Yan%Yip%NULL%1,              Rosana Wing-Shan%Poon%NULL%1,              Hoi-Wah%Tsoi%NULL%1,              Simon Kam-Fai%Lo%NULL%1,              Kwok-Hung%Chan%NULL%0,              Vincent Kwok-Man%Poon%NULL%1,              Wan-Mui%Chan%NULL%1,              Jonathan Daniel%Ip%NULL%1,              Jian-Piao%Cai%NULL%1,              Vincent Chi-Chung%Cheng%NULL%1,              Honglin%Chen%NULL%1,              Christopher Kim-Ming%Hui%NULL%1,              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,               Dengju%Li%NULL%0,               Xiong%Wang%NULL%0,               Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,               Hanxiong%Guan%NULL%1,               Shuchang%Zhou%NULL%1,               Yujin%Wang%NULL%1,               Qian%Li%NULL%1,               Tingting%Zhu%NULL%1,               Qiongjie%Hu%qjhu@outlook.com%1,               Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,               Jenny%Chen%NULL%1,               Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,               Yang%Yang%NULL%4,               Cong%Zhang%NULL%0,               Fengming%Huang%NULL%1,               Fuxiang%Wang%NULL%1,               Jing%Yuan%NULL%1,               Zhaoqin%Wang%NULL%0,               Jinxiu%Li%NULL%1,               Jianming%Li%NULL%1,               Cheng%Feng%NULL%1,               Zheng%Zhang%NULL%1,               Lifei%Wang%NULL%1,               Ling%Peng%NULL%1,               Li%Chen%NULL%0,               Yuhao%Qin%NULL%1,               Dandan%Zhao%NULL%1,               Shuguang%Tan%NULL%1,               Lu%Yin%NULL%2,               Jun%Xu%NULL%1,               Congzhao%Zhou%NULL%1,               Chengyu%Jiang%jiang@pumc.edu.cn%1,               Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,               Xueyan%Mei%NULL%4,               Xueyan%Mei%NULL%0,               Mingqian%Huang%NULL%4,               Mingqian%Huang%NULL%0,               Yang%Yang%NULL%0,               Zahi A.%Fayad%NULL%0,               Zahi A.%Fayad%NULL%0,               Ning%Zhang%NULL%5,               Ning%Zhang%NULL%0,               Kaiyue%Diao%NULL%2,               Kaiyue%Diao%NULL%0,               Bin%Lin%NULL%1,               Xiqi%Zhu%NULL%2,               Xiqi%Zhu%NULL%0,               Kunwei%Li%NULL%2,               Shaolin%Li%NULL%2,               Hong%Shan%NULL%0,               Adam%Jacobi%NULL%3,               Adam%Jacobi%NULL%0,               Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,         Lingsheng%Yao%xref no email%1,         Tao%Wei%xref no email%1,         Fei%Tian%xref no email%1,         Dong-Yan%Jin%xref no email%1,         Lijuan%Chen%xref no email%1,         Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,               Ranjit%Sah%ranjitsah@iom.edu.np%0,               Alfonso J%Rodriguez-Morales%NULL%1,               Bibek Kumar%Lal%NULL%1,               Runa%Jha%NULL%1,               Hemant Chanda%Ojha%NULL%1,               Bikesh%Shrestha%NULL%1,               Daniel K W%Chu%NULL%1,               Leo L M%Poon%NULL%1,               Anthony%Costello%NULL%1,               Kouichi%Morita%NULL%1,               Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,         Minggui%Lin%xref no email%0,         Lai%Wei%xref no email%0,         Lixin%Xie%xref no email%0,         Guangfa%Zhu%xref no email%0,         Charles S.%Dela Cruz%xref no email%0,         Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%0,               Xuan%Dong%NULL%0,               Jieming%Qu%NULL%0,               Fengyun%Gong%NULL%0,               Yang%Han%NULL%0,               Yang%Qiu%NULL%0,               Jingli%Wang%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,               Adam%Bernheim%NULL%2,               Adam%Bernheim%NULL%0,               Xueyan%Mei%NULL%0,               Xueyan%Mei%NULL%0,               Ning%Zhang%NULL%0,               Ning%Zhang%NULL%0,               Mingqian%Huang%NULL%0,               Mingqian%Huang%NULL%0,               Xianjun%Zeng%NULL%1,               Jiufa%Cui%NULL%1,               Wenjian%Xu%NULL%2,               Wenjian%Xu%NULL%0,               Yang%Yang%NULL%0,               Zahi A.%Fayad%NULL%0,               Zahi A.%Fayad%NULL%0,               Adam%Jacobi%NULL%0,               Kunwei%Li%NULL%0,               Shaolin%Li%NULL%0,               Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,               Jie%Qin%qinjie@mail.sysu.edu.cn%2,               Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,               M%Zhao%NULL%1,               S%Li%NULL%1,               L%Yang%NULL%1,               B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,               Huangqi%Zhang%NULL%4,               Huangqi%Zhang%NULL%0,               Jicheng%Xie%NULL%4,               Jicheng%Xie%NULL%0,               Minjie%Lin%NULL%2,               Minjie%Lin%NULL%0,               Lingjun%Ying%NULL%2,               Lingjun%Ying%NULL%0,               Peipei%Pang%NULL%4,               Peipei%Pang%NULL%0,               Wenbin%Ji%1224190004@qq.com%4,               Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,               Huangqi%Zhang%NULL%0,               Huangqi%Zhang%NULL%0,               Yunyu%Xu%NULL%2,               Yunyu%Xu%NULL%0,               Jicheng%Xie%NULL%0,               Jicheng%Xie%NULL%0,               Peipei%Pang%NULL%0,               Peipei%Pang%NULL%0,               Wenbin%Ji%1224190004@qq.com%0,               Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,               Domenico%Benvenuto%NULL%1,               Silvia%Angeletti%s.angeletti@unicampus.it%2,               Silvia%Angeletti%s.angeletti@unicampus.it%0,               Massimo%Ciccozzi%NULL%2,               Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,               M.%Li%NULL%1,               X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,               Chas%DeBolt%NULL%1,               Scott%Lindquist%NULL%1,               Kathy H.%Lofy%NULL%1,               John%Wiesman%NULL%1,               Hollianne%Bruce%NULL%0,               Christopher%Spitters%NULL%0,               Keith%Ericson%NULL%1,               Sara%Wilkerson%NULL%1,               Ahmet%Tural%NULL%1,               George%Diaz%NULL%1,               Amanda%Cohn%NULL%2,               LeAnne%Fox%NULL%1,               Anita%Patel%NULL%1,               Susan I.%Gerber%NULL%1,               Lindsay%Kim%NULL%1,               Suxiang%Tong%NULL%1,               Xiaoyan%Lu%NULL%1,               Steve%Lindstrom%NULL%1,               Mark A.%Pallansch%NULL%1,               William C.%Weldon%NULL%1,               Holly M.%Biggs%NULL%1,               Timothy M.%Uyeki%NULL%0,               Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,               Tianzhu%Liu%NULL%2,               Tianzhu%Liu%NULL%0,               Lesheng%Huang%NULL%2,               Lesheng%Huang%NULL%0,               Hailong%Liu%NULL%2,               Hailong%Liu%NULL%0,               Ming%Lei%NULL%1,               Wangdong%Xu%NULL%2,               Wangdong%Xu%NULL%0,               Xiaolu%Hu%NULL%1,               Jun%Chen%NULL%3,               Bo%Liu%liubogzcm@163.com%3,               Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,               Juanjuan%Guo%NULL%0,               Chen%Wang%NULL%0,               Fan%Luo%NULL%0,               Xuechen%Yu%NULL%0,               Wei%Zhang%NULL%0,               Jiafu%Li%NULL%0,               Dongchi%Zhao%NULL%0,               Dan%Xu%NULL%0,               Qing%Gong%NULL%0,               Jing%Liao%NULL%0,               Huixia%Yang%yanghuixia@bjmu.edu.cn%0,               Wei%Hou%houwei@whu.edu.cn%0,               Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%3,               Junfeng%Li%NULL%1,               Xun%Li%NULL%0,               Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,               Xuhua%Guan%NULL%1,               Peng%Wu%NULL%1,               Xiaoye%Wang%NULL%1,               Lei%Zhou%NULL%0,               Yeqing%Tong%NULL%1,               Ruiqi%Ren%NULL%1,               Kathy S.M.%Leung%NULL%1,               Eric H.Y.%Lau%NULL%1,               Jessica Y.%Wong%NULL%1,               Xuesen%Xing%NULL%1,               Nijuan%Xiang%NULL%0,               Yang%Wu%NULL%1,               Chao%Li%NULL%1,               Qi%Chen%NULL%1,               Dan%Li%NULL%1,               Tian%Liu%NULL%1,               Jing%Zhao%NULL%1,               Man%Liu%NULL%1,               Wenxiao%Tu%NULL%1,               Chuding%Chen%NULL%1,               Lianmei%Jin%NULL%1,               Rui%Yang%NULL%1,               Qi%Wang%NULL%1,               Suhua%Zhou%NULL%1,               Rui%Wang%NULL%2,               Hui%Liu%NULL%0,               Yinbo%Luo%NULL%1,               Yuan%Liu%NULL%1,               Ge%Shao%NULL%1,               Huan%Li%NULL%1,               Zhongfa%Tao%NULL%1,               Yang%Yang%NULL%0,               Zhiqiang%Deng%NULL%1,               Boxi%Liu%NULL%1,               Zhitao%Ma%NULL%1,               Yanping%Zhang%NULL%1,               Guoqing%Shi%NULL%1,               Tommy T.Y.%Lam%NULL%1,               Joseph T.%Wu%NULL%1,               George F.%Gao%NULL%3,               Benjamin J.%Cowling%NULL%2,               Bo%Yang%NULL%4,               Bo%Yang%NULL%0,               Gabriel M.%Leung%NULL%1,               Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,               Zhenyu%Gong%NULL%2,               Zhenyu%Gong%NULL%0,               Zuke%Xiao%NULL%2,               Zuke%Xiao%NULL%0,               Jingliang%Xiong%NULL%1,               Bing%Fan%NULL%2,               Jiaqi%Liu%NULL%2,               Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%0,               Yan%Deng%NULL%0,               Wei%Liu%NULL%0,               Mei-Fang%Wang%NULL%0,               Jing-Ping%Ma%NULL%0,               Wei%Xiao%NULL%0,               Ying-Nan%Wang%NULL%0,               Min-Hua%Zhong%NULL%0,               Cheng-Hong%Li%NULL%0,               Guang-Cai%Li%NULL%0,               Hui-Guo%Liu%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,               Xian-zheng%Tan%xianzhengtan@163.com%2,               Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,               Tianhe%Ye%NULL%0,               Tianhe%Ye%NULL%0,               Peng%Sun%NULL%0,               Peng%Sun%NULL%0,               Shan%Gui%NULL%0,               Shan%Gui%NULL%0,               Bo%Liang%NULL%0,               Bo%Liang%NULL%0,               Lingli%Li%NULL%0,               Lingli%Li%NULL%0,               Dandan%Zheng%NULL%0,               Dandan%Zheng%NULL%0,               Jiazheng%Wang%NULL%0,               Jiazheng%Wang%NULL%0,               Richard L.%Hesketh%NULL%0,               Richard L.%Hesketh%NULL%0,               Lian%Yang%yanglian@hust.edu.cn%0,               Lian%Yang%yanglian@hust.edu.cn%0,               Chuansheng%Zheng%NULL%0,               Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,               Thuong V.%Nguyen%NULL%1,               Quang C.%Luong%NULL%1,               Thinh V.%Nguyen%NULL%1,               Hieu T.%Nguyen%NULL%1,               Hung Q.%Le%NULL%2,               Hung Q.%Le%NULL%0,               Thuc T.%Nguyen%NULL%1,               Thang M.%Cao%NULL%2,               Thang M.%Cao%NULL%0,               Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,               Krit%Pongpirul%NULL%2,               Krit%Pongpirul%NULL%0,               Anuttra C.%Ratnarathon%NULL%2,               Anuttra C.%Ratnarathon%NULL%0,               Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,               Ye-Ming%Wang%NULL%1,               Zhi-Qiang%Wu%NULL%1,               Zi-Chun%Xiang%NULL%1,               Li%Guo%NULL%0,               Teng%Xu%NULL%1,               Yong-Zhong%Jiang%NULL%1,               Yan%Xiong%NULL%0,               Yong-Jun%Li%NULL%1,               Xing-Wang%Li%NULL%1,               Hui%Li%NULL%0,               Guo-Hui%Fan%NULL%1,               Xiao-Ying%Gu%NULL%1,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Jiu-Yang%Xu%NULL%1,               Fan%Yang%NULL%1,               Xin-Ming%Wang%NULL%1,               Chao%Wu%NULL%1,               Lan%Chen%NULL%1,               Yi-Wei%Liu%NULL%1,               Bo%Liu%NULL%0,               Jian%Yang%NULL%1,               Xiao-Rui%Wang%NULL%1,               Jie%Dong%NULL%1,               Li%Li%NULL%0,               Chao-Lin%Huang%NULL%1,               Jian-Ping%Zhao%NULL%1,               Yi%Hu%NULL%0,               Zhen-Shun%Cheng%NULL%1,               Lin-Lin%Liu%NULL%1,               Zhao-Hui%Qian%NULL%1,               Chuan%Qin%NULL%1,               Qi%Jin%NULL%0,               Bin%Cao%NULL%0,               Jian-Wei%Wang%NULL%1,               Xiu-Yuan%Hao%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,               Mirjam%Schunk%NULL%1,               Peter%Sothmann%NULL%1,               Gisela%Bretzel%NULL%1,               Guenter%Froeschl%NULL%1,               Claudia%Wallrauch%NULL%1,               Thorbjörn%Zimmer%NULL%1,               Verena%Thiel%NULL%1,               Christian%Janke%NULL%1,               Wolfgang%Guggemos%NULL%2,               Wolfgang%Guggemos%NULL%0,               Michael%Seilmaier%NULL%1,               Christian%Drosten%NULL%2,               Christian%Drosten%NULL%0,               Patrick%Vollmar%NULL%2,               Patrick%Vollmar%NULL%0,               Katrin%Zwirglmaier%NULL%1,               Sabine%Zange%NULL%1,               Roman%Wölfel%NULL%1,               Michael%Hoelscher%NULL%2,               Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,               Xiaoyu%Han%NULL%2,               Xiaoyu%Han%NULL%0,               Chuansheng%Zheng%hqzcsxh@sina.com%0,               Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,               Lynfa%Stroud%NULL%1,               Graham Edward%Cleghorn%NULL%1,               Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,               Nannan%Shi%NULL%2,               Nannan%Shi%NULL%0,               Fei%Shan%NULL%1,               Zhiyong%Zhang%NULL%1,               Jie%Shen%NULL%1,               Hongzhou%Lu%NULL%0,               Yun%Ling%NULL%0,               Yebin%Jiang%NULL%2,               Yebin%Jiang%NULL%0,               Yuxin%Shi%shiyuxin@shphc.org.cn%0,               Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,               Jianming%Tang%15900792812@163.com%1,               Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,         Jingping%Yuan%xref no email%1,         Yu%Liu%xref no email%1,         Tao%Fu%xref no email%1,         Xue%Yu%xref no email%1,         Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,               Zheng%Zhong%NULL%2,               Zheng%Zhong%NULL%0,               Wei%Zhao%NULL%2,               Wei%Zhao%NULL%0,               Chao%Zheng%NULL%2,               Chao%Zheng%NULL%0,               Fei%Wang%NULL%2,               Fei%Wang%NULL%0,               Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,               Chengcheng%Yu%1515185140@qq.com%0,               Lieguang%Zhang%zhlieguang@126.com%0,               Liangping%Luo%tluolp@jnu.edu.cn%0,               Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,               Xiao-Xin%Wu%NULL%0,               Xian-Gao%Jiang%NULL%0,               Kai-Jin%Xu%NULL%0,               Ling-Jun%Ying%NULL%0,               Chun-Lian%Ma%NULL%0,               Shi-Bo%Li%NULL%0,               Hua-Ying%Wang%NULL%0,               Sheng%Zhang%NULL%0,               Hai-Nv%Gao%NULL%0,               Ji-Fang%Sheng%NULL%0,               Hong-Liu%Cai%NULL%0,               Yun-Qing%Qiu%NULL%0,               Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%0,             Dong%Xiang%coreGivesNoEmail%0,             Gao%Ya-dong%coreGivesNoEmail%0,             Yan%You-qin%coreGivesNoEmail%0,             Yang%Yi-bin%coreGivesNoEmail%0,             Yuan%Ya-dong%coreGivesNoEmail%0,             Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,               Xiaochen%Li%NULL%2,               Xiaochen%Li%NULL%0,               Wei%Zhang%NULL%0,               Zheng-Li%Shi%NULL%1,               Zhishui%Zheng%NULL%1,               Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,               Nak-Jung%Kwon%NULL%2,               Nak-Jung%Kwon%NULL%0,               Su-Jin%Choi%NULL%2,               Su-Jin%Choi%NULL%0,               Chang Kyung%Kang%NULL%2,               Chang Kyung%Kang%NULL%0,               Pyoeng Gyun%Choe%NULL%4,               Pyoeng Gyun%Choe%NULL%0,               Jin Yong%Kim%NULL%4,               Jin Yong%Kim%NULL%0,               Jiyoung%Yun%NULL%2,               Jiyoung%Yun%NULL%0,               Gir-Won%Lee%NULL%2,               Gir-Won%Lee%NULL%0,               Moon-Woo%Seong%NULL%2,               Moon-Woo%Seong%NULL%0,               Nam Joong%Kim%NULL%2,               Nam Joong%Kim%NULL%0,               Jeong-Sun%Seo%NULL%2,               Jeong-Sun%Seo%NULL%0,               Myoung-don%Oh%NULL%4,               Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,               Seunghyun%Jeon%NULL%2,               Seunghyun%Jeon%NULL%0,               Hyun-Young%Shin%NULL%2,               Hyun-Young%Shin%NULL%0,               Moon Jung%Kim%NULL%2,               Moon Jung%Kim%NULL%0,               Yu Min%Seong%NULL%2,               Yu Min%Seong%NULL%0,               Wang Jun%Lee%NULL%2,               Wang Jun%Lee%NULL%0,               Kang-Won%Choe%NULL%2,               Kang-Won%Choe%NULL%0,               Yu Min%Kang%NULL%2,               Yu Min%Kang%NULL%0,               Baeckseung%Lee%NULL%2,               Baeckseung%Lee%NULL%0,               Sang-Joon%Park%NULL%2,               Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%3,               Pyoeng Gyun%Choe%NULL%0,               Pyoeng Gyun%Choe%NULL%0,               Yoonju%Oh%NULL%2,               Yoonju%Oh%NULL%0,               Kyung Joong%Oh%NULL%2,               Kyung Joong%Oh%NULL%0,               Jinsil%Kim%NULL%2,               Jinsil%Kim%NULL%0,               So Jeong%Park%NULL%2,               So Jeong%Park%NULL%0,               Ji Hye%Park%NULL%2,               Ji Hye%Park%NULL%0,               Hye Kyoung%Na%NULL%2,               Hye Kyoung%Na%NULL%0,               Myoung-don%Oh%NULL%0,               Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                Q.% Lu%null%1,                M.% Liu%null%1,                Y.% Wang%null%1,                A.% Zhang%null%1,                N.% Jalali%null%1,                N.% Dean%null%1,                I.% Longini%null%1,                M. E.% Halloran%null%1,                B.% Xu%null%1,                X.% Zhang%null%1,                L.% Wang%null%1,                W.% Liu%null%1,                L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,               Dingyu%Zhang%NULL%3,               Wenling%Wang%NULL%2,               Xingwang%Li%NULL%0,               Bo%Yang%NULL%0,               Jingdong%Song%NULL%2,               Xiang%Zhao%NULL%2,               Baoying%Huang%NULL%2,               Weifeng%Shi%NULL%2,               Roujian%Lu%NULL%2,               Peihua%Niu%NULL%2,               Faxian%Zhan%NULL%2,               Xuejun%Ma%NULL%2,               Dayan%Wang%NULL%2,               Wenbo%Xu%NULL%2,               Guizhen%Wu%NULL%2,               George F.%Gao%NULL%0,               Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,               Shuofeng%Yuan%NULL%1,               Kin-Hang%Kok%NULL%1,               Kelvin Kai-Wang%To%NULL%1,               Hin%Chu%NULL%1,               Jin%Yang%NULL%1,               Fanfan%Xing%NULL%1,               Jieling%Liu%NULL%1,               Cyril Chik-Yan%Yip%NULL%1,               Rosana Wing-Shan%Poon%NULL%1,               Hoi-Wah%Tsoi%NULL%1,               Simon Kam-Fai%Lo%NULL%1,               Kwok-Hung%Chan%NULL%0,               Vincent Kwok-Man%Poon%NULL%1,               Wan-Mui%Chan%NULL%1,               Jonathan Daniel%Ip%NULL%1,               Jian-Piao%Cai%NULL%1,               Vincent Chi-Chung%Cheng%NULL%1,               Honglin%Chen%NULL%1,               Christopher Kim-Ming%Hui%NULL%1,               Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                Dengju%Li%NULL%0,                Xiong%Wang%NULL%0,                Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                Hanxiong%Guan%NULL%1,                Shuchang%Zhou%NULL%1,                Yujin%Wang%NULL%1,                Qian%Li%NULL%1,                Tingting%Zhu%NULL%1,                Qiongjie%Hu%qjhu@outlook.com%1,                Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                Jenny%Chen%NULL%1,                Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                Yang%Yang%NULL%4,                Cong%Zhang%NULL%0,                Fengming%Huang%NULL%1,                Fuxiang%Wang%NULL%1,                Jing%Yuan%NULL%1,                Zhaoqin%Wang%NULL%0,                Jinxiu%Li%NULL%1,                Jianming%Li%NULL%1,                Cheng%Feng%NULL%1,                Zheng%Zhang%NULL%1,                Lifei%Wang%NULL%1,                Ling%Peng%NULL%1,                Li%Chen%NULL%0,                Yuhao%Qin%NULL%1,                Dandan%Zhao%NULL%1,                Shuguang%Tan%NULL%1,                Lu%Yin%NULL%2,                Jun%Xu%NULL%1,                Congzhao%Zhou%NULL%1,                Chengyu%Jiang%jiang@pumc.edu.cn%1,                Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                Xueyan%Mei%NULL%4,                Xueyan%Mei%NULL%0,                Mingqian%Huang%NULL%4,                Mingqian%Huang%NULL%0,                Yang%Yang%NULL%0,                Zahi A.%Fayad%NULL%0,                Zahi A.%Fayad%NULL%0,                Ning%Zhang%NULL%5,                Ning%Zhang%NULL%0,                Kaiyue%Diao%NULL%2,                Kaiyue%Diao%NULL%0,                Bin%Lin%NULL%1,                Xiqi%Zhu%NULL%2,                Xiqi%Zhu%NULL%0,                Kunwei%Li%NULL%2,                Shaolin%Li%NULL%2,                Hong%Shan%NULL%0,                Adam%Jacobi%NULL%3,                Adam%Jacobi%NULL%0,                Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,          Lingsheng%Yao%xref no email%1,          Tao%Wei%xref no email%1,          Fei%Tian%xref no email%1,          Dong-Yan%Jin%xref no email%1,          Lijuan%Chen%xref no email%1,          Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                Ranjit%Sah%ranjitsah@iom.edu.np%0,                Alfonso J%Rodriguez-Morales%NULL%1,                Bibek Kumar%Lal%NULL%1,                Runa%Jha%NULL%1,                Hemant Chanda%Ojha%NULL%1,                Bikesh%Shrestha%NULL%1,                Daniel K W%Chu%NULL%1,                Leo L M%Poon%NULL%1,                Anthony%Costello%NULL%1,                Kouichi%Morita%NULL%1,                Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,          Minggui%Lin%xref no email%0,          Lai%Wei%xref no email%0,          Lixin%Xie%xref no email%0,          Guangfa%Zhu%xref no email%0,          Charles S.%Dela Cruz%xref no email%0,          Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%0,                Xuan%Dong%NULL%0,                Jieming%Qu%NULL%0,                Fengyun%Gong%NULL%0,                Yang%Han%NULL%0,                Yang%Qiu%NULL%0,                Jingli%Wang%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                Adam%Bernheim%NULL%2,                Adam%Bernheim%NULL%0,                Xueyan%Mei%NULL%0,                Xueyan%Mei%NULL%0,                Ning%Zhang%NULL%0,                Ning%Zhang%NULL%0,                Mingqian%Huang%NULL%0,                Mingqian%Huang%NULL%0,                Xianjun%Zeng%NULL%1,                Jiufa%Cui%NULL%1,                Wenjian%Xu%NULL%2,                Wenjian%Xu%NULL%0,                Yang%Yang%NULL%0,                Zahi A.%Fayad%NULL%0,                Zahi A.%Fayad%NULL%0,                Adam%Jacobi%NULL%0,                Kunwei%Li%NULL%0,                Shaolin%Li%NULL%0,                Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                Jie%Qin%qinjie@mail.sysu.edu.cn%2,                Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                M%Zhao%NULL%1,                S%Li%NULL%1,                L%Yang%NULL%1,                B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                Huangqi%Zhang%NULL%4,                Huangqi%Zhang%NULL%0,                Jicheng%Xie%NULL%4,                Jicheng%Xie%NULL%0,                Minjie%Lin%NULL%2,                Minjie%Lin%NULL%0,                Lingjun%Ying%NULL%2,                Lingjun%Ying%NULL%0,                Peipei%Pang%NULL%4,                Peipei%Pang%NULL%0,                Wenbin%Ji%1224190004@qq.com%4,                Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                Huangqi%Zhang%NULL%0,                Huangqi%Zhang%NULL%0,                Yunyu%Xu%NULL%2,                Yunyu%Xu%NULL%0,                Jicheng%Xie%NULL%0,                Jicheng%Xie%NULL%0,                Peipei%Pang%NULL%0,                Peipei%Pang%NULL%0,                Wenbin%Ji%1224190004@qq.com%0,                Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                Domenico%Benvenuto%NULL%1,                Silvia%Angeletti%s.angeletti@unicampus.it%2,                Silvia%Angeletti%s.angeletti@unicampus.it%0,                Massimo%Ciccozzi%NULL%2,                Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                M.%Li%NULL%1,                X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                Chas%DeBolt%NULL%1,                Scott%Lindquist%NULL%1,                Kathy H.%Lofy%NULL%1,                John%Wiesman%NULL%1,                Hollianne%Bruce%NULL%0,                Christopher%Spitters%NULL%0,                Keith%Ericson%NULL%1,                Sara%Wilkerson%NULL%1,                Ahmet%Tural%NULL%1,                George%Diaz%NULL%1,                Amanda%Cohn%NULL%2,                LeAnne%Fox%NULL%1,                Anita%Patel%NULL%1,                Susan I.%Gerber%NULL%1,                Lindsay%Kim%NULL%1,                Suxiang%Tong%NULL%1,                Xiaoyan%Lu%NULL%1,                Steve%Lindstrom%NULL%1,                Mark A.%Pallansch%NULL%1,                William C.%Weldon%NULL%1,                Holly M.%Biggs%NULL%1,                Timothy M.%Uyeki%NULL%0,                Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                Tianzhu%Liu%NULL%2,                Tianzhu%Liu%NULL%0,                Lesheng%Huang%NULL%2,                Lesheng%Huang%NULL%0,                Hailong%Liu%NULL%2,                Hailong%Liu%NULL%0,                Ming%Lei%NULL%1,                Wangdong%Xu%NULL%2,                Wangdong%Xu%NULL%0,                Xiaolu%Hu%NULL%1,                Jun%Chen%NULL%3,                Bo%Liu%liubogzcm@163.com%3,                Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                Juanjuan%Guo%NULL%0,                Chen%Wang%NULL%0,                Fan%Luo%NULL%0,                Xuechen%Yu%NULL%0,                Wei%Zhang%NULL%0,                Jiafu%Li%NULL%0,                Dongchi%Zhao%NULL%0,                Dan%Xu%NULL%0,                Qing%Gong%NULL%0,                Jing%Liao%NULL%0,                Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                Wei%Hou%houwei@whu.edu.cn%0,                Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                Junfeng%Li%NULL%1,                Xun%Li%NULL%0,                Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                Xuhua%Guan%NULL%1,                Peng%Wu%NULL%1,                Xiaoye%Wang%NULL%1,                Lei%Zhou%NULL%0,                Yeqing%Tong%NULL%1,                Ruiqi%Ren%NULL%1,                Kathy S.M.%Leung%NULL%1,                Eric H.Y.%Lau%NULL%1,                Jessica Y.%Wong%NULL%1,                Xuesen%Xing%NULL%1,                Nijuan%Xiang%NULL%0,                Yang%Wu%NULL%1,                Chao%Li%NULL%1,                Qi%Chen%NULL%1,                Dan%Li%NULL%1,                Tian%Liu%NULL%1,                Jing%Zhao%NULL%1,                Man%Liu%NULL%1,                Wenxiao%Tu%NULL%1,                Chuding%Chen%NULL%1,                Lianmei%Jin%NULL%1,                Rui%Yang%NULL%1,                Qi%Wang%NULL%1,                Suhua%Zhou%NULL%1,                Rui%Wang%NULL%2,                Hui%Liu%NULL%0,                Yinbo%Luo%NULL%1,                Yuan%Liu%NULL%1,                Ge%Shao%NULL%1,                Huan%Li%NULL%1,                Zhongfa%Tao%NULL%1,                Yang%Yang%NULL%0,                Zhiqiang%Deng%NULL%1,                Boxi%Liu%NULL%1,                Zhitao%Ma%NULL%1,                Yanping%Zhang%NULL%1,                Guoqing%Shi%NULL%1,                Tommy T.Y.%Lam%NULL%1,                Joseph T.%Wu%NULL%1,                George F.%Gao%NULL%3,                Benjamin J.%Cowling%NULL%2,                Bo%Yang%NULL%4,                Bo%Yang%NULL%0,                Gabriel M.%Leung%NULL%1,                Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                Zhenyu%Gong%NULL%2,                Zhenyu%Gong%NULL%0,                Zuke%Xiao%NULL%2,                Zuke%Xiao%NULL%0,                Jingliang%Xiong%NULL%1,                Bing%Fan%NULL%2,                Jiaqi%Liu%NULL%2,                Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%0,                Yan%Deng%NULL%0,                Wei%Liu%NULL%0,                Mei-Fang%Wang%NULL%0,                Jing-Ping%Ma%NULL%0,                Wei%Xiao%NULL%0,                Ying-Nan%Wang%NULL%0,                Min-Hua%Zhong%NULL%0,                Cheng-Hong%Li%NULL%0,                Guang-Cai%Li%NULL%0,                Hui-Guo%Liu%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                Xian-zheng%Tan%xianzhengtan@163.com%2,                Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                Tianhe%Ye%NULL%0,                Tianhe%Ye%NULL%0,                Peng%Sun%NULL%0,                Peng%Sun%NULL%0,                Shan%Gui%NULL%0,                Shan%Gui%NULL%0,                Bo%Liang%NULL%0,                Bo%Liang%NULL%0,                Lingli%Li%NULL%0,                Lingli%Li%NULL%0,                Dandan%Zheng%NULL%0,                Dandan%Zheng%NULL%0,                Jiazheng%Wang%NULL%0,                Jiazheng%Wang%NULL%0,                Richard L.%Hesketh%NULL%0,                Richard L.%Hesketh%NULL%0,                Lian%Yang%yanglian@hust.edu.cn%0,                Lian%Yang%yanglian@hust.edu.cn%0,                Chuansheng%Zheng%NULL%0,                Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                Thuong V.%Nguyen%NULL%1,                Quang C.%Luong%NULL%1,                Thinh V.%Nguyen%NULL%1,                Hieu T.%Nguyen%NULL%1,                Hung Q.%Le%NULL%2,                Hung Q.%Le%NULL%0,                Thuc T.%Nguyen%NULL%1,                Thang M.%Cao%NULL%2,                Thang M.%Cao%NULL%0,                Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                Krit%Pongpirul%NULL%2,                Krit%Pongpirul%NULL%0,                Anuttra C.%Ratnarathon%NULL%2,                Anuttra C.%Ratnarathon%NULL%0,                Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                Ye-Ming%Wang%NULL%1,                Zhi-Qiang%Wu%NULL%1,                Zi-Chun%Xiang%NULL%1,                Li%Guo%NULL%0,                Teng%Xu%NULL%1,                Yong-Zhong%Jiang%NULL%1,                Yan%Xiong%NULL%0,                Yong-Jun%Li%NULL%1,                Xing-Wang%Li%NULL%1,                Hui%Li%NULL%0,                Guo-Hui%Fan%NULL%1,                Xiao-Ying%Gu%NULL%1,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Jiu-Yang%Xu%NULL%1,                Fan%Yang%NULL%1,                Xin-Ming%Wang%NULL%1,                Chao%Wu%NULL%1,                Lan%Chen%NULL%1,                Yi-Wei%Liu%NULL%1,                Bo%Liu%NULL%0,                Jian%Yang%NULL%1,                Xiao-Rui%Wang%NULL%1,                Jie%Dong%NULL%1,                Li%Li%NULL%0,                Chao-Lin%Huang%NULL%1,                Jian-Ping%Zhao%NULL%1,                Yi%Hu%NULL%0,                Zhen-Shun%Cheng%NULL%1,                Lin-Lin%Liu%NULL%1,                Zhao-Hui%Qian%NULL%1,                Chuan%Qin%NULL%1,                Qi%Jin%NULL%0,                Bin%Cao%NULL%0,                Jian-Wei%Wang%NULL%1,                Xiu-Yuan%Hao%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                Mirjam%Schunk%NULL%1,                Peter%Sothmann%NULL%1,                Gisela%Bretzel%NULL%1,                Guenter%Froeschl%NULL%1,                Claudia%Wallrauch%NULL%1,                Thorbjörn%Zimmer%NULL%1,                Verena%Thiel%NULL%1,                Christian%Janke%NULL%1,                Wolfgang%Guggemos%NULL%2,                Wolfgang%Guggemos%NULL%0,                Michael%Seilmaier%NULL%1,                Christian%Drosten%NULL%2,                Christian%Drosten%NULL%0,                Patrick%Vollmar%NULL%2,                Patrick%Vollmar%NULL%0,                Katrin%Zwirglmaier%NULL%1,                Sabine%Zange%NULL%1,                Roman%Wölfel%NULL%1,                Michael%Hoelscher%NULL%2,                Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                Xiaoyu%Han%NULL%2,                Xiaoyu%Han%NULL%0,                Chuansheng%Zheng%hqzcsxh@sina.com%0,                Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                Lynfa%Stroud%NULL%1,                Graham Edward%Cleghorn%NULL%1,                Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                Nannan%Shi%NULL%2,                Nannan%Shi%NULL%0,                Fei%Shan%NULL%1,                Zhiyong%Zhang%NULL%1,                Jie%Shen%NULL%1,                Hongzhou%Lu%NULL%0,                Yun%Ling%NULL%0,                Yebin%Jiang%NULL%2,                Yebin%Jiang%NULL%0,                Yuxin%Shi%shiyuxin@shphc.org.cn%0,                Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                Jianming%Tang%15900792812@163.com%1,                Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,          Jingping%Yuan%xref no email%1,          Yu%Liu%xref no email%1,          Tao%Fu%xref no email%1,          Xue%Yu%xref no email%1,          Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                Zheng%Zhong%NULL%2,                Zheng%Zhong%NULL%0,                Wei%Zhao%NULL%2,                Wei%Zhao%NULL%0,                Chao%Zheng%NULL%2,                Chao%Zheng%NULL%0,                Fei%Wang%NULL%2,                Fei%Wang%NULL%0,                Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                Chengcheng%Yu%1515185140@qq.com%0,                Lieguang%Zhang%zhlieguang@126.com%0,                Liangping%Luo%tluolp@jnu.edu.cn%0,                Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                Xiao-Xin%Wu%NULL%0,                Xian-Gao%Jiang%NULL%0,                Kai-Jin%Xu%NULL%0,                Ling-Jun%Ying%NULL%0,                Chun-Lian%Ma%NULL%0,                Shi-Bo%Li%NULL%0,                Hua-Ying%Wang%NULL%0,                Sheng%Zhang%NULL%0,                Hai-Nv%Gao%NULL%0,                Ji-Fang%Sheng%NULL%0,                Hong-Liu%Cai%NULL%0,                Yun-Qing%Qiu%NULL%0,                Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%0,              Dong%Xiang%coreGivesNoEmail%0,              Gao%Ya-dong%coreGivesNoEmail%0,              Yan%You-qin%coreGivesNoEmail%0,              Yang%Yi-bin%coreGivesNoEmail%0,              Yuan%Ya-dong%coreGivesNoEmail%0,              Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                Xiaochen%Li%NULL%2,                Xiaochen%Li%NULL%0,                Wei%Zhang%NULL%0,                Zheng-Li%Shi%NULL%1,                Zhishui%Zheng%NULL%1,                Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                Nak-Jung%Kwon%NULL%2,                Nak-Jung%Kwon%NULL%0,                Su-Jin%Choi%NULL%2,                Su-Jin%Choi%NULL%0,                Chang Kyung%Kang%NULL%2,                Chang Kyung%Kang%NULL%0,                Pyoeng Gyun%Choe%NULL%4,                Pyoeng Gyun%Choe%NULL%0,                Jin Yong%Kim%NULL%4,                Jin Yong%Kim%NULL%0,                Jiyoung%Yun%NULL%2,                Jiyoung%Yun%NULL%0,                Gir-Won%Lee%NULL%2,                Gir-Won%Lee%NULL%0,                Moon-Woo%Seong%NULL%2,                Moon-Woo%Seong%NULL%0,                Nam Joong%Kim%NULL%2,                Nam Joong%Kim%NULL%0,                Jeong-Sun%Seo%NULL%2,                Jeong-Sun%Seo%NULL%0,                Myoung-don%Oh%NULL%4,                Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                Seunghyun%Jeon%NULL%2,                Seunghyun%Jeon%NULL%0,                Hyun-Young%Shin%NULL%2,                Hyun-Young%Shin%NULL%0,                Moon Jung%Kim%NULL%2,                Moon Jung%Kim%NULL%0,                Yu Min%Seong%NULL%2,                Yu Min%Seong%NULL%0,                Wang Jun%Lee%NULL%2,                Wang Jun%Lee%NULL%0,                Kang-Won%Choe%NULL%2,                Kang-Won%Choe%NULL%0,                Yu Min%Kang%NULL%2,                Yu Min%Kang%NULL%0,                Baeckseung%Lee%NULL%2,                Baeckseung%Lee%NULL%0,                Sang-Joon%Park%NULL%2,                Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                Pyoeng Gyun%Choe%NULL%0,                Pyoeng Gyun%Choe%NULL%0,                Yoonju%Oh%NULL%2,                Yoonju%Oh%NULL%0,                Kyung Joong%Oh%NULL%2,                Kyung Joong%Oh%NULL%0,                Jinsil%Kim%NULL%2,                Jinsil%Kim%NULL%0,                So Jeong%Park%NULL%2,                So Jeong%Park%NULL%0,                Ji Hye%Park%NULL%2,                Ji Hye%Park%NULL%0,                Hye Kyoung%Na%NULL%2,                Hye Kyoung%Na%NULL%0,                Myoung-don%Oh%NULL%0,                Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                 Q.% Lu%null%1,                 M.% Liu%null%1,                 Y.% Wang%null%1,                 A.% Zhang%null%1,                 N.% Jalali%null%1,                 N.% Dean%null%1,                 I.% Longini%null%1,                 M. E.% Halloran%null%1,                 B.% Xu%null%1,                 X.% Zhang%null%1,                 L.% Wang%null%1,                 W.% Liu%null%1,                 L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                Dingyu%Zhang%NULL%3,                Wenling%Wang%NULL%2,                Xingwang%Li%NULL%0,                Bo%Yang%NULL%0,                Jingdong%Song%NULL%2,                Xiang%Zhao%NULL%2,                Baoying%Huang%NULL%2,                Weifeng%Shi%NULL%2,                Roujian%Lu%NULL%2,                Peihua%Niu%NULL%2,                Faxian%Zhan%NULL%2,                Xuejun%Ma%NULL%2,                Dayan%Wang%NULL%2,                Wenbo%Xu%NULL%2,                Guizhen%Wu%NULL%2,                George F.%Gao%NULL%0,                Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                Shuofeng%Yuan%NULL%1,                Kin-Hang%Kok%NULL%1,                Kelvin Kai-Wang%To%NULL%1,                Hin%Chu%NULL%1,                Jin%Yang%NULL%1,                Fanfan%Xing%NULL%1,                Jieling%Liu%NULL%1,                Cyril Chik-Yan%Yip%NULL%1,                Rosana Wing-Shan%Poon%NULL%1,                Hoi-Wah%Tsoi%NULL%1,                Simon Kam-Fai%Lo%NULL%1,                Kwok-Hung%Chan%NULL%0,                Vincent Kwok-Man%Poon%NULL%1,                Wan-Mui%Chan%NULL%1,                Jonathan Daniel%Ip%NULL%1,                Jian-Piao%Cai%NULL%1,                Vincent Chi-Chung%Cheng%NULL%1,                Honglin%Chen%NULL%1,                Christopher Kim-Ming%Hui%NULL%1,                Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3382,7 +3670,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>836</v>
+        <v>932</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -3411,7 +3699,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>837</v>
+        <v>933</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -3469,7 +3757,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>838</v>
+        <v>934</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -3498,7 +3786,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>839</v>
+        <v>935</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -3527,7 +3815,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>840</v>
+        <v>936</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -3614,7 +3902,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>841</v>
+        <v>937</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3643,7 +3931,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>842</v>
+        <v>938</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -3701,7 +3989,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>843</v>
+        <v>939</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -3759,7 +4047,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>844</v>
+        <v>940</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -3788,7 +4076,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>845</v>
+        <v>941</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -3817,7 +4105,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>846</v>
+        <v>942</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -3846,7 +4134,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>847</v>
+        <v>943</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -3875,7 +4163,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>848</v>
+        <v>944</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3904,7 +4192,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>849</v>
+        <v>945</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3933,7 +4221,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>850</v>
+        <v>946</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3962,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>851</v>
+        <v>947</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -3991,7 +4279,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>852</v>
+        <v>948</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -4020,7 +4308,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>853</v>
+        <v>949</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -4049,7 +4337,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>854</v>
+        <v>950</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -4078,7 +4366,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>855</v>
+        <v>951</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -4107,7 +4395,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>856</v>
+        <v>952</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -4136,7 +4424,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>857</v>
+        <v>953</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4165,7 +4453,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>858</v>
+        <v>954</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4194,7 +4482,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>859</v>
+        <v>955</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4252,7 +4540,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>860</v>
+        <v>956</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -4310,7 +4598,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>861</v>
+        <v>957</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4339,7 +4627,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>862</v>
+        <v>958</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4368,7 +4656,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>863</v>
+        <v>959</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -4397,7 +4685,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>864</v>
+        <v>960</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -4426,7 +4714,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>865</v>
+        <v>961</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -4455,7 +4743,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>866</v>
+        <v>962</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -4484,7 +4772,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>867</v>
+        <v>963</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -4513,7 +4801,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>868</v>
+        <v>964</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4542,7 +4830,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>869</v>
+        <v>965</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -4571,7 +4859,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>870</v>
+        <v>966</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -4600,7 +4888,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>871</v>
+        <v>967</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4629,7 +4917,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>872</v>
+        <v>968</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -4658,7 +4946,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>873</v>
+        <v>969</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -4687,7 +4975,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>874</v>
+        <v>970</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -4716,7 +5004,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>875</v>
+        <v>971</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -4774,7 +5062,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>876</v>
+        <v>972</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -4861,7 +5149,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>877</v>
+        <v>973</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4890,7 +5178,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>878</v>
+        <v>974</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -4919,7 +5207,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>879</v>
+        <v>975</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -4948,7 +5236,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>880</v>
+        <v>976</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -4977,7 +5265,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>881</v>
+        <v>977</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -5006,7 +5294,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>882</v>
+        <v>978</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -5035,7 +5323,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>883</v>
+        <v>979</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7749" uniqueCount="1028">
   <si>
     <t>Doi</t>
   </si>
@@ -3336,6 +3336,150 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,                Shuofeng%Yuan%NULL%1,                Kin-Hang%Kok%NULL%1,                Kelvin Kai-Wang%To%NULL%1,                Hin%Chu%NULL%1,                Jin%Yang%NULL%1,                Fanfan%Xing%NULL%1,                Jieling%Liu%NULL%1,                Cyril Chik-Yan%Yip%NULL%1,                Rosana Wing-Shan%Poon%NULL%1,                Hoi-Wah%Tsoi%NULL%1,                Simon Kam-Fai%Lo%NULL%1,                Kwok-Hung%Chan%NULL%0,                Vincent Kwok-Man%Poon%NULL%1,                Wan-Mui%Chan%NULL%1,                Jonathan Daniel%Ip%NULL%1,                Jian-Piao%Cai%NULL%1,                Vincent Chi-Chung%Cheng%NULL%1,                Honglin%Chen%NULL%1,                Christopher Kim-Ming%Hui%NULL%1,                Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                 Dengju%Li%NULL%0,                 Xiong%Wang%NULL%0,                 Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                 Hanxiong%Guan%NULL%1,                 Shuchang%Zhou%NULL%1,                 Yujin%Wang%NULL%1,                 Qian%Li%NULL%1,                 Tingting%Zhu%NULL%1,                 Qiongjie%Hu%qjhu@outlook.com%1,                 Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                 Jenny%Chen%NULL%1,                 Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,                 Yang%Yang%NULL%4,                 Cong%Zhang%NULL%0,                 Fengming%Huang%NULL%1,                 Fuxiang%Wang%NULL%1,                 Jing%Yuan%NULL%1,                 Zhaoqin%Wang%NULL%0,                 Jinxiu%Li%NULL%1,                 Jianming%Li%NULL%1,                 Cheng%Feng%NULL%1,                 Zheng%Zhang%NULL%1,                 Lifei%Wang%NULL%1,                 Ling%Peng%NULL%1,                 Li%Chen%NULL%0,                 Yuhao%Qin%NULL%1,                 Dandan%Zhao%NULL%1,                 Shuguang%Tan%NULL%1,                 Lu%Yin%NULL%2,                 Jun%Xu%NULL%1,                 Congzhao%Zhou%NULL%1,                 Chengyu%Jiang%jiang@pumc.edu.cn%1,                 Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                 Xueyan%Mei%NULL%4,                 Xueyan%Mei%NULL%0,                 Mingqian%Huang%NULL%4,                 Mingqian%Huang%NULL%0,                 Yang%Yang%NULL%0,                 Zahi A.%Fayad%NULL%0,                 Zahi A.%Fayad%NULL%0,                 Ning%Zhang%NULL%5,                 Ning%Zhang%NULL%0,                 Kaiyue%Diao%NULL%2,                 Kaiyue%Diao%NULL%0,                 Bin%Lin%NULL%1,                 Xiqi%Zhu%NULL%2,                 Xiqi%Zhu%NULL%0,                 Kunwei%Li%NULL%2,                 Shaolin%Li%NULL%2,                 Hong%Shan%NULL%0,                 Adam%Jacobi%NULL%3,                 Adam%Jacobi%NULL%0,                 Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,           Lingsheng%Yao%xref no email%1,           Tao%Wei%xref no email%1,           Fei%Tian%xref no email%1,           Dong-Yan%Jin%xref no email%1,           Lijuan%Chen%xref no email%1,           Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                 Ranjit%Sah%ranjitsah@iom.edu.np%0,                 Alfonso J%Rodriguez-Morales%NULL%1,                 Bibek Kumar%Lal%NULL%1,                 Runa%Jha%NULL%1,                 Hemant Chanda%Ojha%NULL%1,                 Bikesh%Shrestha%NULL%1,                 Daniel K W%Chu%NULL%1,                 Leo L M%Poon%NULL%1,                 Anthony%Costello%NULL%1,                 Kouichi%Morita%NULL%1,                 Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,           Minggui%Lin%xref no email%0,           Lai%Wei%xref no email%0,           Lixin%Xie%xref no email%0,           Guangfa%Zhu%xref no email%0,           Charles S.%Dela Cruz%xref no email%0,           Lokesh%Sharma%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%0,                 Xuan%Dong%NULL%0,                 Jieming%Qu%NULL%0,                 Fengyun%Gong%NULL%0,                 Yang%Han%NULL%0,                 Yang%Qiu%NULL%0,                 Jingli%Wang%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                 Adam%Bernheim%NULL%2,                 Adam%Bernheim%NULL%0,                 Xueyan%Mei%NULL%0,                 Xueyan%Mei%NULL%0,                 Ning%Zhang%NULL%0,                 Ning%Zhang%NULL%0,                 Mingqian%Huang%NULL%0,                 Mingqian%Huang%NULL%0,                 Xianjun%Zeng%NULL%1,                 Jiufa%Cui%NULL%1,                 Wenjian%Xu%NULL%2,                 Wenjian%Xu%NULL%0,                 Yang%Yang%NULL%0,                 Zahi A.%Fayad%NULL%0,                 Zahi A.%Fayad%NULL%0,                 Adam%Jacobi%NULL%0,                 Kunwei%Li%NULL%0,                 Shaolin%Li%NULL%0,                 Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                 Jie%Qin%qinjie@mail.sysu.edu.cn%2,                 Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                 M%Zhao%NULL%1,                 S%Li%NULL%1,                 L%Yang%NULL%1,                 B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                 Huangqi%Zhang%NULL%4,                 Huangqi%Zhang%NULL%0,                 Jicheng%Xie%NULL%4,                 Jicheng%Xie%NULL%0,                 Minjie%Lin%NULL%2,                 Minjie%Lin%NULL%0,                 Lingjun%Ying%NULL%2,                 Lingjun%Ying%NULL%0,                 Peipei%Pang%NULL%4,                 Peipei%Pang%NULL%0,                 Wenbin%Ji%1224190004@qq.com%4,                 Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                 Huangqi%Zhang%NULL%0,                 Huangqi%Zhang%NULL%0,                 Yunyu%Xu%NULL%2,                 Yunyu%Xu%NULL%0,                 Jicheng%Xie%NULL%0,                 Jicheng%Xie%NULL%0,                 Peipei%Pang%NULL%0,                 Peipei%Pang%NULL%0,                 Wenbin%Ji%1224190004@qq.com%0,                 Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                 Domenico%Benvenuto%NULL%1,                 Silvia%Angeletti%s.angeletti@unicampus.it%2,                 Silvia%Angeletti%s.angeletti@unicampus.it%0,                 Massimo%Ciccozzi%NULL%2,                 Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                 M.%Li%NULL%1,                 X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                 Chas%DeBolt%NULL%1,                 Scott%Lindquist%NULL%1,                 Kathy H.%Lofy%NULL%1,                 John%Wiesman%NULL%1,                 Hollianne%Bruce%NULL%0,                 Christopher%Spitters%NULL%0,                 Keith%Ericson%NULL%1,                 Sara%Wilkerson%NULL%1,                 Ahmet%Tural%NULL%1,                 George%Diaz%NULL%1,                 Amanda%Cohn%NULL%2,                 LeAnne%Fox%NULL%1,                 Anita%Patel%NULL%1,                 Susan I.%Gerber%NULL%1,                 Lindsay%Kim%NULL%1,                 Suxiang%Tong%NULL%1,                 Xiaoyan%Lu%NULL%1,                 Steve%Lindstrom%NULL%1,                 Mark A.%Pallansch%NULL%1,                 William C.%Weldon%NULL%1,                 Holly M.%Biggs%NULL%1,                 Timothy M.%Uyeki%NULL%0,                 Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                 Tianzhu%Liu%NULL%2,                 Tianzhu%Liu%NULL%0,                 Lesheng%Huang%NULL%2,                 Lesheng%Huang%NULL%0,                 Hailong%Liu%NULL%2,                 Hailong%Liu%NULL%0,                 Ming%Lei%NULL%1,                 Wangdong%Xu%NULL%2,                 Wangdong%Xu%NULL%0,                 Xiaolu%Hu%NULL%1,                 Jun%Chen%NULL%3,                 Bo%Liu%liubogzcm@163.com%3,                 Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                 Juanjuan%Guo%NULL%0,                 Chen%Wang%NULL%0,                 Fan%Luo%NULL%0,                 Xuechen%Yu%NULL%0,                 Wei%Zhang%NULL%0,                 Jiafu%Li%NULL%0,                 Dongchi%Zhao%NULL%0,                 Dan%Xu%NULL%0,                 Qing%Gong%NULL%0,                 Jing%Liao%NULL%0,                 Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                 Wei%Hou%houwei@whu.edu.cn%0,                 Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                 Junfeng%Li%NULL%1,                 Xun%Li%NULL%0,                 Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                 Xuhua%Guan%NULL%1,                 Peng%Wu%NULL%1,                 Xiaoye%Wang%NULL%1,                 Lei%Zhou%NULL%0,                 Yeqing%Tong%NULL%1,                 Ruiqi%Ren%NULL%1,                 Kathy S.M.%Leung%NULL%1,                 Eric H.Y.%Lau%NULL%1,                 Jessica Y.%Wong%NULL%1,                 Xuesen%Xing%NULL%1,                 Nijuan%Xiang%NULL%0,                 Yang%Wu%NULL%1,                 Chao%Li%NULL%1,                 Qi%Chen%NULL%1,                 Dan%Li%NULL%1,                 Tian%Liu%NULL%1,                 Jing%Zhao%NULL%1,                 Man%Liu%NULL%1,                 Wenxiao%Tu%NULL%1,                 Chuding%Chen%NULL%1,                 Lianmei%Jin%NULL%1,                 Rui%Yang%NULL%1,                 Qi%Wang%NULL%1,                 Suhua%Zhou%NULL%1,                 Rui%Wang%NULL%2,                 Hui%Liu%NULL%0,                 Yinbo%Luo%NULL%1,                 Yuan%Liu%NULL%1,                 Ge%Shao%NULL%1,                 Huan%Li%NULL%1,                 Zhongfa%Tao%NULL%1,                 Yang%Yang%NULL%0,                 Zhiqiang%Deng%NULL%1,                 Boxi%Liu%NULL%1,                 Zhitao%Ma%NULL%1,                 Yanping%Zhang%NULL%1,                 Guoqing%Shi%NULL%1,                 Tommy T.Y.%Lam%NULL%1,                 Joseph T.%Wu%NULL%1,                 George F.%Gao%NULL%3,                 Benjamin J.%Cowling%NULL%2,                 Bo%Yang%NULL%4,                 Bo%Yang%NULL%0,                 Gabriel M.%Leung%NULL%1,                 Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                 Zhenyu%Gong%NULL%2,                 Zhenyu%Gong%NULL%0,                 Zuke%Xiao%NULL%2,                 Zuke%Xiao%NULL%0,                 Jingliang%Xiong%NULL%1,                 Bing%Fan%NULL%2,                 Jiaqi%Liu%NULL%2,                 Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%0,                 Yan%Deng%NULL%0,                 Wei%Liu%NULL%0,                 Mei-Fang%Wang%NULL%0,                 Jing-Ping%Ma%NULL%0,                 Wei%Xiao%NULL%0,                 Ying-Nan%Wang%NULL%0,                 Min-Hua%Zhong%NULL%0,                 Cheng-Hong%Li%NULL%0,                 Guang-Cai%Li%NULL%0,                 Hui-Guo%Liu%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                 Xian-zheng%Tan%xianzhengtan@163.com%2,                 Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                 Tianhe%Ye%NULL%0,                 Tianhe%Ye%NULL%0,                 Peng%Sun%NULL%0,                 Peng%Sun%NULL%0,                 Shan%Gui%NULL%0,                 Shan%Gui%NULL%0,                 Bo%Liang%NULL%0,                 Bo%Liang%NULL%0,                 Lingli%Li%NULL%0,                 Lingli%Li%NULL%0,                 Dandan%Zheng%NULL%0,                 Dandan%Zheng%NULL%0,                 Jiazheng%Wang%NULL%0,                 Jiazheng%Wang%NULL%0,                 Richard L.%Hesketh%NULL%0,                 Richard L.%Hesketh%NULL%0,                 Lian%Yang%yanglian@hust.edu.cn%0,                 Lian%Yang%yanglian@hust.edu.cn%0,                 Chuansheng%Zheng%NULL%0,                 Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                 Thuong V.%Nguyen%NULL%1,                 Quang C.%Luong%NULL%1,                 Thinh V.%Nguyen%NULL%1,                 Hieu T.%Nguyen%NULL%1,                 Hung Q.%Le%NULL%2,                 Hung Q.%Le%NULL%0,                 Thuc T.%Nguyen%NULL%1,                 Thang M.%Cao%NULL%2,                 Thang M.%Cao%NULL%0,                 Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                 Krit%Pongpirul%NULL%2,                 Krit%Pongpirul%NULL%0,                 Anuttra C.%Ratnarathon%NULL%2,                 Anuttra C.%Ratnarathon%NULL%0,                 Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                 Ye-Ming%Wang%NULL%1,                 Zhi-Qiang%Wu%NULL%1,                 Zi-Chun%Xiang%NULL%1,                 Li%Guo%NULL%0,                 Teng%Xu%NULL%1,                 Yong-Zhong%Jiang%NULL%1,                 Yan%Xiong%NULL%0,                 Yong-Jun%Li%NULL%1,                 Xing-Wang%Li%NULL%1,                 Hui%Li%NULL%0,                 Guo-Hui%Fan%NULL%1,                 Xiao-Ying%Gu%NULL%1,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Jiu-Yang%Xu%NULL%1,                 Fan%Yang%NULL%1,                 Xin-Ming%Wang%NULL%1,                 Chao%Wu%NULL%1,                 Lan%Chen%NULL%1,                 Yi-Wei%Liu%NULL%1,                 Bo%Liu%NULL%0,                 Jian%Yang%NULL%1,                 Xiao-Rui%Wang%NULL%1,                 Jie%Dong%NULL%1,                 Li%Li%NULL%0,                 Chao-Lin%Huang%NULL%1,                 Jian-Ping%Zhao%NULL%1,                 Yi%Hu%NULL%0,                 Zhen-Shun%Cheng%NULL%1,                 Lin-Lin%Liu%NULL%1,                 Zhao-Hui%Qian%NULL%1,                 Chuan%Qin%NULL%1,                 Qi%Jin%NULL%0,                 Bin%Cao%NULL%0,                 Jian-Wei%Wang%NULL%1,                 Xiu-Yuan%Hao%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                 Mirjam%Schunk%NULL%1,                 Peter%Sothmann%NULL%1,                 Gisela%Bretzel%NULL%1,                 Guenter%Froeschl%NULL%1,                 Claudia%Wallrauch%NULL%1,                 Thorbjörn%Zimmer%NULL%1,                 Verena%Thiel%NULL%1,                 Christian%Janke%NULL%1,                 Wolfgang%Guggemos%NULL%2,                 Wolfgang%Guggemos%NULL%0,                 Michael%Seilmaier%NULL%1,                 Christian%Drosten%NULL%2,                 Christian%Drosten%NULL%0,                 Patrick%Vollmar%NULL%2,                 Patrick%Vollmar%NULL%0,                 Katrin%Zwirglmaier%NULL%1,                 Sabine%Zange%NULL%1,                 Roman%Wölfel%NULL%1,                 Michael%Hoelscher%NULL%2,                 Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                 Xiaoyu%Han%NULL%2,                 Xiaoyu%Han%NULL%0,                 Chuansheng%Zheng%hqzcsxh@sina.com%0,                 Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                 Lynfa%Stroud%NULL%1,                 Graham Edward%Cleghorn%NULL%1,                 Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                 Nannan%Shi%NULL%2,                 Nannan%Shi%NULL%0,                 Fei%Shan%NULL%1,                 Zhiyong%Zhang%NULL%1,                 Jie%Shen%NULL%1,                 Hongzhou%Lu%NULL%0,                 Yun%Ling%NULL%0,                 Yebin%Jiang%NULL%2,                 Yebin%Jiang%NULL%0,                 Yuxin%Shi%shiyuxin@shphc.org.cn%0,                 Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                 Jianming%Tang%15900792812@163.com%1,                 Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,           Jingping%Yuan%xref no email%1,           Yu%Liu%xref no email%1,           Tao%Fu%xref no email%1,           Xue%Yu%xref no email%1,           Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%2,                 Zheng%Zhong%NULL%2,                 Zheng%Zhong%NULL%0,                 Wei%Zhao%NULL%2,                 Wei%Zhao%NULL%0,                 Chao%Zheng%NULL%2,                 Chao%Zheng%NULL%0,                 Fei%Wang%NULL%2,                 Fei%Wang%NULL%0,                 Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                 Chengcheng%Yu%1515185140@qq.com%0,                 Lieguang%Zhang%zhlieguang@126.com%0,                 Liangping%Luo%tluolp@jnu.edu.cn%0,                 Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                 Xiao-Xin%Wu%NULL%0,                 Xian-Gao%Jiang%NULL%0,                 Kai-Jin%Xu%NULL%0,                 Ling-Jun%Ying%NULL%0,                 Chun-Lian%Ma%NULL%0,                 Shi-Bo%Li%NULL%0,                 Hua-Ying%Wang%NULL%0,                 Sheng%Zhang%NULL%0,                 Hai-Nv%Gao%NULL%0,                 Ji-Fang%Sheng%NULL%0,                 Hong-Liu%Cai%NULL%0,                 Yun-Qing%Qiu%NULL%0,                 Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%0,               Dong%Xiang%coreGivesNoEmail%0,               Gao%Ya-dong%coreGivesNoEmail%0,               Yan%You-qin%coreGivesNoEmail%0,               Yang%Yi-bin%coreGivesNoEmail%0,               Yuan%Ya-dong%coreGivesNoEmail%0,               Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                 Xiaochen%Li%NULL%2,                 Xiaochen%Li%NULL%0,                 Wei%Zhang%NULL%0,                 Zheng-Li%Shi%NULL%1,                 Zhishui%Zheng%NULL%1,                 Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                 Nak-Jung%Kwon%NULL%2,                 Nak-Jung%Kwon%NULL%0,                 Su-Jin%Choi%NULL%2,                 Su-Jin%Choi%NULL%0,                 Chang Kyung%Kang%NULL%2,                 Chang Kyung%Kang%NULL%0,                 Pyoeng Gyun%Choe%NULL%4,                 Pyoeng Gyun%Choe%NULL%0,                 Jin Yong%Kim%NULL%4,                 Jin Yong%Kim%NULL%0,                 Jiyoung%Yun%NULL%2,                 Jiyoung%Yun%NULL%0,                 Gir-Won%Lee%NULL%2,                 Gir-Won%Lee%NULL%0,                 Moon-Woo%Seong%NULL%2,                 Moon-Woo%Seong%NULL%0,                 Nam Joong%Kim%NULL%2,                 Nam Joong%Kim%NULL%0,                 Jeong-Sun%Seo%NULL%2,                 Jeong-Sun%Seo%NULL%0,                 Myoung-don%Oh%NULL%4,                 Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                 Seunghyun%Jeon%NULL%2,                 Seunghyun%Jeon%NULL%0,                 Hyun-Young%Shin%NULL%2,                 Hyun-Young%Shin%NULL%0,                 Moon Jung%Kim%NULL%2,                 Moon Jung%Kim%NULL%0,                 Yu Min%Seong%NULL%2,                 Yu Min%Seong%NULL%0,                 Wang Jun%Lee%NULL%2,                 Wang Jun%Lee%NULL%0,                 Kang-Won%Choe%NULL%2,                 Kang-Won%Choe%NULL%0,                 Yu Min%Kang%NULL%2,                 Yu Min%Kang%NULL%0,                 Baeckseung%Lee%NULL%2,                 Baeckseung%Lee%NULL%0,                 Sang-Joon%Park%NULL%2,                 Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                 Pyoeng Gyun%Choe%NULL%0,                 Pyoeng Gyun%Choe%NULL%0,                 Yoonju%Oh%NULL%2,                 Yoonju%Oh%NULL%0,                 Kyung Joong%Oh%NULL%2,                 Kyung Joong%Oh%NULL%0,                 Jinsil%Kim%NULL%2,                 Jinsil%Kim%NULL%0,                 So Jeong%Park%NULL%2,                 So Jeong%Park%NULL%0,                 Ji Hye%Park%NULL%2,                 Ji Hye%Park%NULL%0,                 Hye Kyoung%Na%NULL%2,                 Hye Kyoung%Na%NULL%0,                 Myoung-don%Oh%NULL%0,                 Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                  Q.% Lu%null%1,                  M.% Liu%null%1,                  Y.% Wang%null%1,                  A.% Zhang%null%1,                  N.% Jalali%null%1,                  N.% Dean%null%1,                  I.% Longini%null%1,                  M. E.% Halloran%null%1,                  B.% Xu%null%1,                  X.% Zhang%null%1,                  L.% Wang%null%1,                  W.% Liu%null%1,                  L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                 Dingyu%Zhang%NULL%3,                 Wenling%Wang%NULL%2,                 Xingwang%Li%NULL%0,                 Bo%Yang%NULL%0,                 Jingdong%Song%NULL%2,                 Xiang%Zhao%NULL%2,                 Baoying%Huang%NULL%2,                 Weifeng%Shi%NULL%2,                 Roujian%Lu%NULL%2,                 Peihua%Niu%NULL%2,                 Faxian%Zhan%NULL%2,                 Xuejun%Ma%NULL%2,                 Dayan%Wang%NULL%2,                 Wenbo%Xu%NULL%2,                 Guizhen%Wu%NULL%2,                 George F.%Gao%NULL%0,                 Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                 Shuofeng%Yuan%NULL%1,                 Kin-Hang%Kok%NULL%1,                 Kelvin Kai-Wang%To%NULL%1,                 Hin%Chu%NULL%1,                 Jin%Yang%NULL%1,                 Fanfan%Xing%NULL%1,                 Jieling%Liu%NULL%1,                 Cyril Chik-Yan%Yip%NULL%1,                 Rosana Wing-Shan%Poon%NULL%1,                 Hoi-Wah%Tsoi%NULL%1,                 Simon Kam-Fai%Lo%NULL%1,                 Kwok-Hung%Chan%NULL%0,                 Vincent Kwok-Man%Poon%NULL%1,                 Wan-Mui%Chan%NULL%1,                 Jonathan Daniel%Ip%NULL%1,                 Jian-Piao%Cai%NULL%1,                 Vincent Chi-Chung%Cheng%NULL%1,                 Honglin%Chen%NULL%1,                 Christopher Kim-Ming%Hui%NULL%1,                 Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3670,7 +3814,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>932</v>
+        <v>980</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -3699,7 +3843,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>933</v>
+        <v>981</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -3757,7 +3901,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>934</v>
+        <v>982</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -3786,7 +3930,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>935</v>
+        <v>983</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -3815,7 +3959,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>936</v>
+        <v>984</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -3902,7 +4046,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>937</v>
+        <v>985</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3931,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>938</v>
+        <v>986</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -3989,7 +4133,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>939</v>
+        <v>987</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -4047,7 +4191,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -4076,7 +4220,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>941</v>
+        <v>989</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -4105,7 +4249,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>942</v>
+        <v>990</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -4134,7 +4278,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -4163,7 +4307,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>944</v>
+        <v>992</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -4192,7 +4336,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>945</v>
+        <v>993</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -4221,7 +4365,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>946</v>
+        <v>994</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -4250,7 +4394,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>947</v>
+        <v>995</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -4279,7 +4423,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>948</v>
+        <v>996</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -4308,7 +4452,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>949</v>
+        <v>997</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -4337,7 +4481,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>950</v>
+        <v>998</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -4366,7 +4510,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>951</v>
+        <v>999</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -4395,7 +4539,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>952</v>
+        <v>1000</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -4424,7 +4568,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>953</v>
+        <v>1001</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4453,7 +4597,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>954</v>
+        <v>1002</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4482,7 +4626,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>955</v>
+        <v>1003</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4540,7 +4684,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>956</v>
+        <v>1004</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -4598,7 +4742,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>957</v>
+        <v>1005</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4627,7 +4771,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>958</v>
+        <v>1006</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4656,7 +4800,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>959</v>
+        <v>1007</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -4685,7 +4829,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>960</v>
+        <v>1008</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -4714,7 +4858,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>961</v>
+        <v>1009</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -4743,7 +4887,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>962</v>
+        <v>1010</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -4772,7 +4916,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>963</v>
+        <v>1011</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -4801,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>964</v>
+        <v>1012</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4830,7 +4974,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>965</v>
+        <v>1013</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -4859,7 +5003,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>966</v>
+        <v>1014</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -4888,7 +5032,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>967</v>
+        <v>1015</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4917,7 +5061,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -4946,7 +5090,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>969</v>
+        <v>1017</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -4975,7 +5119,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>970</v>
+        <v>1018</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -5004,7 +5148,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>971</v>
+        <v>1019</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -5062,7 +5206,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -5149,7 +5293,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>973</v>
+        <v>1021</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -5178,7 +5322,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>974</v>
+        <v>1022</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -5207,7 +5351,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>975</v>
+        <v>1023</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -5236,7 +5380,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>976</v>
+        <v>1024</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -5265,7 +5409,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>977</v>
+        <v>1025</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -5294,7 +5438,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>978</v>
+        <v>1026</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -5323,7 +5467,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>979</v>
+        <v>1027</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7749" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8176" uniqueCount="1081">
   <si>
     <t>Doi</t>
   </si>
@@ -3480,6 +3480,165 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,                 Shuofeng%Yuan%NULL%1,                 Kin-Hang%Kok%NULL%1,                 Kelvin Kai-Wang%To%NULL%1,                 Hin%Chu%NULL%1,                 Jin%Yang%NULL%1,                 Fanfan%Xing%NULL%1,                 Jieling%Liu%NULL%1,                 Cyril Chik-Yan%Yip%NULL%1,                 Rosana Wing-Shan%Poon%NULL%1,                 Hoi-Wah%Tsoi%NULL%1,                 Simon Kam-Fai%Lo%NULL%1,                 Kwok-Hung%Chan%NULL%0,                 Vincent Kwok-Man%Poon%NULL%1,                 Wan-Mui%Chan%NULL%1,                 Jonathan Daniel%Ip%NULL%1,                 Jian-Piao%Cai%NULL%1,                 Vincent Chi-Chung%Cheng%NULL%1,                 Honglin%Chen%NULL%1,                 Christopher Kim-Ming%Hui%NULL%1,                 Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                  Dengju%Li%NULL%0,                  Xiong%Wang%NULL%0,                  Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                  Hanxiong%Guan%NULL%1,                  Shuchang%Zhou%NULL%1,                  Yujin%Wang%NULL%1,                  Qian%Li%NULL%1,                  Tingting%Zhu%NULL%1,                  Qiongjie%Hu%qjhu@outlook.com%1,                  Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                  Jenny%Chen%NULL%1,                  Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                  Yang%Yang%NULL%4,                  Cong%Zhang%NULL%0,                  Fengming%Huang%NULL%1,                  Fuxiang%Wang%NULL%1,                  Jing%Yuan%NULL%1,                  Zhaoqin%Wang%NULL%0,                  Jinxiu%Li%NULL%1,                  Jianming%Li%NULL%1,                  Cheng%Feng%NULL%1,                  Zheng%Zhang%NULL%1,                  Lifei%Wang%NULL%1,                  Ling%Peng%NULL%1,                  Li%Chen%NULL%0,                  Yuhao%Qin%NULL%1,                  Dandan%Zhao%NULL%1,                  Shuguang%Tan%NULL%1,                  Lu%Yin%NULL%2,                  Jun%Xu%NULL%1,                  Congzhao%Zhou%NULL%1,                  Chengyu%Jiang%jiang@pumc.edu.cn%1,                  Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                  Xueyan%Mei%NULL%4,                  Xueyan%Mei%NULL%0,                  Mingqian%Huang%NULL%4,                  Mingqian%Huang%NULL%0,                  Yang%Yang%NULL%0,                  Zahi A.%Fayad%NULL%0,                  Zahi A.%Fayad%NULL%0,                  Ning%Zhang%NULL%5,                  Ning%Zhang%NULL%0,                  Kaiyue%Diao%NULL%2,                  Kaiyue%Diao%NULL%0,                  Bin%Lin%NULL%1,                  Xiqi%Zhu%NULL%2,                  Xiqi%Zhu%NULL%0,                  Kunwei%Li%NULL%2,                  Shaolin%Li%NULL%2,                  Hong%Shan%NULL%0,                  Adam%Jacobi%NULL%3,                  Adam%Jacobi%NULL%0,                  Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,            Lingsheng%Yao%xref no email%1,            Tao%Wei%xref no email%1,            Fei%Tian%xref no email%1,            Dong-Yan%Jin%xref no email%1,            Lijuan%Chen%xref no email%1,            Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                  Ranjit%Sah%ranjitsah@iom.edu.np%0,                  Alfonso J%Rodriguez-Morales%NULL%1,                  Bibek Kumar%Lal%NULL%1,                  Runa%Jha%NULL%1,                  Hemant Chanda%Ojha%NULL%1,                  Bikesh%Shrestha%NULL%1,                  Daniel K W%Chu%NULL%1,                  Leo L M%Poon%NULL%1,                  Anthony%Costello%NULL%1,                  Kouichi%Morita%NULL%1,                  Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,            Minggui%Lin%xref no email%1,            Lai%Wei%xref no email%1,            Lixin%Xie%xref no email%1,            Guangfa%Zhu%xref no email%1,            Charles S.%Dela Cruz%xref no email%1,            Lokesh%Sharma%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%0,                  Xuan%Dong%NULL%0,                  Jieming%Qu%NULL%0,                  Fengyun%Gong%NULL%0,                  Yang%Han%NULL%0,                  Yang%Qiu%NULL%0,                  Jingli%Wang%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                  Adam%Bernheim%NULL%2,                  Adam%Bernheim%NULL%0,                  Xueyan%Mei%NULL%0,                  Xueyan%Mei%NULL%0,                  Ning%Zhang%NULL%0,                  Ning%Zhang%NULL%0,                  Mingqian%Huang%NULL%0,                  Mingqian%Huang%NULL%0,                  Xianjun%Zeng%NULL%1,                  Jiufa%Cui%NULL%1,                  Wenjian%Xu%NULL%2,                  Wenjian%Xu%NULL%0,                  Yang%Yang%NULL%0,                  Zahi A.%Fayad%NULL%0,                  Zahi A.%Fayad%NULL%0,                  Adam%Jacobi%NULL%0,                  Kunwei%Li%NULL%0,                  Shaolin%Li%NULL%0,                  Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                  Jie%Qin%qinjie@mail.sysu.edu.cn%2,                  Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                  M%Zhao%NULL%1,                  S%Li%NULL%1,                  L%Yang%NULL%1,                  B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                  Huangqi%Zhang%NULL%4,                  Huangqi%Zhang%NULL%0,                  Jicheng%Xie%NULL%4,                  Jicheng%Xie%NULL%0,                  Minjie%Lin%NULL%2,                  Minjie%Lin%NULL%0,                  Lingjun%Ying%NULL%2,                  Lingjun%Ying%NULL%0,                  Peipei%Pang%NULL%4,                  Peipei%Pang%NULL%0,                  Wenbin%Ji%1224190004@qq.com%4,                  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                  Huangqi%Zhang%NULL%0,                  Huangqi%Zhang%NULL%0,                  Yunyu%Xu%NULL%2,                  Yunyu%Xu%NULL%0,                  Jicheng%Xie%NULL%0,                  Jicheng%Xie%NULL%0,                  Peipei%Pang%NULL%0,                  Peipei%Pang%NULL%0,                  Wenbin%Ji%1224190004@qq.com%0,                  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                  Domenico%Benvenuto%NULL%1,                  Silvia%Angeletti%s.angeletti@unicampus.it%2,                  Silvia%Angeletti%s.angeletti@unicampus.it%0,                  Massimo%Ciccozzi%NULL%2,                  Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                  M.%Li%NULL%1,                  X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                  Chas%DeBolt%NULL%1,                  Scott%Lindquist%NULL%1,                  Kathy H.%Lofy%NULL%1,                  John%Wiesman%NULL%1,                  Hollianne%Bruce%NULL%0,                  Christopher%Spitters%NULL%0,                  Keith%Ericson%NULL%1,                  Sara%Wilkerson%NULL%1,                  Ahmet%Tural%NULL%1,                  George%Diaz%NULL%1,                  Amanda%Cohn%NULL%2,                  LeAnne%Fox%NULL%1,                  Anita%Patel%NULL%1,                  Susan I.%Gerber%NULL%1,                  Lindsay%Kim%NULL%1,                  Suxiang%Tong%NULL%1,                  Xiaoyan%Lu%NULL%1,                  Steve%Lindstrom%NULL%1,                  Mark A.%Pallansch%NULL%1,                  William C.%Weldon%NULL%1,                  Holly M.%Biggs%NULL%1,                  Timothy M.%Uyeki%NULL%0,                  Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                  Tianzhu%Liu%NULL%2,                  Tianzhu%Liu%NULL%0,                  Lesheng%Huang%NULL%2,                  Lesheng%Huang%NULL%0,                  Hailong%Liu%NULL%2,                  Hailong%Liu%NULL%0,                  Ming%Lei%NULL%1,                  Wangdong%Xu%NULL%2,                  Wangdong%Xu%NULL%0,                  Xiaolu%Hu%NULL%1,                  Jun%Chen%NULL%3,                  Bo%Liu%liubogzcm@163.com%3,                  Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                  Juanjuan%Guo%NULL%0,                  Chen%Wang%NULL%0,                  Fan%Luo%NULL%0,                  Xuechen%Yu%NULL%0,                  Wei%Zhang%NULL%0,                  Jiafu%Li%NULL%0,                  Dongchi%Zhao%NULL%0,                  Dan%Xu%NULL%0,                  Qing%Gong%NULL%0,                  Jing%Liao%NULL%0,                  Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                  Wei%Hou%houwei@whu.edu.cn%0,                  Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                  Junfeng%Li%NULL%1,                  Xun%Li%NULL%0,                  Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                  Xuhua%Guan%NULL%1,                  Peng%Wu%NULL%1,                  Xiaoye%Wang%NULL%1,                  Lei%Zhou%NULL%0,                  Yeqing%Tong%NULL%1,                  Ruiqi%Ren%NULL%1,                  Kathy S.M.%Leung%NULL%1,                  Eric H.Y.%Lau%NULL%1,                  Jessica Y.%Wong%NULL%1,                  Xuesen%Xing%NULL%1,                  Nijuan%Xiang%NULL%0,                  Yang%Wu%NULL%1,                  Chao%Li%NULL%1,                  Qi%Chen%NULL%1,                  Dan%Li%NULL%1,                  Tian%Liu%NULL%1,                  Jing%Zhao%NULL%1,                  Man%Liu%NULL%1,                  Wenxiao%Tu%NULL%1,                  Chuding%Chen%NULL%1,                  Lianmei%Jin%NULL%1,                  Rui%Yang%NULL%1,                  Qi%Wang%NULL%1,                  Suhua%Zhou%NULL%1,                  Rui%Wang%NULL%2,                  Hui%Liu%NULL%0,                  Yinbo%Luo%NULL%1,                  Yuan%Liu%NULL%1,                  Ge%Shao%NULL%1,                  Huan%Li%NULL%1,                  Zhongfa%Tao%NULL%1,                  Yang%Yang%NULL%0,                  Zhiqiang%Deng%NULL%1,                  Boxi%Liu%NULL%1,                  Zhitao%Ma%NULL%1,                  Yanping%Zhang%NULL%1,                  Guoqing%Shi%NULL%1,                  Tommy T.Y.%Lam%NULL%1,                  Joseph T.%Wu%NULL%1,                  George F.%Gao%NULL%3,                  Benjamin J.%Cowling%NULL%2,                  Bo%Yang%NULL%4,                  Bo%Yang%NULL%0,                  Gabriel M.%Leung%NULL%1,                  Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                  Zhenyu%Gong%NULL%2,                  Zhenyu%Gong%NULL%0,                  Zuke%Xiao%NULL%2,                  Zuke%Xiao%NULL%0,                  Jingliang%Xiong%NULL%1,                  Bing%Fan%NULL%2,                  Jiaqi%Liu%NULL%2,                  Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%0,                  Yan%Deng%NULL%0,                  Wei%Liu%NULL%0,                  Mei-Fang%Wang%NULL%0,                  Jing-Ping%Ma%NULL%0,                  Wei%Xiao%NULL%0,                  Ying-Nan%Wang%NULL%0,                  Min-Hua%Zhong%NULL%0,                  Cheng-Hong%Li%NULL%0,                  Guang-Cai%Li%NULL%0,                  Hui-Guo%Liu%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                  Xian-zheng%Tan%xianzhengtan@163.com%2,                  Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                  Tianhe%Ye%NULL%0,                  Tianhe%Ye%NULL%0,                  Peng%Sun%NULL%0,                  Peng%Sun%NULL%0,                  Shan%Gui%NULL%0,                  Shan%Gui%NULL%0,                  Bo%Liang%NULL%0,                  Bo%Liang%NULL%0,                  Lingli%Li%NULL%0,                  Lingli%Li%NULL%0,                  Dandan%Zheng%NULL%0,                  Dandan%Zheng%NULL%0,                  Jiazheng%Wang%NULL%0,                  Jiazheng%Wang%NULL%0,                  Richard L.%Hesketh%NULL%0,                  Richard L.%Hesketh%NULL%0,                  Lian%Yang%yanglian@hust.edu.cn%0,                  Lian%Yang%yanglian@hust.edu.cn%0,                  Chuansheng%Zheng%NULL%0,                  Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                  Thuong V.%Nguyen%NULL%1,                  Quang C.%Luong%NULL%1,                  Thinh V.%Nguyen%NULL%1,                  Hieu T.%Nguyen%NULL%1,                  Hung Q.%Le%NULL%2,                  Hung Q.%Le%NULL%0,                  Thuc T.%Nguyen%NULL%1,                  Thang M.%Cao%NULL%2,                  Thang M.%Cao%NULL%0,                  Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                  Krit%Pongpirul%NULL%2,                  Krit%Pongpirul%NULL%0,                  Anuttra C.%Ratnarathon%NULL%2,                  Anuttra C.%Ratnarathon%NULL%0,                  Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                  Ye-Ming%Wang%NULL%1,                  Zhi-Qiang%Wu%NULL%1,                  Zi-Chun%Xiang%NULL%1,                  Li%Guo%NULL%0,                  Teng%Xu%NULL%1,                  Yong-Zhong%Jiang%NULL%1,                  Yan%Xiong%NULL%0,                  Yong-Jun%Li%NULL%1,                  Xing-Wang%Li%NULL%1,                  Hui%Li%NULL%0,                  Guo-Hui%Fan%NULL%1,                  Xiao-Ying%Gu%NULL%1,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Jiu-Yang%Xu%NULL%1,                  Fan%Yang%NULL%1,                  Xin-Ming%Wang%NULL%1,                  Chao%Wu%NULL%1,                  Lan%Chen%NULL%1,                  Yi-Wei%Liu%NULL%1,                  Bo%Liu%NULL%0,                  Jian%Yang%NULL%1,                  Xiao-Rui%Wang%NULL%1,                  Jie%Dong%NULL%1,                  Li%Li%NULL%0,                  Chao-Lin%Huang%NULL%1,                  Jian-Ping%Zhao%NULL%1,                  Yi%Hu%NULL%0,                  Zhen-Shun%Cheng%NULL%1,                  Lin-Lin%Liu%NULL%1,                  Zhao-Hui%Qian%NULL%1,                  Chuan%Qin%NULL%1,                  Qi%Jin%NULL%0,                  Bin%Cao%NULL%0,                  Jian-Wei%Wang%NULL%1,                  Xiu-Yuan%Hao%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                  Mirjam%Schunk%NULL%1,                  Peter%Sothmann%NULL%1,                  Gisela%Bretzel%NULL%1,                  Guenter%Froeschl%NULL%1,                  Claudia%Wallrauch%NULL%1,                  Thorbjörn%Zimmer%NULL%1,                  Verena%Thiel%NULL%1,                  Christian%Janke%NULL%1,                  Wolfgang%Guggemos%NULL%2,                  Wolfgang%Guggemos%NULL%0,                  Michael%Seilmaier%NULL%1,                  Christian%Drosten%NULL%2,                  Christian%Drosten%NULL%0,                  Patrick%Vollmar%NULL%2,                  Patrick%Vollmar%NULL%0,                  Katrin%Zwirglmaier%NULL%1,                  Sabine%Zange%NULL%1,                  Roman%Wölfel%NULL%1,                  Michael%Hoelscher%NULL%2,                  Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                  Xiaoyu%Han%NULL%2,                  Xiaoyu%Han%NULL%0,                  Chuansheng%Zheng%hqzcsxh@sina.com%0,                  Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                  Lynfa%Stroud%NULL%1,                  Graham Edward%Cleghorn%NULL%1,                  Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                  Nannan%Shi%NULL%2,                  Nannan%Shi%NULL%0,                  Fei%Shan%NULL%1,                  Zhiyong%Zhang%NULL%1,                  Jie%Shen%NULL%1,                  Hongzhou%Lu%NULL%0,                  Yun%Ling%NULL%0,                  Yebin%Jiang%NULL%2,                  Yebin%Jiang%NULL%0,                  Yuxin%Shi%shiyuxin@shphc.org.cn%0,                  Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                  Jianming%Tang%15900792812@163.com%1,                  Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,            Jingping%Yuan%xref no email%1,            Yu%Liu%xref no email%1,            Tao%Fu%xref no email%1,            Xue%Yu%xref no email%1,            Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                  Zheng%Zhong%NULL%2,                  Zheng%Zhong%NULL%0,                  Wei%Zhao%NULL%2,                  Wei%Zhao%NULL%0,                  Chao%Zheng%NULL%2,                  Chao%Zheng%NULL%0,                  Fei%Wang%NULL%2,                  Fei%Wang%NULL%0,                  Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                  Chengcheng%Yu%1515185140@qq.com%0,                  Lieguang%Zhang%zhlieguang@126.com%0,                  Liangping%Luo%tluolp@jnu.edu.cn%0,                  Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                  Xiao-Xin%Wu%NULL%0,                  Xian-Gao%Jiang%NULL%0,                  Kai-Jin%Xu%NULL%0,                  Ling-Jun%Ying%NULL%0,                  Chun-Lian%Ma%NULL%0,                  Shi-Bo%Li%NULL%0,                  Hua-Ying%Wang%NULL%0,                  Sheng%Zhang%NULL%0,                  Hai-Nv%Gao%NULL%0,                  Ji-Fang%Sheng%NULL%0,                  Hong-Liu%Cai%NULL%0,                  Yun-Qing%Qiu%NULL%0,                  Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%0,                Dong%Xiang%coreGivesNoEmail%0,                Gao%Ya-dong%coreGivesNoEmail%0,                Yan%You-qin%coreGivesNoEmail%0,                Yang%Yi-bin%coreGivesNoEmail%0,                Yuan%Ya-dong%coreGivesNoEmail%0,                Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                  Xiaochen%Li%NULL%2,                  Xiaochen%Li%NULL%0,                  Wei%Zhang%NULL%0,                  Zheng-Li%Shi%NULL%1,                  Zhishui%Zheng%NULL%1,                  Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                  Nak-Jung%Kwon%NULL%2,                  Nak-Jung%Kwon%NULL%0,                  Su-Jin%Choi%NULL%2,                  Su-Jin%Choi%NULL%0,                  Chang Kyung%Kang%NULL%2,                  Chang Kyung%Kang%NULL%0,                  Pyoeng Gyun%Choe%NULL%4,                  Pyoeng Gyun%Choe%NULL%0,                  Jin Yong%Kim%NULL%4,                  Jin Yong%Kim%NULL%0,                  Jiyoung%Yun%NULL%2,                  Jiyoung%Yun%NULL%0,                  Gir-Won%Lee%NULL%2,                  Gir-Won%Lee%NULL%0,                  Moon-Woo%Seong%NULL%2,                  Moon-Woo%Seong%NULL%0,                  Nam Joong%Kim%NULL%2,                  Nam Joong%Kim%NULL%0,                  Jeong-Sun%Seo%NULL%2,                  Jeong-Sun%Seo%NULL%0,                  Myoung-don%Oh%NULL%4,                  Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                  Seunghyun%Jeon%NULL%2,                  Seunghyun%Jeon%NULL%0,                  Hyun-Young%Shin%NULL%2,                  Hyun-Young%Shin%NULL%0,                  Moon Jung%Kim%NULL%2,                  Moon Jung%Kim%NULL%0,                  Yu Min%Seong%NULL%2,                  Yu Min%Seong%NULL%0,                  Wang Jun%Lee%NULL%2,                  Wang Jun%Lee%NULL%0,                  Kang-Won%Choe%NULL%2,                  Kang-Won%Choe%NULL%0,                  Yu Min%Kang%NULL%2,                  Yu Min%Kang%NULL%0,                  Baeckseung%Lee%NULL%2,                  Baeckseung%Lee%NULL%0,                  Sang-Joon%Park%NULL%2,                  Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                  Pyoeng Gyun%Choe%NULL%0,                  Pyoeng Gyun%Choe%NULL%0,                  Yoonju%Oh%NULL%2,                  Yoonju%Oh%NULL%0,                  Kyung Joong%Oh%NULL%2,                  Kyung Joong%Oh%NULL%0,                  Jinsil%Kim%NULL%2,                  Jinsil%Kim%NULL%0,                  So Jeong%Park%NULL%2,                  So Jeong%Park%NULL%0,                  Ji Hye%Park%NULL%2,                  Ji Hye%Park%NULL%0,                  Hye Kyoung%Na%NULL%2,                  Hye Kyoung%Na%NULL%0,                  Myoung-don%Oh%NULL%0,                  Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                   Q.% Lu%null%1,                   M.% Liu%null%1,                   Y.% Wang%null%1,                   A.% Zhang%null%1,                   N.% Jalali%null%1,                   N.% Dean%null%1,                   I.% Longini%null%1,                   M. E.% Halloran%null%1,                   B.% Xu%null%1,                   X.% Zhang%null%1,                   L.% Wang%null%1,                   W.% Liu%null%1,                   L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                  Dingyu%Zhang%NULL%3,                  Wenling%Wang%NULL%2,                  Xingwang%Li%NULL%0,                  Bo%Yang%NULL%0,                  Jingdong%Song%NULL%2,                  Xiang%Zhao%NULL%2,                  Baoying%Huang%NULL%2,                  Weifeng%Shi%NULL%2,                  Roujian%Lu%NULL%2,                  Peihua%Niu%NULL%2,                  Faxian%Zhan%NULL%2,                  Xuejun%Ma%NULL%2,                  Dayan%Wang%NULL%2,                  Wenbo%Xu%NULL%2,                  Guizhen%Wu%NULL%2,                  George F.%Gao%NULL%0,                  Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                  Shuofeng%Yuan%NULL%1,                  Kin-Hang%Kok%NULL%1,                  Kelvin Kai-Wang%To%NULL%1,                  Hin%Chu%NULL%1,                  Jin%Yang%NULL%1,                  Fanfan%Xing%NULL%1,                  Jieling%Liu%NULL%1,                  Cyril Chik-Yan%Yip%NULL%1,                  Rosana Wing-Shan%Poon%NULL%1,                  Hoi-Wah%Tsoi%NULL%1,                  Simon Kam-Fai%Lo%NULL%1,                  Kwok-Hung%Chan%NULL%0,                  Vincent Kwok-Man%Poon%NULL%1,                  Wan-Mui%Chan%NULL%1,                  Jonathan Daniel%Ip%NULL%1,                  Jian-Piao%Cai%NULL%1,                  Vincent Chi-Chung%Cheng%NULL%1,                  Honglin%Chen%NULL%1,                  Christopher Kim-Ming%Hui%NULL%1,                  Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3814,7 +3973,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>980</v>
+        <v>1028</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -3826,7 +3985,7 @@
         <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3">
@@ -3843,7 +4002,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>981</v>
+        <v>1030</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -3855,7 +4014,7 @@
         <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>259</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4">
@@ -3901,7 +4060,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>982</v>
+        <v>1032</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -3913,7 +4072,7 @@
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6">
@@ -3930,7 +4089,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>983</v>
+        <v>1033</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -3942,7 +4101,7 @@
         <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>259</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7">
@@ -3959,7 +4118,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>984</v>
+        <v>1034</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -3971,7 +4130,7 @@
         <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8">
@@ -4000,7 +4159,7 @@
         <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9">
@@ -4046,7 +4205,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>985</v>
+        <v>1037</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4058,7 +4217,7 @@
         <v>499</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11">
@@ -4075,7 +4234,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>986</v>
+        <v>1038</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -4087,7 +4246,7 @@
         <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12">
@@ -4133,7 +4292,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>987</v>
+        <v>1039</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -4145,7 +4304,7 @@
         <v>503</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14">
@@ -4191,7 +4350,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>988</v>
+        <v>1040</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -4203,7 +4362,7 @@
         <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="16">
@@ -4220,7 +4379,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>989</v>
+        <v>1041</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -4232,7 +4391,7 @@
         <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="17">
@@ -4249,7 +4408,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>990</v>
+        <v>1042</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -4261,7 +4420,7 @@
         <v>115</v>
       </c>
       <c r="I17" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="18">
@@ -4278,7 +4437,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>991</v>
+        <v>1043</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -4290,7 +4449,7 @@
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="19">
@@ -4307,7 +4466,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>992</v>
+        <v>1044</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -4319,7 +4478,7 @@
         <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20">
@@ -4336,7 +4495,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>993</v>
+        <v>1045</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -4348,7 +4507,7 @@
         <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21">
@@ -4365,7 +4524,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>994</v>
+        <v>1046</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -4377,7 +4536,7 @@
         <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="22">
@@ -4394,7 +4553,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>995</v>
+        <v>1047</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -4406,7 +4565,7 @@
         <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="23">
@@ -4423,7 +4582,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>996</v>
+        <v>1048</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -4435,7 +4594,7 @@
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="24">
@@ -4452,7 +4611,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>997</v>
+        <v>1049</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -4464,7 +4623,7 @@
         <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="25">
@@ -4481,7 +4640,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>998</v>
+        <v>1050</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -4493,7 +4652,7 @@
         <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="26">
@@ -4510,7 +4669,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>999</v>
+        <v>1051</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -4522,7 +4681,7 @@
         <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="27">
@@ -4539,7 +4698,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>1000</v>
+        <v>1052</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -4551,7 +4710,7 @@
         <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="28">
@@ -4568,7 +4727,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>1001</v>
+        <v>1053</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4580,7 +4739,7 @@
         <v>156</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29">
@@ -4597,7 +4756,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>1002</v>
+        <v>1054</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4609,7 +4768,7 @@
         <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="30">
@@ -4626,7 +4785,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>1003</v>
+        <v>1055</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4638,7 +4797,7 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="31">
@@ -4684,7 +4843,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>1004</v>
+        <v>1056</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -4696,7 +4855,7 @@
         <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="33">
@@ -4742,7 +4901,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>1005</v>
+        <v>1057</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4754,7 +4913,7 @@
         <v>173</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="35">
@@ -4771,7 +4930,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1006</v>
+        <v>1058</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4783,7 +4942,7 @@
         <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="36">
@@ -4800,7 +4959,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>1007</v>
+        <v>1059</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -4812,7 +4971,7 @@
         <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="37">
@@ -4829,7 +4988,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>1008</v>
+        <v>1060</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -4841,7 +5000,7 @@
         <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38">
@@ -4858,7 +5017,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>1009</v>
+        <v>1061</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -4870,7 +5029,7 @@
         <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="39">
@@ -4887,7 +5046,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>1010</v>
+        <v>1062</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -4899,7 +5058,7 @@
         <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40">
@@ -4916,7 +5075,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>1011</v>
+        <v>1063</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -4928,7 +5087,7 @@
         <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="41">
@@ -4945,7 +5104,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>1012</v>
+        <v>1064</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4957,7 +5116,7 @@
         <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="42">
@@ -4974,7 +5133,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>1013</v>
+        <v>1065</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -4986,7 +5145,7 @@
         <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="43">
@@ -5003,7 +5162,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>1014</v>
+        <v>1066</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -5015,7 +5174,7 @@
         <v>206</v>
       </c>
       <c r="I43" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="44">
@@ -5032,7 +5191,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>1015</v>
+        <v>1067</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -5044,7 +5203,7 @@
         <v>533</v>
       </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="45">
@@ -5061,7 +5220,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>1016</v>
+        <v>1068</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -5073,7 +5232,7 @@
         <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="46">
@@ -5090,7 +5249,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>1017</v>
+        <v>1069</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -5102,7 +5261,7 @@
         <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="47">
@@ -5119,7 +5278,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>1018</v>
+        <v>1070</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -5131,7 +5290,7 @@
         <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>259</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="48">
@@ -5148,7 +5307,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>1019</v>
+        <v>1071</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -5160,7 +5319,7 @@
         <v>222</v>
       </c>
       <c r="I48" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="49">
@@ -5206,7 +5365,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>1020</v>
+        <v>1072</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -5218,7 +5377,7 @@
         <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="51">
@@ -5293,7 +5452,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>1021</v>
+        <v>1073</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -5305,7 +5464,7 @@
         <v>226</v>
       </c>
       <c r="I53" t="s">
-        <v>259</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="54">
@@ -5322,7 +5481,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>1022</v>
+        <v>1074</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -5334,7 +5493,7 @@
         <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="55">
@@ -5351,7 +5510,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>1023</v>
+        <v>1075</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -5363,7 +5522,7 @@
         <v>236</v>
       </c>
       <c r="I55" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="56">
@@ -5380,7 +5539,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>1024</v>
+        <v>1076</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -5392,7 +5551,7 @@
         <v>241</v>
       </c>
       <c r="I56" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="57">
@@ -5409,7 +5568,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>1025</v>
+        <v>1077</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -5421,7 +5580,7 @@
         <v>246</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="58">
@@ -5438,7 +5597,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>1026</v>
+        <v>1079</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -5450,7 +5609,7 @@
         <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>263</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="59">
@@ -5467,7 +5626,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>1027</v>
+        <v>1080</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>
@@ -5479,7 +5638,7 @@
         <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>257</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="60">

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8176" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8603" uniqueCount="1129">
   <si>
     <t>Doi</t>
   </si>
@@ -3639,6 +3639,150 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,                  Shuofeng%Yuan%NULL%1,                  Kin-Hang%Kok%NULL%1,                  Kelvin Kai-Wang%To%NULL%1,                  Hin%Chu%NULL%1,                  Jin%Yang%NULL%1,                  Fanfan%Xing%NULL%1,                  Jieling%Liu%NULL%1,                  Cyril Chik-Yan%Yip%NULL%1,                  Rosana Wing-Shan%Poon%NULL%1,                  Hoi-Wah%Tsoi%NULL%1,                  Simon Kam-Fai%Lo%NULL%1,                  Kwok-Hung%Chan%NULL%0,                  Vincent Kwok-Man%Poon%NULL%1,                  Wan-Mui%Chan%NULL%1,                  Jonathan Daniel%Ip%NULL%1,                  Jian-Piao%Cai%NULL%1,                  Vincent Chi-Chung%Cheng%NULL%1,                  Honglin%Chen%NULL%1,                  Christopher Kim-Ming%Hui%NULL%1,                  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                   Dengju%Li%NULL%0,                   Xiong%Wang%NULL%0,                   Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                   Hanxiong%Guan%NULL%1,                   Shuchang%Zhou%NULL%1,                   Yujin%Wang%NULL%1,                   Qian%Li%NULL%1,                   Tingting%Zhu%NULL%1,                   Qiongjie%Hu%qjhu@outlook.com%1,                   Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                   Jenny%Chen%NULL%1,                   Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                   Yang%Yang%NULL%4,                   Cong%Zhang%NULL%0,                   Fengming%Huang%NULL%1,                   Fuxiang%Wang%NULL%1,                   Jing%Yuan%NULL%1,                   Zhaoqin%Wang%NULL%0,                   Jinxiu%Li%NULL%1,                   Jianming%Li%NULL%1,                   Cheng%Feng%NULL%1,                   Zheng%Zhang%NULL%1,                   Lifei%Wang%NULL%1,                   Ling%Peng%NULL%1,                   Li%Chen%NULL%0,                   Yuhao%Qin%NULL%1,                   Dandan%Zhao%NULL%1,                   Shuguang%Tan%NULL%1,                   Lu%Yin%NULL%2,                   Jun%Xu%NULL%1,                   Congzhao%Zhou%NULL%1,                   Chengyu%Jiang%jiang@pumc.edu.cn%1,                   Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                   Xueyan%Mei%NULL%4,                   Xueyan%Mei%NULL%0,                   Mingqian%Huang%NULL%4,                   Mingqian%Huang%NULL%0,                   Yang%Yang%NULL%0,                   Zahi A.%Fayad%NULL%0,                   Zahi A.%Fayad%NULL%0,                   Ning%Zhang%NULL%5,                   Ning%Zhang%NULL%0,                   Kaiyue%Diao%NULL%2,                   Kaiyue%Diao%NULL%0,                   Bin%Lin%NULL%1,                   Xiqi%Zhu%NULL%2,                   Xiqi%Zhu%NULL%0,                   Kunwei%Li%NULL%2,                   Shaolin%Li%NULL%2,                   Hong%Shan%NULL%0,                   Adam%Jacobi%NULL%3,                   Adam%Jacobi%NULL%0,                   Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%1,             Lingsheng%Yao%xref no email%1,             Tao%Wei%xref no email%1,             Fei%Tian%xref no email%1,             Dong-Yan%Jin%xref no email%1,             Lijuan%Chen%xref no email%1,             Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                   Ranjit%Sah%ranjitsah@iom.edu.np%0,                   Alfonso J%Rodriguez-Morales%NULL%1,                   Bibek Kumar%Lal%NULL%1,                   Runa%Jha%NULL%1,                   Hemant Chanda%Ojha%NULL%1,                   Bikesh%Shrestha%NULL%1,                   Daniel K W%Chu%NULL%1,                   Leo L M%Poon%NULL%1,                   Anthony%Costello%NULL%1,                   Kouichi%Morita%NULL%1,                   Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0,             Minggui%Lin%xref no email%1,             Lai%Wei%xref no email%1,             Lixin%Xie%xref no email%1,             Guangfa%Zhu%xref no email%1,             Charles S.%Dela Cruz%xref no email%1,             Lokesh%Sharma%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%0,                   Xuan%Dong%NULL%0,                   Jieming%Qu%NULL%0,                   Fengyun%Gong%NULL%0,                   Yang%Han%NULL%0,                   Yang%Qiu%NULL%0,                   Jingli%Wang%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                   Adam%Bernheim%NULL%2,                   Adam%Bernheim%NULL%0,                   Xueyan%Mei%NULL%0,                   Xueyan%Mei%NULL%0,                   Ning%Zhang%NULL%0,                   Ning%Zhang%NULL%0,                   Mingqian%Huang%NULL%0,                   Mingqian%Huang%NULL%0,                   Xianjun%Zeng%NULL%1,                   Jiufa%Cui%NULL%1,                   Wenjian%Xu%NULL%2,                   Wenjian%Xu%NULL%0,                   Yang%Yang%NULL%0,                   Zahi A.%Fayad%NULL%0,                   Zahi A.%Fayad%NULL%0,                   Adam%Jacobi%NULL%0,                   Kunwei%Li%NULL%0,                   Shaolin%Li%NULL%0,                   Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                   Jie%Qin%qinjie@mail.sysu.edu.cn%2,                   Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                   M%Zhao%NULL%1,                   S%Li%NULL%1,                   L%Yang%NULL%1,                   B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                   Huangqi%Zhang%NULL%4,                   Huangqi%Zhang%NULL%0,                   Jicheng%Xie%NULL%4,                   Jicheng%Xie%NULL%0,                   Minjie%Lin%NULL%2,                   Minjie%Lin%NULL%0,                   Lingjun%Ying%NULL%2,                   Lingjun%Ying%NULL%0,                   Peipei%Pang%NULL%4,                   Peipei%Pang%NULL%0,                   Wenbin%Ji%1224190004@qq.com%4,                   Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                   Huangqi%Zhang%NULL%0,                   Huangqi%Zhang%NULL%0,                   Yunyu%Xu%NULL%2,                   Yunyu%Xu%NULL%0,                   Jicheng%Xie%NULL%0,                   Jicheng%Xie%NULL%0,                   Peipei%Pang%NULL%0,                   Peipei%Pang%NULL%0,                   Wenbin%Ji%1224190004@qq.com%0,                   Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                   Domenico%Benvenuto%NULL%1,                   Silvia%Angeletti%s.angeletti@unicampus.it%2,                   Silvia%Angeletti%s.angeletti@unicampus.it%0,                   Massimo%Ciccozzi%NULL%2,                   Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                   M.%Li%NULL%1,                   X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                   Chas%DeBolt%NULL%1,                   Scott%Lindquist%NULL%1,                   Kathy H.%Lofy%NULL%1,                   John%Wiesman%NULL%1,                   Hollianne%Bruce%NULL%0,                   Christopher%Spitters%NULL%0,                   Keith%Ericson%NULL%1,                   Sara%Wilkerson%NULL%1,                   Ahmet%Tural%NULL%1,                   George%Diaz%NULL%1,                   Amanda%Cohn%NULL%2,                   LeAnne%Fox%NULL%1,                   Anita%Patel%NULL%1,                   Susan I.%Gerber%NULL%1,                   Lindsay%Kim%NULL%1,                   Suxiang%Tong%NULL%1,                   Xiaoyan%Lu%NULL%1,                   Steve%Lindstrom%NULL%1,                   Mark A.%Pallansch%NULL%1,                   William C.%Weldon%NULL%1,                   Holly M.%Biggs%NULL%1,                   Timothy M.%Uyeki%NULL%0,                   Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                   Tianzhu%Liu%NULL%2,                   Tianzhu%Liu%NULL%0,                   Lesheng%Huang%NULL%2,                   Lesheng%Huang%NULL%0,                   Hailong%Liu%NULL%2,                   Hailong%Liu%NULL%0,                   Ming%Lei%NULL%1,                   Wangdong%Xu%NULL%2,                   Wangdong%Xu%NULL%0,                   Xiaolu%Hu%NULL%1,                   Jun%Chen%NULL%3,                   Bo%Liu%liubogzcm@163.com%3,                   Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                   Juanjuan%Guo%NULL%0,                   Chen%Wang%NULL%0,                   Fan%Luo%NULL%0,                   Xuechen%Yu%NULL%0,                   Wei%Zhang%NULL%0,                   Jiafu%Li%NULL%0,                   Dongchi%Zhao%NULL%0,                   Dan%Xu%NULL%0,                   Qing%Gong%NULL%0,                   Jing%Liao%NULL%0,                   Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                   Wei%Hou%houwei@whu.edu.cn%0,                   Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                   Junfeng%Li%NULL%1,                   Xun%Li%NULL%0,                   Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                   Xuhua%Guan%NULL%1,                   Peng%Wu%NULL%1,                   Xiaoye%Wang%NULL%1,                   Lei%Zhou%NULL%0,                   Yeqing%Tong%NULL%1,                   Ruiqi%Ren%NULL%1,                   Kathy S.M.%Leung%NULL%1,                   Eric H.Y.%Lau%NULL%1,                   Jessica Y.%Wong%NULL%1,                   Xuesen%Xing%NULL%1,                   Nijuan%Xiang%NULL%0,                   Yang%Wu%NULL%1,                   Chao%Li%NULL%1,                   Qi%Chen%NULL%1,                   Dan%Li%NULL%1,                   Tian%Liu%NULL%1,                   Jing%Zhao%NULL%1,                   Man%Liu%NULL%1,                   Wenxiao%Tu%NULL%1,                   Chuding%Chen%NULL%1,                   Lianmei%Jin%NULL%1,                   Rui%Yang%NULL%1,                   Qi%Wang%NULL%1,                   Suhua%Zhou%NULL%1,                   Rui%Wang%NULL%2,                   Hui%Liu%NULL%0,                   Yinbo%Luo%NULL%1,                   Yuan%Liu%NULL%1,                   Ge%Shao%NULL%1,                   Huan%Li%NULL%1,                   Zhongfa%Tao%NULL%1,                   Yang%Yang%NULL%0,                   Zhiqiang%Deng%NULL%1,                   Boxi%Liu%NULL%1,                   Zhitao%Ma%NULL%1,                   Yanping%Zhang%NULL%1,                   Guoqing%Shi%NULL%1,                   Tommy T.Y.%Lam%NULL%1,                   Joseph T.%Wu%NULL%1,                   George F.%Gao%NULL%3,                   Benjamin J.%Cowling%NULL%2,                   Bo%Yang%NULL%4,                   Bo%Yang%NULL%0,                   Gabriel M.%Leung%NULL%1,                   Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                   Zhenyu%Gong%NULL%2,                   Zhenyu%Gong%NULL%0,                   Zuke%Xiao%NULL%2,                   Zuke%Xiao%NULL%0,                   Jingliang%Xiong%NULL%1,                   Bing%Fan%NULL%2,                   Jiaqi%Liu%NULL%2,                   Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%0,                   Yan%Deng%NULL%0,                   Wei%Liu%NULL%0,                   Mei-Fang%Wang%NULL%0,                   Jing-Ping%Ma%NULL%0,                   Wei%Xiao%NULL%0,                   Ying-Nan%Wang%NULL%0,                   Min-Hua%Zhong%NULL%0,                   Cheng-Hong%Li%NULL%0,                   Guang-Cai%Li%NULL%0,                   Hui-Guo%Liu%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                   Xian-zheng%Tan%xianzhengtan@163.com%2,                   Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                   Tianhe%Ye%NULL%0,                   Tianhe%Ye%NULL%0,                   Peng%Sun%NULL%0,                   Peng%Sun%NULL%0,                   Shan%Gui%NULL%0,                   Shan%Gui%NULL%0,                   Bo%Liang%NULL%0,                   Bo%Liang%NULL%0,                   Lingli%Li%NULL%0,                   Lingli%Li%NULL%0,                   Dandan%Zheng%NULL%0,                   Dandan%Zheng%NULL%0,                   Jiazheng%Wang%NULL%0,                   Jiazheng%Wang%NULL%0,                   Richard L.%Hesketh%NULL%0,                   Richard L.%Hesketh%NULL%0,                   Lian%Yang%yanglian@hust.edu.cn%0,                   Lian%Yang%yanglian@hust.edu.cn%0,                   Chuansheng%Zheng%NULL%0,                   Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                   Thuong V.%Nguyen%NULL%1,                   Quang C.%Luong%NULL%1,                   Thinh V.%Nguyen%NULL%1,                   Hieu T.%Nguyen%NULL%1,                   Hung Q.%Le%NULL%2,                   Hung Q.%Le%NULL%0,                   Thuc T.%Nguyen%NULL%1,                   Thang M.%Cao%NULL%2,                   Thang M.%Cao%NULL%0,                   Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                   Krit%Pongpirul%NULL%2,                   Krit%Pongpirul%NULL%0,                   Anuttra C.%Ratnarathon%NULL%2,                   Anuttra C.%Ratnarathon%NULL%0,                   Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                   Ye-Ming%Wang%NULL%1,                   Zhi-Qiang%Wu%NULL%1,                   Zi-Chun%Xiang%NULL%1,                   Li%Guo%NULL%0,                   Teng%Xu%NULL%1,                   Yong-Zhong%Jiang%NULL%1,                   Yan%Xiong%NULL%0,                   Yong-Jun%Li%NULL%1,                   Xing-Wang%Li%NULL%1,                   Hui%Li%NULL%0,                   Guo-Hui%Fan%NULL%1,                   Xiao-Ying%Gu%NULL%1,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Jiu-Yang%Xu%NULL%1,                   Fan%Yang%NULL%1,                   Xin-Ming%Wang%NULL%1,                   Chao%Wu%NULL%1,                   Lan%Chen%NULL%1,                   Yi-Wei%Liu%NULL%1,                   Bo%Liu%NULL%0,                   Jian%Yang%NULL%1,                   Xiao-Rui%Wang%NULL%1,                   Jie%Dong%NULL%1,                   Li%Li%NULL%0,                   Chao-Lin%Huang%NULL%1,                   Jian-Ping%Zhao%NULL%1,                   Yi%Hu%NULL%0,                   Zhen-Shun%Cheng%NULL%1,                   Lin-Lin%Liu%NULL%1,                   Zhao-Hui%Qian%NULL%1,                   Chuan%Qin%NULL%1,                   Qi%Jin%NULL%0,                   Bin%Cao%NULL%0,                   Jian-Wei%Wang%NULL%1,                   Xiu-Yuan%Hao%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                   Mirjam%Schunk%NULL%1,                   Peter%Sothmann%NULL%1,                   Gisela%Bretzel%NULL%1,                   Guenter%Froeschl%NULL%1,                   Claudia%Wallrauch%NULL%1,                   Thorbjörn%Zimmer%NULL%1,                   Verena%Thiel%NULL%1,                   Christian%Janke%NULL%1,                   Wolfgang%Guggemos%NULL%2,                   Wolfgang%Guggemos%NULL%0,                   Michael%Seilmaier%NULL%1,                   Christian%Drosten%NULL%2,                   Christian%Drosten%NULL%0,                   Patrick%Vollmar%NULL%2,                   Patrick%Vollmar%NULL%0,                   Katrin%Zwirglmaier%NULL%1,                   Sabine%Zange%NULL%1,                   Roman%Wölfel%NULL%1,                   Michael%Hoelscher%NULL%2,                   Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                   Xiaoyu%Han%NULL%2,                   Xiaoyu%Han%NULL%0,                   Chuansheng%Zheng%hqzcsxh@sina.com%0,                   Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                   Lynfa%Stroud%NULL%1,                   Graham Edward%Cleghorn%NULL%1,                   Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                   Nannan%Shi%NULL%2,                   Nannan%Shi%NULL%0,                   Fei%Shan%NULL%1,                   Zhiyong%Zhang%NULL%1,                   Jie%Shen%NULL%1,                   Hongzhou%Lu%NULL%0,                   Yun%Ling%NULL%0,                   Yebin%Jiang%NULL%2,                   Yebin%Jiang%NULL%0,                   Yuxin%Shi%shiyuxin@shphc.org.cn%0,                   Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                   Jianming%Tang%15900792812@163.com%1,                   Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%1,             Jingping%Yuan%xref no email%1,             Yu%Liu%xref no email%1,             Tao%Fu%xref no email%1,             Xue%Yu%xref no email%1,             Zhi-Jiang%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                   Zheng%Zhong%NULL%2,                   Zheng%Zhong%NULL%0,                   Wei%Zhao%NULL%2,                   Wei%Zhao%NULL%0,                   Chao%Zheng%NULL%2,                   Chao%Zheng%NULL%0,                   Fei%Wang%NULL%2,                   Fei%Wang%NULL%0,                   Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                   Chengcheng%Yu%1515185140@qq.com%0,                   Lieguang%Zhang%zhlieguang@126.com%0,                   Liangping%Luo%tluolp@jnu.edu.cn%0,                   Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                   Xiao-Xin%Wu%NULL%0,                   Xian-Gao%Jiang%NULL%0,                   Kai-Jin%Xu%NULL%0,                   Ling-Jun%Ying%NULL%0,                   Chun-Lian%Ma%NULL%0,                   Shi-Bo%Li%NULL%0,                   Hua-Ying%Wang%NULL%0,                   Sheng%Zhang%NULL%0,                   Hai-Nv%Gao%NULL%0,                   Ji-Fang%Sheng%NULL%0,                   Hong-Liu%Cai%NULL%0,                   Yun-Qing%Qiu%NULL%0,                   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%0,                 Dong%Xiang%coreGivesNoEmail%0,                 Gao%Ya-dong%coreGivesNoEmail%0,                 Yan%You-qin%coreGivesNoEmail%0,                 Yang%Yi-bin%coreGivesNoEmail%0,                 Yuan%Ya-dong%coreGivesNoEmail%0,                 Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                   Xiaochen%Li%NULL%2,                   Xiaochen%Li%NULL%0,                   Wei%Zhang%NULL%0,                   Zheng-Li%Shi%NULL%1,                   Zhishui%Zheng%NULL%1,                   Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                   Nak-Jung%Kwon%NULL%2,                   Nak-Jung%Kwon%NULL%0,                   Su-Jin%Choi%NULL%2,                   Su-Jin%Choi%NULL%0,                   Chang Kyung%Kang%NULL%2,                   Chang Kyung%Kang%NULL%0,                   Pyoeng Gyun%Choe%NULL%4,                   Pyoeng Gyun%Choe%NULL%0,                   Jin Yong%Kim%NULL%4,                   Jin Yong%Kim%NULL%0,                   Jiyoung%Yun%NULL%2,                   Jiyoung%Yun%NULL%0,                   Gir-Won%Lee%NULL%2,                   Gir-Won%Lee%NULL%0,                   Moon-Woo%Seong%NULL%2,                   Moon-Woo%Seong%NULL%0,                   Nam Joong%Kim%NULL%2,                   Nam Joong%Kim%NULL%0,                   Jeong-Sun%Seo%NULL%2,                   Jeong-Sun%Seo%NULL%0,                   Myoung-don%Oh%NULL%4,                   Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                   Seunghyun%Jeon%NULL%2,                   Seunghyun%Jeon%NULL%0,                   Hyun-Young%Shin%NULL%2,                   Hyun-Young%Shin%NULL%0,                   Moon Jung%Kim%NULL%2,                   Moon Jung%Kim%NULL%0,                   Yu Min%Seong%NULL%2,                   Yu Min%Seong%NULL%0,                   Wang Jun%Lee%NULL%2,                   Wang Jun%Lee%NULL%0,                   Kang-Won%Choe%NULL%2,                   Kang-Won%Choe%NULL%0,                   Yu Min%Kang%NULL%2,                   Yu Min%Kang%NULL%0,                   Baeckseung%Lee%NULL%2,                   Baeckseung%Lee%NULL%0,                   Sang-Joon%Park%NULL%2,                   Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                   Pyoeng Gyun%Choe%NULL%0,                   Pyoeng Gyun%Choe%NULL%0,                   Yoonju%Oh%NULL%2,                   Yoonju%Oh%NULL%0,                   Kyung Joong%Oh%NULL%2,                   Kyung Joong%Oh%NULL%0,                   Jinsil%Kim%NULL%2,                   Jinsil%Kim%NULL%0,                   So Jeong%Park%NULL%2,                   So Jeong%Park%NULL%0,                   Ji Hye%Park%NULL%2,                   Ji Hye%Park%NULL%0,                   Hye Kyoung%Na%NULL%2,                   Hye Kyoung%Na%NULL%0,                   Myoung-don%Oh%NULL%0,                   Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%2,                    Q.% Lu%null%1,                    M.% Liu%null%1,                    Y.% Wang%null%1,                    A.% Zhang%null%1,                    N.% Jalali%null%1,                    N.% Dean%null%1,                    I.% Longini%null%1,                    M. E.% Halloran%null%1,                    B.% Xu%null%1,                    X.% Zhang%null%1,                    L.% Wang%null%1,                    W.% Liu%null%1,                    L. % Fang%null%1,  Y.%Yang%null%0,  Q.% Lu%null%1,  M.% Liu%null%1,  Y.% Wang%null%2,  A.% Zhang%null%2,  N.% Jalali%null%1,  N.% Dean%null%1,  I.% Longini%null%1,  M. E.% Halloran%null%1,  B.% Xu%null%1,  X.% Zhang%null%2,  L.% Wang%null%1,  W.% Liu%null%1,  L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                   Dingyu%Zhang%NULL%3,                   Wenling%Wang%NULL%2,                   Xingwang%Li%NULL%0,                   Bo%Yang%NULL%0,                   Jingdong%Song%NULL%2,                   Xiang%Zhao%NULL%2,                   Baoying%Huang%NULL%2,                   Weifeng%Shi%NULL%2,                   Roujian%Lu%NULL%2,                   Peihua%Niu%NULL%2,                   Faxian%Zhan%NULL%2,                   Xuejun%Ma%NULL%2,                   Dayan%Wang%NULL%2,                   Wenbo%Xu%NULL%2,                   Guizhen%Wu%NULL%2,                   George F.%Gao%NULL%0,                   Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                   Shuofeng%Yuan%NULL%1,                   Kin-Hang%Kok%NULL%1,                   Kelvin Kai-Wang%To%NULL%1,                   Hin%Chu%NULL%1,                   Jin%Yang%NULL%1,                   Fanfan%Xing%NULL%1,                   Jieling%Liu%NULL%1,                   Cyril Chik-Yan%Yip%NULL%1,                   Rosana Wing-Shan%Poon%NULL%1,                   Hoi-Wah%Tsoi%NULL%1,                   Simon Kam-Fai%Lo%NULL%1,                   Kwok-Hung%Chan%NULL%0,                   Vincent Kwok-Man%Poon%NULL%1,                   Wan-Mui%Chan%NULL%1,                   Jonathan Daniel%Ip%NULL%1,                   Jian-Piao%Cai%NULL%1,                   Vincent Chi-Chung%Cheng%NULL%1,                   Honglin%Chen%NULL%1,                   Christopher Kim-Ming%Hui%NULL%1,                   Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3973,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1028</v>
+        <v>1081</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -4002,7 +4146,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>1030</v>
+        <v>1082</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -4060,7 +4204,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>1032</v>
+        <v>1083</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -4089,7 +4233,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>1033</v>
+        <v>1084</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -4118,7 +4262,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>1034</v>
+        <v>1085</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -4205,7 +4349,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>1037</v>
+        <v>1086</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4234,7 +4378,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>1038</v>
+        <v>1087</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -4292,7 +4436,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>1039</v>
+        <v>1088</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -4350,7 +4494,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>1040</v>
+        <v>1089</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -4379,7 +4523,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>1041</v>
+        <v>1090</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -4408,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>1042</v>
+        <v>1091</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -4437,7 +4581,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>1043</v>
+        <v>1092</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -4466,7 +4610,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>1044</v>
+        <v>1093</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -4495,7 +4639,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>1045</v>
+        <v>1094</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -4524,7 +4668,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>1046</v>
+        <v>1095</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -4553,7 +4697,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>1047</v>
+        <v>1096</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -4582,7 +4726,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>1048</v>
+        <v>1097</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -4611,7 +4755,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>1049</v>
+        <v>1098</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -4640,7 +4784,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>1050</v>
+        <v>1099</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -4669,7 +4813,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>1051</v>
+        <v>1100</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -4698,7 +4842,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -4727,7 +4871,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>1053</v>
+        <v>1102</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4756,7 +4900,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>1054</v>
+        <v>1103</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4785,7 +4929,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4843,7 +4987,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>1056</v>
+        <v>1105</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -4901,7 +5045,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>1057</v>
+        <v>1106</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4930,7 +5074,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1058</v>
+        <v>1107</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4959,7 +5103,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>1059</v>
+        <v>1108</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -4988,7 +5132,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>1060</v>
+        <v>1109</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -5017,7 +5161,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>1061</v>
+        <v>1110</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -5046,7 +5190,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>1062</v>
+        <v>1111</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -5075,7 +5219,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -5104,7 +5248,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>1064</v>
+        <v>1113</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -5133,7 +5277,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -5162,7 +5306,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -5191,7 +5335,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>1067</v>
+        <v>1116</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -5220,7 +5364,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>1068</v>
+        <v>1117</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -5249,7 +5393,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>1069</v>
+        <v>1118</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -5278,7 +5422,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>1070</v>
+        <v>1119</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -5307,7 +5451,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>1071</v>
+        <v>1120</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -5365,7 +5509,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>1072</v>
+        <v>1121</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -5452,7 +5596,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>1073</v>
+        <v>1122</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -5481,7 +5625,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>1074</v>
+        <v>1123</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -5510,7 +5654,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>1075</v>
+        <v>1124</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -5539,7 +5683,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>1076</v>
+        <v>1125</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -5568,7 +5712,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>1077</v>
+        <v>1126</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -5597,7 +5741,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>1079</v>
+        <v>1127</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -5626,7 +5770,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>1080</v>
+        <v>1128</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8603" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11043" uniqueCount="1363">
   <si>
     <t>Doi</t>
   </si>
@@ -3783,6 +3783,708 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,                   Shuofeng%Yuan%NULL%1,                   Kin-Hang%Kok%NULL%1,                   Kelvin Kai-Wang%To%NULL%1,                   Hin%Chu%NULL%1,                   Jin%Yang%NULL%1,                   Fanfan%Xing%NULL%1,                   Jieling%Liu%NULL%1,                   Cyril Chik-Yan%Yip%NULL%1,                   Rosana Wing-Shan%Poon%NULL%1,                   Hoi-Wah%Tsoi%NULL%1,                   Simon Kam-Fai%Lo%NULL%1,                   Kwok-Hung%Chan%NULL%0,                   Vincent Kwok-Man%Poon%NULL%1,                   Wan-Mui%Chan%NULL%1,                   Jonathan Daniel%Ip%NULL%1,                   Jian-Piao%Cai%NULL%1,                   Vincent Chi-Chung%Cheng%NULL%1,                   Honglin%Chen%NULL%1,                   Christopher Kim-Ming%Hui%NULL%1,                   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                    Dengju%Li%NULL%0,                    Xiong%Wang%NULL%0,                    Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                    Hanxiong%Guan%NULL%1,                    Shuchang%Zhou%NULL%1,                    Yujin%Wang%NULL%1,                    Qian%Li%NULL%1,                    Tingting%Zhu%NULL%1,                    Qiongjie%Hu%qjhu@outlook.com%1,                    Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                    Jenny%Chen%NULL%1,                    Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,                    Yang%Yang%NULL%4,                    Cong%Zhang%NULL%0,                    Fengming%Huang%NULL%1,                    Fuxiang%Wang%NULL%1,                    Jing%Yuan%NULL%1,                    Zhaoqin%Wang%NULL%0,                    Jinxiu%Li%NULL%1,                    Jianming%Li%NULL%1,                    Cheng%Feng%NULL%1,                    Zheng%Zhang%NULL%1,                    Lifei%Wang%NULL%1,                    Ling%Peng%NULL%1,                    Li%Chen%NULL%0,                    Yuhao%Qin%NULL%1,                    Dandan%Zhao%NULL%1,                    Shuguang%Tan%NULL%1,                    Lu%Yin%NULL%2,                    Jun%Xu%NULL%1,                    Congzhao%Zhou%NULL%1,                    Chengyu%Jiang%jiang@pumc.edu.cn%1,                    Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%2,                    Xueyan%Mei%NULL%4,                    Xueyan%Mei%NULL%0,                    Mingqian%Huang%NULL%4,                    Mingqian%Huang%NULL%0,                    Yang%Yang%NULL%0,                    Zahi A.%Fayad%NULL%0,                    Zahi A.%Fayad%NULL%0,                    Ning%Zhang%NULL%5,                    Ning%Zhang%NULL%0,                    Kaiyue%Diao%NULL%2,                    Kaiyue%Diao%NULL%0,                    Bin%Lin%NULL%1,                    Xiqi%Zhu%NULL%2,                    Xiqi%Zhu%NULL%0,                    Kunwei%Li%NULL%2,                    Shaolin%Li%NULL%2,                    Hong%Shan%NULL%0,                    Adam%Jacobi%NULL%3,                    Adam%Jacobi%NULL%0,                    Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Malinda%Chea%xref no email%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Australian Government Department of Health</t>
+  </si>
+  <si>
+    <t>[Yan%Bai%xref no email%0, Lingsheng%Yao%xref no email%1, Tao%Wei%xref no email%1, Fei%Tian%xref no email%1, Dong-Yan%Jin%xref no email%1, Lijuan%Chen%xref no email%1, Meiyun%Wang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                    Ranjit%Sah%ranjitsah@iom.edu.np%0,                    Alfonso J%Rodriguez-Morales%NULL%1,                    Bibek Kumar%Lal%NULL%1,                    Runa%Jha%NULL%1,                    Hemant Chanda%Ojha%NULL%1,                    Bikesh%Shrestha%NULL%1,                    Daniel K W%Chu%NULL%1,                    Leo L M%Poon%NULL%1,                    Anthony%Costello%NULL%1,                    Kouichi%Morita%NULL%1,                    Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%0,                    Xuan%Dong%NULL%0,                    Jieming%Qu%NULL%0,                    Fengyun%Gong%NULL%0,                    Yang%Han%NULL%0,                    Yang%Qiu%NULL%0,                    Jingli%Wang%NULL%0,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%0,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%2,                    Adam%Bernheim%NULL%2,                    Adam%Bernheim%NULL%0,                    Xueyan%Mei%NULL%0,                    Xueyan%Mei%NULL%0,                    Ning%Zhang%NULL%0,                    Ning%Zhang%NULL%0,                    Mingqian%Huang%NULL%0,                    Mingqian%Huang%NULL%0,                    Xianjun%Zeng%NULL%1,                    Jiufa%Cui%NULL%1,                    Wenjian%Xu%NULL%2,                    Wenjian%Xu%NULL%0,                    Yang%Yang%NULL%0,                    Zahi A.%Fayad%NULL%0,                    Zahi A.%Fayad%NULL%0,                    Adam%Jacobi%NULL%0,                    Kunwei%Li%NULL%0,                    Shaolin%Li%NULL%0,                    Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                    Jie%Qin%qinjie@mail.sysu.edu.cn%2,                    Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                    M%Zhao%NULL%1,                    S%Li%NULL%1,                    L%Yang%NULL%1,                    B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                    Huangqi%Zhang%NULL%4,                    Huangqi%Zhang%NULL%0,                    Jicheng%Xie%NULL%4,                    Jicheng%Xie%NULL%0,                    Minjie%Lin%NULL%2,                    Minjie%Lin%NULL%0,                    Lingjun%Ying%NULL%2,                    Lingjun%Ying%NULL%0,                    Peipei%Pang%NULL%4,                    Peipei%Pang%NULL%0,                    Wenbin%Ji%1224190004@qq.com%4,                    Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                    Huangqi%Zhang%NULL%0,                    Huangqi%Zhang%NULL%0,                    Yunyu%Xu%NULL%2,                    Yunyu%Xu%NULL%0,                    Jicheng%Xie%NULL%0,                    Jicheng%Xie%NULL%0,                    Peipei%Pang%NULL%0,                    Peipei%Pang%NULL%0,                    Wenbin%Ji%1224190004@qq.com%0,                    Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                    Domenico%Benvenuto%NULL%1,                    Silvia%Angeletti%s.angeletti@unicampus.it%2,                    Silvia%Angeletti%s.angeletti@unicampus.it%0,                    Massimo%Ciccozzi%NULL%2,                    Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                    M.%Li%NULL%1,                    X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                    Chas%DeBolt%NULL%1,                    Scott%Lindquist%NULL%1,                    Kathy H.%Lofy%NULL%1,                    John%Wiesman%NULL%1,                    Hollianne%Bruce%NULL%0,                    Christopher%Spitters%NULL%0,                    Keith%Ericson%NULL%1,                    Sara%Wilkerson%NULL%1,                    Ahmet%Tural%NULL%1,                    George%Diaz%NULL%1,                    Amanda%Cohn%NULL%2,                    LeAnne%Fox%NULL%1,                    Anita%Patel%NULL%1,                    Susan I.%Gerber%NULL%1,                    Lindsay%Kim%NULL%1,                    Suxiang%Tong%NULL%1,                    Xiaoyan%Lu%NULL%1,                    Steve%Lindstrom%NULL%1,                    Mark A.%Pallansch%NULL%1,                    William C.%Weldon%NULL%1,                    Holly M.%Biggs%NULL%1,                    Timothy M.%Uyeki%NULL%0,                    Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                    Tianzhu%Liu%NULL%2,                    Tianzhu%Liu%NULL%0,                    Lesheng%Huang%NULL%2,                    Lesheng%Huang%NULL%0,                    Hailong%Liu%NULL%2,                    Hailong%Liu%NULL%0,                    Ming%Lei%NULL%1,                    Wangdong%Xu%NULL%2,                    Wangdong%Xu%NULL%0,                    Xiaolu%Hu%NULL%1,                    Jun%Chen%NULL%3,                    Bo%Liu%liubogzcm@163.com%3,                    Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                    Juanjuan%Guo%NULL%0,                    Chen%Wang%NULL%0,                    Fan%Luo%NULL%0,                    Xuechen%Yu%NULL%0,                    Wei%Zhang%NULL%0,                    Jiafu%Li%NULL%0,                    Dongchi%Zhao%NULL%0,                    Dan%Xu%NULL%0,                    Qing%Gong%NULL%0,                    Jing%Liao%NULL%0,                    Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                    Wei%Hou%houwei@whu.edu.cn%0,                    Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                    Junfeng%Li%NULL%1,                    Xun%Li%NULL%0,                    Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                    Xuhua%Guan%NULL%1,                    Peng%Wu%NULL%1,                    Xiaoye%Wang%NULL%1,                    Lei%Zhou%NULL%0,                    Yeqing%Tong%NULL%1,                    Ruiqi%Ren%NULL%1,                    Kathy S.M.%Leung%NULL%1,                    Eric H.Y.%Lau%NULL%1,                    Jessica Y.%Wong%NULL%1,                    Xuesen%Xing%NULL%1,                    Nijuan%Xiang%NULL%0,                    Yang%Wu%NULL%1,                    Chao%Li%NULL%1,                    Qi%Chen%NULL%1,                    Dan%Li%NULL%1,                    Tian%Liu%NULL%1,                    Jing%Zhao%NULL%1,                    Man%Liu%NULL%1,                    Wenxiao%Tu%NULL%1,                    Chuding%Chen%NULL%1,                    Lianmei%Jin%NULL%1,                    Rui%Yang%NULL%1,                    Qi%Wang%NULL%1,                    Suhua%Zhou%NULL%1,                    Rui%Wang%NULL%2,                    Hui%Liu%NULL%0,                    Yinbo%Luo%NULL%1,                    Yuan%Liu%NULL%1,                    Ge%Shao%NULL%1,                    Huan%Li%NULL%1,                    Zhongfa%Tao%NULL%1,                    Yang%Yang%NULL%0,                    Zhiqiang%Deng%NULL%1,                    Boxi%Liu%NULL%1,                    Zhitao%Ma%NULL%1,                    Yanping%Zhang%NULL%1,                    Guoqing%Shi%NULL%1,                    Tommy T.Y.%Lam%NULL%1,                    Joseph T.%Wu%NULL%1,                    George F.%Gao%NULL%3,                    Benjamin J.%Cowling%NULL%2,                    Bo%Yang%NULL%4,                    Bo%Yang%NULL%0,                    Gabriel M.%Leung%NULL%1,                    Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                    Zhenyu%Gong%NULL%2,                    Zhenyu%Gong%NULL%0,                    Zuke%Xiao%NULL%2,                    Zuke%Xiao%NULL%0,                    Jingliang%Xiong%NULL%1,                    Bing%Fan%NULL%2,                    Jiaqi%Liu%NULL%2,                    Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%0,                    Yan%Deng%NULL%0,                    Wei%Liu%NULL%0,                    Mei-Fang%Wang%NULL%0,                    Jing-Ping%Ma%NULL%0,                    Wei%Xiao%NULL%0,                    Ying-Nan%Wang%NULL%0,                    Min-Hua%Zhong%NULL%0,                    Cheng-Hong%Li%NULL%0,                    Guang-Cai%Li%NULL%0,                    Hui-Guo%Liu%NULL%0,                    Xiu-Yuan%Hao%NULL%0,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                    Xian-zheng%Tan%xianzhengtan@163.com%2,                    Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                    Tianhe%Ye%NULL%0,                    Tianhe%Ye%NULL%0,                    Peng%Sun%NULL%0,                    Peng%Sun%NULL%0,                    Shan%Gui%NULL%0,                    Shan%Gui%NULL%0,                    Bo%Liang%NULL%0,                    Bo%Liang%NULL%0,                    Lingli%Li%NULL%0,                    Lingli%Li%NULL%0,                    Dandan%Zheng%NULL%0,                    Dandan%Zheng%NULL%0,                    Jiazheng%Wang%NULL%0,                    Jiazheng%Wang%NULL%0,                    Richard L.%Hesketh%NULL%0,                    Richard L.%Hesketh%NULL%0,                    Lian%Yang%yanglian@hust.edu.cn%0,                    Lian%Yang%yanglian@hust.edu.cn%0,                    Chuansheng%Zheng%NULL%0,                    Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                    Thuong V.%Nguyen%NULL%1,                    Quang C.%Luong%NULL%1,                    Thinh V.%Nguyen%NULL%1,                    Hieu T.%Nguyen%NULL%1,                    Hung Q.%Le%NULL%2,                    Hung Q.%Le%NULL%0,                    Thuc T.%Nguyen%NULL%1,                    Thang M.%Cao%NULL%2,                    Thang M.%Cao%NULL%0,                    Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                    Krit%Pongpirul%NULL%2,                    Krit%Pongpirul%NULL%0,                    Anuttra C.%Ratnarathon%NULL%2,                    Anuttra C.%Ratnarathon%NULL%0,                    Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                    Ye-Ming%Wang%NULL%1,                    Zhi-Qiang%Wu%NULL%1,                    Zi-Chun%Xiang%NULL%1,                    Li%Guo%NULL%0,                    Teng%Xu%NULL%1,                    Yong-Zhong%Jiang%NULL%1,                    Yan%Xiong%NULL%0,                    Yong-Jun%Li%NULL%1,                    Xing-Wang%Li%NULL%1,                    Hui%Li%NULL%0,                    Guo-Hui%Fan%NULL%1,                    Xiao-Ying%Gu%NULL%1,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Jiu-Yang%Xu%NULL%1,                    Fan%Yang%NULL%1,                    Xin-Ming%Wang%NULL%1,                    Chao%Wu%NULL%1,                    Lan%Chen%NULL%1,                    Yi-Wei%Liu%NULL%1,                    Bo%Liu%NULL%0,                    Jian%Yang%NULL%1,                    Xiao-Rui%Wang%NULL%1,                    Jie%Dong%NULL%1,                    Li%Li%NULL%0,                    Chao-Lin%Huang%NULL%1,                    Jian-Ping%Zhao%NULL%1,                    Yi%Hu%NULL%0,                    Zhen-Shun%Cheng%NULL%1,                    Lin-Lin%Liu%NULL%1,                    Zhao-Hui%Qian%NULL%1,                    Chuan%Qin%NULL%1,                    Qi%Jin%NULL%0,                    Bin%Cao%NULL%0,                    Jian-Wei%Wang%NULL%1,                    Xiu-Yuan%Hao%NULL%0,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                    Mirjam%Schunk%NULL%1,                    Peter%Sothmann%NULL%1,                    Gisela%Bretzel%NULL%1,                    Guenter%Froeschl%NULL%1,                    Claudia%Wallrauch%NULL%1,                    Thorbjörn%Zimmer%NULL%1,                    Verena%Thiel%NULL%1,                    Christian%Janke%NULL%1,                    Wolfgang%Guggemos%NULL%2,                    Wolfgang%Guggemos%NULL%0,                    Michael%Seilmaier%NULL%1,                    Christian%Drosten%NULL%2,                    Christian%Drosten%NULL%0,                    Patrick%Vollmar%NULL%2,                    Patrick%Vollmar%NULL%0,                    Katrin%Zwirglmaier%NULL%1,                    Sabine%Zange%NULL%1,                    Roman%Wölfel%NULL%1,                    Michael%Hoelscher%NULL%2,                    Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                    Xiaoyu%Han%NULL%2,                    Xiaoyu%Han%NULL%0,                    Chuansheng%Zheng%hqzcsxh@sina.com%0,                    Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                    Lynfa%Stroud%NULL%1,                    Graham Edward%Cleghorn%NULL%1,                    Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                    Nannan%Shi%NULL%2,                    Nannan%Shi%NULL%0,                    Fei%Shan%NULL%1,                    Zhiyong%Zhang%NULL%1,                    Jie%Shen%NULL%1,                    Hongzhou%Lu%NULL%0,                    Yun%Ling%NULL%0,                    Yebin%Jiang%NULL%2,                    Yebin%Jiang%NULL%0,                    Yuxin%Shi%shiyuxin@shphc.org.cn%0,                    Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                    Jianming%Tang%15900792812@163.com%1,                    Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Min%Wei%xref no email%0, Jingping%Yuan%xref no email%1, Yu%Liu%xref no email%1, Tao%Fu%xref no email%1, Xue%Yu%xref no email%1, Zhi-Jiang%Zhang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%2,                    Zheng%Zhong%NULL%2,                    Zheng%Zhong%NULL%0,                    Wei%Zhao%NULL%2,                    Wei%Zhao%NULL%0,                    Chao%Zheng%NULL%2,                    Chao%Zheng%NULL%0,                    Fei%Wang%NULL%2,                    Fei%Wang%NULL%0,                    Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                    Chengcheng%Yu%1515185140@qq.com%0,                    Lieguang%Zhang%zhlieguang@126.com%0,                    Liangping%Luo%tluolp@jnu.edu.cn%0,                    Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                    Xiao-Xin%Wu%NULL%0,                    Xian-Gao%Jiang%NULL%0,                    Kai-Jin%Xu%NULL%0,                    Ling-Jun%Ying%NULL%0,                    Chun-Lian%Ma%NULL%0,                    Shi-Bo%Li%NULL%0,                    Hua-Ying%Wang%NULL%0,                    Sheng%Zhang%NULL%0,                    Hai-Nv%Gao%NULL%0,                    Ji-Fang%Sheng%NULL%0,                    Hong-Liu%Cai%NULL%0,                    Yun-Qing%Qiu%NULL%0,                    Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%0,                  Dong%Xiang%coreGivesNoEmail%0,                  Gao%Ya-dong%coreGivesNoEmail%0,                  Yan%You-qin%coreGivesNoEmail%0,                  Yang%Yi-bin%coreGivesNoEmail%0,                  Yuan%Ya-dong%coreGivesNoEmail%0,                  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                    Xiaochen%Li%NULL%2,                    Xiaochen%Li%NULL%0,                    Wei%Zhang%NULL%0,                    Zheng-Li%Shi%NULL%1,                    Zhishui%Zheng%NULL%1,                    Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                    Nak-Jung%Kwon%NULL%2,                    Nak-Jung%Kwon%NULL%0,                    Su-Jin%Choi%NULL%2,                    Su-Jin%Choi%NULL%0,                    Chang Kyung%Kang%NULL%2,                    Chang Kyung%Kang%NULL%0,                    Pyoeng Gyun%Choe%NULL%4,                    Pyoeng Gyun%Choe%NULL%0,                    Jin Yong%Kim%NULL%4,                    Jin Yong%Kim%NULL%0,                    Jiyoung%Yun%NULL%2,                    Jiyoung%Yun%NULL%0,                    Gir-Won%Lee%NULL%2,                    Gir-Won%Lee%NULL%0,                    Moon-Woo%Seong%NULL%2,                    Moon-Woo%Seong%NULL%0,                    Nam Joong%Kim%NULL%2,                    Nam Joong%Kim%NULL%0,                    Jeong-Sun%Seo%NULL%2,                    Jeong-Sun%Seo%NULL%0,                    Myoung-don%Oh%NULL%4,                    Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                    Seunghyun%Jeon%NULL%2,                    Seunghyun%Jeon%NULL%0,                    Hyun-Young%Shin%NULL%2,                    Hyun-Young%Shin%NULL%0,                    Moon Jung%Kim%NULL%2,                    Moon Jung%Kim%NULL%0,                    Yu Min%Seong%NULL%2,                    Yu Min%Seong%NULL%0,                    Wang Jun%Lee%NULL%2,                    Wang Jun%Lee%NULL%0,                    Kang-Won%Choe%NULL%2,                    Kang-Won%Choe%NULL%0,                    Yu Min%Kang%NULL%2,                    Yu Min%Kang%NULL%0,                    Baeckseung%Lee%NULL%2,                    Baeckseung%Lee%NULL%0,                    Sang-Joon%Park%NULL%2,                    Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                    Pyoeng Gyun%Choe%NULL%0,                    Pyoeng Gyun%Choe%NULL%0,                    Yoonju%Oh%NULL%2,                    Yoonju%Oh%NULL%0,                    Kyung Joong%Oh%NULL%2,                    Kyung Joong%Oh%NULL%0,                    Jinsil%Kim%NULL%2,                    Jinsil%Kim%NULL%0,                    So Jeong%Park%NULL%2,                    So Jeong%Park%NULL%0,                    Ji Hye%Park%NULL%2,                    Ji Hye%Park%NULL%0,                    Hye Kyoung%Na%NULL%2,                    Hye Kyoung%Na%NULL%0,                    Myoung-don%Oh%NULL%0,                    Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                     Q.% Lu%null%1,                     M.% Liu%null%1,                     Y.% Wang%null%1,                     A.% Zhang%null%1,                     N.% Jalali%null%1,                     N.% Dean%null%1,                     I.% Longini%null%1,                     M. E.% Halloran%null%1,                     B.% Xu%null%1,                     X.% Zhang%null%1,                     L.% Wang%null%1,                     W.% Liu%null%1,                     L. % Fang%null%1,   Y.%Yang%null%1,   Q.% Lu%null%1,   M.% Liu%null%1,   Y.% Wang%null%2,   A.% Zhang%null%1,   N.% Jalali%null%1,   N.% Dean%null%1,   I.% Longini%null%1,   M. E.% Halloran%null%1,   B.% Xu%null%1,   X.% Zhang%null%1,   L.% Wang%null%1,   W.% Liu%null%1,   L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                    Dingyu%Zhang%NULL%3,                    Wenling%Wang%NULL%2,                    Xingwang%Li%NULL%0,                    Bo%Yang%NULL%0,                    Jingdong%Song%NULL%2,                    Xiang%Zhao%NULL%2,                    Baoying%Huang%NULL%2,                    Weifeng%Shi%NULL%2,                    Roujian%Lu%NULL%2,                    Peihua%Niu%NULL%2,                    Faxian%Zhan%NULL%2,                    Xuejun%Ma%NULL%2,                    Dayan%Wang%NULL%2,                    Wenbo%Xu%NULL%2,                    Guizhen%Wu%NULL%2,                    George F.%Gao%NULL%0,                    Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                    Shuofeng%Yuan%NULL%1,                    Kin-Hang%Kok%NULL%1,                    Kelvin Kai-Wang%To%NULL%1,                    Hin%Chu%NULL%1,                    Jin%Yang%NULL%1,                    Fanfan%Xing%NULL%1,                    Jieling%Liu%NULL%1,                    Cyril Chik-Yan%Yip%NULL%1,                    Rosana Wing-Shan%Poon%NULL%1,                    Hoi-Wah%Tsoi%NULL%1,                    Simon Kam-Fai%Lo%NULL%1,                    Kwok-Hung%Chan%NULL%0,                    Vincent Kwok-Man%Poon%NULL%1,                    Wan-Mui%Chan%NULL%1,                    Jonathan Daniel%Ip%NULL%1,                    Jian-Piao%Cai%NULL%1,                    Vincent Chi-Chung%Cheng%NULL%1,                    Honglin%Chen%NULL%1,                    Christopher Kim-Ming%Hui%NULL%1,                    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                     Dengju%Li%NULL%0,                     Xiong%Wang%NULL%0,                     Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                     Hanxiong%Guan%NULL%1,                     Shuchang%Zhou%NULL%1,                     Yujin%Wang%NULL%1,                     Qian%Li%NULL%1,                     Tingting%Zhu%NULL%1,                     Qiongjie%Hu%qjhu@outlook.com%1,                     Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                     Jenny%Chen%NULL%1,                     Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,                     Yang%Yang%NULL%4,                     Cong%Zhang%NULL%0,                     Fengming%Huang%NULL%1,                     Fuxiang%Wang%NULL%1,                     Jing%Yuan%NULL%1,                     Zhaoqin%Wang%NULL%0,                     Jinxiu%Li%NULL%1,                     Jianming%Li%NULL%1,                     Cheng%Feng%NULL%1,                     Zheng%Zhang%NULL%1,                     Lifei%Wang%NULL%1,                     Ling%Peng%NULL%1,                     Li%Chen%NULL%0,                     Yuhao%Qin%NULL%1,                     Dandan%Zhao%NULL%1,                     Shuguang%Tan%NULL%1,                     Lu%Yin%NULL%2,                     Jun%Xu%NULL%1,                     Congzhao%Zhou%NULL%1,                     Chengyu%Jiang%jiang@pumc.edu.cn%1,                     Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                     Xueyan%Mei%NULL%4,                     Xueyan%Mei%NULL%0,                     Mingqian%Huang%NULL%4,                     Mingqian%Huang%NULL%0,                     Yang%Yang%NULL%0,                     Zahi A.%Fayad%NULL%0,                     Zahi A.%Fayad%NULL%0,                     Ning%Zhang%NULL%5,                     Ning%Zhang%NULL%0,                     Kaiyue%Diao%NULL%2,                     Kaiyue%Diao%NULL%0,                     Bin%Lin%NULL%1,                     Xiqi%Zhu%NULL%2,                     Xiqi%Zhu%NULL%0,                     Kunwei%Li%NULL%2,                     Shaolin%Li%NULL%2,                     Hong%Shan%NULL%0,                     Adam%Jacobi%NULL%3,                     Adam%Jacobi%NULL%0,                     Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                     Ranjit%Sah%ranjitsah@iom.edu.np%0,                     Alfonso J%Rodriguez-Morales%NULL%1,                     Bibek Kumar%Lal%NULL%1,                     Runa%Jha%NULL%1,                     Hemant Chanda%Ojha%NULL%1,                     Bikesh%Shrestha%NULL%1,                     Daniel K W%Chu%NULL%1,                     Leo L M%Poon%NULL%1,                     Anthony%Costello%NULL%1,                     Kouichi%Morita%NULL%1,                     Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%0,                     Xuan%Dong%NULL%0,                     Jieming%Qu%NULL%0,                     Fengyun%Gong%NULL%0,                     Yang%Han%NULL%0,                     Yang%Qiu%NULL%0,                     Jingli%Wang%NULL%0,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%0,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                     Adam%Bernheim%NULL%2,                     Adam%Bernheim%NULL%0,                     Xueyan%Mei%NULL%0,                     Xueyan%Mei%NULL%0,                     Ning%Zhang%NULL%0,                     Ning%Zhang%NULL%0,                     Mingqian%Huang%NULL%0,                     Mingqian%Huang%NULL%0,                     Xianjun%Zeng%NULL%1,                     Jiufa%Cui%NULL%1,                     Wenjian%Xu%NULL%2,                     Wenjian%Xu%NULL%0,                     Yang%Yang%NULL%0,                     Zahi A.%Fayad%NULL%0,                     Zahi A.%Fayad%NULL%0,                     Adam%Jacobi%NULL%0,                     Kunwei%Li%NULL%0,                     Shaolin%Li%NULL%0,                     Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                     Jie%Qin%qinjie@mail.sysu.edu.cn%2,                     Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                     M%Zhao%NULL%1,                     S%Li%NULL%1,                     L%Yang%NULL%1,                     B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                     Huangqi%Zhang%NULL%4,                     Huangqi%Zhang%NULL%0,                     Jicheng%Xie%NULL%4,                     Jicheng%Xie%NULL%0,                     Minjie%Lin%NULL%2,                     Minjie%Lin%NULL%0,                     Lingjun%Ying%NULL%2,                     Lingjun%Ying%NULL%0,                     Peipei%Pang%NULL%4,                     Peipei%Pang%NULL%0,                     Wenbin%Ji%1224190004@qq.com%4,                     Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                     Huangqi%Zhang%NULL%0,                     Huangqi%Zhang%NULL%0,                     Yunyu%Xu%NULL%2,                     Yunyu%Xu%NULL%0,                     Jicheng%Xie%NULL%0,                     Jicheng%Xie%NULL%0,                     Peipei%Pang%NULL%0,                     Peipei%Pang%NULL%0,                     Wenbin%Ji%1224190004@qq.com%0,                     Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                     Domenico%Benvenuto%NULL%1,                     Silvia%Angeletti%s.angeletti@unicampus.it%2,                     Silvia%Angeletti%s.angeletti@unicampus.it%0,                     Massimo%Ciccozzi%NULL%2,                     Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                     M.%Li%NULL%1,                     X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                     Chas%DeBolt%NULL%1,                     Scott%Lindquist%NULL%1,                     Kathy H.%Lofy%NULL%1,                     John%Wiesman%NULL%1,                     Hollianne%Bruce%NULL%0,                     Christopher%Spitters%NULL%0,                     Keith%Ericson%NULL%1,                     Sara%Wilkerson%NULL%1,                     Ahmet%Tural%NULL%1,                     George%Diaz%NULL%1,                     Amanda%Cohn%NULL%2,                     LeAnne%Fox%NULL%1,                     Anita%Patel%NULL%1,                     Susan I.%Gerber%NULL%1,                     Lindsay%Kim%NULL%1,                     Suxiang%Tong%NULL%1,                     Xiaoyan%Lu%NULL%1,                     Steve%Lindstrom%NULL%1,                     Mark A.%Pallansch%NULL%1,                     William C.%Weldon%NULL%1,                     Holly M.%Biggs%NULL%1,                     Timothy M.%Uyeki%NULL%0,                     Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                     Tianzhu%Liu%NULL%2,                     Tianzhu%Liu%NULL%0,                     Lesheng%Huang%NULL%2,                     Lesheng%Huang%NULL%0,                     Hailong%Liu%NULL%2,                     Hailong%Liu%NULL%0,                     Ming%Lei%NULL%1,                     Wangdong%Xu%NULL%2,                     Wangdong%Xu%NULL%0,                     Xiaolu%Hu%NULL%1,                     Jun%Chen%NULL%3,                     Bo%Liu%liubogzcm@163.com%3,                     Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                     Juanjuan%Guo%NULL%0,                     Chen%Wang%NULL%0,                     Fan%Luo%NULL%0,                     Xuechen%Yu%NULL%0,                     Wei%Zhang%NULL%0,                     Jiafu%Li%NULL%0,                     Dongchi%Zhao%NULL%0,                     Dan%Xu%NULL%0,                     Qing%Gong%NULL%0,                     Jing%Liao%NULL%0,                     Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                     Wei%Hou%houwei@whu.edu.cn%0,                     Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                     Junfeng%Li%NULL%1,                     Xun%Li%NULL%0,                     Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                     Xuhua%Guan%NULL%1,                     Peng%Wu%NULL%1,                     Xiaoye%Wang%NULL%1,                     Lei%Zhou%NULL%0,                     Yeqing%Tong%NULL%1,                     Ruiqi%Ren%NULL%1,                     Kathy S.M.%Leung%NULL%1,                     Eric H.Y.%Lau%NULL%1,                     Jessica Y.%Wong%NULL%1,                     Xuesen%Xing%NULL%1,                     Nijuan%Xiang%NULL%0,                     Yang%Wu%NULL%1,                     Chao%Li%NULL%1,                     Qi%Chen%NULL%1,                     Dan%Li%NULL%1,                     Tian%Liu%NULL%1,                     Jing%Zhao%NULL%1,                     Man%Liu%NULL%1,                     Wenxiao%Tu%NULL%1,                     Chuding%Chen%NULL%1,                     Lianmei%Jin%NULL%1,                     Rui%Yang%NULL%1,                     Qi%Wang%NULL%1,                     Suhua%Zhou%NULL%1,                     Rui%Wang%NULL%2,                     Hui%Liu%NULL%0,                     Yinbo%Luo%NULL%1,                     Yuan%Liu%NULL%1,                     Ge%Shao%NULL%1,                     Huan%Li%NULL%1,                     Zhongfa%Tao%NULL%1,                     Yang%Yang%NULL%0,                     Zhiqiang%Deng%NULL%1,                     Boxi%Liu%NULL%1,                     Zhitao%Ma%NULL%1,                     Yanping%Zhang%NULL%1,                     Guoqing%Shi%NULL%1,                     Tommy T.Y.%Lam%NULL%1,                     Joseph T.%Wu%NULL%1,                     George F.%Gao%NULL%3,                     Benjamin J.%Cowling%NULL%2,                     Bo%Yang%NULL%4,                     Bo%Yang%NULL%0,                     Gabriel M.%Leung%NULL%1,                     Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                     Zhenyu%Gong%NULL%2,                     Zhenyu%Gong%NULL%0,                     Zuke%Xiao%NULL%2,                     Zuke%Xiao%NULL%0,                     Jingliang%Xiong%NULL%1,                     Bing%Fan%NULL%2,                     Jiaqi%Liu%NULL%2,                     Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%0,                     Yan%Deng%NULL%0,                     Wei%Liu%NULL%0,                     Mei-Fang%Wang%NULL%0,                     Jing-Ping%Ma%NULL%0,                     Wei%Xiao%NULL%0,                     Ying-Nan%Wang%NULL%0,                     Min-Hua%Zhong%NULL%0,                     Cheng-Hong%Li%NULL%0,                     Guang-Cai%Li%NULL%0,                     Hui-Guo%Liu%NULL%0,                     Xiu-Yuan%Hao%NULL%0,                     Xiu-Yuan%Hao%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                     Xian-zheng%Tan%xianzhengtan@163.com%2,                     Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                     Tianhe%Ye%NULL%0,                     Tianhe%Ye%NULL%0,                     Peng%Sun%NULL%0,                     Peng%Sun%NULL%0,                     Shan%Gui%NULL%0,                     Shan%Gui%NULL%0,                     Bo%Liang%NULL%0,                     Bo%Liang%NULL%0,                     Lingli%Li%NULL%0,                     Lingli%Li%NULL%0,                     Dandan%Zheng%NULL%0,                     Dandan%Zheng%NULL%0,                     Jiazheng%Wang%NULL%0,                     Jiazheng%Wang%NULL%0,                     Richard L.%Hesketh%NULL%0,                     Richard L.%Hesketh%NULL%0,                     Lian%Yang%yanglian@hust.edu.cn%0,                     Lian%Yang%yanglian@hust.edu.cn%0,                     Chuansheng%Zheng%NULL%0,                     Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                     Thuong V.%Nguyen%NULL%1,                     Quang C.%Luong%NULL%1,                     Thinh V.%Nguyen%NULL%1,                     Hieu T.%Nguyen%NULL%1,                     Hung Q.%Le%NULL%2,                     Hung Q.%Le%NULL%0,                     Thuc T.%Nguyen%NULL%1,                     Thang M.%Cao%NULL%2,                     Thang M.%Cao%NULL%0,                     Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                     Krit%Pongpirul%NULL%2,                     Krit%Pongpirul%NULL%0,                     Anuttra C.%Ratnarathon%NULL%2,                     Anuttra C.%Ratnarathon%NULL%0,                     Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                     Ye-Ming%Wang%NULL%1,                     Zhi-Qiang%Wu%NULL%1,                     Zi-Chun%Xiang%NULL%1,                     Li%Guo%NULL%0,                     Teng%Xu%NULL%1,                     Yong-Zhong%Jiang%NULL%1,                     Yan%Xiong%NULL%0,                     Yong-Jun%Li%NULL%1,                     Xing-Wang%Li%NULL%1,                     Hui%Li%NULL%0,                     Guo-Hui%Fan%NULL%1,                     Xiao-Ying%Gu%NULL%1,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Jiu-Yang%Xu%NULL%1,                     Fan%Yang%NULL%1,                     Xin-Ming%Wang%NULL%1,                     Chao%Wu%NULL%1,                     Lan%Chen%NULL%1,                     Yi-Wei%Liu%NULL%1,                     Bo%Liu%NULL%0,                     Jian%Yang%NULL%1,                     Xiao-Rui%Wang%NULL%1,                     Jie%Dong%NULL%1,                     Li%Li%NULL%0,                     Chao-Lin%Huang%NULL%1,                     Jian-Ping%Zhao%NULL%1,                     Yi%Hu%NULL%0,                     Zhen-Shun%Cheng%NULL%1,                     Lin-Lin%Liu%NULL%1,                     Zhao-Hui%Qian%NULL%1,                     Chuan%Qin%NULL%1,                     Qi%Jin%NULL%0,                     Bin%Cao%NULL%0,                     Jian-Wei%Wang%NULL%1,                     Xiu-Yuan%Hao%NULL%0,                     Xiu-Yuan%Hao%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                     Mirjam%Schunk%NULL%1,                     Peter%Sothmann%NULL%1,                     Gisela%Bretzel%NULL%1,                     Guenter%Froeschl%NULL%1,                     Claudia%Wallrauch%NULL%1,                     Thorbjörn%Zimmer%NULL%1,                     Verena%Thiel%NULL%1,                     Christian%Janke%NULL%1,                     Wolfgang%Guggemos%NULL%2,                     Wolfgang%Guggemos%NULL%0,                     Michael%Seilmaier%NULL%1,                     Christian%Drosten%NULL%2,                     Christian%Drosten%NULL%0,                     Patrick%Vollmar%NULL%2,                     Patrick%Vollmar%NULL%0,                     Katrin%Zwirglmaier%NULL%1,                     Sabine%Zange%NULL%1,                     Roman%Wölfel%NULL%1,                     Michael%Hoelscher%NULL%2,                     Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                     Xiaoyu%Han%NULL%2,                     Xiaoyu%Han%NULL%0,                     Chuansheng%Zheng%hqzcsxh@sina.com%0,                     Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                     Lynfa%Stroud%NULL%1,                     Graham Edward%Cleghorn%NULL%1,                     Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                     Nannan%Shi%NULL%2,                     Nannan%Shi%NULL%0,                     Fei%Shan%NULL%1,                     Zhiyong%Zhang%NULL%1,                     Jie%Shen%NULL%1,                     Hongzhou%Lu%NULL%0,                     Yun%Ling%NULL%0,                     Yebin%Jiang%NULL%2,                     Yebin%Jiang%NULL%0,                     Yuxin%Shi%shiyuxin@shphc.org.cn%0,                     Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                     Jianming%Tang%15900792812@163.com%1,                     Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                     Zheng%Zhong%NULL%2,                     Zheng%Zhong%NULL%0,                     Wei%Zhao%NULL%2,                     Wei%Zhao%NULL%0,                     Chao%Zheng%NULL%2,                     Chao%Zheng%NULL%0,                     Fei%Wang%NULL%2,                     Fei%Wang%NULL%0,                     Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                     Chengcheng%Yu%1515185140@qq.com%0,                     Lieguang%Zhang%zhlieguang@126.com%0,                     Liangping%Luo%tluolp@jnu.edu.cn%0,                     Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                     Xiao-Xin%Wu%NULL%0,                     Xian-Gao%Jiang%NULL%0,                     Kai-Jin%Xu%NULL%0,                     Ling-Jun%Ying%NULL%0,                     Chun-Lian%Ma%NULL%0,                     Shi-Bo%Li%NULL%0,                     Hua-Ying%Wang%NULL%0,                     Sheng%Zhang%NULL%0,                     Hai-Nv%Gao%NULL%0,                     Ji-Fang%Sheng%NULL%0,                     Hong-Liu%Cai%NULL%0,                     Yun-Qing%Qiu%NULL%0,                     Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%0,                   Dong%Xiang%coreGivesNoEmail%0,                   Gao%Ya-dong%coreGivesNoEmail%0,                   Yan%You-qin%coreGivesNoEmail%0,                   Yang%Yi-bin%coreGivesNoEmail%0,                   Yuan%Ya-dong%coreGivesNoEmail%0,                   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                     Xiaochen%Li%NULL%2,                     Xiaochen%Li%NULL%0,                     Wei%Zhang%NULL%0,                     Zheng-Li%Shi%NULL%1,                     Zhishui%Zheng%NULL%1,                     Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                     Nak-Jung%Kwon%NULL%2,                     Nak-Jung%Kwon%NULL%0,                     Su-Jin%Choi%NULL%2,                     Su-Jin%Choi%NULL%0,                     Chang Kyung%Kang%NULL%2,                     Chang Kyung%Kang%NULL%0,                     Pyoeng Gyun%Choe%NULL%4,                     Pyoeng Gyun%Choe%NULL%0,                     Jin Yong%Kim%NULL%4,                     Jin Yong%Kim%NULL%0,                     Jiyoung%Yun%NULL%2,                     Jiyoung%Yun%NULL%0,                     Gir-Won%Lee%NULL%2,                     Gir-Won%Lee%NULL%0,                     Moon-Woo%Seong%NULL%2,                     Moon-Woo%Seong%NULL%0,                     Nam Joong%Kim%NULL%2,                     Nam Joong%Kim%NULL%0,                     Jeong-Sun%Seo%NULL%2,                     Jeong-Sun%Seo%NULL%0,                     Myoung-don%Oh%NULL%4,                     Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                     Seunghyun%Jeon%NULL%2,                     Seunghyun%Jeon%NULL%0,                     Hyun-Young%Shin%NULL%2,                     Hyun-Young%Shin%NULL%0,                     Moon Jung%Kim%NULL%2,                     Moon Jung%Kim%NULL%0,                     Yu Min%Seong%NULL%2,                     Yu Min%Seong%NULL%0,                     Wang Jun%Lee%NULL%2,                     Wang Jun%Lee%NULL%0,                     Kang-Won%Choe%NULL%2,                     Kang-Won%Choe%NULL%0,                     Yu Min%Kang%NULL%2,                     Yu Min%Kang%NULL%0,                     Baeckseung%Lee%NULL%2,                     Baeckseung%Lee%NULL%0,                     Sang-Joon%Park%NULL%2,                     Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                     Pyoeng Gyun%Choe%NULL%0,                     Pyoeng Gyun%Choe%NULL%0,                     Yoonju%Oh%NULL%2,                     Yoonju%Oh%NULL%0,                     Kyung Joong%Oh%NULL%2,                     Kyung Joong%Oh%NULL%0,                     Jinsil%Kim%NULL%2,                     Jinsil%Kim%NULL%0,                     So Jeong%Park%NULL%2,                     So Jeong%Park%NULL%0,                     Ji Hye%Park%NULL%2,                     Ji Hye%Park%NULL%0,                     Hye Kyoung%Na%NULL%2,                     Hye Kyoung%Na%NULL%0,                     Myoung-don%Oh%NULL%0,                     Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                      Q.% Lu%null%1,                      M.% Liu%null%1,                      Y.% Wang%null%1,                      A.% Zhang%null%1,                      N.% Jalali%null%1,                      N.% Dean%null%1,                      I.% Longini%null%1,                      M. E.% Halloran%null%1,                      B.% Xu%null%1,                      X.% Zhang%null%1,                      L.% Wang%null%1,                      W.% Liu%null%1,                      L. % Fang%null%1,    Y.%Yang%null%1,    Q.% Lu%null%1,    M.% Liu%null%1,    Y.% Wang%null%2,    A.% Zhang%null%1,    N.% Jalali%null%1,    N.% Dean%null%1,    I.% Longini%null%1,    M. E.% Halloran%null%1,    B.% Xu%null%1,    X.% Zhang%null%1,    L.% Wang%null%1,    W.% Liu%null%1,    L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                     Dingyu%Zhang%NULL%3,                     Wenling%Wang%NULL%2,                     Xingwang%Li%NULL%0,                     Bo%Yang%NULL%0,                     Jingdong%Song%NULL%2,                     Xiang%Zhao%NULL%2,                     Baoying%Huang%NULL%2,                     Weifeng%Shi%NULL%2,                     Roujian%Lu%NULL%2,                     Peihua%Niu%NULL%2,                     Faxian%Zhan%NULL%2,                     Xuejun%Ma%NULL%2,                     Dayan%Wang%NULL%2,                     Wenbo%Xu%NULL%2,                     Guizhen%Wu%NULL%2,                     George F.%Gao%NULL%0,                     Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                     Shuofeng%Yuan%NULL%1,                     Kin-Hang%Kok%NULL%1,                     Kelvin Kai-Wang%To%NULL%1,                     Hin%Chu%NULL%1,                     Jin%Yang%NULL%1,                     Fanfan%Xing%NULL%1,                     Jieling%Liu%NULL%1,                     Cyril Chik-Yan%Yip%NULL%1,                     Rosana Wing-Shan%Poon%NULL%1,                     Hoi-Wah%Tsoi%NULL%1,                     Simon Kam-Fai%Lo%NULL%1,                     Kwok-Hung%Chan%NULL%0,                     Vincent Kwok-Man%Poon%NULL%1,                     Wan-Mui%Chan%NULL%1,                     Jonathan Daniel%Ip%NULL%1,                     Jian-Piao%Cai%NULL%1,                     Vincent Chi-Chung%Cheng%NULL%1,                     Honglin%Chen%NULL%1,                     Christopher Kim-Ming%Hui%NULL%1,                     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                      Dengju%Li%NULL%0,                      Xiong%Wang%NULL%0,                      Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                      Hanxiong%Guan%NULL%1,                      Shuchang%Zhou%NULL%1,                      Yujin%Wang%NULL%1,                      Qian%Li%NULL%1,                      Tingting%Zhu%NULL%1,                      Qiongjie%Hu%qjhu@outlook.com%1,                      Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                      Jenny%Chen%NULL%1,                      Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,                      Yang%Yang%NULL%4,                      Cong%Zhang%NULL%0,                      Fengming%Huang%NULL%1,                      Fuxiang%Wang%NULL%1,                      Jing%Yuan%NULL%1,                      Zhaoqin%Wang%NULL%0,                      Jinxiu%Li%NULL%1,                      Jianming%Li%NULL%1,                      Cheng%Feng%NULL%1,                      Zheng%Zhang%NULL%1,                      Lifei%Wang%NULL%1,                      Ling%Peng%NULL%1,                      Li%Chen%NULL%0,                      Yuhao%Qin%NULL%1,                      Dandan%Zhao%NULL%1,                      Shuguang%Tan%NULL%1,                      Lu%Yin%NULL%2,                      Jun%Xu%NULL%1,                      Congzhao%Zhou%NULL%1,                      Chengyu%Jiang%jiang@pumc.edu.cn%1,                      Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                      Xueyan%Mei%NULL%4,                      Xueyan%Mei%NULL%0,                      Mingqian%Huang%NULL%4,                      Mingqian%Huang%NULL%0,                      Yang%Yang%NULL%0,                      Zahi A.%Fayad%NULL%0,                      Zahi A.%Fayad%NULL%0,                      Ning%Zhang%NULL%5,                      Ning%Zhang%NULL%0,                      Kaiyue%Diao%NULL%2,                      Kaiyue%Diao%NULL%0,                      Bin%Lin%NULL%1,                      Xiqi%Zhu%NULL%2,                      Xiqi%Zhu%NULL%0,                      Kunwei%Li%NULL%2,                      Shaolin%Li%NULL%2,                      Hong%Shan%NULL%0,                      Adam%Jacobi%NULL%3,                      Adam%Jacobi%NULL%0,                      Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                      Ranjit%Sah%ranjitsah@iom.edu.np%0,                      Alfonso J%Rodriguez-Morales%NULL%1,                      Bibek Kumar%Lal%NULL%1,                      Runa%Jha%NULL%1,                      Hemant Chanda%Ojha%NULL%1,                      Bikesh%Shrestha%NULL%1,                      Daniel K W%Chu%NULL%1,                      Leo L M%Poon%NULL%1,                      Anthony%Costello%NULL%1,                      Kouichi%Morita%NULL%1,                      Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%0,                      Xuan%Dong%NULL%0,                      Jieming%Qu%NULL%0,                      Fengyun%Gong%NULL%0,                      Yang%Han%NULL%0,                      Yang%Qiu%NULL%0,                      Jingli%Wang%NULL%0,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%0,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                      Adam%Bernheim%NULL%2,                      Adam%Bernheim%NULL%0,                      Xueyan%Mei%NULL%0,                      Xueyan%Mei%NULL%0,                      Ning%Zhang%NULL%0,                      Ning%Zhang%NULL%0,                      Mingqian%Huang%NULL%0,                      Mingqian%Huang%NULL%0,                      Xianjun%Zeng%NULL%1,                      Jiufa%Cui%NULL%1,                      Wenjian%Xu%NULL%2,                      Wenjian%Xu%NULL%0,                      Yang%Yang%NULL%0,                      Zahi A.%Fayad%NULL%0,                      Zahi A.%Fayad%NULL%0,                      Adam%Jacobi%NULL%0,                      Kunwei%Li%NULL%0,                      Shaolin%Li%NULL%0,                      Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                      Jie%Qin%qinjie@mail.sysu.edu.cn%2,                      Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                      M%Zhao%NULL%1,                      S%Li%NULL%1,                      L%Yang%NULL%1,                      B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                      Huangqi%Zhang%NULL%4,                      Huangqi%Zhang%NULL%0,                      Jicheng%Xie%NULL%4,                      Jicheng%Xie%NULL%0,                      Minjie%Lin%NULL%2,                      Minjie%Lin%NULL%0,                      Lingjun%Ying%NULL%2,                      Lingjun%Ying%NULL%0,                      Peipei%Pang%NULL%4,                      Peipei%Pang%NULL%0,                      Wenbin%Ji%1224190004@qq.com%4,                      Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                      Huangqi%Zhang%NULL%0,                      Huangqi%Zhang%NULL%0,                      Yunyu%Xu%NULL%2,                      Yunyu%Xu%NULL%0,                      Jicheng%Xie%NULL%0,                      Jicheng%Xie%NULL%0,                      Peipei%Pang%NULL%0,                      Peipei%Pang%NULL%0,                      Wenbin%Ji%1224190004@qq.com%0,                      Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                      Domenico%Benvenuto%NULL%1,                      Silvia%Angeletti%s.angeletti@unicampus.it%2,                      Silvia%Angeletti%s.angeletti@unicampus.it%0,                      Massimo%Ciccozzi%NULL%2,                      Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                      M.%Li%NULL%1,                      X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                      Chas%DeBolt%NULL%1,                      Scott%Lindquist%NULL%1,                      Kathy H.%Lofy%NULL%1,                      John%Wiesman%NULL%1,                      Hollianne%Bruce%NULL%0,                      Christopher%Spitters%NULL%0,                      Keith%Ericson%NULL%1,                      Sara%Wilkerson%NULL%1,                      Ahmet%Tural%NULL%1,                      George%Diaz%NULL%1,                      Amanda%Cohn%NULL%2,                      LeAnne%Fox%NULL%1,                      Anita%Patel%NULL%1,                      Susan I.%Gerber%NULL%1,                      Lindsay%Kim%NULL%1,                      Suxiang%Tong%NULL%1,                      Xiaoyan%Lu%NULL%1,                      Steve%Lindstrom%NULL%1,                      Mark A.%Pallansch%NULL%1,                      William C.%Weldon%NULL%1,                      Holly M.%Biggs%NULL%1,                      Timothy M.%Uyeki%NULL%0,                      Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                      Tianzhu%Liu%NULL%2,                      Tianzhu%Liu%NULL%0,                      Lesheng%Huang%NULL%2,                      Lesheng%Huang%NULL%0,                      Hailong%Liu%NULL%2,                      Hailong%Liu%NULL%0,                      Ming%Lei%NULL%1,                      Wangdong%Xu%NULL%2,                      Wangdong%Xu%NULL%0,                      Xiaolu%Hu%NULL%1,                      Jun%Chen%NULL%3,                      Bo%Liu%liubogzcm@163.com%3,                      Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                      Juanjuan%Guo%NULL%0,                      Chen%Wang%NULL%0,                      Fan%Luo%NULL%0,                      Xuechen%Yu%NULL%0,                      Wei%Zhang%NULL%0,                      Jiafu%Li%NULL%0,                      Dongchi%Zhao%NULL%0,                      Dan%Xu%NULL%0,                      Qing%Gong%NULL%0,                      Jing%Liao%NULL%0,                      Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                      Wei%Hou%houwei@whu.edu.cn%0,                      Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                      Junfeng%Li%NULL%1,                      Xun%Li%NULL%0,                      Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                      Xuhua%Guan%NULL%1,                      Peng%Wu%NULL%1,                      Xiaoye%Wang%NULL%1,                      Lei%Zhou%NULL%0,                      Yeqing%Tong%NULL%1,                      Ruiqi%Ren%NULL%1,                      Kathy S.M.%Leung%NULL%1,                      Eric H.Y.%Lau%NULL%1,                      Jessica Y.%Wong%NULL%1,                      Xuesen%Xing%NULL%1,                      Nijuan%Xiang%NULL%0,                      Yang%Wu%NULL%1,                      Chao%Li%NULL%1,                      Qi%Chen%NULL%1,                      Dan%Li%NULL%1,                      Tian%Liu%NULL%1,                      Jing%Zhao%NULL%1,                      Man%Liu%NULL%1,                      Wenxiao%Tu%NULL%1,                      Chuding%Chen%NULL%1,                      Lianmei%Jin%NULL%1,                      Rui%Yang%NULL%1,                      Qi%Wang%NULL%1,                      Suhua%Zhou%NULL%1,                      Rui%Wang%NULL%2,                      Hui%Liu%NULL%0,                      Yinbo%Luo%NULL%1,                      Yuan%Liu%NULL%1,                      Ge%Shao%NULL%1,                      Huan%Li%NULL%1,                      Zhongfa%Tao%NULL%1,                      Yang%Yang%NULL%0,                      Zhiqiang%Deng%NULL%1,                      Boxi%Liu%NULL%1,                      Zhitao%Ma%NULL%1,                      Yanping%Zhang%NULL%1,                      Guoqing%Shi%NULL%1,                      Tommy T.Y.%Lam%NULL%1,                      Joseph T.%Wu%NULL%1,                      George F.%Gao%NULL%3,                      Benjamin J.%Cowling%NULL%2,                      Bo%Yang%NULL%4,                      Bo%Yang%NULL%0,                      Gabriel M.%Leung%NULL%1,                      Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                      Zhenyu%Gong%NULL%2,                      Zhenyu%Gong%NULL%0,                      Zuke%Xiao%NULL%2,                      Zuke%Xiao%NULL%0,                      Jingliang%Xiong%NULL%1,                      Bing%Fan%NULL%2,                      Jiaqi%Liu%NULL%2,                      Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%0,                      Yan%Deng%NULL%0,                      Wei%Liu%NULL%0,                      Mei-Fang%Wang%NULL%0,                      Jing-Ping%Ma%NULL%0,                      Wei%Xiao%NULL%0,                      Ying-Nan%Wang%NULL%0,                      Min-Hua%Zhong%NULL%0,                      Cheng-Hong%Li%NULL%0,                      Guang-Cai%Li%NULL%0,                      Hui-Guo%Liu%NULL%0,                      Xiu-Yuan%Hao%NULL%0,                      Xiu-Yuan%Hao%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                      Xian-zheng%Tan%xianzhengtan@163.com%2,                      Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                      Tianhe%Ye%NULL%0,                      Tianhe%Ye%NULL%0,                      Peng%Sun%NULL%0,                      Peng%Sun%NULL%0,                      Shan%Gui%NULL%0,                      Shan%Gui%NULL%0,                      Bo%Liang%NULL%0,                      Bo%Liang%NULL%0,                      Lingli%Li%NULL%0,                      Lingli%Li%NULL%0,                      Dandan%Zheng%NULL%0,                      Dandan%Zheng%NULL%0,                      Jiazheng%Wang%NULL%0,                      Jiazheng%Wang%NULL%0,                      Richard L.%Hesketh%NULL%0,                      Richard L.%Hesketh%NULL%0,                      Lian%Yang%yanglian@hust.edu.cn%0,                      Lian%Yang%yanglian@hust.edu.cn%0,                      Chuansheng%Zheng%NULL%0,                      Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                      Thuong V.%Nguyen%NULL%1,                      Quang C.%Luong%NULL%1,                      Thinh V.%Nguyen%NULL%1,                      Hieu T.%Nguyen%NULL%1,                      Hung Q.%Le%NULL%2,                      Hung Q.%Le%NULL%0,                      Thuc T.%Nguyen%NULL%1,                      Thang M.%Cao%NULL%2,                      Thang M.%Cao%NULL%0,                      Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                      Krit%Pongpirul%NULL%2,                      Krit%Pongpirul%NULL%0,                      Anuttra C.%Ratnarathon%NULL%2,                      Anuttra C.%Ratnarathon%NULL%0,                      Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                      Ye-Ming%Wang%NULL%1,                      Zhi-Qiang%Wu%NULL%1,                      Zi-Chun%Xiang%NULL%1,                      Li%Guo%NULL%0,                      Teng%Xu%NULL%1,                      Yong-Zhong%Jiang%NULL%1,                      Yan%Xiong%NULL%0,                      Yong-Jun%Li%NULL%1,                      Xing-Wang%Li%NULL%1,                      Hui%Li%NULL%0,                      Guo-Hui%Fan%NULL%1,                      Xiao-Ying%Gu%NULL%1,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Jiu-Yang%Xu%NULL%1,                      Fan%Yang%NULL%1,                      Xin-Ming%Wang%NULL%1,                      Chao%Wu%NULL%1,                      Lan%Chen%NULL%1,                      Yi-Wei%Liu%NULL%1,                      Bo%Liu%NULL%0,                      Jian%Yang%NULL%1,                      Xiao-Rui%Wang%NULL%1,                      Jie%Dong%NULL%1,                      Li%Li%NULL%0,                      Chao-Lin%Huang%NULL%1,                      Jian-Ping%Zhao%NULL%1,                      Yi%Hu%NULL%0,                      Zhen-Shun%Cheng%NULL%1,                      Lin-Lin%Liu%NULL%1,                      Zhao-Hui%Qian%NULL%1,                      Chuan%Qin%NULL%1,                      Qi%Jin%NULL%0,                      Bin%Cao%NULL%0,                      Jian-Wei%Wang%NULL%1,                      Xiu-Yuan%Hao%NULL%0,                      Xiu-Yuan%Hao%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                      Mirjam%Schunk%NULL%1,                      Peter%Sothmann%NULL%1,                      Gisela%Bretzel%NULL%1,                      Guenter%Froeschl%NULL%1,                      Claudia%Wallrauch%NULL%1,                      Thorbjörn%Zimmer%NULL%1,                      Verena%Thiel%NULL%1,                      Christian%Janke%NULL%1,                      Wolfgang%Guggemos%NULL%2,                      Wolfgang%Guggemos%NULL%0,                      Michael%Seilmaier%NULL%1,                      Christian%Drosten%NULL%2,                      Christian%Drosten%NULL%0,                      Patrick%Vollmar%NULL%2,                      Patrick%Vollmar%NULL%0,                      Katrin%Zwirglmaier%NULL%1,                      Sabine%Zange%NULL%1,                      Roman%Wölfel%NULL%1,                      Michael%Hoelscher%NULL%2,                      Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                      Xiaoyu%Han%NULL%2,                      Xiaoyu%Han%NULL%0,                      Chuansheng%Zheng%hqzcsxh@sina.com%0,                      Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                      Lynfa%Stroud%NULL%1,                      Graham Edward%Cleghorn%NULL%1,                      Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                      Nannan%Shi%NULL%2,                      Nannan%Shi%NULL%0,                      Fei%Shan%NULL%1,                      Zhiyong%Zhang%NULL%1,                      Jie%Shen%NULL%1,                      Hongzhou%Lu%NULL%0,                      Yun%Ling%NULL%0,                      Yebin%Jiang%NULL%2,                      Yebin%Jiang%NULL%0,                      Yuxin%Shi%shiyuxin@shphc.org.cn%0,                      Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                      Jianming%Tang%15900792812@163.com%1,                      Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                      Zheng%Zhong%NULL%2,                      Zheng%Zhong%NULL%0,                      Wei%Zhao%NULL%2,                      Wei%Zhao%NULL%0,                      Chao%Zheng%NULL%2,                      Chao%Zheng%NULL%0,                      Fei%Wang%NULL%2,                      Fei%Wang%NULL%0,                      Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                      Chengcheng%Yu%1515185140@qq.com%0,                      Lieguang%Zhang%zhlieguang@126.com%0,                      Liangping%Luo%tluolp@jnu.edu.cn%0,                      Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                      Xiao-Xin%Wu%NULL%0,                      Xian-Gao%Jiang%NULL%0,                      Kai-Jin%Xu%NULL%0,                      Ling-Jun%Ying%NULL%0,                      Chun-Lian%Ma%NULL%0,                      Shi-Bo%Li%NULL%0,                      Hua-Ying%Wang%NULL%0,                      Sheng%Zhang%NULL%0,                      Hai-Nv%Gao%NULL%0,                      Ji-Fang%Sheng%NULL%0,                      Hong-Liu%Cai%NULL%0,                      Yun-Qing%Qiu%NULL%0,                      Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%0,                    Dong%Xiang%coreGivesNoEmail%0,                    Gao%Ya-dong%coreGivesNoEmail%0,                    Yan%You-qin%coreGivesNoEmail%0,                    Yang%Yi-bin%coreGivesNoEmail%0,                    Yuan%Ya-dong%coreGivesNoEmail%0,                    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                      Xiaochen%Li%NULL%2,                      Xiaochen%Li%NULL%0,                      Wei%Zhang%NULL%0,                      Zheng-Li%Shi%NULL%1,                      Zhishui%Zheng%NULL%1,                      Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                      Nak-Jung%Kwon%NULL%2,                      Nak-Jung%Kwon%NULL%0,                      Su-Jin%Choi%NULL%2,                      Su-Jin%Choi%NULL%0,                      Chang Kyung%Kang%NULL%2,                      Chang Kyung%Kang%NULL%0,                      Pyoeng Gyun%Choe%NULL%4,                      Pyoeng Gyun%Choe%NULL%0,                      Jin Yong%Kim%NULL%4,                      Jin Yong%Kim%NULL%0,                      Jiyoung%Yun%NULL%2,                      Jiyoung%Yun%NULL%0,                      Gir-Won%Lee%NULL%2,                      Gir-Won%Lee%NULL%0,                      Moon-Woo%Seong%NULL%2,                      Moon-Woo%Seong%NULL%0,                      Nam Joong%Kim%NULL%2,                      Nam Joong%Kim%NULL%0,                      Jeong-Sun%Seo%NULL%2,                      Jeong-Sun%Seo%NULL%0,                      Myoung-don%Oh%NULL%4,                      Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                      Seunghyun%Jeon%NULL%2,                      Seunghyun%Jeon%NULL%0,                      Hyun-Young%Shin%NULL%2,                      Hyun-Young%Shin%NULL%0,                      Moon Jung%Kim%NULL%2,                      Moon Jung%Kim%NULL%0,                      Yu Min%Seong%NULL%2,                      Yu Min%Seong%NULL%0,                      Wang Jun%Lee%NULL%2,                      Wang Jun%Lee%NULL%0,                      Kang-Won%Choe%NULL%2,                      Kang-Won%Choe%NULL%0,                      Yu Min%Kang%NULL%2,                      Yu Min%Kang%NULL%0,                      Baeckseung%Lee%NULL%2,                      Baeckseung%Lee%NULL%0,                      Sang-Joon%Park%NULL%2,                      Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                      Pyoeng Gyun%Choe%NULL%0,                      Pyoeng Gyun%Choe%NULL%0,                      Yoonju%Oh%NULL%2,                      Yoonju%Oh%NULL%0,                      Kyung Joong%Oh%NULL%2,                      Kyung Joong%Oh%NULL%0,                      Jinsil%Kim%NULL%2,                      Jinsil%Kim%NULL%0,                      So Jeong%Park%NULL%2,                      So Jeong%Park%NULL%0,                      Ji Hye%Park%NULL%2,                      Ji Hye%Park%NULL%0,                      Hye Kyoung%Na%NULL%2,                      Hye Kyoung%Na%NULL%0,                      Myoung-don%Oh%NULL%0,                      Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                       Q.% Lu%null%1,                       M.% Liu%null%1,                       Y.% Wang%null%1,                       A.% Zhang%null%1,                       N.% Jalali%null%1,                       N.% Dean%null%1,                       I.% Longini%null%1,                       M. E.% Halloran%null%1,                       B.% Xu%null%1,                       X.% Zhang%null%1,                       L.% Wang%null%1,                       W.% Liu%null%1,                       L. % Fang%null%1,     Y.%Yang%null%1,     Q.% Lu%null%1,     M.% Liu%null%1,     Y.% Wang%null%2,     A.% Zhang%null%1,     N.% Jalali%null%1,     N.% Dean%null%1,     I.% Longini%null%1,     M. E.% Halloran%null%1,     B.% Xu%null%1,     X.% Zhang%null%1,     L.% Wang%null%1,     W.% Liu%null%1,     L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                      Dingyu%Zhang%NULL%3,                      Wenling%Wang%NULL%2,                      Xingwang%Li%NULL%0,                      Bo%Yang%NULL%0,                      Jingdong%Song%NULL%2,                      Xiang%Zhao%NULL%2,                      Baoying%Huang%NULL%2,                      Weifeng%Shi%NULL%2,                      Roujian%Lu%NULL%2,                      Peihua%Niu%NULL%2,                      Faxian%Zhan%NULL%2,                      Xuejun%Ma%NULL%2,                      Dayan%Wang%NULL%2,                      Wenbo%Xu%NULL%2,                      Guizhen%Wu%NULL%2,                      George F.%Gao%NULL%0,                      Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                      Shuofeng%Yuan%NULL%1,                      Kin-Hang%Kok%NULL%1,                      Kelvin Kai-Wang%To%NULL%1,                      Hin%Chu%NULL%1,                      Jin%Yang%NULL%1,                      Fanfan%Xing%NULL%1,                      Jieling%Liu%NULL%1,                      Cyril Chik-Yan%Yip%NULL%1,                      Rosana Wing-Shan%Poon%NULL%1,                      Hoi-Wah%Tsoi%NULL%1,                      Simon Kam-Fai%Lo%NULL%1,                      Kwok-Hung%Chan%NULL%0,                      Vincent Kwok-Man%Poon%NULL%1,                      Wan-Mui%Chan%NULL%1,                      Jonathan Daniel%Ip%NULL%1,                      Jian-Piao%Cai%NULL%1,                      Vincent Chi-Chung%Cheng%NULL%1,                      Honglin%Chen%NULL%1,                      Christopher Kim-Ming%Hui%NULL%1,                      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                       Dengju%Li%NULL%0,                       Xiong%Wang%NULL%0,                       Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                       Hanxiong%Guan%NULL%1,                       Shuchang%Zhou%NULL%1,                       Yujin%Wang%NULL%1,                       Qian%Li%NULL%1,                       Tingting%Zhu%NULL%1,                       Qiongjie%Hu%qjhu@outlook.com%1,                       Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                       Jenny%Chen%NULL%1,                       Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,                       Yang%Yang%NULL%4,                       Cong%Zhang%NULL%0,                       Fengming%Huang%NULL%1,                       Fuxiang%Wang%NULL%1,                       Jing%Yuan%NULL%1,                       Zhaoqin%Wang%NULL%0,                       Jinxiu%Li%NULL%1,                       Jianming%Li%NULL%1,                       Cheng%Feng%NULL%1,                       Zheng%Zhang%NULL%1,                       Lifei%Wang%NULL%1,                       Ling%Peng%NULL%1,                       Li%Chen%NULL%0,                       Yuhao%Qin%NULL%1,                       Dandan%Zhao%NULL%1,                       Shuguang%Tan%NULL%1,                       Lu%Yin%NULL%2,                       Jun%Xu%NULL%1,                       Congzhao%Zhou%NULL%1,                       Chengyu%Jiang%jiang@pumc.edu.cn%1,                       Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                       Xueyan%Mei%NULL%4,                       Xueyan%Mei%NULL%0,                       Mingqian%Huang%NULL%4,                       Mingqian%Huang%NULL%0,                       Yang%Yang%NULL%0,                       Zahi A.%Fayad%NULL%0,                       Zahi A.%Fayad%NULL%0,                       Ning%Zhang%NULL%5,                       Ning%Zhang%NULL%0,                       Kaiyue%Diao%NULL%2,                       Kaiyue%Diao%NULL%0,                       Bin%Lin%NULL%1,                       Xiqi%Zhu%NULL%2,                       Xiqi%Zhu%NULL%0,                       Kunwei%Li%NULL%2,                       Shaolin%Li%NULL%2,                       Hong%Shan%NULL%0,                       Adam%Jacobi%NULL%3,                       Adam%Jacobi%NULL%0,                       Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                       Ranjit%Sah%ranjitsah@iom.edu.np%0,                       Alfonso J%Rodriguez-Morales%NULL%1,                       Bibek Kumar%Lal%NULL%1,                       Runa%Jha%NULL%1,                       Hemant Chanda%Ojha%NULL%1,                       Bikesh%Shrestha%NULL%1,                       Daniel K W%Chu%NULL%1,                       Leo L M%Poon%NULL%1,                       Anthony%Costello%NULL%1,                       Kouichi%Morita%NULL%1,                       Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%0,                       Xuan%Dong%NULL%0,                       Jieming%Qu%NULL%0,                       Fengyun%Gong%NULL%0,                       Yang%Han%NULL%0,                       Yang%Qiu%NULL%0,                       Jingli%Wang%NULL%0,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%0,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                       Adam%Bernheim%NULL%2,                       Adam%Bernheim%NULL%0,                       Xueyan%Mei%NULL%0,                       Xueyan%Mei%NULL%0,                       Ning%Zhang%NULL%0,                       Ning%Zhang%NULL%0,                       Mingqian%Huang%NULL%0,                       Mingqian%Huang%NULL%0,                       Xianjun%Zeng%NULL%1,                       Jiufa%Cui%NULL%1,                       Wenjian%Xu%NULL%2,                       Wenjian%Xu%NULL%0,                       Yang%Yang%NULL%0,                       Zahi A.%Fayad%NULL%0,                       Zahi A.%Fayad%NULL%0,                       Adam%Jacobi%NULL%0,                       Kunwei%Li%NULL%0,                       Shaolin%Li%NULL%0,                       Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                       Jie%Qin%qinjie@mail.sysu.edu.cn%2,                       Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                       M%Zhao%NULL%1,                       S%Li%NULL%1,                       L%Yang%NULL%1,                       B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                       Huangqi%Zhang%NULL%4,                       Huangqi%Zhang%NULL%0,                       Jicheng%Xie%NULL%4,                       Jicheng%Xie%NULL%0,                       Minjie%Lin%NULL%2,                       Minjie%Lin%NULL%0,                       Lingjun%Ying%NULL%2,                       Lingjun%Ying%NULL%0,                       Peipei%Pang%NULL%4,                       Peipei%Pang%NULL%0,                       Wenbin%Ji%1224190004@qq.com%4,                       Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                       Huangqi%Zhang%NULL%0,                       Huangqi%Zhang%NULL%0,                       Yunyu%Xu%NULL%2,                       Yunyu%Xu%NULL%0,                       Jicheng%Xie%NULL%0,                       Jicheng%Xie%NULL%0,                       Peipei%Pang%NULL%0,                       Peipei%Pang%NULL%0,                       Wenbin%Ji%1224190004@qq.com%0,                       Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                       Domenico%Benvenuto%NULL%1,                       Silvia%Angeletti%s.angeletti@unicampus.it%2,                       Silvia%Angeletti%s.angeletti@unicampus.it%0,                       Massimo%Ciccozzi%NULL%2,                       Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                       M.%Li%NULL%1,                       X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                       Chas%DeBolt%NULL%1,                       Scott%Lindquist%NULL%1,                       Kathy H.%Lofy%NULL%1,                       John%Wiesman%NULL%1,                       Hollianne%Bruce%NULL%0,                       Christopher%Spitters%NULL%0,                       Keith%Ericson%NULL%1,                       Sara%Wilkerson%NULL%1,                       Ahmet%Tural%NULL%1,                       George%Diaz%NULL%1,                       Amanda%Cohn%NULL%2,                       LeAnne%Fox%NULL%1,                       Anita%Patel%NULL%1,                       Susan I.%Gerber%NULL%1,                       Lindsay%Kim%NULL%1,                       Suxiang%Tong%NULL%1,                       Xiaoyan%Lu%NULL%1,                       Steve%Lindstrom%NULL%1,                       Mark A.%Pallansch%NULL%1,                       William C.%Weldon%NULL%1,                       Holly M.%Biggs%NULL%1,                       Timothy M.%Uyeki%NULL%0,                       Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                       Tianzhu%Liu%NULL%2,                       Tianzhu%Liu%NULL%0,                       Lesheng%Huang%NULL%2,                       Lesheng%Huang%NULL%0,                       Hailong%Liu%NULL%2,                       Hailong%Liu%NULL%0,                       Ming%Lei%NULL%1,                       Wangdong%Xu%NULL%2,                       Wangdong%Xu%NULL%0,                       Xiaolu%Hu%NULL%1,                       Jun%Chen%NULL%3,                       Bo%Liu%liubogzcm@163.com%3,                       Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                       Juanjuan%Guo%NULL%0,                       Chen%Wang%NULL%0,                       Fan%Luo%NULL%0,                       Xuechen%Yu%NULL%0,                       Wei%Zhang%NULL%0,                       Jiafu%Li%NULL%0,                       Dongchi%Zhao%NULL%0,                       Dan%Xu%NULL%0,                       Qing%Gong%NULL%0,                       Jing%Liao%NULL%0,                       Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                       Wei%Hou%houwei@whu.edu.cn%0,                       Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                       Junfeng%Li%NULL%1,                       Xun%Li%NULL%0,                       Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                       Xuhua%Guan%NULL%1,                       Peng%Wu%NULL%1,                       Xiaoye%Wang%NULL%1,                       Lei%Zhou%NULL%0,                       Yeqing%Tong%NULL%1,                       Ruiqi%Ren%NULL%1,                       Kathy S.M.%Leung%NULL%1,                       Eric H.Y.%Lau%NULL%1,                       Jessica Y.%Wong%NULL%1,                       Xuesen%Xing%NULL%1,                       Nijuan%Xiang%NULL%0,                       Yang%Wu%NULL%1,                       Chao%Li%NULL%1,                       Qi%Chen%NULL%1,                       Dan%Li%NULL%1,                       Tian%Liu%NULL%1,                       Jing%Zhao%NULL%1,                       Man%Liu%NULL%1,                       Wenxiao%Tu%NULL%1,                       Chuding%Chen%NULL%1,                       Lianmei%Jin%NULL%1,                       Rui%Yang%NULL%1,                       Qi%Wang%NULL%1,                       Suhua%Zhou%NULL%1,                       Rui%Wang%NULL%2,                       Hui%Liu%NULL%0,                       Yinbo%Luo%NULL%1,                       Yuan%Liu%NULL%1,                       Ge%Shao%NULL%1,                       Huan%Li%NULL%1,                       Zhongfa%Tao%NULL%1,                       Yang%Yang%NULL%0,                       Zhiqiang%Deng%NULL%1,                       Boxi%Liu%NULL%1,                       Zhitao%Ma%NULL%1,                       Yanping%Zhang%NULL%1,                       Guoqing%Shi%NULL%1,                       Tommy T.Y.%Lam%NULL%1,                       Joseph T.%Wu%NULL%1,                       George F.%Gao%NULL%3,                       Benjamin J.%Cowling%NULL%2,                       Bo%Yang%NULL%4,                       Bo%Yang%NULL%0,                       Gabriel M.%Leung%NULL%1,                       Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                       Zhenyu%Gong%NULL%2,                       Zhenyu%Gong%NULL%0,                       Zuke%Xiao%NULL%2,                       Zuke%Xiao%NULL%0,                       Jingliang%Xiong%NULL%1,                       Bing%Fan%NULL%2,                       Jiaqi%Liu%NULL%2,                       Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%0,                       Yan%Deng%NULL%0,                       Wei%Liu%NULL%0,                       Mei-Fang%Wang%NULL%0,                       Jing-Ping%Ma%NULL%0,                       Wei%Xiao%NULL%0,                       Ying-Nan%Wang%NULL%0,                       Min-Hua%Zhong%NULL%0,                       Cheng-Hong%Li%NULL%0,                       Guang-Cai%Li%NULL%0,                       Hui-Guo%Liu%NULL%0,                       Xiu-Yuan%Hao%NULL%0,                       Xiu-Yuan%Hao%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                       Xian-zheng%Tan%xianzhengtan@163.com%2,                       Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                       Tianhe%Ye%NULL%0,                       Tianhe%Ye%NULL%0,                       Peng%Sun%NULL%0,                       Peng%Sun%NULL%0,                       Shan%Gui%NULL%0,                       Shan%Gui%NULL%0,                       Bo%Liang%NULL%0,                       Bo%Liang%NULL%0,                       Lingli%Li%NULL%0,                       Lingli%Li%NULL%0,                       Dandan%Zheng%NULL%0,                       Dandan%Zheng%NULL%0,                       Jiazheng%Wang%NULL%0,                       Jiazheng%Wang%NULL%0,                       Richard L.%Hesketh%NULL%0,                       Richard L.%Hesketh%NULL%0,                       Lian%Yang%yanglian@hust.edu.cn%0,                       Lian%Yang%yanglian@hust.edu.cn%0,                       Chuansheng%Zheng%NULL%0,                       Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                       Thuong V.%Nguyen%NULL%1,                       Quang C.%Luong%NULL%1,                       Thinh V.%Nguyen%NULL%1,                       Hieu T.%Nguyen%NULL%1,                       Hung Q.%Le%NULL%2,                       Hung Q.%Le%NULL%0,                       Thuc T.%Nguyen%NULL%1,                       Thang M.%Cao%NULL%2,                       Thang M.%Cao%NULL%0,                       Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                       Krit%Pongpirul%NULL%2,                       Krit%Pongpirul%NULL%0,                       Anuttra C.%Ratnarathon%NULL%2,                       Anuttra C.%Ratnarathon%NULL%0,                       Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                       Ye-Ming%Wang%NULL%1,                       Zhi-Qiang%Wu%NULL%1,                       Zi-Chun%Xiang%NULL%1,                       Li%Guo%NULL%0,                       Teng%Xu%NULL%1,                       Yong-Zhong%Jiang%NULL%1,                       Yan%Xiong%NULL%0,                       Yong-Jun%Li%NULL%1,                       Xing-Wang%Li%NULL%1,                       Hui%Li%NULL%0,                       Guo-Hui%Fan%NULL%1,                       Xiao-Ying%Gu%NULL%1,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Jiu-Yang%Xu%NULL%1,                       Fan%Yang%NULL%1,                       Xin-Ming%Wang%NULL%1,                       Chao%Wu%NULL%1,                       Lan%Chen%NULL%1,                       Yi-Wei%Liu%NULL%1,                       Bo%Liu%NULL%0,                       Jian%Yang%NULL%1,                       Xiao-Rui%Wang%NULL%1,                       Jie%Dong%NULL%1,                       Li%Li%NULL%0,                       Chao-Lin%Huang%NULL%1,                       Jian-Ping%Zhao%NULL%1,                       Yi%Hu%NULL%0,                       Zhen-Shun%Cheng%NULL%1,                       Lin-Lin%Liu%NULL%1,                       Zhao-Hui%Qian%NULL%1,                       Chuan%Qin%NULL%1,                       Qi%Jin%NULL%0,                       Bin%Cao%NULL%0,                       Jian-Wei%Wang%NULL%1,                       Xiu-Yuan%Hao%NULL%0,                       Xiu-Yuan%Hao%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                       Mirjam%Schunk%NULL%1,                       Peter%Sothmann%NULL%1,                       Gisela%Bretzel%NULL%1,                       Guenter%Froeschl%NULL%1,                       Claudia%Wallrauch%NULL%1,                       Thorbjörn%Zimmer%NULL%1,                       Verena%Thiel%NULL%1,                       Christian%Janke%NULL%1,                       Wolfgang%Guggemos%NULL%2,                       Wolfgang%Guggemos%NULL%0,                       Michael%Seilmaier%NULL%1,                       Christian%Drosten%NULL%2,                       Christian%Drosten%NULL%0,                       Patrick%Vollmar%NULL%2,                       Patrick%Vollmar%NULL%0,                       Katrin%Zwirglmaier%NULL%1,                       Sabine%Zange%NULL%1,                       Roman%Wölfel%NULL%1,                       Michael%Hoelscher%NULL%2,                       Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                       Xiaoyu%Han%NULL%2,                       Xiaoyu%Han%NULL%0,                       Chuansheng%Zheng%hqzcsxh@sina.com%0,                       Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                       Lynfa%Stroud%NULL%1,                       Graham Edward%Cleghorn%NULL%1,                       Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                       Nannan%Shi%NULL%2,                       Nannan%Shi%NULL%0,                       Fei%Shan%NULL%1,                       Zhiyong%Zhang%NULL%1,                       Jie%Shen%NULL%1,                       Hongzhou%Lu%NULL%0,                       Yun%Ling%NULL%0,                       Yebin%Jiang%NULL%2,                       Yebin%Jiang%NULL%0,                       Yuxin%Shi%shiyuxin@shphc.org.cn%0,                       Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                       Jianming%Tang%15900792812@163.com%1,                       Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                       Zheng%Zhong%NULL%2,                       Zheng%Zhong%NULL%0,                       Wei%Zhao%NULL%2,                       Wei%Zhao%NULL%0,                       Chao%Zheng%NULL%2,                       Chao%Zheng%NULL%0,                       Fei%Wang%NULL%2,                       Fei%Wang%NULL%0,                       Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                       Chengcheng%Yu%1515185140@qq.com%0,                       Lieguang%Zhang%zhlieguang@126.com%0,                       Liangping%Luo%tluolp@jnu.edu.cn%0,                       Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                       Xiao-Xin%Wu%NULL%0,                       Xian-Gao%Jiang%NULL%0,                       Kai-Jin%Xu%NULL%0,                       Ling-Jun%Ying%NULL%0,                       Chun-Lian%Ma%NULL%0,                       Shi-Bo%Li%NULL%0,                       Hua-Ying%Wang%NULL%0,                       Sheng%Zhang%NULL%0,                       Hai-Nv%Gao%NULL%0,                       Ji-Fang%Sheng%NULL%0,                       Hong-Liu%Cai%NULL%0,                       Yun-Qing%Qiu%NULL%0,                       Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%0,                     Dong%Xiang%coreGivesNoEmail%0,                     Gao%Ya-dong%coreGivesNoEmail%0,                     Yan%You-qin%coreGivesNoEmail%0,                     Yang%Yi-bin%coreGivesNoEmail%0,                     Yuan%Ya-dong%coreGivesNoEmail%0,                     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                       Xiaochen%Li%NULL%2,                       Xiaochen%Li%NULL%0,                       Wei%Zhang%NULL%0,                       Zheng-Li%Shi%NULL%1,                       Zhishui%Zheng%NULL%1,                       Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                       Nak-Jung%Kwon%NULL%2,                       Nak-Jung%Kwon%NULL%0,                       Su-Jin%Choi%NULL%2,                       Su-Jin%Choi%NULL%0,                       Chang Kyung%Kang%NULL%2,                       Chang Kyung%Kang%NULL%0,                       Pyoeng Gyun%Choe%NULL%4,                       Pyoeng Gyun%Choe%NULL%0,                       Jin Yong%Kim%NULL%4,                       Jin Yong%Kim%NULL%0,                       Jiyoung%Yun%NULL%2,                       Jiyoung%Yun%NULL%0,                       Gir-Won%Lee%NULL%2,                       Gir-Won%Lee%NULL%0,                       Moon-Woo%Seong%NULL%2,                       Moon-Woo%Seong%NULL%0,                       Nam Joong%Kim%NULL%2,                       Nam Joong%Kim%NULL%0,                       Jeong-Sun%Seo%NULL%2,                       Jeong-Sun%Seo%NULL%0,                       Myoung-don%Oh%NULL%4,                       Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                       Seunghyun%Jeon%NULL%2,                       Seunghyun%Jeon%NULL%0,                       Hyun-Young%Shin%NULL%2,                       Hyun-Young%Shin%NULL%0,                       Moon Jung%Kim%NULL%2,                       Moon Jung%Kim%NULL%0,                       Yu Min%Seong%NULL%2,                       Yu Min%Seong%NULL%0,                       Wang Jun%Lee%NULL%2,                       Wang Jun%Lee%NULL%0,                       Kang-Won%Choe%NULL%2,                       Kang-Won%Choe%NULL%0,                       Yu Min%Kang%NULL%2,                       Yu Min%Kang%NULL%0,                       Baeckseung%Lee%NULL%2,                       Baeckseung%Lee%NULL%0,                       Sang-Joon%Park%NULL%2,                       Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                       Pyoeng Gyun%Choe%NULL%0,                       Pyoeng Gyun%Choe%NULL%0,                       Yoonju%Oh%NULL%2,                       Yoonju%Oh%NULL%0,                       Kyung Joong%Oh%NULL%2,                       Kyung Joong%Oh%NULL%0,                       Jinsil%Kim%NULL%2,                       Jinsil%Kim%NULL%0,                       So Jeong%Park%NULL%2,                       So Jeong%Park%NULL%0,                       Ji Hye%Park%NULL%2,                       Ji Hye%Park%NULL%0,                       Hye Kyoung%Na%NULL%2,                       Hye Kyoung%Na%NULL%0,                       Myoung-don%Oh%NULL%0,                       Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                        Q.% Lu%null%1,                        M.% Liu%null%1,                        Y.% Wang%null%1,                        A.% Zhang%null%1,                        N.% Jalali%null%1,                        N.% Dean%null%1,                        I.% Longini%null%1,                        M. E.% Halloran%null%1,                        B.% Xu%null%1,                        X.% Zhang%null%1,                        L.% Wang%null%1,                        W.% Liu%null%1,                        L. % Fang%null%1,      Y.%Yang%null%1,      Q.% Lu%null%1,      M.% Liu%null%1,      Y.% Wang%null%2,      A.% Zhang%null%1,      N.% Jalali%null%1,      N.% Dean%null%1,      I.% Longini%null%1,      M. E.% Halloran%null%1,      B.% Xu%null%1,      X.% Zhang%null%1,      L.% Wang%null%1,      W.% Liu%null%1,      L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                       Dingyu%Zhang%NULL%3,                       Wenling%Wang%NULL%2,                       Xingwang%Li%NULL%0,                       Bo%Yang%NULL%0,                       Jingdong%Song%NULL%2,                       Xiang%Zhao%NULL%2,                       Baoying%Huang%NULL%2,                       Weifeng%Shi%NULL%2,                       Roujian%Lu%NULL%2,                       Peihua%Niu%NULL%2,                       Faxian%Zhan%NULL%2,                       Xuejun%Ma%NULL%2,                       Dayan%Wang%NULL%2,                       Wenbo%Xu%NULL%2,                       Guizhen%Wu%NULL%2,                       George F.%Gao%NULL%0,                       Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                       Shuofeng%Yuan%NULL%1,                       Kin-Hang%Kok%NULL%1,                       Kelvin Kai-Wang%To%NULL%1,                       Hin%Chu%NULL%1,                       Jin%Yang%NULL%1,                       Fanfan%Xing%NULL%1,                       Jieling%Liu%NULL%1,                       Cyril Chik-Yan%Yip%NULL%1,                       Rosana Wing-Shan%Poon%NULL%1,                       Hoi-Wah%Tsoi%NULL%1,                       Simon Kam-Fai%Lo%NULL%1,                       Kwok-Hung%Chan%NULL%0,                       Vincent Kwok-Man%Poon%NULL%1,                       Wan-Mui%Chan%NULL%1,                       Jonathan Daniel%Ip%NULL%1,                       Jian-Piao%Cai%NULL%1,                       Vincent Chi-Chung%Cheng%NULL%1,                       Honglin%Chen%NULL%1,                       Christopher Kim-Ming%Hui%NULL%1,                       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                        Dengju%Li%NULL%0,                        Xiong%Wang%NULL%0,                        Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                        Hanxiong%Guan%NULL%1,                        Shuchang%Zhou%NULL%1,                        Yujin%Wang%NULL%1,                        Qian%Li%NULL%1,                        Tingting%Zhu%NULL%1,                        Qiongjie%Hu%qjhu@outlook.com%1,                        Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                        Jenny%Chen%NULL%1,                        Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%4,                        Yang%Yang%NULL%4,                        Cong%Zhang%NULL%0,                        Fengming%Huang%NULL%1,                        Fuxiang%Wang%NULL%1,                        Jing%Yuan%NULL%1,                        Zhaoqin%Wang%NULL%0,                        Jinxiu%Li%NULL%1,                        Jianming%Li%NULL%1,                        Cheng%Feng%NULL%1,                        Zheng%Zhang%NULL%1,                        Lifei%Wang%NULL%1,                        Ling%Peng%NULL%1,                        Li%Chen%NULL%0,                        Yuhao%Qin%NULL%1,                        Dandan%Zhao%NULL%1,                        Shuguang%Tan%NULL%1,                        Lu%Yin%NULL%2,                        Jun%Xu%NULL%1,                        Congzhao%Zhou%NULL%1,                        Chengyu%Jiang%jiang@pumc.edu.cn%1,                        Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                        Xueyan%Mei%NULL%4,                        Xueyan%Mei%NULL%0,                        Mingqian%Huang%NULL%4,                        Mingqian%Huang%NULL%0,                        Yang%Yang%NULL%0,                        Zahi A.%Fayad%NULL%0,                        Zahi A.%Fayad%NULL%0,                        Ning%Zhang%NULL%5,                        Ning%Zhang%NULL%0,                        Kaiyue%Diao%NULL%2,                        Kaiyue%Diao%NULL%0,                        Bin%Lin%NULL%1,                        Xiqi%Zhu%NULL%2,                        Xiqi%Zhu%NULL%0,                        Kunwei%Li%NULL%2,                        Shaolin%Li%NULL%2,                        Hong%Shan%NULL%0,                        Adam%Jacobi%NULL%3,                        Adam%Jacobi%NULL%0,                        Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                        Ranjit%Sah%ranjitsah@iom.edu.np%0,                        Alfonso J%Rodriguez-Morales%NULL%1,                        Bibek Kumar%Lal%NULL%1,                        Runa%Jha%NULL%1,                        Hemant Chanda%Ojha%NULL%1,                        Bikesh%Shrestha%NULL%1,                        Daniel K W%Chu%NULL%1,                        Leo L M%Poon%NULL%1,                        Anthony%Costello%NULL%1,                        Kouichi%Morita%NULL%1,                        Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%0,                        Xuan%Dong%NULL%0,                        Jieming%Qu%NULL%0,                        Fengyun%Gong%NULL%0,                        Yang%Han%NULL%0,                        Yang%Qiu%NULL%0,                        Jingli%Wang%NULL%0,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%0,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                        Adam%Bernheim%NULL%2,                        Adam%Bernheim%NULL%0,                        Xueyan%Mei%NULL%0,                        Xueyan%Mei%NULL%0,                        Ning%Zhang%NULL%0,                        Ning%Zhang%NULL%0,                        Mingqian%Huang%NULL%0,                        Mingqian%Huang%NULL%0,                        Xianjun%Zeng%NULL%1,                        Jiufa%Cui%NULL%1,                        Wenjian%Xu%NULL%2,                        Wenjian%Xu%NULL%0,                        Yang%Yang%NULL%0,                        Zahi A.%Fayad%NULL%0,                        Zahi A.%Fayad%NULL%0,                        Adam%Jacobi%NULL%0,                        Kunwei%Li%NULL%0,                        Shaolin%Li%NULL%0,                        Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                        Jie%Qin%qinjie@mail.sysu.edu.cn%2,                        Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                        M%Zhao%NULL%1,                        S%Li%NULL%1,                        L%Yang%NULL%1,                        B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                        Huangqi%Zhang%NULL%4,                        Huangqi%Zhang%NULL%0,                        Jicheng%Xie%NULL%4,                        Jicheng%Xie%NULL%0,                        Minjie%Lin%NULL%2,                        Minjie%Lin%NULL%0,                        Lingjun%Ying%NULL%2,                        Lingjun%Ying%NULL%0,                        Peipei%Pang%NULL%4,                        Peipei%Pang%NULL%0,                        Wenbin%Ji%1224190004@qq.com%4,                        Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                        Huangqi%Zhang%NULL%0,                        Huangqi%Zhang%NULL%0,                        Yunyu%Xu%NULL%2,                        Yunyu%Xu%NULL%0,                        Jicheng%Xie%NULL%0,                        Jicheng%Xie%NULL%0,                        Peipei%Pang%NULL%0,                        Peipei%Pang%NULL%0,                        Wenbin%Ji%1224190004@qq.com%0,                        Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                        Domenico%Benvenuto%NULL%1,                        Silvia%Angeletti%s.angeletti@unicampus.it%2,                        Silvia%Angeletti%s.angeletti@unicampus.it%0,                        Massimo%Ciccozzi%NULL%2,                        Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                        M.%Li%NULL%1,                        X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                        Chas%DeBolt%NULL%1,                        Scott%Lindquist%NULL%1,                        Kathy H.%Lofy%NULL%1,                        John%Wiesman%NULL%1,                        Hollianne%Bruce%NULL%0,                        Christopher%Spitters%NULL%0,                        Keith%Ericson%NULL%1,                        Sara%Wilkerson%NULL%1,                        Ahmet%Tural%NULL%1,                        George%Diaz%NULL%1,                        Amanda%Cohn%NULL%2,                        LeAnne%Fox%NULL%1,                        Anita%Patel%NULL%1,                        Susan I.%Gerber%NULL%1,                        Lindsay%Kim%NULL%1,                        Suxiang%Tong%NULL%1,                        Xiaoyan%Lu%NULL%1,                        Steve%Lindstrom%NULL%1,                        Mark A.%Pallansch%NULL%1,                        William C.%Weldon%NULL%1,                        Holly M.%Biggs%NULL%1,                        Timothy M.%Uyeki%NULL%0,                        Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                        Tianzhu%Liu%NULL%2,                        Tianzhu%Liu%NULL%0,                        Lesheng%Huang%NULL%2,                        Lesheng%Huang%NULL%0,                        Hailong%Liu%NULL%2,                        Hailong%Liu%NULL%0,                        Ming%Lei%NULL%1,                        Wangdong%Xu%NULL%2,                        Wangdong%Xu%NULL%0,                        Xiaolu%Hu%NULL%1,                        Jun%Chen%NULL%3,                        Bo%Liu%liubogzcm@163.com%3,                        Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                        Juanjuan%Guo%NULL%0,                        Chen%Wang%NULL%0,                        Fan%Luo%NULL%0,                        Xuechen%Yu%NULL%0,                        Wei%Zhang%NULL%0,                        Jiafu%Li%NULL%0,                        Dongchi%Zhao%NULL%0,                        Dan%Xu%NULL%0,                        Qing%Gong%NULL%0,                        Jing%Liao%NULL%0,                        Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                        Wei%Hou%houwei@whu.edu.cn%0,                        Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                        Junfeng%Li%NULL%1,                        Xun%Li%NULL%0,                        Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                        Xuhua%Guan%NULL%1,                        Peng%Wu%NULL%1,                        Xiaoye%Wang%NULL%1,                        Lei%Zhou%NULL%0,                        Yeqing%Tong%NULL%1,                        Ruiqi%Ren%NULL%1,                        Kathy S.M.%Leung%NULL%1,                        Eric H.Y.%Lau%NULL%1,                        Jessica Y.%Wong%NULL%1,                        Xuesen%Xing%NULL%1,                        Nijuan%Xiang%NULL%0,                        Yang%Wu%NULL%1,                        Chao%Li%NULL%1,                        Qi%Chen%NULL%1,                        Dan%Li%NULL%1,                        Tian%Liu%NULL%1,                        Jing%Zhao%NULL%1,                        Man%Liu%NULL%1,                        Wenxiao%Tu%NULL%1,                        Chuding%Chen%NULL%1,                        Lianmei%Jin%NULL%1,                        Rui%Yang%NULL%1,                        Qi%Wang%NULL%1,                        Suhua%Zhou%NULL%1,                        Rui%Wang%NULL%2,                        Hui%Liu%NULL%0,                        Yinbo%Luo%NULL%1,                        Yuan%Liu%NULL%1,                        Ge%Shao%NULL%1,                        Huan%Li%NULL%1,                        Zhongfa%Tao%NULL%1,                        Yang%Yang%NULL%0,                        Zhiqiang%Deng%NULL%1,                        Boxi%Liu%NULL%1,                        Zhitao%Ma%NULL%1,                        Yanping%Zhang%NULL%1,                        Guoqing%Shi%NULL%1,                        Tommy T.Y.%Lam%NULL%1,                        Joseph T.%Wu%NULL%1,                        George F.%Gao%NULL%3,                        Benjamin J.%Cowling%NULL%2,                        Bo%Yang%NULL%4,                        Bo%Yang%NULL%0,                        Gabriel M.%Leung%NULL%1,                        Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                        Zhenyu%Gong%NULL%2,                        Zhenyu%Gong%NULL%0,                        Zuke%Xiao%NULL%2,                        Zuke%Xiao%NULL%0,                        Jingliang%Xiong%NULL%1,                        Bing%Fan%NULL%2,                        Jiaqi%Liu%NULL%2,                        Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%0,                        Yan%Deng%NULL%0,                        Wei%Liu%NULL%0,                        Mei-Fang%Wang%NULL%0,                        Jing-Ping%Ma%NULL%0,                        Wei%Xiao%NULL%0,                        Ying-Nan%Wang%NULL%0,                        Min-Hua%Zhong%NULL%0,                        Cheng-Hong%Li%NULL%0,                        Guang-Cai%Li%NULL%0,                        Hui-Guo%Liu%NULL%0,                        Xiu-Yuan%Hao%NULL%0,                        Xiu-Yuan%Hao%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                        Xian-zheng%Tan%xianzhengtan@163.com%2,                        Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                        Tianhe%Ye%NULL%0,                        Tianhe%Ye%NULL%0,                        Peng%Sun%NULL%0,                        Peng%Sun%NULL%0,                        Shan%Gui%NULL%0,                        Shan%Gui%NULL%0,                        Bo%Liang%NULL%0,                        Bo%Liang%NULL%0,                        Lingli%Li%NULL%0,                        Lingli%Li%NULL%0,                        Dandan%Zheng%NULL%0,                        Dandan%Zheng%NULL%0,                        Jiazheng%Wang%NULL%0,                        Jiazheng%Wang%NULL%0,                        Richard L.%Hesketh%NULL%0,                        Richard L.%Hesketh%NULL%0,                        Lian%Yang%yanglian@hust.edu.cn%0,                        Lian%Yang%yanglian@hust.edu.cn%0,                        Chuansheng%Zheng%NULL%0,                        Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                        Thuong V.%Nguyen%NULL%1,                        Quang C.%Luong%NULL%1,                        Thinh V.%Nguyen%NULL%1,                        Hieu T.%Nguyen%NULL%1,                        Hung Q.%Le%NULL%2,                        Hung Q.%Le%NULL%0,                        Thuc T.%Nguyen%NULL%1,                        Thang M.%Cao%NULL%2,                        Thang M.%Cao%NULL%0,                        Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                        Krit%Pongpirul%NULL%2,                        Krit%Pongpirul%NULL%0,                        Anuttra C.%Ratnarathon%NULL%2,                        Anuttra C.%Ratnarathon%NULL%0,                        Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                        Ye-Ming%Wang%NULL%1,                        Zhi-Qiang%Wu%NULL%1,                        Zi-Chun%Xiang%NULL%1,                        Li%Guo%NULL%0,                        Teng%Xu%NULL%1,                        Yong-Zhong%Jiang%NULL%1,                        Yan%Xiong%NULL%0,                        Yong-Jun%Li%NULL%1,                        Xing-Wang%Li%NULL%1,                        Hui%Li%NULL%0,                        Guo-Hui%Fan%NULL%1,                        Xiao-Ying%Gu%NULL%1,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Jiu-Yang%Xu%NULL%1,                        Fan%Yang%NULL%1,                        Xin-Ming%Wang%NULL%1,                        Chao%Wu%NULL%1,                        Lan%Chen%NULL%1,                        Yi-Wei%Liu%NULL%1,                        Bo%Liu%NULL%0,                        Jian%Yang%NULL%1,                        Xiao-Rui%Wang%NULL%1,                        Jie%Dong%NULL%1,                        Li%Li%NULL%0,                        Chao-Lin%Huang%NULL%1,                        Jian-Ping%Zhao%NULL%1,                        Yi%Hu%NULL%0,                        Zhen-Shun%Cheng%NULL%1,                        Lin-Lin%Liu%NULL%1,                        Zhao-Hui%Qian%NULL%1,                        Chuan%Qin%NULL%1,                        Qi%Jin%NULL%0,                        Bin%Cao%NULL%0,                        Jian-Wei%Wang%NULL%1,                        Xiu-Yuan%Hao%NULL%0,                        Xiu-Yuan%Hao%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                        Mirjam%Schunk%NULL%1,                        Peter%Sothmann%NULL%1,                        Gisela%Bretzel%NULL%1,                        Guenter%Froeschl%NULL%1,                        Claudia%Wallrauch%NULL%1,                        Thorbjörn%Zimmer%NULL%1,                        Verena%Thiel%NULL%1,                        Christian%Janke%NULL%1,                        Wolfgang%Guggemos%NULL%2,                        Wolfgang%Guggemos%NULL%0,                        Michael%Seilmaier%NULL%1,                        Christian%Drosten%NULL%2,                        Christian%Drosten%NULL%0,                        Patrick%Vollmar%NULL%2,                        Patrick%Vollmar%NULL%0,                        Katrin%Zwirglmaier%NULL%1,                        Sabine%Zange%NULL%1,                        Roman%Wölfel%NULL%1,                        Michael%Hoelscher%NULL%2,                        Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                        Xiaoyu%Han%NULL%2,                        Xiaoyu%Han%NULL%0,                        Chuansheng%Zheng%hqzcsxh@sina.com%0,                        Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                        Lynfa%Stroud%NULL%1,                        Graham Edward%Cleghorn%NULL%1,                        Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                        Nannan%Shi%NULL%2,                        Nannan%Shi%NULL%0,                        Fei%Shan%NULL%1,                        Zhiyong%Zhang%NULL%1,                        Jie%Shen%NULL%1,                        Hongzhou%Lu%NULL%0,                        Yun%Ling%NULL%0,                        Yebin%Jiang%NULL%2,                        Yebin%Jiang%NULL%0,                        Yuxin%Shi%shiyuxin@shphc.org.cn%0,                        Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                        Jianming%Tang%15900792812@163.com%1,                        Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                        Zheng%Zhong%NULL%2,                        Zheng%Zhong%NULL%0,                        Wei%Zhao%NULL%2,                        Wei%Zhao%NULL%0,                        Chao%Zheng%NULL%2,                        Chao%Zheng%NULL%0,                        Fei%Wang%NULL%2,                        Fei%Wang%NULL%0,                        Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                        Chengcheng%Yu%1515185140@qq.com%0,                        Lieguang%Zhang%zhlieguang@126.com%0,                        Liangping%Luo%tluolp@jnu.edu.cn%0,                        Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                        Xiao-Xin%Wu%NULL%0,                        Xian-Gao%Jiang%NULL%0,                        Kai-Jin%Xu%NULL%0,                        Ling-Jun%Ying%NULL%0,                        Chun-Lian%Ma%NULL%0,                        Shi-Bo%Li%NULL%0,                        Hua-Ying%Wang%NULL%0,                        Sheng%Zhang%NULL%0,                        Hai-Nv%Gao%NULL%0,                        Ji-Fang%Sheng%NULL%0,                        Hong-Liu%Cai%NULL%0,                        Yun-Qing%Qiu%NULL%0,                        Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%0,                      Dong%Xiang%coreGivesNoEmail%0,                      Gao%Ya-dong%coreGivesNoEmail%0,                      Yan%You-qin%coreGivesNoEmail%0,                      Yang%Yi-bin%coreGivesNoEmail%0,                      Yuan%Ya-dong%coreGivesNoEmail%0,                      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                        Xiaochen%Li%NULL%2,                        Xiaochen%Li%NULL%0,                        Wei%Zhang%NULL%0,                        Zheng-Li%Shi%NULL%1,                        Zhishui%Zheng%NULL%1,                        Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                        Nak-Jung%Kwon%NULL%2,                        Nak-Jung%Kwon%NULL%0,                        Su-Jin%Choi%NULL%2,                        Su-Jin%Choi%NULL%0,                        Chang Kyung%Kang%NULL%2,                        Chang Kyung%Kang%NULL%0,                        Pyoeng Gyun%Choe%NULL%4,                        Pyoeng Gyun%Choe%NULL%0,                        Jin Yong%Kim%NULL%4,                        Jin Yong%Kim%NULL%0,                        Jiyoung%Yun%NULL%2,                        Jiyoung%Yun%NULL%0,                        Gir-Won%Lee%NULL%2,                        Gir-Won%Lee%NULL%0,                        Moon-Woo%Seong%NULL%2,                        Moon-Woo%Seong%NULL%0,                        Nam Joong%Kim%NULL%2,                        Nam Joong%Kim%NULL%0,                        Jeong-Sun%Seo%NULL%2,                        Jeong-Sun%Seo%NULL%0,                        Myoung-don%Oh%NULL%4,                        Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                        Seunghyun%Jeon%NULL%2,                        Seunghyun%Jeon%NULL%0,                        Hyun-Young%Shin%NULL%2,                        Hyun-Young%Shin%NULL%0,                        Moon Jung%Kim%NULL%2,                        Moon Jung%Kim%NULL%0,                        Yu Min%Seong%NULL%2,                        Yu Min%Seong%NULL%0,                        Wang Jun%Lee%NULL%2,                        Wang Jun%Lee%NULL%0,                        Kang-Won%Choe%NULL%2,                        Kang-Won%Choe%NULL%0,                        Yu Min%Kang%NULL%2,                        Yu Min%Kang%NULL%0,                        Baeckseung%Lee%NULL%2,                        Baeckseung%Lee%NULL%0,                        Sang-Joon%Park%NULL%2,                        Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                        Pyoeng Gyun%Choe%NULL%0,                        Pyoeng Gyun%Choe%NULL%0,                        Yoonju%Oh%NULL%2,                        Yoonju%Oh%NULL%0,                        Kyung Joong%Oh%NULL%2,                        Kyung Joong%Oh%NULL%0,                        Jinsil%Kim%NULL%2,                        Jinsil%Kim%NULL%0,                        So Jeong%Park%NULL%2,                        So Jeong%Park%NULL%0,                        Ji Hye%Park%NULL%2,                        Ji Hye%Park%NULL%0,                        Hye Kyoung%Na%NULL%2,                        Hye Kyoung%Na%NULL%0,                        Myoung-don%Oh%NULL%0,                        Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                         Q.% Lu%null%1,                         M.% Liu%null%1,                         Y.% Wang%null%1,                         A.% Zhang%null%1,                         N.% Jalali%null%1,                         N.% Dean%null%1,                         I.% Longini%null%1,                         M. E.% Halloran%null%1,                         B.% Xu%null%1,                         X.% Zhang%null%1,                         L.% Wang%null%1,                         W.% Liu%null%1,                         L. % Fang%null%1,       Y.%Yang%null%1,       Q.% Lu%null%1,       M.% Liu%null%1,       Y.% Wang%null%2,       A.% Zhang%null%1,       N.% Jalali%null%1,       N.% Dean%null%1,       I.% Longini%null%1,       M. E.% Halloran%null%1,       B.% Xu%null%1,       X.% Zhang%null%1,       L.% Wang%null%1,       W.% Liu%null%1,       L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                        Dingyu%Zhang%NULL%3,                        Wenling%Wang%NULL%2,                        Xingwang%Li%NULL%0,                        Bo%Yang%NULL%0,                        Jingdong%Song%NULL%2,                        Xiang%Zhao%NULL%2,                        Baoying%Huang%NULL%2,                        Weifeng%Shi%NULL%2,                        Roujian%Lu%NULL%2,                        Peihua%Niu%NULL%2,                        Faxian%Zhan%NULL%2,                        Xuejun%Ma%NULL%2,                        Dayan%Wang%NULL%2,                        Wenbo%Xu%NULL%2,                        Guizhen%Wu%NULL%2,                        George F.%Gao%NULL%0,                        Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                        Shuofeng%Yuan%NULL%1,                        Kin-Hang%Kok%NULL%1,                        Kelvin Kai-Wang%To%NULL%1,                        Hin%Chu%NULL%1,                        Jin%Yang%NULL%1,                        Fanfan%Xing%NULL%1,                        Jieling%Liu%NULL%1,                        Cyril Chik-Yan%Yip%NULL%1,                        Rosana Wing-Shan%Poon%NULL%1,                        Hoi-Wah%Tsoi%NULL%1,                        Simon Kam-Fai%Lo%NULL%1,                        Kwok-Hung%Chan%NULL%0,                        Vincent Kwok-Man%Poon%NULL%1,                        Wan-Mui%Chan%NULL%1,                        Jonathan Daniel%Ip%NULL%1,                        Jian-Piao%Cai%NULL%1,                        Vincent Chi-Chung%Cheng%NULL%1,                        Honglin%Chen%NULL%1,                        Christopher Kim-Ming%Hui%NULL%1,                        Kwok-Yung%Yuen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4102,6 +4804,9 @@
       <c r="I1" t="s">
         <v>255</v>
       </c>
+      <c r="J1" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -4117,7 +4822,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1081</v>
+        <v>1318</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -4130,6 +4835,9 @@
       </c>
       <c r="I2" t="s">
         <v>1029</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4146,7 +4854,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>1082</v>
+        <v>1319</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -4159,6 +4867,9 @@
       </c>
       <c r="I3" t="s">
         <v>1031</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4189,6 +4900,9 @@
       <c r="I4" t="s">
         <v>100</v>
       </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4204,7 +4918,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>1083</v>
+        <v>1320</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -4217,6 +4931,9 @@
       </c>
       <c r="I5" t="s">
         <v>1029</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4233,7 +4950,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>1084</v>
+        <v>1321</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -4246,6 +4963,9 @@
       </c>
       <c r="I6" t="s">
         <v>1031</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -4262,7 +4982,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>1085</v>
+        <v>1322</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -4275,6 +4995,9 @@
       </c>
       <c r="I7" t="s">
         <v>1035</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -4303,7 +5026,10 @@
         <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>1036</v>
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="9">
@@ -4334,6 +5060,9 @@
       <c r="I9" t="s">
         <v>100</v>
       </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -4349,7 +5078,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>1086</v>
+        <v>696</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4358,10 +5087,13 @@
         <v>495</v>
       </c>
       <c r="H10" t="s">
-        <v>499</v>
+        <v>1138</v>
       </c>
       <c r="I10" t="s">
-        <v>1036</v>
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="11">
@@ -4378,7 +5110,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>1087</v>
+        <v>1323</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -4391,6 +5123,9 @@
       </c>
       <c r="I11" t="s">
         <v>1029</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -4421,6 +5156,9 @@
       <c r="I12" t="s">
         <v>100</v>
       </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -4436,7 +5174,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>1088</v>
+        <v>698</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -4445,10 +5183,13 @@
         <v>495</v>
       </c>
       <c r="H13" t="s">
-        <v>503</v>
+        <v>1141</v>
       </c>
       <c r="I13" t="s">
-        <v>1036</v>
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="14">
@@ -4479,6 +5220,9 @@
       <c r="I14" t="s">
         <v>100</v>
       </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -4494,7 +5238,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>1089</v>
+        <v>1324</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -4507,6 +5251,9 @@
       </c>
       <c r="I15" t="s">
         <v>1029</v>
+      </c>
+      <c r="J15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -4523,7 +5270,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>1090</v>
+        <v>1325</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -4536,6 +5283,9 @@
       </c>
       <c r="I16" t="s">
         <v>1035</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -4552,7 +5302,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>1091</v>
+        <v>1326</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -4565,6 +5315,9 @@
       </c>
       <c r="I17" t="s">
         <v>1035</v>
+      </c>
+      <c r="J17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -4581,7 +5334,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>1092</v>
+        <v>1327</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -4594,6 +5347,9 @@
       </c>
       <c r="I18" t="s">
         <v>1035</v>
+      </c>
+      <c r="J18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -4610,7 +5366,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>1093</v>
+        <v>1328</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -4623,6 +5379,9 @@
       </c>
       <c r="I19" t="s">
         <v>1035</v>
+      </c>
+      <c r="J19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4639,7 +5398,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>1094</v>
+        <v>1329</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -4652,6 +5411,9 @@
       </c>
       <c r="I20" t="s">
         <v>1035</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -4668,7 +5430,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>1095</v>
+        <v>1330</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -4681,6 +5443,9 @@
       </c>
       <c r="I21" t="s">
         <v>1035</v>
+      </c>
+      <c r="J21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -4697,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>1096</v>
+        <v>1331</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -4710,6 +5475,9 @@
       </c>
       <c r="I22" t="s">
         <v>1029</v>
+      </c>
+      <c r="J22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -4726,7 +5494,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>1097</v>
+        <v>1332</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -4739,6 +5507,9 @@
       </c>
       <c r="I23" t="s">
         <v>1035</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -4755,7 +5526,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>1098</v>
+        <v>1333</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -4768,6 +5539,9 @@
       </c>
       <c r="I24" t="s">
         <v>1029</v>
+      </c>
+      <c r="J24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -4784,7 +5558,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>1099</v>
+        <v>1334</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -4797,6 +5571,9 @@
       </c>
       <c r="I25" t="s">
         <v>1035</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -4813,7 +5590,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>1100</v>
+        <v>1335</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -4826,6 +5603,9 @@
       </c>
       <c r="I26" t="s">
         <v>1029</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4842,7 +5622,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>1101</v>
+        <v>1336</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -4855,6 +5635,9 @@
       </c>
       <c r="I27" t="s">
         <v>1035</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4871,7 +5654,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>1102</v>
+        <v>1337</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4884,6 +5667,9 @@
       </c>
       <c r="I28" t="s">
         <v>1035</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -4900,7 +5686,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>1103</v>
+        <v>1338</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4913,6 +5699,9 @@
       </c>
       <c r="I29" t="s">
         <v>1035</v>
+      </c>
+      <c r="J29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -4929,7 +5718,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>1104</v>
+        <v>1339</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -4942,6 +5731,9 @@
       </c>
       <c r="I30" t="s">
         <v>1035</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -4972,6 +5764,9 @@
       <c r="I31" t="s">
         <v>100</v>
       </c>
+      <c r="J31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -4987,7 +5782,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>1105</v>
+        <v>1340</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -5000,6 +5795,9 @@
       </c>
       <c r="I32" t="s">
         <v>1035</v>
+      </c>
+      <c r="J32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -5030,6 +5828,9 @@
       <c r="I33" t="s">
         <v>100</v>
       </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -5045,7 +5846,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>1106</v>
+        <v>1341</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -5058,6 +5859,9 @@
       </c>
       <c r="I34" t="s">
         <v>1035</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -5074,7 +5878,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1107</v>
+        <v>1342</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -5087,6 +5891,9 @@
       </c>
       <c r="I35" t="s">
         <v>1035</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -5103,7 +5910,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>1108</v>
+        <v>1343</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -5116,6 +5923,9 @@
       </c>
       <c r="I36" t="s">
         <v>1035</v>
+      </c>
+      <c r="J36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -5132,7 +5942,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>1109</v>
+        <v>1344</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -5145,6 +5955,9 @@
       </c>
       <c r="I37" t="s">
         <v>1035</v>
+      </c>
+      <c r="J37" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -5161,7 +5974,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>1110</v>
+        <v>1345</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -5174,6 +5987,9 @@
       </c>
       <c r="I38" t="s">
         <v>1035</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -5190,7 +6006,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>1111</v>
+        <v>1346</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -5203,6 +6019,9 @@
       </c>
       <c r="I39" t="s">
         <v>1035</v>
+      </c>
+      <c r="J39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -5219,7 +6038,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>1112</v>
+        <v>1347</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -5232,6 +6051,9 @@
       </c>
       <c r="I40" t="s">
         <v>1035</v>
+      </c>
+      <c r="J40" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -5248,7 +6070,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>1113</v>
+        <v>1348</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -5261,6 +6083,9 @@
       </c>
       <c r="I41" t="s">
         <v>1029</v>
+      </c>
+      <c r="J41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -5277,7 +6102,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>1114</v>
+        <v>1349</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -5290,6 +6115,9 @@
       </c>
       <c r="I42" t="s">
         <v>1035</v>
+      </c>
+      <c r="J42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -5306,7 +6134,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>1115</v>
+        <v>1350</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -5319,6 +6147,9 @@
       </c>
       <c r="I43" t="s">
         <v>1035</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -5335,7 +6166,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>1116</v>
+        <v>726</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -5344,10 +6175,13 @@
         <v>495</v>
       </c>
       <c r="H44" t="s">
-        <v>533</v>
+        <v>1170</v>
       </c>
       <c r="I44" t="s">
-        <v>1036</v>
+        <v>100</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="45">
@@ -5364,7 +6198,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>1117</v>
+        <v>1351</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -5377,6 +6211,9 @@
       </c>
       <c r="I45" t="s">
         <v>1035</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -5393,7 +6230,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>1118</v>
+        <v>1352</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -5406,6 +6243,9 @@
       </c>
       <c r="I46" t="s">
         <v>1035</v>
+      </c>
+      <c r="J46" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -5422,7 +6262,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>1119</v>
+        <v>1353</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -5435,6 +6275,9 @@
       </c>
       <c r="I47" t="s">
         <v>1031</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -5451,7 +6294,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>1120</v>
+        <v>1354</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -5464,6 +6307,9 @@
       </c>
       <c r="I48" t="s">
         <v>1035</v>
+      </c>
+      <c r="J48" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -5494,6 +6340,9 @@
       <c r="I49" t="s">
         <v>100</v>
       </c>
+      <c r="J49" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -5509,7 +6358,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>1121</v>
+        <v>1355</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -5522,6 +6371,9 @@
       </c>
       <c r="I50" t="s">
         <v>1036</v>
+      </c>
+      <c r="J50" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -5552,6 +6404,9 @@
       <c r="I51" t="s">
         <v>100</v>
       </c>
+      <c r="J51" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -5581,6 +6436,9 @@
       <c r="I52" t="s">
         <v>100</v>
       </c>
+      <c r="J52" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -5596,7 +6454,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>1122</v>
+        <v>1356</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -5609,6 +6467,9 @@
       </c>
       <c r="I53" t="s">
         <v>1031</v>
+      </c>
+      <c r="J53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -5625,7 +6486,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>1123</v>
+        <v>1357</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -5638,6 +6499,9 @@
       </c>
       <c r="I54" t="s">
         <v>1035</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -5654,7 +6518,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>1124</v>
+        <v>1358</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -5667,6 +6531,9 @@
       </c>
       <c r="I55" t="s">
         <v>1035</v>
+      </c>
+      <c r="J55" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -5683,7 +6550,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>1125</v>
+        <v>1359</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -5696,6 +6563,9 @@
       </c>
       <c r="I56" t="s">
         <v>1035</v>
+      </c>
+      <c r="J56" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -5712,7 +6582,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>1126</v>
+        <v>1360</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -5725,6 +6595,9 @@
       </c>
       <c r="I57" t="s">
         <v>1078</v>
+      </c>
+      <c r="J57" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -5741,7 +6614,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>1127</v>
+        <v>1361</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -5754,6 +6627,9 @@
       </c>
       <c r="I58" t="s">
         <v>1035</v>
+      </c>
+      <c r="J58" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -5770,7 +6646,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>1128</v>
+        <v>1362</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>
@@ -5783,6 +6659,9 @@
       </c>
       <c r="I59" t="s">
         <v>1029</v>
+      </c>
+      <c r="J59" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -5813,6 +6692,9 @@
       <c r="I60" t="s">
         <v>100</v>
       </c>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -5840,6 +6722,9 @@
         <v>85</v>
       </c>
       <c r="I61" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Covid_19_Dataset_and_References/References/28.xlsx
+++ b/Covid_19_Dataset_and_References/References/28.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11043" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12019" uniqueCount="1513">
   <si>
     <t>Doi</t>
   </si>
@@ -4485,6 +4485,556 @@
   </si>
   <si>
     <t>[Jasper Fuk-Woo%Chan%NULL%0,                        Shuofeng%Yuan%NULL%1,                        Kin-Hang%Kok%NULL%1,                        Kelvin Kai-Wang%To%NULL%1,                        Hin%Chu%NULL%1,                        Jin%Yang%NULL%1,                        Fanfan%Xing%NULL%1,                        Jieling%Liu%NULL%1,                        Cyril Chik-Yan%Yip%NULL%1,                        Rosana Wing-Shan%Poon%NULL%1,                        Hoi-Wah%Tsoi%NULL%1,                        Simon Kam-Fai%Lo%NULL%1,                        Kwok-Hung%Chan%NULL%0,                        Vincent Kwok-Man%Poon%NULL%1,                        Wan-Mui%Chan%NULL%1,                        Jonathan Daniel%Ip%NULL%1,                        Jian-Piao%Cai%NULL%1,                        Vincent Chi-Chung%Cheng%NULL%1,                        Honglin%Chen%NULL%1,                        Christopher Kim-Ming%Hui%NULL%1,                        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                         Dengju%Li%NULL%0,                         Xiong%Wang%NULL%0,                         Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                         Hanxiong%Guan%NULL%1,                         Shuchang%Zhou%NULL%1,                         Yujin%Wang%NULL%1,                         Qian%Li%NULL%1,                         Tingting%Zhu%NULL%1,                         Qiongjie%Hu%qjhu@outlook.com%1,                         Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Risk assessment of exported risk of novel coronavirus pneumonia from Hubei Province].</t>
+  </si>
+  <si>
+    <t>Objective: To evaluate the exported risk of novel coronavirus pneumonia (NCP) from Hubei Province and the imported risk in various provinces across China. Methods: Data of reported NCP cases and Baidu Migration Indexin all provinces of the country as of February 14, 2020 were collected. The correlation analysis between cumulative number of reported cases and the migration index from Hubei was performed, and the imported risks from Hubei to different provinces across China were further evaluated. Results: A total of 49 970 confirmed cases were reported nationwide, of which 37 884 were in Hubei Province. The average daily migration index from Hubei to other provinces was 312.09, Wuhan and other cities in Hubei were 117.95 and 194.16, respectively. The cumulative NCP cases of provinces was positively correlated with the migration index derived from Hubei province, also in Wuhan and other cities in Hubei, with correlation coefficients of 0.84, 0.84, and 0.81. In linear model, population migration from Hubei Province, Wuhan and other cities in Hubei account for 71.2%, 70.1%, and 66.3% of the variation, respectively. The period of high exported risk from Hubei occurred before January 27, of which the risks before January 23 mainly came from Wuhan, and then mainly from other cities in Hubei. Hunan Province, Henan Province and Guangdong Province ranked the top three in terms of cumulative imported risk (the cumulative risk indices were 58.61, 54.75 and 49.62 respectively). Conclusion: The epidemic in each province was mainly caused by the importation of Hubei Province. Taking measures such as restricting the migration of population in Hubei Province and strengthening quarantine measures for immigrants from Hubei Province may greatly reduce the risk of continued spread of the epidemic.</t>
+  </si>
+  <si>
+    <t>[ J X%Hu%elasticNoEmail%1,  G H% He%elasticNoEmail%1,  T% Liu%elasticNoEmail%1,  J P% Xiao%elasticNoEmail%1,  Z H% Rong%elasticNoEmail%1,  L C% Guo%elasticNoEmail%1,  W L% Zeng%elasticNoEmail%1,  Z H% Zhu%elasticNoEmail%1,  D X% Gong%elasticNoEmail%1,  L H% Yin%elasticNoEmail%1,  D H% Wan%elasticNoEmail%1,  L L% Zeng%elasticNoEmail%1,  W J% Ma%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                         Jenny%Chen%NULL%1,                         Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                         Yang%Yang%NULL%4,                         Cong%Zhang%NULL%0,                         Fengming%Huang%NULL%1,                         Fuxiang%Wang%NULL%1,                         Jing%Yuan%NULL%1,                         Zhaoqin%Wang%NULL%0,                         Jinxiu%Li%NULL%1,                         Jianming%Li%NULL%1,                         Cheng%Feng%NULL%1,                         Zheng%Zhang%NULL%1,                         Lifei%Wang%NULL%1,                         Ling%Peng%NULL%1,                         Li%Chen%NULL%0,                         Yuhao%Qin%NULL%1,                         Dandan%Zhao%NULL%1,                         Shuguang%Tan%NULL%1,                         Lu%Yin%NULL%2,                         Jun%Xu%NULL%1,                         Congzhao%Zhou%NULL%1,                         Chengyu%Jiang%jiang@pumc.edu.cn%1,                         Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                         Xueyan%Mei%NULL%4,                         Xueyan%Mei%NULL%0,                         Mingqian%Huang%NULL%4,                         Mingqian%Huang%NULL%0,                         Yang%Yang%NULL%0,                         Zahi A.%Fayad%NULL%0,                         Zahi A.%Fayad%NULL%0,                         Ning%Zhang%NULL%5,                         Ning%Zhang%NULL%0,                         Kaiyue%Diao%NULL%2,                         Kaiyue%Diao%NULL%0,                         Bin%Lin%NULL%1,                         Xiqi%Zhu%NULL%2,                         Xiqi%Zhu%NULL%0,                         Kunwei%Li%NULL%2,                         Shaolin%Li%NULL%2,                         Hong%Shan%NULL%0,                         Adam%Jacobi%NULL%3,                         Adam%Jacobi%NULL%0,                         Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Analysis of the first cluster of cases in a family of novel coronavirus pneumonia in Gansu Province].</t>
+  </si>
+  <si>
+    <t>The epidemiological history and clinical characteristics of 7 cases of COVID-19 and 1 case of close contact in the first family aggregation epidemic of COVID-19 in Gansu Province were analyzed. The first patient A developed on January 22, 2020, with a history of residence in Wuhan, and confirmed severe cases of NCP on January 24, 2020; patient B, on January 23, 2020, diagnosed on January 31, severe cases; patient C, asymptomatic, diagnosed on January 27; patient D, asymptomatic, diagnosed on January 27; patient E, on January 24, diagnosed on January 28; patient F, asymptomatic, diagnosed on January 31; Patient G was asymptomatic and was diagnosed on January 31. In close contact, H was asymptomatic, PCR test was negative and asymptomatic, and he was discharged early. Among the 7 patients, 1 case died of (B) aggravation, and the other patients' condition was effectively controlled after active treatment. Except for the discharged cases, 5 cases were positive for COVID-19 specific IgM antibody and 1 case was negative. In this clustering outbreak, 4 patients remained asymptomatic, but PCR and IgM antibodies were positive, indicating that asymptomatic patients may be the key point to control the epidemic. Specific IgM antibody screening for patients whose pharyngeal swab nucleic acid test is negative but with ground glass-like lung lesions is very important for early detection and early isolation.</t>
+  </si>
+  <si>
+    <t>[ S L%Bai%elasticNoEmail%1,  J Y% Wang%elasticNoEmail%1,  Y Q% Zhou%elasticNoEmail%1,  D S% Yu%elasticNoEmail%1,  X M% Gao%elasticNoEmail%1,  L L% Li%elasticNoEmail%1,  F% Yang%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                         Ranjit%Sah%ranjitsah@iom.edu.np%0,                         Alfonso J%Rodriguez-Morales%NULL%1,                         Bibek Kumar%Lal%NULL%1,                         Runa%Jha%NULL%1,                         Hemant Chanda%Ojha%NULL%1,                         Bikesh%Shrestha%NULL%1,                         Daniel K W%Chu%NULL%1,                         Leo L M%Poon%NULL%1,                         Anthony%Costello%NULL%1,                         Kouichi%Morita%NULL%1,                         Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[First case of 2019 novel coronavirus infection in children in Shanghai].</t>
+  </si>
+  <si>
+    <t>报道上海第l例确诊新型冠状病毒(2019-nCoV)感染患儿的诊治经过。患儿 男，7岁，因\"发热3 h伴咳嗽\"以及父亲被确诊2019-nCoV感染的肺炎收入复旦大学附属儿科医院负压病房。经过对症治疗后治愈。儿童2019-nCoV感染临床表现相对成人较轻，家庭内传播是儿童感染重要的途径。本例患儿虽然症状轻，但恢复期连续2次2019-nCoV核酸检测阳性，提示需要观察轻症儿童病例在恢复期无症状排毒的传染性。.</t>
+  </si>
+  <si>
+    <t>[ J H%Cai%elasticNoEmail%1,  X S% Wang%elasticNoEmail%1,  Y L% Ge%elasticNoEmail%1,  A M% Xia%elasticNoEmail%1,  H L% Chang%elasticNoEmail%1,  H% Tian%elasticNoEmail%1,  Y X% Zhu%elasticNoEmail%1,  Q R% Wang%elasticNoEmail%1,  J S% Zeng%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Frist case of severe childhood novel coronavirus pneumonia in China].</t>
+  </si>
+  <si>
+    <t>1例主诉为\"间断腹泻、呕吐6 d，发热伴呼吸急促半天\"的患儿就诊于武汉儿童医院重症医学科，诊断为儿童危重型新型冠状病毒肺炎（NCP）。以\"新型冠状病毒肺炎\"\"儿童\"\"危重型\"为关键词检索截至2020年2月8日中国知网、维普网、万方等相关数据库，未见报道。本例为中国首例危重型NCP患儿，以消化道症状起病，早期呼吸道症状不明显，快速进展为急性呼吸窘迫综合征、脓毒症休克并伴有急性肾衰竭。患儿早期连续2次咽拭子2019 新型冠状病毒（2019-nCoV）核酸检测阴性。对于重症疑似病例，建议采集下呼吸道样本或重复采集上呼吸道样本进行检测。体外连续血液净化技术可尽早应用到危重型NCP患儿的救治中。.</t>
+  </si>
+  <si>
+    <t>[ F%Chen%elasticNoEmail%1,  Z S% Liu%elasticNoEmail%2,  F R% Zhang%elasticNoEmail%1,  R H% Xiong%elasticNoEmail%1,  Y% Chen%elasticNoEmail%1,  X F% Cheng%elasticNoEmail%1,  W Y% Wang%elasticNoEmail%1,  J% Ren%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%0,                         Xuan%Dong%NULL%0,                         Jieming%Qu%NULL%0,                         Fengyun%Gong%NULL%0,                         Yang%Han%NULL%0,                         Yang%Qiu%NULL%0,                         Jingli%Wang%NULL%0,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%0,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                         Adam%Bernheim%NULL%2,                         Adam%Bernheim%NULL%0,                         Xueyan%Mei%NULL%0,                         Xueyan%Mei%NULL%0,                         Ning%Zhang%NULL%0,                         Ning%Zhang%NULL%0,                         Mingqian%Huang%NULL%0,                         Mingqian%Huang%NULL%0,                         Xianjun%Zeng%NULL%1,                         Jiufa%Cui%NULL%1,                         Wenjian%Xu%NULL%2,                         Wenjian%Xu%NULL%0,                         Yang%Yang%NULL%0,                         Zahi A.%Fayad%NULL%0,                         Zahi A.%Fayad%NULL%0,                         Adam%Jacobi%NULL%0,                         Kunwei%Li%NULL%0,                         Shaolin%Li%NULL%0,                         Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                         Jie%Qin%qinjie@mail.sysu.edu.cn%2,                         Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                         M%Zhao%NULL%1,                         S%Li%NULL%1,                         L%Yang%NULL%1,                         B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                         Huangqi%Zhang%NULL%4,                         Huangqi%Zhang%NULL%0,                         Jicheng%Xie%NULL%4,                         Jicheng%Xie%NULL%0,                         Minjie%Lin%NULL%2,                         Minjie%Lin%NULL%0,                         Lingjun%Ying%NULL%2,                         Lingjun%Ying%NULL%0,                         Peipei%Pang%NULL%4,                         Peipei%Pang%NULL%0,                         Wenbin%Ji%1224190004@qq.com%4,                         Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                         Huangqi%Zhang%NULL%0,                         Huangqi%Zhang%NULL%0,                         Yunyu%Xu%NULL%2,                         Yunyu%Xu%NULL%0,                         Jicheng%Xie%NULL%0,                         Jicheng%Xie%NULL%0,                         Peipei%Pang%NULL%0,                         Peipei%Pang%NULL%0,                         Wenbin%Ji%1224190004@qq.com%0,                         Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                         Domenico%Benvenuto%NULL%1,                         Silvia%Angeletti%s.angeletti@unicampus.it%2,                         Silvia%Angeletti%s.angeletti@unicampus.it%0,                         Massimo%Ciccozzi%NULL%2,                         Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                         M.%Li%NULL%1,                         X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                         Chas%DeBolt%NULL%1,                         Scott%Lindquist%NULL%1,                         Kathy H.%Lofy%NULL%1,                         John%Wiesman%NULL%1,                         Hollianne%Bruce%NULL%0,                         Christopher%Spitters%NULL%0,                         Keith%Ericson%NULL%1,                         Sara%Wilkerson%NULL%1,                         Ahmet%Tural%NULL%1,                         George%Diaz%NULL%1,                         Amanda%Cohn%NULL%2,                         LeAnne%Fox%NULL%1,                         Anita%Patel%NULL%1,                         Susan I.%Gerber%NULL%1,                         Lindsay%Kim%NULL%1,                         Suxiang%Tong%NULL%1,                         Xiaoyan%Lu%NULL%1,                         Steve%Lindstrom%NULL%1,                         Mark A.%Pallansch%NULL%1,                         William C.%Weldon%NULL%1,                         Holly M.%Biggs%NULL%1,                         Timothy M.%Uyeki%NULL%0,                         Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                         Tianzhu%Liu%NULL%2,                         Tianzhu%Liu%NULL%0,                         Lesheng%Huang%NULL%2,                         Lesheng%Huang%NULL%0,                         Hailong%Liu%NULL%2,                         Hailong%Liu%NULL%0,                         Ming%Lei%NULL%1,                         Wangdong%Xu%NULL%2,                         Wangdong%Xu%NULL%0,                         Xiaolu%Hu%NULL%1,                         Jun%Chen%NULL%3,                         Bo%Liu%liubogzcm@163.com%3,                         Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                         Juanjuan%Guo%NULL%0,                         Chen%Wang%NULL%0,                         Fan%Luo%NULL%0,                         Xuechen%Yu%NULL%0,                         Wei%Zhang%NULL%0,                         Jiafu%Li%NULL%0,                         Dongchi%Zhao%NULL%0,                         Dan%Xu%NULL%0,                         Qing%Gong%NULL%0,                         Jing%Liao%NULL%0,                         Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                         Wei%Hou%houwei@whu.edu.cn%0,                         Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                         Junfeng%Li%NULL%1,                         Xun%Li%NULL%0,                         Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                         Xuhua%Guan%NULL%1,                         Peng%Wu%NULL%1,                         Xiaoye%Wang%NULL%1,                         Lei%Zhou%NULL%0,                         Yeqing%Tong%NULL%1,                         Ruiqi%Ren%NULL%1,                         Kathy S.M.%Leung%NULL%1,                         Eric H.Y.%Lau%NULL%1,                         Jessica Y.%Wong%NULL%1,                         Xuesen%Xing%NULL%1,                         Nijuan%Xiang%NULL%0,                         Yang%Wu%NULL%1,                         Chao%Li%NULL%1,                         Qi%Chen%NULL%1,                         Dan%Li%NULL%1,                         Tian%Liu%NULL%1,                         Jing%Zhao%NULL%1,                         Man%Liu%NULL%1,                         Wenxiao%Tu%NULL%1,                         Chuding%Chen%NULL%1,                         Lianmei%Jin%NULL%1,                         Rui%Yang%NULL%1,                         Qi%Wang%NULL%1,                         Suhua%Zhou%NULL%1,                         Rui%Wang%NULL%2,                         Hui%Liu%NULL%0,                         Yinbo%Luo%NULL%1,                         Yuan%Liu%NULL%1,                         Ge%Shao%NULL%1,                         Huan%Li%NULL%1,                         Zhongfa%Tao%NULL%1,                         Yang%Yang%NULL%0,                         Zhiqiang%Deng%NULL%1,                         Boxi%Liu%NULL%1,                         Zhitao%Ma%NULL%1,                         Yanping%Zhang%NULL%1,                         Guoqing%Shi%NULL%1,                         Tommy T.Y.%Lam%NULL%1,                         Joseph T.%Wu%NULL%1,                         George F.%Gao%NULL%3,                         Benjamin J.%Cowling%NULL%2,                         Bo%Yang%NULL%4,                         Bo%Yang%NULL%0,                         Gabriel M.%Leung%NULL%1,                         Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                         Zhenyu%Gong%NULL%2,                         Zhenyu%Gong%NULL%0,                         Zuke%Xiao%NULL%2,                         Zuke%Xiao%NULL%0,                         Jingliang%Xiong%NULL%1,                         Bing%Fan%NULL%2,                         Jiaqi%Liu%NULL%2,                         Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Preliminary study of the relationship between novel coronavirus pneumonia and liver function damage: a multicenter study].</t>
+  </si>
+  <si>
+    <t>Objective: To analyze the clinical characteristics of cases of novel coronavirus pneumonia and a preliminary study to explore the relationship between different clinical classification and liver damage. Methods: Consecutively confirmed novel coronavirus infection cases admitted to seven designated hospitals during January 23, 2020 to February 8, 2020 were included. Clinical classification (mild, moderate, severe, and critical) was carried out according to the diagnosis and treatment program of novel coronavirus pneumonia (Trial Fifth Edition) issued by the National Health Commission. The research data were analyzed using SPSS19.0 statistical software. Quantitative data were expressed as median (interquartile range), and qualitative data were expressed as frequency and rate. Results: 32 confirmed cases that met the inclusion criteria were included. 28 cases were of mild or moderate type (87.50%), and four cases (12.50%) of severe or critical type. Four cases (12.5%) were combined with one underlying disease (bronchial asthma, coronary heart disease, malignant tumor, chronic kidney disease), and one case (3.13%) was simultaneously combined with high blood pressure and malignant tumor. The results of laboratory examination showed that the alanine aminotransferase (ALT), aspartate aminotransferase (AST), albumin (ALB), and total bilirubin (TBil) for entire cohort were 26.98 (16.88 ~ 46.09) U/L and 24.75 (18.71 ~ 31.79) U/L, 39.00 (36.20 ~ 44.20) g/L and 16.40 (11.34- ~ 21.15) mmol/L, respectively. ALT, AST, ALB and TBil of the mild or moderate subgroups were 22.75 (16.31- ~ 37.25) U/L, 23.63 (18.71 ~ 26.50) U/L, 39.70 (36.50 ~ 46.10) g/L, and 15.95 (11.34 ~ 20.83) mmol/L, respectively. ALT, AST, ALB and TBil of the severe or critical subgroups were 60.25 (40.88 ~ 68.90) U/L, 37.00 (20.88 ~ 64.45) U/L, 35.75 (28.68 ~ 42.00) g/L, and 20.50 (11.28 ~ 25.00) mmol/L, respectively. Conclusion: The results of this multicenter retrospective study suggests that novel coronavirus pneumonia combined with liver damage is more likely to be caused by adverse drug reactions and systemic inflammation in severe patients receiving medical treatment. Therefore, liver function monitoring and evaluation should be strengthened during the treatment of such patients.</t>
+  </si>
+  <si>
+    <t>[ C%Liu%elasticNoEmail%1,  Z C% Jiang%elasticNoEmail%1,  C X% Shao%elasticNoEmail%1,  H G% Zhang%elasticNoEmail%1,  H M% Yue%elasticNoEmail%1,  Z H% Chen%elasticNoEmail%1,  B Y% Ma%elasticNoEmail%1,  W Y% Liu%elasticNoEmail%1,  H H% Huang%elasticNoEmail%1,  J% Yang%elasticNoEmail%1,  Y% Wang%elasticNoEmail%1,  H Y% Liu%elasticNoEmail%1,  D% Xu%elasticNoEmail%1,  J T% Wang%elasticNoEmail%1,  J Y% Yang%elasticNoEmail%1,  H Q% Pan%elasticNoEmail%1,  S Q% Zou%elasticNoEmail%1,  F J% Li%elasticNoEmail%3,  J Q% Lei%elasticNoEmail%1,  X% Li%elasticNoEmail%1,  Q% He%elasticNoEmail%1,  Y% Gu%elasticNoEmail%1,  X L% Qi%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%0,                         Yan%Deng%NULL%0,                         Wei%Liu%NULL%0,                         Mei-Fang%Wang%NULL%0,                         Jing-Ping%Ma%NULL%0,                         Wei%Xiao%NULL%0,                         Ying-Nan%Wang%NULL%0,                         Min-Hua%Zhong%NULL%0,                         Cheng-Hong%Li%NULL%0,                         Guang-Cai%Li%NULL%0,                         Hui-Guo%Liu%NULL%0,                         Xiu-Yuan%Hao%NULL%0,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Clinical characteristics of 30 medical workers infected with new coronavirus pneumonia].</t>
+  </si>
+  <si>
+    <t>Objective: To investigate the clinical characteristics of medical staff with novel coronavirus pneumonia(NCP). Methods: 30 patients infected with novel coronavirus referred to jianghan university hospital between January 11, 2020 and January 3, 2020 were studied. The data reviewed included those of clinical manifestations, laboratory investigation and Radiographic features. Results: The patients consisted of 10 men and 20 women, including 22 doctors and 8 nurses,aged 21~59 years(mean 35±8 years).They were divided to 26 common type and 4 severe cases, all of whom had close(within 1m) contact with patients infected of novel coronavirus pneumonia. The average contact times were 12 (7,16) and the average cumulative contact time was 2 (1.5,2.7) h.Clinical symptoms of these patients were fever in 23 patients (76.67%) , headache in 16 petients (53.33%) , fatigue or myalgia in 21patients (70%) , nausea, vomiting or diarrhea in 9 petients (30%) , cough in 25 petients (83.33%) , and dyspnea in 14 petients (46.67%) .Routine blood test revealed WBC&lt;4.0×10(9)/L in 8 petients (26.67%) , (4-10) ×10(9)/L in 22 petients (73.33%) , and WBC&gt;4.0×10(9)/L in 4 petients (13.33%) during the disease.Lymphocyte count&lt;1.0×10(9)/L occurred in 12 petients (40%),abnormal liver function in 7 petients (23.33%) ,myocardial damage in 5 petients(16.67%), elevated D-dimer (&gt;0.5mg/l) in 5 patients (16.67%). Compared with normal patients, the average exposure times, cumulative exposure time, BMI, Fever time, white blood cell count, liver enzyme, LDH, myoenzyme and D-dimer were significantly increased in severe patients, while the lymphocyte count and albumin levels in peripheral blood were significantly decreased.Chest CT mainly showed patchy shadows and interstitial changes.According to imaging examination, 11 patients (36.67%) showed Unilateral pneumonia and 19 patients (63.33%) showed bilateral pneumonia,4 patients (13.33%) showed bilateral multiple mottling and ground-glass opacity.Compared with the patients infected in the protected period, the proportion of severe infection and bilateral pneumonia were both increased in the patients infected in unprotected period. Conclusion: Medical staffs are at higher risk of infection.Infection rates are associated with contact time, the amount of suction virus. Severe patients had BMI increased, heating time prolonged, white blood cell count, lymphocyte count, D-dimer and albumin level significantly changed and were prone to be complicated with liver damage and myocardial damage.Strict protection measures is important to prevent infection for medical workers.</t>
+  </si>
+  <si>
+    <t>[ M%Liu%elasticNoEmail%2,  P% He%elasticNoEmail%2,  H G% Liu%elasticNoEmail%4,  X J% Wang%elasticNoEmail%2,  F J% Li%elasticNoEmail%0,  S% Chen%elasticNoEmail%2,  J% Lin%elasticNoEmail%2,  P% Chen%elasticNoEmail%2,  J H% Liu%elasticNoEmail%2,  C H% Li%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                         Xian-zheng%Tan%xianzhengtan@163.com%2,                         Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                         Tianhe%Ye%NULL%0,                         Tianhe%Ye%NULL%0,                         Peng%Sun%NULL%0,                         Peng%Sun%NULL%0,                         Shan%Gui%NULL%0,                         Shan%Gui%NULL%0,                         Bo%Liang%NULL%0,                         Bo%Liang%NULL%0,                         Lingli%Li%NULL%0,                         Lingli%Li%NULL%0,                         Dandan%Zheng%NULL%0,                         Dandan%Zheng%NULL%0,                         Jiazheng%Wang%NULL%0,                         Jiazheng%Wang%NULL%0,                         Richard L.%Hesketh%NULL%0,                         Richard L.%Hesketh%NULL%0,                         Lian%Yang%yanglian@hust.edu.cn%0,                         Lian%Yang%yanglian@hust.edu.cn%0,                         Chuansheng%Zheng%NULL%0,                         Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                         Thuong V.%Nguyen%NULL%1,                         Quang C.%Luong%NULL%1,                         Thinh V.%Nguyen%NULL%1,                         Hieu T.%Nguyen%NULL%1,                         Hung Q.%Le%NULL%2,                         Hung Q.%Le%NULL%0,                         Thuc T.%Nguyen%NULL%1,                         Thang M.%Cao%NULL%2,                         Thang M.%Cao%NULL%0,                         Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                         Krit%Pongpirul%NULL%2,                         Krit%Pongpirul%NULL%0,                         Anuttra C.%Ratnarathon%NULL%2,                         Anuttra C.%Ratnarathon%NULL%0,                         Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                         Ye-Ming%Wang%NULL%1,                         Zhi-Qiang%Wu%NULL%1,                         Zi-Chun%Xiang%NULL%1,                         Li%Guo%NULL%0,                         Teng%Xu%NULL%1,                         Yong-Zhong%Jiang%NULL%1,                         Yan%Xiong%NULL%0,                         Yong-Jun%Li%NULL%1,                         Xing-Wang%Li%NULL%1,                         Hui%Li%NULL%0,                         Guo-Hui%Fan%NULL%1,                         Xiao-Ying%Gu%NULL%1,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Jiu-Yang%Xu%NULL%1,                         Fan%Yang%NULL%1,                         Xin-Ming%Wang%NULL%1,                         Chao%Wu%NULL%1,                         Lan%Chen%NULL%1,                         Yi-Wei%Liu%NULL%1,                         Bo%Liu%NULL%0,                         Jian%Yang%NULL%1,                         Xiao-Rui%Wang%NULL%1,                         Jie%Dong%NULL%1,                         Li%Li%NULL%0,                         Chao-Lin%Huang%NULL%1,                         Jian-Ping%Zhao%NULL%1,                         Yi%Hu%NULL%0,                         Zhen-Shun%Cheng%NULL%1,                         Lin-Lin%Liu%NULL%1,                         Zhao-Hui%Qian%NULL%1,                         Chuan%Qin%NULL%1,                         Qi%Jin%NULL%0,                         Bin%Cao%NULL%0,                         Jian-Wei%Wang%NULL%1,                         Xiu-Yuan%Hao%NULL%0,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                         Mirjam%Schunk%NULL%1,                         Peter%Sothmann%NULL%1,                         Gisela%Bretzel%NULL%1,                         Guenter%Froeschl%NULL%1,                         Claudia%Wallrauch%NULL%1,                         Thorbjörn%Zimmer%NULL%1,                         Verena%Thiel%NULL%1,                         Christian%Janke%NULL%1,                         Wolfgang%Guggemos%NULL%2,                         Wolfgang%Guggemos%NULL%0,                         Michael%Seilmaier%NULL%1,                         Christian%Drosten%NULL%2,                         Christian%Drosten%NULL%0,                         Patrick%Vollmar%NULL%2,                         Patrick%Vollmar%NULL%0,                         Katrin%Zwirglmaier%NULL%1,                         Sabine%Zange%NULL%1,                         Roman%Wölfel%NULL%1,                         Michael%Hoelscher%NULL%2,                         Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                         Xiaoyu%Han%NULL%2,                         Xiaoyu%Han%NULL%0,                         Chuansheng%Zheng%hqzcsxh@sina.com%0,                         Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                         Lynfa%Stroud%NULL%1,                         Graham Edward%Cleghorn%NULL%1,                         Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                         Nannan%Shi%NULL%2,                         Nannan%Shi%NULL%0,                         Fei%Shan%NULL%1,                         Zhiyong%Zhang%NULL%1,                         Jie%Shen%NULL%1,                         Hongzhou%Lu%NULL%0,                         Yun%Ling%NULL%0,                         Yebin%Jiang%NULL%2,                         Yebin%Jiang%NULL%0,                         Yuxin%Shi%shiyuxin@shphc.org.cn%0,                         Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                         Jianming%Tang%15900792812@163.com%1,                         Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                         Zheng%Zhong%NULL%2,                         Zheng%Zhong%NULL%0,                         Wei%Zhao%NULL%2,                         Wei%Zhao%NULL%0,                         Chao%Zheng%NULL%2,                         Chao%Zheng%NULL%0,                         Fei%Wang%NULL%2,                         Fei%Wang%NULL%0,                         Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                         Chengcheng%Yu%1515185140@qq.com%0,                         Lieguang%Zhang%zhlieguang@126.com%0,                         Liangping%Luo%tluolp@jnu.edu.cn%0,                         Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                         Xiao-Xin%Wu%NULL%0,                         Xian-Gao%Jiang%NULL%0,                         Kai-Jin%Xu%NULL%0,                         Ling-Jun%Ying%NULL%0,                         Chun-Lian%Ma%NULL%0,                         Shi-Bo%Li%NULL%0,                         Hua-Ying%Wang%NULL%0,                         Sheng%Zhang%NULL%0,                         Hai-Nv%Gao%NULL%0,                         Ji-Fang%Sheng%NULL%0,                         Hong-Liu%Cai%NULL%0,                         Yun-Qing%Qiu%NULL%0,                         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[First case of neonate infected with novel coronavirus pneumonia in China].</t>
+  </si>
+  <si>
+    <t>1例以\"打喷嚏，伴间断吐奶1周\"为主诉的17日龄新生儿于2020年2月5日就诊于武汉儿童医院新生儿内科隔离病房，其父母于入院前3 d出现发热伴咳嗽，确诊新型冠状病毒肺炎（NCP）患者。患儿早期临床症状 轻，病程中出现一过性发热及腹泻，无严重并发症，反复咽拭子和肛拭子2019新型冠状病毒(2019-nCoV)核酸检测阳性，肺部影像学提示炎性改变，诊断为新生儿NCP，提示感染后新生儿呼吸道及消化道中均可存在病毒。需要关注新生儿作 为感染者和传播者的可能性，同时也提出针对新生儿NCP的医疗及家庭看护问题。.</t>
+  </si>
+  <si>
+    <t>[ L K%Zeng%elasticNoEmail%1,  X W% Tao%elasticNoEmail%1,  W H% Yuan%elasticNoEmail%1,  J% Wang%elasticNoEmail%1,  X% Liu%elasticNoEmail%1,  Z S% Liu%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%0,                       Dong%Xiang%coreGivesNoEmail%0,                       Gao%Ya-dong%coreGivesNoEmail%0,                       Yan%You-qin%coreGivesNoEmail%0,                       Yang%Yi-bin%coreGivesNoEmail%0,                       Yuan%Ya-dong%coreGivesNoEmail%0,                       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Clinical features of 2019 novel coronavirus pneumonia in the early stage from a fever clinic in Beijing].</t>
+  </si>
+  <si>
+    <t>Objective: To summarize and analyze the clinical and imaging characteristics of patients with 2019 novel coronavirus pneumonia in the early stage in Beijing. Methods: A retrospective analysis of clinical and imaging data of 9 patients with 2019 novel coronavirus infection diagnosed in one fever clinicic in Beijing from January 18, 2020 to February 3, 2020. Results: 5 male and 4 female was included in those 9 patients, whose median age was 36 years, and the age range from 15 to 49 years. 8 of these patients had no underlying disease and one suffered from diabetes. 7 patients had a history of travel to Wuhan City or Hubei Province, and one patient was a medical staff. Two family clustered was found. The incubation period was 1 to 6 days. The clinical manifestations were fever in 8 cases (8/9) , dry cough in 5 cases (5/9) , pharyngalgia in 4 cases (4/9) , fatigue in 4 cases (4/9) , body soreness in 4 cases (4/9) , and blocked or watery nose in 1 case (1/9) . Six patients (6/9) had abnormal cell peripheral blood, of which 3 (3/9) had an increased monocyte count, 2 (2/9) had a reduced lymphocyte , and 1 (1/9) had an increased leukocyte count, while the 3 patients had normal cell blood routines. The median of CRP was 16.3 mg/L, including 5 patients with slightly elevated (5/9) , 4 patients with normal values (4/9) . the results of procalcitonin test were negative in5 patients. Three patients were examined by chest X-ray examination, one of which was normal, one case showed infiltrates of right upper lung, and another showed in right lower lung. All patients underwent chest HRCT. And 7 cases (7/9) showed multiple ground glass exudation, including 5 cases (5/7) involved bilateral lungs, 2 cases (2/7) involved unilateral lung, 3 cases (3/7) with patchy consolidation, and 2 cases (2/9) showed no abnormality. Conclusions: The patents with 2019 novel coronavirus pneumonia in this study generally have an epidemiological history. The clinical manifestations are fever and cough. Peripheral white blood cell counts were most normal And PCT were all negative. Chest HRCT manifested as multiple ground-glass opacities with partly consolidation. Some patients had normal chest radiographs but HRCT showed pneumonia. Some patients had no pneumonia on chest HRCT.</t>
+  </si>
+  <si>
+    <t>[ M Q%Zhang%elasticNoEmail%1,  X H% Wang%elasticNoEmail%1,  Y L% Chen%elasticNoEmail%1,  K L% Zhao%elasticNoEmail%1,  Y Q% Cai%elasticNoEmail%1,  C L% An%elasticNoEmail%1,  M G% Lin%elasticNoEmail%1,  X D% Mu%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>[2019-novel coronavirus infection in a three-month-old baby].</t>
+  </si>
+  <si>
+    <t>患儿 女，3月19日龄，湖北孝感人，因发热4 h住院，外周血白细胞不高，胸X线片示右肺纹理略增粗，似有点片状阴影，咽拭子2019新型冠状病毒（2019-nCoV）核酸检测呈阳性，2019-nCoV感染诊断成立，符合 普通型。经积极治疗15 d后痊愈出院。患儿呼吸道症状出现较晚，症状较轻。患儿父母在患儿发病7 d后2019-nCoV检测阳性，提示家庭内传播是2019-nCoV感染的重要传播途径。患儿虽然连续3次咽拭子转阴，同期的痰及粪便仍可检出2019-nCoV核酸。患儿母亲无发热及呼吸道症状，但胸部CT发现左肺及右上肺渗出性病变，提示肺部病变可见于无症状2019-nCoV感染者。.</t>
+  </si>
+  <si>
+    <t>[ Y H%Zhang%elasticNoEmail%1,  D J% Lin%elasticNoEmail%1,  M F% Xiao%elasticNoEmail%1,  J C% Wang%elasticNoEmail%1,  Y% Wei%elasticNoEmail%1,  Z X% Lei%elasticNoEmail%1,  Z Q% Zeng%elasticNoEmail%1,  L% Li%elasticNoEmail%1,  H A% Li%elasticNoEmail%1,  W% Xiang%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                         Xiaochen%Li%NULL%2,                         Xiaochen%Li%NULL%0,                         Wei%Zhang%NULL%0,                         Zheng-Li%Shi%NULL%1,                         Zhishui%Zheng%NULL%1,                         Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                         Nak-Jung%Kwon%NULL%2,                         Nak-Jung%Kwon%NULL%0,                         Su-Jin%Choi%NULL%2,                         Su-Jin%Choi%NULL%0,                         Chang Kyung%Kang%NULL%2,                         Chang Kyung%Kang%NULL%0,                         Pyoeng Gyun%Choe%NULL%4,                         Pyoeng Gyun%Choe%NULL%0,                         Jin Yong%Kim%NULL%4,                         Jin Yong%Kim%NULL%0,                         Jiyoung%Yun%NULL%2,                         Jiyoung%Yun%NULL%0,                         Gir-Won%Lee%NULL%2,                         Gir-Won%Lee%NULL%0,                         Moon-Woo%Seong%NULL%2,                         Moon-Woo%Seong%NULL%0,                         Nam Joong%Kim%NULL%2,                         Nam Joong%Kim%NULL%0,                         Jeong-Sun%Seo%NULL%2,                         Jeong-Sun%Seo%NULL%0,                         Myoung-don%Oh%NULL%4,                         Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                         Seunghyun%Jeon%NULL%2,                         Seunghyun%Jeon%NULL%0,                         Hyun-Young%Shin%NULL%2,                         Hyun-Young%Shin%NULL%0,                         Moon Jung%Kim%NULL%2,                         Moon Jung%Kim%NULL%0,                         Yu Min%Seong%NULL%2,                         Yu Min%Seong%NULL%0,                         Wang Jun%Lee%NULL%2,                         Wang Jun%Lee%NULL%0,                         Kang-Won%Choe%NULL%2,                         Kang-Won%Choe%NULL%0,                         Yu Min%Kang%NULL%2,                         Yu Min%Kang%NULL%0,                         Baeckseung%Lee%NULL%2,                         Baeckseung%Lee%NULL%0,                         Sang-Joon%Park%NULL%2,                         Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                         Pyoeng Gyun%Choe%NULL%0,                         Pyoeng Gyun%Choe%NULL%0,                         Yoonju%Oh%NULL%2,                         Yoonju%Oh%NULL%0,                         Kyung Joong%Oh%NULL%2,                         Kyung Joong%Oh%NULL%0,                         Jinsil%Kim%NULL%2,                         Jinsil%Kim%NULL%0,                         So Jeong%Park%NULL%2,                         So Jeong%Park%NULL%0,                         Ji Hye%Park%NULL%2,                         Ji Hye%Park%NULL%0,                         Hye Kyoung%Na%NULL%2,                         Hye Kyoung%Na%NULL%0,                         Myoung-don%Oh%NULL%0,                         Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                          Q.% Lu%null%1,                          M.% Liu%null%1,                          Y.% Wang%null%1,                          A.% Zhang%null%1,                          N.% Jalali%null%1,                          N.% Dean%null%1,                          I.% Longini%null%1,                          M. E.% Halloran%null%1,                          B.% Xu%null%1,                          X.% Zhang%null%1,                          L.% Wang%null%1,                          W.% Liu%null%1,                          L. % Fang%null%1,        Y.%Yang%null%1,        Q.% Lu%null%1,        M.% Liu%null%1,        Y.% Wang%null%2,        A.% Zhang%null%1,        N.% Jalali%null%1,        N.% Dean%null%1,        I.% Longini%null%1,        M. E.% Halloran%null%1,        B.% Xu%null%1,        X.% Zhang%null%1,        L.% Wang%null%1,        W.% Liu%null%1,        L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                         Dingyu%Zhang%NULL%3,                         Wenling%Wang%NULL%2,                         Xingwang%Li%NULL%0,                         Bo%Yang%NULL%0,                         Jingdong%Song%NULL%2,                         Xiang%Zhao%NULL%2,                         Baoying%Huang%NULL%2,                         Weifeng%Shi%NULL%2,                         Roujian%Lu%NULL%2,                         Peihua%Niu%NULL%2,                         Faxian%Zhan%NULL%2,                         Xuejun%Ma%NULL%2,                         Dayan%Wang%NULL%2,                         Wenbo%Xu%NULL%2,                         Guizhen%Wu%NULL%2,                         George F.%Gao%NULL%0,                         Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                         Shuofeng%Yuan%NULL%1,                         Kin-Hang%Kok%NULL%1,                         Kelvin Kai-Wang%To%NULL%1,                         Hin%Chu%NULL%1,                         Jin%Yang%NULL%1,                         Fanfan%Xing%NULL%1,                         Jieling%Liu%NULL%1,                         Cyril Chik-Yan%Yip%NULL%1,                         Rosana Wing-Shan%Poon%NULL%1,                         Hoi-Wah%Tsoi%NULL%1,                         Simon Kam-Fai%Lo%NULL%1,                         Kwok-Hung%Chan%NULL%0,                         Vincent Kwok-Man%Poon%NULL%1,                         Wan-Mui%Chan%NULL%1,                         Jonathan Daniel%Ip%NULL%1,                         Jian-Piao%Cai%NULL%1,                         Vincent Chi-Chung%Cheng%NULL%1,                         Honglin%Chen%NULL%1,                         Christopher Kim-Ming%Hui%NULL%1,                         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Analysis of clinical features of 29 patients with 2019 novel coronavirus pneumonia].</t>
+  </si>
+  <si>
+    <t>Objective: To analyze the clinical characteristics of 2019 novel coronavirus (2019-nCoV) pneumonia and to investigate the correlation between serum inflammatory cytokines and severity of the disease. Methods: 29 patients with 2019-ncov admitted to the isolation ward of Tongji hospital affiliated to Tongji medical college of Huazhong University of Science and Technology in January 2020 were selected as the study subjects. Clinical data were collected and the general information, clinical symptoms, blood test and CT imaging characteristics were analyzed. According to the relevant diagnostic criteria, the patients were divided into three groups: mild (15 cases), severe (9 cases) and critical (5 cases). The expression levels of inflammatory cytokines and other markers in the serum of each group were detected, and the changes of these indicators of the three groups were compared and analyzed, as well as their relationship with the clinical classification of the disease. Results: (1) The main symptoms of 2019-nCoV pneumonia was fever (28/29) with or without respiratory and other systemic symptoms. Two patients died with underlying disease and co-bacterial infection, respectively. (2) The blood test of the patients showed normal or decreased white blood cell count (23/29), decreased lymphocyte count (20/29), increased hypersensitive C reactive protein (hs-CRP) (27/29), and normal procalcitonin. In most patients, serum lactate dehydrogenase (LDH) was significantly increased (20/29), while albumin was decreased (15/29). Alanine aminotransferase (ALT), aspartate aminotransferase (AST), total bilirubin (Tbil), serum creatinine (Scr) and other items showed no significant changes. (3) CT findings of typical cases were single or multiple patchy ground glass shadows accompanied by septal thickening. When the disease progresses, the lesion increases and the scope expands, and the ground glass shadow coexists with the solid shadow or the stripe shadow. (4) There were statistically significant differences in the expression levels of interleukin-2 receptor (IL-2R) and IL-6 in the serum of the three groups (P&lt;0.05), among which the critical group was higher than the severe group and the severe group was higher than the mild group. However, there were no statistically significant differences in serum levels of tumor necrosis factor-alpha (TNF-α), IL-1, IL-8, IL-10, hs-CRP, lymphocyte count and LDH among the three groups (P&gt;0.05). Conclusion: The clinical characteristics of 2019-nCoV pneumonia are similar to those of common viral pneumonia. High resolution CT is of great value in the differential diagnosis of this disease. The increased expression of IL-2R and IL-6 in serum is expected to predict the severity of the 2019-nCoV pneumonia and the prognosis of patients.</t>
+  </si>
+  <si>
+    <t>[ L%Chen%elasticNoEmail%2,  H G% Liu%elasticNoEmail%0,  W% Liu%elasticNoEmail%2,  J% Liu%elasticNoEmail%2,  K% Liu%elasticNoEmail%2,  J% Shang%elasticNoEmail%2,  Y% Deng%elasticNoEmail%2,  S% Wei%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Analysis of CT features of 15 Children with 2019 novel coronavirus infection].</t>
+  </si>
+  <si>
+    <t>Objective: To explore imaging characteristics of children with 2019 novel coronavirus (2019-nCoV) infection. Methods: A retrospective analysis was performed on clinical data and chest CT images of 15 children diagnosed with 2019-nCoV. They were admitted to the third people's Hospital of Shenzhen from January 16 to February 6, 2020. The distribution and morphology of pulmonary lesions on chest CT images were analyzed. Results: Among the 15 children, there were 5 males and 10 females, aged from 4 to 14 years old. Five of the 15 children were febrile and 10 were asymptomatic on first visit. The first nasal or pharyngeal swab samples in all the 15 cases were positive for 2019-nCoV nucleic acid. For their first chest CT images, 6 patients had no lesions, while 9 patients had pulmonary inflammation lesions. Seven cases of small nodular ground glass opacities and 2 cases of speckled ground glass opacities were found. After 3 to 5 days of treatment, 2019-nCoV nucleic acid in a second respiratory sample turned negative in 6 cases. Among them, chest CT images showed less lesions in 2 cases, no lesion in 3 cases, and no improvement in 1 case. Other 9 cases were still positive in a second nucleic acid test. Six patients showed similar chest CT inflammation, while 3 patients had new lesions, which were all small nodular ground glass opacities. Conclusions: The early chest CT images of children with 2019-nCoV infection are mostly small nodular ground glass opacities. The clinical symptoms of children with 2019-nCoV infection are nonspecific. Dynamic reexamination of chest CT and nucleic acid are important.</t>
+  </si>
+  <si>
+    <t>[ K%Feng%elasticNoEmail%0,  Y X% Yun%elasticNoEmail%0,  X F% Wang%elasticNoEmail%0,  G D% Yang%elasticNoEmail%0,  Y J% Zheng%elasticNoEmail%0,  C M% Lin%elasticNoEmail%0,  L F% Wang%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                          Dengju%Li%NULL%0,                          Xiong%Wang%NULL%0,                          Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yueying%Pan%NULL%1,                          Hanxiong%Guan%NULL%1,                          Shuchang%Zhou%NULL%1,                          Yujin%Wang%NULL%1,                          Qian%Li%NULL%1,                          Tingting%Zhu%NULL%1,                          Qiongjie%Hu%qjhu@outlook.com%1,                          Liming%Xia%lmxia@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To evaluate the exported risk of novel coronavirus pneumonia (NCP) from Hubei Province and the imported risk in various provinces across China.
+ Methods: Data of reported NCP cases and Baidu Migration Indexin all provinces of the country as of February 14, 2020 were collected.
+ The correlation analysis between cumulative number of reported cases and the migration index from Hubei was performed, and the imported risks from Hubei to different provinces across China were further evaluated.
+ Results: A total of 49 970 confirmed cases were reported nationwide, of which 37 884 were in Hubei Province.
+ The average daily migration index from Hubei to other provinces was 312.09, Wuhan and other cities in Hubei were 117.95 and 194.16, respectively.
+ The cumulative NCP cases of provinces was positively correlated with the migration index derived from Hubei province, also in Wuhan and other cities in Hubei, with correlation coefficients of 0.84, 0.84, and 0.81. In linear model, population migration from Hubei Province, Wuhan and other cities in Hubei account for 71.2%, 70.1%, and 66.3% of the variation, respectively.
+ The period of high exported risk from Hubei occurred before January 27, of which the risks before January 23 mainly came from Wuhan, and then mainly from other cities in Hubei.
+ Hunan Province, Henan Province and Guangdong Province ranked the top three in terms of cumulative imported risk (the cumulative risk indices were 58.61, 54.75 and 49.62 respectively).
+ Conclusion: The epidemic in each province was mainly caused by the importation of Hubei Province.
+ Taking measures such as restricting the migration of population in Hubei Province and strengthening quarantine measures for immigrants from Hubei Province may greatly reduce the risk of continued spread of the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[ J X%Hu%elasticNoEmail%1,   G H% He%elasticNoEmail%1,   T% Liu%elasticNoEmail%1,   J P% Xiao%elasticNoEmail%1,   Z H% Rong%elasticNoEmail%1,   L C% Guo%elasticNoEmail%1,   W L% Zeng%elasticNoEmail%1,   Z H% Zhu%elasticNoEmail%1,   D X% Gong%elasticNoEmail%1,   L H% Yin%elasticNoEmail%1,   D H% Wan%elasticNoEmail%1,   L L% Zeng%elasticNoEmail%1,   W J% Ma%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kaiyuan%Sun%NULL%1,                          Jenny%Chen%NULL%1,                          Cécile%Viboud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%3,                          Yang%Yang%NULL%4,                          Cong%Zhang%NULL%0,                          Fengming%Huang%NULL%1,                          Fuxiang%Wang%NULL%1,                          Jing%Yuan%NULL%1,                          Zhaoqin%Wang%NULL%0,                          Jinxiu%Li%NULL%1,                          Jianming%Li%NULL%1,                          Cheng%Feng%NULL%1,                          Zheng%Zhang%NULL%1,                          Lifei%Wang%NULL%1,                          Ling%Peng%NULL%1,                          Li%Chen%NULL%0,                          Yuhao%Qin%NULL%1,                          Dandan%Zhao%NULL%1,                          Shuguang%Tan%NULL%1,                          Lu%Yin%NULL%2,                          Jun%Xu%NULL%1,                          Congzhao%Zhou%NULL%1,                          Chengyu%Jiang%jiang@pumc.edu.cn%1,                          Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Adam%Bernheim%adam.bernheim@mountsinai.org%1,                          Xueyan%Mei%NULL%4,                          Xueyan%Mei%NULL%0,                          Mingqian%Huang%NULL%4,                          Mingqian%Huang%NULL%0,                          Yang%Yang%NULL%0,                          Zahi A.%Fayad%NULL%0,                          Zahi A.%Fayad%NULL%0,                          Ning%Zhang%NULL%5,                          Ning%Zhang%NULL%0,                          Kaiyue%Diao%NULL%2,                          Kaiyue%Diao%NULL%0,                          Bin%Lin%NULL%1,                          Xiqi%Zhu%NULL%2,                          Xiqi%Zhu%NULL%0,                          Kunwei%Li%NULL%2,                          Shaolin%Li%NULL%2,                          Hong%Shan%NULL%0,                          Adam%Jacobi%NULL%3,                          Adam%Jacobi%NULL%0,                          Michael%Chung%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The epidemiological history and clinical characteristics of 7 cases of COVID-19 and 1 case of close contact in the first family aggregation epidemic of COVID-19 in Gansu Province were analyzed.
+ The first patient A developed on January 22, 2020, with a history of residence in Wuhan, and confirmed severe cases of NCP on January 24, 2020; patient B, on January 23, 2020, diagnosed on January 31, severe cases; patient C, asymptomatic, diagnosed on January 27; patient D, asymptomatic, diagnosed on January 27; patient E, on January 24, diagnosed on January 28; patient F, asymptomatic, diagnosed on January 31; Patient G was asymptomatic and was diagnosed on January 31. In close contact, H was asymptomatic, PCR test was negative and asymptomatic, and he was discharged early.
+ Among the 7 patients, 1 case died of (B) aggravation, and the other patients' condition was effectively controlled after active treatment.
+ Except for the discharged cases, 5 cases were positive for COVID-19 specific IgM antibody and 1 case was negative.
+ In this clustering outbreak, 4 patients remained asymptomatic, but PCR and IgM antibodies were positive, indicating that asymptomatic patients may be the key point to control the epidemic.
+ Specific IgM antibody screening for patients whose pharyngeal swab nucleic acid test is negative but with ground glass-like lung lesions is very important for early detection and early isolation.
+</t>
+  </si>
+  <si>
+    <t>[ S L%Bai%elasticNoEmail%1,   J Y% Wang%elasticNoEmail%1,   Y Q% Zhou%elasticNoEmail%1,   D S% Yu%elasticNoEmail%1,   X M% Gao%elasticNoEmail%1,   L L% Li%elasticNoEmail%1,   F% Yang%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Bastola%NULL%1,                          Ranjit%Sah%ranjitsah@iom.edu.np%0,                          Alfonso J%Rodriguez-Morales%NULL%1,                          Bibek Kumar%Lal%NULL%1,                          Runa%Jha%NULL%1,                          Hemant Chanda%Ojha%NULL%1,                          Bikesh%Shrestha%NULL%1,                          Daniel K W%Chu%NULL%1,                          Leo L M%Poon%NULL%1,                          Anthony%Costello%NULL%1,                          Kouichi%Morita%NULL%1,                          Basu Dev%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报道上海第l例确诊新型冠状病毒(2019-nCoV)感染患儿的诊治经过。患儿 男，7岁，因\"发热3 h伴咳嗽\"以及父亲被确诊2019-nCoV感染的肺炎收入复旦大学附属儿科医院负压病房。经过对症治疗后治愈。儿童2019-nCoV感染临床表现相对成人较轻，家庭内传播是儿童感染重要的途径。本例患儿虽然症状轻，但恢复期连续2次2019-nCoV核酸检测阳性，提示需要观察轻症儿童病例在恢复期无症状排毒的传染性。.
+</t>
+  </si>
+  <si>
+    <t>[ J H%Cai%elasticNoEmail%1,   X S% Wang%elasticNoEmail%1,   Y L% Ge%elasticNoEmail%1,   A M% Xia%elasticNoEmail%1,   H L% Chang%elasticNoEmail%1,   H% Tian%elasticNoEmail%1,   Y X% Zhu%elasticNoEmail%1,   Q R% Wang%elasticNoEmail%1,   J S% Zeng%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1例主诉为\"间断腹泻、呕吐6 d，发热伴呼吸急促半天\"的患儿就诊于武汉儿童医院重症医学科，诊断为儿童危重型新型冠状病毒肺炎（NCP）。以\"新型冠状病毒肺炎\"\"儿童\"\"危重型\"为关键词检索截至2020年2月8日中国知网、维普网、万方等相关数据库，未见报道。本例为中国首例危重型NCP患儿，以消化道症状起病，早期呼吸道症状不明显，快速进展为急性呼吸窘迫综合征、脓毒症休克并伴有急性肾衰竭。患儿早期连续2次咽拭子2019 新型冠状病毒（2019-nCoV）核酸检测阴性。对于重症疑似病例，建议采集下呼吸道样本或重复采集上呼吸道样本进行检测。体外连续血液净化技术可尽早应用到危重型NCP患儿的救治中。.
+</t>
+  </si>
+  <si>
+    <t>[ F%Chen%elasticNoEmail%1,   Z S% Liu%elasticNoEmail%2,   F R% Zhang%elasticNoEmail%1,   R H% Xiong%elasticNoEmail%1,   Y% Chen%elasticNoEmail%1,   X F% Cheng%elasticNoEmail%1,   W Y% Wang%elasticNoEmail%1,   J% Ren%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%0,                          Xuan%Dong%NULL%0,                          Jieming%Qu%NULL%0,                          Fengyun%Gong%NULL%0,                          Yang%Han%NULL%0,                          Yang%Qiu%NULL%0,                          Jingli%Wang%NULL%0,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%0,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael%Chung%NULL%1,                          Adam%Bernheim%NULL%2,                          Adam%Bernheim%NULL%0,                          Xueyan%Mei%NULL%0,                          Xueyan%Mei%NULL%0,                          Ning%Zhang%NULL%0,                          Ning%Zhang%NULL%0,                          Mingqian%Huang%NULL%0,                          Mingqian%Huang%NULL%0,                          Xianjun%Zeng%NULL%1,                          Jiufa%Cui%NULL%1,                          Wenjian%Xu%NULL%2,                          Wenjian%Xu%NULL%0,                          Yang%Yang%NULL%0,                          Zahi A.%Fayad%NULL%0,                          Zahi A.%Fayad%NULL%0,                          Adam%Jacobi%NULL%0,                          Kunwei%Li%NULL%0,                          Shaolin%Li%NULL%0,                          Hong%Shan%Shanhong@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ya-ni%Duan%NULL%1,                          Jie%Qin%qinjie@mail.sysu.edu.cn%2,                          Jie%Qin%qinjie@mail.sysu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[X%Fang%NULL%1,                          M%Zhao%NULL%1,                          S%Li%NULL%1,                          L%Yang%NULL%1,                          B%Wu%bingwu69@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                          Huangqi%Zhang%NULL%4,                          Huangqi%Zhang%NULL%0,                          Jicheng%Xie%NULL%4,                          Jicheng%Xie%NULL%0,                          Minjie%Lin%NULL%2,                          Minjie%Lin%NULL%0,                          Lingjun%Ying%NULL%2,                          Lingjun%Ying%NULL%0,                          Peipei%Pang%NULL%4,                          Peipei%Pang%NULL%0,                          Wenbin%Ji%1224190004@qq.com%4,                          Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0,                          Huangqi%Zhang%NULL%0,                          Huangqi%Zhang%NULL%0,                          Yunyu%Xu%NULL%2,                          Yunyu%Xu%NULL%0,                          Jicheng%Xie%NULL%0,                          Jicheng%Xie%NULL%0,                          Peipei%Pang%NULL%0,                          Peipei%Pang%NULL%0,                          Wenbin%Ji%1224190004@qq.com%0,                          Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Marta%Giovanetti%NULL%1,                          Domenico%Benvenuto%NULL%1,                          Silvia%Angeletti%s.angeletti@unicampus.it%2,                          Silvia%Angeletti%s.angeletti@unicampus.it%0,                          Massimo%Ciccozzi%NULL%2,                          Massimo%Ciccozzi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[W.%Hao%hwdokgood@hotmail.com%1,                          M.%Li%NULL%1,                          X.%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle L.%Holshue%NULL%1,                          Chas%DeBolt%NULL%1,                          Scott%Lindquist%NULL%1,                          Kathy H.%Lofy%NULL%1,                          John%Wiesman%NULL%1,                          Hollianne%Bruce%NULL%0,                          Christopher%Spitters%NULL%0,                          Keith%Ericson%NULL%1,                          Sara%Wilkerson%NULL%1,                          Ahmet%Tural%NULL%1,                          George%Diaz%NULL%1,                          Amanda%Cohn%NULL%2,                          LeAnne%Fox%NULL%1,                          Anita%Patel%NULL%1,                          Susan I.%Gerber%NULL%1,                          Lindsay%Kim%NULL%1,                          Suxiang%Tong%NULL%1,                          Xiaoyan%Lu%NULL%1,                          Steve%Lindstrom%NULL%1,                          Mark A.%Pallansch%NULL%1,                          William C.%Weldon%NULL%1,                          Holly M.%Biggs%NULL%1,                          Timothy M.%Uyeki%NULL%0,                          Satish K.%Pillai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Peikai%Huang%NULL%1,                          Tianzhu%Liu%NULL%2,                          Tianzhu%Liu%NULL%0,                          Lesheng%Huang%NULL%2,                          Lesheng%Huang%NULL%0,                          Hailong%Liu%NULL%2,                          Hailong%Liu%NULL%0,                          Ming%Lei%NULL%1,                          Wangdong%Xu%NULL%2,                          Wangdong%Xu%NULL%0,                          Xiaolu%Hu%NULL%1,                          Jun%Chen%NULL%3,                          Bo%Liu%liubogzcm@163.com%3,                          Bo%Liu%liubogzcm@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                          Juanjuan%Guo%NULL%0,                          Chen%Wang%NULL%0,                          Fan%Luo%NULL%0,                          Xuechen%Yu%NULL%0,                          Wei%Zhang%NULL%0,                          Jiafu%Li%NULL%0,                          Dongchi%Zhao%NULL%0,                          Dan%Xu%NULL%0,                          Qing%Gong%NULL%0,                          Jing%Liao%NULL%0,                          Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                          Wei%Hou%houwei@whu.edu.cn%0,                          Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Ki%NULL%1,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Junqiang%Lei%NULL%1,                          Junfeng%Li%NULL%1,                          Xun%Li%NULL%0,                          Xiaolong%Qi%qixiaolong@vip.163.com%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0,                          Xuhua%Guan%NULL%1,                          Peng%Wu%NULL%1,                          Xiaoye%Wang%NULL%1,                          Lei%Zhou%NULL%0,                          Yeqing%Tong%NULL%1,                          Ruiqi%Ren%NULL%1,                          Kathy S.M.%Leung%NULL%1,                          Eric H.Y.%Lau%NULL%1,                          Jessica Y.%Wong%NULL%1,                          Xuesen%Xing%NULL%1,                          Nijuan%Xiang%NULL%0,                          Yang%Wu%NULL%1,                          Chao%Li%NULL%1,                          Qi%Chen%NULL%1,                          Dan%Li%NULL%1,                          Tian%Liu%NULL%1,                          Jing%Zhao%NULL%1,                          Man%Liu%NULL%1,                          Wenxiao%Tu%NULL%1,                          Chuding%Chen%NULL%1,                          Lianmei%Jin%NULL%1,                          Rui%Yang%NULL%1,                          Qi%Wang%NULL%1,                          Suhua%Zhou%NULL%1,                          Rui%Wang%NULL%2,                          Hui%Liu%NULL%0,                          Yinbo%Luo%NULL%1,                          Yuan%Liu%NULL%1,                          Ge%Shao%NULL%1,                          Huan%Li%NULL%1,                          Zhongfa%Tao%NULL%1,                          Yang%Yang%NULL%0,                          Zhiqiang%Deng%NULL%1,                          Boxi%Liu%NULL%1,                          Zhitao%Ma%NULL%1,                          Yanping%Zhang%NULL%1,                          Guoqing%Shi%NULL%1,                          Tommy T.Y.%Lam%NULL%1,                          Joseph T.%Wu%NULL%1,                          George F.%Gao%NULL%3,                          Benjamin J.%Cowling%NULL%2,                          Bo%Yang%NULL%4,                          Bo%Yang%NULL%0,                          Gabriel M.%Leung%NULL%1,                          Zijian%Feng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoqi%Lin%NULL%1,                          Zhenyu%Gong%NULL%2,                          Zhenyu%Gong%NULL%0,                          Zuke%Xiao%NULL%2,                          Zuke%Xiao%NULL%0,                          Jingliang%Xiong%NULL%1,                          Bing%Fan%NULL%2,                          Jiaqi%Liu%NULL%2,                          Jiaqi%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To analyze the clinical characteristics of cases of novel coronavirus pneumonia and a preliminary study to explore the relationship between different clinical classification and liver damage.
+ Methods: Consecutively confirmed novel coronavirus infection cases admitted to seven designated hospitals during January 23, 2020 to February 8, 2020 were included.
+ Clinical classification (mild, moderate, severe, and critical) was carried out according to the diagnosis and treatment program of novel coronavirus pneumonia (Trial Fifth Edition) issued by the National Health Commission.
+ The research data were analyzed using SPSS19.0 statistical software.
+ Quantitative data were expressed as median (interquartile range), and qualitative data were expressed as frequency and rate.
+ Results: 32 confirmed cases that met the inclusion criteria were included.
+ 28 cases were of mild or moderate type (87.50%), and four cases (12.50%) of severe or critical type.
+ Four cases (12.5%) were combined with one underlying disease (bronchial asthma, coronary heart disease, malignant tumor, chronic kidney disease), and one case (3.13%) was simultaneously combined with high blood pressure and malignant tumor.
+ The results of laboratory examination showed that the alanine aminotransferase (ALT), aspartate aminotransferase (AST), albumin (ALB), and total bilirubin (TBil) for entire cohort were 26.98 (16.88 ~ 46.09) U/L and 24.75 (18.71 ~ 31.79) U/L, 39.00 (36.20 ~ 44.20) g/L and 16.40 (11.34- ~ 21.15) mmol/L, respectively.
+ ALT, AST, ALB and TBil of the mild or moderate subgroups were 22.75 (16.31- ~ 37.25) U/L, 23.63 (18.71 ~ 26.50) U/L, 39.70 (36.50 ~ 46.10) g/L, and 15.95 (11.34 ~ 20.83) mmol/L, respectively.
+ ALT, AST, ALB and TBil of the severe or critical subgroups were 60.25 (40.88 ~ 68.90) U/L, 37.00 (20.88 ~ 64.45) U/L, 35.75 (28.68 ~ 42.00) g/L, and 20.50 (11.28 ~ 25.00) mmol/L, respectively.
+ Conclusion: The results of this multicenter retrospective study suggests that novel coronavirus pneumonia combined with liver damage is more likely to be caused by adverse drug reactions and systemic inflammation in severe patients receiving medical treatment.
+ Therefore, liver function monitoring and evaluation should be strengthened during the treatment of such patients.
+</t>
+  </si>
+  <si>
+    <t>[ C%Liu%elasticNoEmail%1,   Z C% Jiang%elasticNoEmail%1,   C X% Shao%elasticNoEmail%1,   H G% Zhang%elasticNoEmail%1,   H M% Yue%elasticNoEmail%1,   Z H% Chen%elasticNoEmail%1,   B Y% Ma%elasticNoEmail%1,   W Y% Liu%elasticNoEmail%1,   H H% Huang%elasticNoEmail%1,   J% Yang%elasticNoEmail%1,   Y% Wang%elasticNoEmail%1,   H Y% Liu%elasticNoEmail%1,   D% Xu%elasticNoEmail%1,   J T% Wang%elasticNoEmail%1,   J Y% Yang%elasticNoEmail%1,   H Q% Pan%elasticNoEmail%1,   S Q% Zou%elasticNoEmail%1,   F J% Li%elasticNoEmail%3,   J Q% Lei%elasticNoEmail%1,   X% Li%elasticNoEmail%1,   Q% He%elasticNoEmail%1,   Y% Gu%elasticNoEmail%1,   X L% Qi%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%0,                          Yan%Deng%NULL%0,                          Wei%Liu%NULL%0,                          Mei-Fang%Wang%NULL%0,                          Jing-Ping%Ma%NULL%0,                          Wei%Xiao%NULL%0,                          Ying-Nan%Wang%NULL%0,                          Min-Hua%Zhong%NULL%0,                          Cheng-Hong%Li%NULL%0,                          Guang-Cai%Li%NULL%0,                          Hui-Guo%Liu%NULL%0,                          Xiu-Yuan%Hao%NULL%0,                          Xiu-Yuan%Hao%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To investigate the clinical characteristics of medical staff with novel coronavirus pneumonia(NCP).
+ Methods: 30 patients infected with novel coronavirus referred to jianghan university hospital between January 11, 2020 and January 3, 2020 were studied.
+ The data reviewed included those of clinical manifestations, laboratory investigation and Radiographic features.
+ Results: The patients consisted of 10 men and 20 women, including 22 doctors and 8 nurses,aged 21~59 years(mean 35±8 years).
+They were divided to 26 common type and 4 severe cases, all of whom had close(within 1m) contact with patients infected of novel coronavirus pneumonia.
+ The average contact times were 12 (7,16) and the average cumulative contact time was 2 (1.5,2.7) h.
+Clinical symptoms of these patients were fever in 23 patients (76.67%) , headache in 16 petients (53.33%) , fatigue or myalgia in 21patients (70%) , nausea, vomiting or diarrhea in 9 petients (30%) , cough in 25 petients (83.33%) , and dyspnea in 14 petients (46.67%) .
+Routine blood test revealed WBC4.0×10(9)/L in 4 petients (13.33%) during the disease.
+Lymphocyte count0.5mg/l) in 5 patients (16.67%).
+ Compared with normal patients, the average exposure times, cumulative exposure time, BMI, Fever time, white blood cell count, liver enzyme, LDH, myoenzyme and D-dimer were significantly increased in severe patients, while the lymphocyte count and albumin levels in peripheral blood were significantly decreased.
+Chest CT mainly showed patchy shadows and interstitial changes.
+According to imaging examination, 11 patients (36.67%) showed Unilateral pneumonia and 19 patients (63.33%) showed bilateral pneumonia,4 patients (13.33%) showed bilateral multiple mottling and ground-glass opacity.
+Compared with the patients infected in the protected period, the proportion of severe infection and bilateral pneumonia were both increased in the patients infected in unprotected period.
+ Conclusion: Medical staffs are at higher risk of infection.
+Infection rates are associated with contact time, the amount of suction virus.
+ Severe patients had BMI increased, heating time prolonged, white blood cell count, lymphocyte count, D-dimer and albumin level significantly changed and were prone to be complicated with liver damage and myocardial damage.
+Strict protection measures is important to prevent infection for medical workers.
+</t>
+  </si>
+  <si>
+    <t>[ M%Liu%elasticNoEmail%2,   P% He%elasticNoEmail%2,   H G% Liu%elasticNoEmail%4,   X J% Wang%elasticNoEmail%2,   F J% Li%elasticNoEmail%0,   S% Chen%elasticNoEmail%2,   J% Lin%elasticNoEmail%2,   P% Chen%elasticNoEmail%2,   J H% Liu%elasticNoEmail%2,   C H% Li%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Peng%Liu%NULL%1,                          Xian-zheng%Tan%xianzhengtan@163.com%2,                          Xian-zheng%Tan%xianzhengtan@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                          Tianhe%Ye%NULL%0,                          Tianhe%Ye%NULL%0,                          Peng%Sun%NULL%0,                          Peng%Sun%NULL%0,                          Shan%Gui%NULL%0,                          Shan%Gui%NULL%0,                          Bo%Liang%NULL%0,                          Bo%Liang%NULL%0,                          Lingli%Li%NULL%0,                          Lingli%Li%NULL%0,                          Dandan%Zheng%NULL%0,                          Dandan%Zheng%NULL%0,                          Jiazheng%Wang%NULL%0,                          Jiazheng%Wang%NULL%0,                          Richard L.%Hesketh%NULL%0,                          Richard L.%Hesketh%NULL%0,                          Lian%Yang%yanglian@hust.edu.cn%0,                          Lian%Yang%yanglian@hust.edu.cn%0,                          Chuansheng%Zheng%NULL%0,                          Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lan T.%Phan%NULL%1,                          Thuong V.%Nguyen%NULL%1,                          Quang C.%Luong%NULL%1,                          Thinh V.%Nguyen%NULL%1,                          Hieu T.%Nguyen%NULL%1,                          Hung Q.%Le%NULL%2,                          Hung Q.%Le%NULL%0,                          Thuc T.%Nguyen%NULL%1,                          Thang M.%Cao%NULL%2,                          Thang M.%Cao%NULL%0,                          Quang D.%Pham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wannarat A.%Pongpirul%NULL%1,                          Krit%Pongpirul%NULL%2,                          Krit%Pongpirul%NULL%0,                          Anuttra C.%Ratnarathon%NULL%2,                          Anuttra C.%Ratnarathon%NULL%0,                          Wisit%Prasithsirikul%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                          Ye-Ming%Wang%NULL%1,                          Zhi-Qiang%Wu%NULL%1,                          Zi-Chun%Xiang%NULL%1,                          Li%Guo%NULL%0,                          Teng%Xu%NULL%1,                          Yong-Zhong%Jiang%NULL%1,                          Yan%Xiong%NULL%0,                          Yong-Jun%Li%NULL%1,                          Xing-Wang%Li%NULL%1,                          Hui%Li%NULL%0,                          Guo-Hui%Fan%NULL%1,                          Xiao-Ying%Gu%NULL%1,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Jiu-Yang%Xu%NULL%1,                          Fan%Yang%NULL%1,                          Xin-Ming%Wang%NULL%1,                          Chao%Wu%NULL%1,                          Lan%Chen%NULL%1,                          Yi-Wei%Liu%NULL%1,                          Bo%Liu%NULL%0,                          Jian%Yang%NULL%1,                          Xiao-Rui%Wang%NULL%1,                          Jie%Dong%NULL%1,                          Li%Li%NULL%0,                          Chao-Lin%Huang%NULL%1,                          Jian-Ping%Zhao%NULL%1,                          Yi%Hu%NULL%0,                          Zhen-Shun%Cheng%NULL%1,                          Lin-Lin%Liu%NULL%1,                          Zhao-Hui%Qian%NULL%1,                          Chuan%Qin%NULL%1,                          Qi%Jin%NULL%0,                          Bin%Cao%NULL%0,                          Jian-Wei%Wang%NULL%1,                          Xiu-Yuan%Hao%NULL%0,                          Xiu-Yuan%Hao%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Camilla%Rothe%NULL%1,                          Mirjam%Schunk%NULL%1,                          Peter%Sothmann%NULL%1,                          Gisela%Bretzel%NULL%1,                          Guenter%Froeschl%NULL%1,                          Claudia%Wallrauch%NULL%1,                          Thorbjörn%Zimmer%NULL%1,                          Verena%Thiel%NULL%1,                          Christian%Janke%NULL%1,                          Wolfgang%Guggemos%NULL%2,                          Wolfgang%Guggemos%NULL%0,                          Michael%Seilmaier%NULL%1,                          Christian%Drosten%NULL%2,                          Christian%Drosten%NULL%0,                          Patrick%Vollmar%NULL%2,                          Patrick%Vollmar%NULL%0,                          Katrin%Zwirglmaier%NULL%1,                          Sabine%Zange%NULL%1,                          Roman%Wölfel%NULL%1,                          Michael%Hoelscher%NULL%2,                          Michael%Hoelscher%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%0,                          Xiaoyu%Han%NULL%2,                          Xiaoyu%Han%NULL%0,                          Chuansheng%Zheng%hqzcsxh@sina.com%0,                          Chuansheng%Zheng%hqzcsxh@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[William Kyle%Silverstein%NULL%1,                          Lynfa%Stroud%NULL%1,                          Graham Edward%Cleghorn%NULL%1,                          Jerome Allen%Leis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%0,                          Nannan%Shi%NULL%2,                          Nannan%Shi%NULL%0,                          Fei%Shan%NULL%1,                          Zhiyong%Zhang%NULL%1,                          Jie%Shen%NULL%1,                          Hongzhou%Lu%NULL%0,                          Yun%Ling%NULL%0,                          Yebin%Jiang%NULL%2,                          Yebin%Jiang%NULL%0,                          Yuxin%Shi%shiyuxin@shphc.org.cn%0,                          Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Weier%Wang%NULL%1,                          Jianming%Tang%15900792812@163.com%1,                          Fangqiang%Wei%wdfwfq@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xingzhi%Xie%NULL%1,                          Zheng%Zhong%NULL%2,                          Zheng%Zhong%NULL%0,                          Wei%Zhao%NULL%2,                          Wei%Zhao%NULL%0,                          Chao%Zheng%NULL%2,                          Chao%Zheng%NULL%0,                          Fei%Wang%NULL%2,                          Fei%Wang%NULL%0,                          Jun%Liu%junliu123@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%736461654@qq.com%0,                          Chengcheng%Yu%1515185140@qq.com%0,                          Lieguang%Zhang%zhlieguang@126.com%0,                          Liangping%Luo%tluolp@jnu.edu.cn%0,                          Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                          Xiao-Xin%Wu%NULL%0,                          Xian-Gao%Jiang%NULL%0,                          Kai-Jin%Xu%NULL%0,                          Ling-Jun%Ying%NULL%0,                          Chun-Lian%Ma%NULL%0,                          Shi-Bo%Li%NULL%0,                          Hua-Ying%Wang%NULL%0,                          Sheng%Zhang%NULL%0,                          Hai-Nv%Gao%NULL%0,                          Ji-Fang%Sheng%NULL%0,                          Hong-Liu%Cai%NULL%0,                          Yun-Qing%Qiu%NULL%0,                          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1例以\"打喷嚏，伴间断吐奶1周\"为主诉的17日龄新生儿于2020年2月5日就诊于武汉儿童医院新生儿内科隔离病房，其父母于入院前3 d出现发热伴咳嗽，确诊新型冠状病毒肺炎（NCP）患者。患儿早期临床症状 轻，病程中出现一过性发热及腹泻，无严重并发症，反复咽拭子和肛拭子2019新型冠状病毒(2019-nCoV)核酸检测阳性，肺部影像学提示炎性改变，诊断为新生儿NCP，提示感染后新生儿呼吸道及消化道中均可存在病毒。需要关注新生儿作 为感染者和传播者的可能性，同时也提出针对新生儿NCP的医疗及家庭看护问题。.
+</t>
+  </si>
+  <si>
+    <t>[ L K%Zeng%elasticNoEmail%1,   X W% Tao%elasticNoEmail%1,   W H% Yuan%elasticNoEmail%1,   J% Wang%elasticNoEmail%1,   X% Liu%elasticNoEmail%1,   Z S% Liu%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%0,                        Dong%Xiang%coreGivesNoEmail%0,                        Gao%Ya-dong%coreGivesNoEmail%0,                        Yan%You-qin%coreGivesNoEmail%0,                        Yang%Yi-bin%coreGivesNoEmail%0,                        Yuan%Ya-dong%coreGivesNoEmail%0,                        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To summarize and analyze the clinical and imaging characteristics of patients with 2019 novel coronavirus pneumonia in the early stage in Beijing.
+ Methods: A retrospective analysis of clinical and imaging data of 9 patients with 2019 novel coronavirus infection diagnosed in one fever clinicic in Beijing from January 18, 2020 to February 3, 2020. Results: 5 male and 4 female was included in those 9 patients, whose median age was 36 years, and the age range from 15 to 49 years.
+ 8 of these patients had no underlying disease and one suffered from diabetes.
+ 7 patients had a history of travel to Wuhan City or Hubei Province, and one patient was a medical staff.
+ Two family clustered was found.
+ The incubation period was 1 to 6 days.
+ The clinical manifestations were fever in 8 cases (8/9) , dry cough in 5 cases (5/9) , pharyngalgia in 4 cases (4/9) , fatigue in 4 cases (4/9) , body soreness in 4 cases (4/9) , and blocked or watery nose in 1 case (1/9) .
+ Six patients (6/9) had abnormal cell peripheral blood, of which 3 (3/9) had an increased monocyte count, 2 (2/9) had a reduced lymphocyte , and 1 (1/9) had an increased leukocyte count, while the 3 patients had normal cell blood routines.
+ The median of CRP was 16.3 mg/L, including 5 patients with slightly elevated (5/9) , 4 patients with normal values (4/9) .
+ the results of procalcitonin test were negative in5 patients.
+ Three patients were examined by chest X-ray examination, one of which was normal, one case showed infiltrates of right upper lung, and another showed in right lower lung.
+ All patients underwent chest HRCT.
+ And 7 cases (7/9) showed multiple ground glass exudation, including 5 cases (5/7) involved bilateral lungs, 2 cases (2/7) involved unilateral lung, 3 cases (3/7) with patchy consolidation, and 2 cases (2/9) showed no abnormality.
+ Conclusions: The patents with 2019 novel coronavirus pneumonia in this study generally have an epidemiological history.
+ The clinical manifestations are fever and cough.
+ Peripheral white blood cell counts were most normal And PCT were all negative.
+ Chest HRCT manifested as multiple ground-glass opacities with partly consolidation.
+ Some patients had normal chest radiographs but HRCT showed pneumonia.
+ Some patients had no pneumonia on chest HRCT.
+</t>
+  </si>
+  <si>
+    <t>[ M Q%Zhang%elasticNoEmail%1,   X H% Wang%elasticNoEmail%1,   Y L% Chen%elasticNoEmail%1,   K L% Zhao%elasticNoEmail%1,   Y Q% Cai%elasticNoEmail%1,   C L% An%elasticNoEmail%1,   M G% Lin%elasticNoEmail%1,   X D% Mu%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">患儿 女，3月19日龄，湖北孝感人，因发热4 h住院，外周血白细胞不高，胸X线片示右肺纹理略增粗，似有点片状阴影，咽拭子2019新型冠状病毒（2019-nCoV）核酸检测呈阳性，2019-nCoV感染诊断成立，符合 普通型。经积极治疗15 d后痊愈出院。患儿呼吸道症状出现较晚，症状较轻。患儿父母在患儿发病7 d后2019-nCoV检测阳性，提示家庭内传播是2019-nCoV感染的重要传播途径。患儿虽然连续3次咽拭子转阴，同期的痰及粪便仍可检出2019-nCoV核酸。患儿母亲无发热及呼吸道症状，但胸部CT发现左肺及右上肺渗出性病变，提示肺部病变可见于无症状2019-nCoV感染者。.
+</t>
+  </si>
+  <si>
+    <t>[ Y H%Zhang%elasticNoEmail%1,   D J% Lin%elasticNoEmail%1,   M F% Xiao%elasticNoEmail%1,   J C% Wang%elasticNoEmail%1,   Y% Wei%elasticNoEmail%1,   Z X% Lei%elasticNoEmail%1,   Z Q% Zeng%elasticNoEmail%1,   L% Li%elasticNoEmail%1,   H A% Li%elasticNoEmail%1,   W% Xiang%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Zhan%Zhang%doctorzhang2003@163.com%1,                          Xiaochen%Li%NULL%2,                          Xiaochen%Li%NULL%0,                          Wei%Zhang%NULL%0,                          Zheng-Li%Shi%NULL%1,                          Zhishui%Zheng%NULL%1,                          Tao%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wan Beom%Park%NULL%1,                          Nak-Jung%Kwon%NULL%2,                          Nak-Jung%Kwon%NULL%0,                          Su-Jin%Choi%NULL%2,                          Su-Jin%Choi%NULL%0,                          Chang Kyung%Kang%NULL%2,                          Chang Kyung%Kang%NULL%0,                          Pyoeng Gyun%Choe%NULL%4,                          Pyoeng Gyun%Choe%NULL%0,                          Jin Yong%Kim%NULL%4,                          Jin Yong%Kim%NULL%0,                          Jiyoung%Yun%NULL%2,                          Jiyoung%Yun%NULL%0,                          Gir-Won%Lee%NULL%2,                          Gir-Won%Lee%NULL%0,                          Moon-Woo%Seong%NULL%2,                          Moon-Woo%Seong%NULL%0,                          Nam Joong%Kim%NULL%2,                          Nam Joong%Kim%NULL%0,                          Jeong-Sun%Seo%NULL%2,                          Jeong-Sun%Seo%NULL%0,                          Myoung-don%Oh%NULL%4,                          Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaegyun%Lim%NULL%1,                          Seunghyun%Jeon%NULL%2,                          Seunghyun%Jeon%NULL%0,                          Hyun-Young%Shin%NULL%2,                          Hyun-Young%Shin%NULL%0,                          Moon Jung%Kim%NULL%2,                          Moon Jung%Kim%NULL%0,                          Yu Min%Seong%NULL%2,                          Yu Min%Seong%NULL%0,                          Wang Jun%Lee%NULL%2,                          Wang Jun%Lee%NULL%0,                          Kang-Won%Choe%NULL%2,                          Kang-Won%Choe%NULL%0,                          Yu Min%Kang%NULL%2,                          Yu Min%Kang%NULL%0,                          Baeckseung%Lee%NULL%2,                          Baeckseung%Lee%NULL%0,                          Sang-Joon%Park%NULL%2,                          Sang-Joon%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jin Yong%Kim%NULL%1,                          Pyoeng Gyun%Choe%NULL%0,                          Pyoeng Gyun%Choe%NULL%0,                          Yoonju%Oh%NULL%2,                          Yoonju%Oh%NULL%0,                          Kyung Joong%Oh%NULL%2,                          Kyung Joong%Oh%NULL%0,                          Jinsil%Kim%NULL%2,                          Jinsil%Kim%NULL%0,                          So Jeong%Park%NULL%2,                          So Jeong%Park%NULL%0,                          Ji Hye%Park%NULL%2,                          Ji Hye%Park%NULL%0,                          Hye Kyoung%Na%NULL%2,                          Hye Kyoung%Na%NULL%0,                          Myoung-don%Oh%NULL%0,                          Myoung-don%Oh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Y.%Yang%null%1,                           Q.% Lu%null%1,                           M.% Liu%null%1,                           Y.% Wang%null%1,                           A.% Zhang%null%1,                           N.% Jalali%null%1,                           N.% Dean%null%1,                           I.% Longini%null%1,                           M. E.% Halloran%null%1,                           B.% Xu%null%1,                           X.% Zhang%null%1,                           L.% Wang%null%1,                           W.% Liu%null%1,                           L. % Fang%null%1,         Y.%Yang%null%1,         Q.% Lu%null%1,         M.% Liu%null%1,         Y.% Wang%null%2,         A.% Zhang%null%1,         N.% Jalali%null%1,         N.% Dean%null%1,         I.% Longini%null%1,         M. E.% Halloran%null%1,         B.% Xu%null%1,         X.% Zhang%null%1,         L.% Wang%null%1,         W.% Liu%null%1,         L. % Fang%null%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%3,                          Dingyu%Zhang%NULL%3,                          Wenling%Wang%NULL%2,                          Xingwang%Li%NULL%0,                          Bo%Yang%NULL%0,                          Jingdong%Song%NULL%2,                          Xiang%Zhao%NULL%2,                          Baoying%Huang%NULL%2,                          Weifeng%Shi%NULL%2,                          Roujian%Lu%NULL%2,                          Peihua%Niu%NULL%2,                          Faxian%Zhan%NULL%2,                          Xuejun%Ma%NULL%2,                          Dayan%Wang%NULL%2,                          Wenbo%Xu%NULL%2,                          Guizhen%Wu%NULL%2,                          George F.%Gao%NULL%0,                          Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                          Shuofeng%Yuan%NULL%1,                          Kin-Hang%Kok%NULL%1,                          Kelvin Kai-Wang%To%NULL%1,                          Hin%Chu%NULL%1,                          Jin%Yang%NULL%1,                          Fanfan%Xing%NULL%1,                          Jieling%Liu%NULL%1,                          Cyril Chik-Yan%Yip%NULL%1,                          Rosana Wing-Shan%Poon%NULL%1,                          Hoi-Wah%Tsoi%NULL%1,                          Simon Kam-Fai%Lo%NULL%1,                          Kwok-Hung%Chan%NULL%0,                          Vincent Kwok-Man%Poon%NULL%1,                          Wan-Mui%Chan%NULL%1,                          Jonathan Daniel%Ip%NULL%1,                          Jian-Piao%Cai%NULL%1,                          Vincent Chi-Chung%Cheng%NULL%1,                          Honglin%Chen%NULL%1,                          Christopher Kim-Ming%Hui%NULL%1,                          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To analyze the clinical characteristics of 2019 novel coronavirus (2019-nCoV) pneumonia and to investigate the correlation between serum inflammatory cytokines and severity of the disease.
+ Methods: 29 patients with 2019-ncov admitted to the isolation ward of Tongji hospital affiliated to Tongji medical college of Huazhong University of Science and Technology in January 2020 were selected as the study subjects.
+ Clinical data were collected and the general information, clinical symptoms, blood test and CT imaging characteristics were analyzed.
+ According to the relevant diagnostic criteria, the patients were divided into three groups: mild (15 cases), severe (9 cases) and critical (5 cases).
+ The expression levels of inflammatory cytokines and other markers in the serum of each group were detected, and the changes of these indicators of the three groups were compared and analyzed, as well as their relationship with the clinical classification of the disease.
+ Results: (1) The main symptoms of 2019-nCoV pneumonia was fever (28/29) with or without respiratory and other systemic symptoms.
+ Two patients died with underlying disease and co-bacterial infection, respectively.
+ (2) The blood test of the patients showed normal or decreased white blood cell count (23/29), decreased lymphocyte count (20/29), increased hypersensitive C reactive protein (hs-CRP) (27/29), and normal procalcitonin.
+ In most patients, serum lactate dehydrogenase (LDH) was significantly increased (20/29), while albumin was decreased (15/29).
+ Alanine aminotransferase (ALT), aspartate aminotransferase (AST), total bilirubin (Tbil), serum creatinine (Scr) and other items showed no significant changes.
+ (3) CT findings of typical cases were single or multiple patchy ground glass shadows accompanied by septal thickening.
+ When the disease progresses, the lesion increases and the scope expands, and the ground glass shadow coexists with the solid shadow or the stripe shadow.
+ (4) There were statistically significant differences in the expression levels of interleukin-2 receptor (IL-2R) and IL-6 in the serum of the three groups (P0.05).
+ Conclusion: The clinical characteristics of 2019-nCoV pneumonia are similar to those of common viral pneumonia.
+ High resolution CT is of great value in the differential diagnosis of this disease.
+ The increased expression of IL-2R and IL-6 in serum is expected to predict the severity of the 2019-nCoV pneumonia and the prognosis of patients.
+</t>
+  </si>
+  <si>
+    <t>[ L%Chen%elasticNoEmail%2,   H G% Liu%elasticNoEmail%0,   W% Liu%elasticNoEmail%2,   J% Liu%elasticNoEmail%2,   K% Liu%elasticNoEmail%2,   J% Shang%elasticNoEmail%2,   Y% Deng%elasticNoEmail%2,   S% Wei%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To explore imaging characteristics of children with 2019 novel coronavirus (2019-nCoV) infection.
+ Methods: A retrospective analysis was performed on clinical data and chest CT images of 15 children diagnosed with 2019-nCoV.
+ They were admitted to the third people's Hospital of Shenzhen from January 16 to February 6, 2020. The distribution and morphology of pulmonary lesions on chest CT images were analyzed.
+ Results: Among the 15 children, there were 5 males and 10 females, aged from 4 to 14 years old.
+ Five of the 15 children were febrile and 10 were asymptomatic on first visit.
+ The first nasal or pharyngeal swab samples in all the 15 cases were positive for 2019-nCoV nucleic acid.
+ For their first chest CT images, 6 patients had no lesions, while 9 patients had pulmonary inflammation lesions.
+ Seven cases of small nodular ground glass opacities and 2 cases of speckled ground glass opacities were found.
+ After 3 to 5 days of treatment, 2019-nCoV nucleic acid in a second respiratory sample turned negative in 6 cases.
+ Among them, chest CT images showed less lesions in 2 cases, no lesion in 3 cases, and no improvement in 1 case.
+ Other 9 cases were still positive in a second nucleic acid test.
+ Six patients showed similar chest CT inflammation, while 3 patients had new lesions, which were all small nodular ground glass opacities.
+ Conclusions: The early chest CT images of children with 2019-nCoV infection are mostly small nodular ground glass opacities.
+ The clinical symptoms of children with 2019-nCoV infection are nonspecific.
+ Dynamic reexamination of chest CT and nucleic acid are important.
+</t>
+  </si>
+  <si>
+    <t>[ K%Feng%elasticNoEmail%0,   Y X% Yun%elasticNoEmail%0,   X F% Wang%elasticNoEmail%0,   G D% Yang%elasticNoEmail%0,   Y J% Zheng%elasticNoEmail%0,   C M% Lin%elasticNoEmail%0,   L F% Wang%elasticNoEmail%0]</t>
   </si>
 </sst>
 </file>
@@ -4822,7 +5372,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1318</v>
+        <v>1446</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
@@ -4854,7 +5404,7 @@
         <v>691</v>
       </c>
       <c r="E3" t="s">
-        <v>1319</v>
+        <v>1447</v>
       </c>
       <c r="F3" t="s">
         <v>83</v>
@@ -4880,22 +5430,22 @@
         <v>43927.0</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>1365</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>1448</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>1449</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
         <v>100</v>
@@ -4918,7 +5468,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>1320</v>
+        <v>1450</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -4950,7 +5500,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>1321</v>
+        <v>1451</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -4982,7 +5532,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>1322</v>
+        <v>1452</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -5040,22 +5590,22 @@
         <v>43878.0</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>1372</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>1453</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>1454</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
         <v>100</v>
@@ -5078,7 +5628,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -5110,7 +5660,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>1323</v>
+        <v>1455</v>
       </c>
       <c r="F11" t="s">
         <v>102</v>
@@ -5136,22 +5686,22 @@
         <v>43865.0</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>1376</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>1456</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>1457</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
         <v>100</v>
@@ -5174,7 +5724,7 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -5200,22 +5750,22 @@
         <v>43872.0</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>1379</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>1458</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>1459</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="I14" t="s">
         <v>100</v>
@@ -5238,7 +5788,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>1324</v>
+        <v>1460</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -5270,7 +5820,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>1325</v>
+        <v>1461</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
@@ -5302,7 +5852,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>1326</v>
+        <v>1462</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -5334,7 +5884,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>1327</v>
+        <v>1463</v>
       </c>
       <c r="F18" t="s">
         <v>118</v>
@@ -5366,7 +5916,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>1328</v>
+        <v>1464</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -5398,7 +5948,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>1329</v>
+        <v>1465</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -5430,7 +5980,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>1330</v>
+        <v>1466</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -5462,7 +6012,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>1331</v>
+        <v>1467</v>
       </c>
       <c r="F22" t="s">
         <v>131</v>
@@ -5494,7 +6044,7 @@
         <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>1332</v>
+        <v>1468</v>
       </c>
       <c r="F23" t="s">
         <v>136</v>
@@ -5526,7 +6076,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>1333</v>
+        <v>1469</v>
       </c>
       <c r="F24" t="s">
         <v>140</v>
@@ -5558,7 +6108,7 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>1334</v>
+        <v>1470</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
@@ -5590,7 +6140,7 @@
         <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>1335</v>
+        <v>1471</v>
       </c>
       <c r="F26" t="s">
         <v>148</v>
@@ -5622,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>1336</v>
+        <v>1472</v>
       </c>
       <c r="F27" t="s">
         <v>152</v>
@@ -5654,7 +6204,7 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>1337</v>
+        <v>1473</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -5686,7 +6236,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>1338</v>
+        <v>1474</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -5718,7 +6268,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>1339</v>
+        <v>1475</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -5744,22 +6294,22 @@
         <v>43881.0</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>1398</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>1476</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>1477</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>1401</v>
       </c>
       <c r="I31" t="s">
         <v>100</v>
@@ -5782,7 +6332,7 @@
         <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="F32" t="s">
         <v>169</v>
@@ -5808,22 +6358,22 @@
         <v>43902.0</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>1403</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>1479</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>1480</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>1406</v>
       </c>
       <c r="I33" t="s">
         <v>100</v>
@@ -5846,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>1341</v>
+        <v>1481</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -5878,7 +6428,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1342</v>
+        <v>1482</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -5910,7 +6460,7 @@
         <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>1343</v>
+        <v>1483</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -5942,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>1344</v>
+        <v>1484</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -5974,7 +6524,7 @@
         <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>1345</v>
+        <v>1485</v>
       </c>
       <c r="F38" t="s">
         <v>187</v>
@@ -6006,7 +6556,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>1346</v>
+        <v>1486</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -6038,7 +6588,7 @@
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>1347</v>
+        <v>1487</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -6070,7 +6620,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>1348</v>
+        <v>1488</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -6102,7 +6652,7 @@
         <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>1349</v>
+        <v>1489</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -6134,7 +6684,7 @@
         <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>1350</v>
+        <v>1490</v>
       </c>
       <c r="F43" t="s">
         <v>205</v>
@@ -6166,7 +6716,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>726</v>
+        <v>822</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -6198,7 +6748,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>1351</v>
+        <v>1491</v>
       </c>
       <c r="F45" t="s">
         <v>210</v>
@@ -6230,7 +6780,7 @@
         <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>1352</v>
+        <v>1492</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -6262,7 +6812,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>1353</v>
+        <v>1493</v>
       </c>
       <c r="F47" t="s">
         <v>217</v>
@@ -6294,7 +6844,7 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>1354</v>
+        <v>1494</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
@@ -6320,22 +6870,22 @@
         <v>43878.0</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>1421</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>1495</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>1496</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="I49" t="s">
         <v>100</v>
@@ -6358,7 +6908,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>1355</v>
+        <v>1497</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -6384,22 +6934,22 @@
         <v>43876.0</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>1425</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>1498</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>1499</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>1428</v>
       </c>
       <c r="I51" t="s">
         <v>100</v>
@@ -6416,22 +6966,22 @@
         <v>43872.0</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>1429</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>1500</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>1501</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="I52" t="s">
         <v>100</v>
@@ -6454,7 +7004,7 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>1356</v>
+        <v>1502</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -6486,7 +7036,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>1357</v>
+        <v>1503</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
@@ -6518,7 +7068,7 @@
         <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>1358</v>
+        <v>1504</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -6550,7 +7100,7 @@
         <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>1359</v>
+        <v>1505</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -6582,7 +7132,7 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>1360</v>
+        <v>1506</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -6614,7 +7164,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>1361</v>
+        <v>1507</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
@@ -6646,7 +7196,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>1362</v>
+        <v>1508</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>
@@ -6672,22 +7222,22 @@
         <v>43902.0</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>1439</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>1509</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>1510</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>1406</v>
       </c>
       <c r="I60" t="s">
         <v>100</v>
@@ -6704,22 +7254,22 @@
         <v>43877.0</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>1442</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>1511</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>1512</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>1368</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>1445</v>
       </c>
       <c r="I61" t="s">
         <v>100</v>
